--- a/src/test/resources/api-test.xlsx
+++ b/src/test/resources/api-test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,25 +257,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>java.lang.AssertionError: expected [有，result[0].HID_light] but found [有]</t>
+    <t>size=1,result[0].GPS=有,result[0].HID_light=有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id</t>
-  </si>
-  <si>
-    <t>size=1,result[0].GPS=有,result[0].HID_light=有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向助力泵及组件","timer_sub_assembly_id":"251","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"电动助力转向系统","timer_sub_assembly_id":"252","timer_type":"底盘"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"左前座椅","timer_sub_assembly_id":"253","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"右前座椅","timer_sub_assembly_id":"254","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"后座椅","timer_sub_assembly_id":"255","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"第二排座椅","timer_sub_assembly_id":"256","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"第三排座椅","timer_sub_assembly_id":"257","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"第四排座椅","timer_sub_assembly_id":"258","timer_type":"车身内部结构"}]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,33 +306,8 @@
       <color indexed="10"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,11 +316,6 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
         <bgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -374,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,11 +348,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -700,13 +658,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.75" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="76.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.25" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.625" collapsed="true"/>
+    <col min="2" max="2" width="17.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="76.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -885,10 +843,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="18.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.625" collapsed="true"/>
+    <col min="2" max="2" width="18.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -961,7 +919,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1006,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1028,7 +986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1039,7 +997,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1050,7 +1008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1058,7 +1016,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1133,21 +1091,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1161,7 +1119,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>39</v>
       </c>

--- a/src/test/resources/api-test.xlsx
+++ b/src/test/resources/api-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="78">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,26 +103,10 @@
     <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"brand_id_timing":"10","c_MSRP_newest":"545700","c_capacity_in_litre_L":"2.0T","c_drive_form":"四轮驱动","c_engine_model":"CAD","c_fuel_type":"汽油","c_model_interior_code":"8R","c_model_name":"奥迪Q5 2013款 2.0T","c_model_year":"2013","c_oem_abbrebiation":"一汽大众","c_oem_brand":"奥迪","c_oem_name":"一汽大众","c_oem_name_show":"一汽大众","c_series_BBG":"奥迪Q5（2010-","c_series_name":"奥迪Q5","c_structure":"SUV","c_timer_model_id":"TM770","c_timer_model_name":"奥迪Q5 2013款 2.0T 40TFSI Quattro 四驱 A/MT 动感版","c_timer_remark_transmission_type":"8档手自一体变速器","c_timer_type_id":"TT229","c_timer_type_name":"奥迪Q5 CAD 四轮驱动 8A/MT（2010-","c_transmission_type":"手自一体变速器","epc_no":"5","make_id_timing":"124","pic_path":"/carmodel/奥迪Q5（2010-.jpg","series_id_timing":"1456","t_HL_version":"动感版","t_letter":"A","tid":"3104","timer_type":"CAD四轮驱动8档手自一体变速器"}]}</t>
   </si>
   <si>
-    <t>EqualFields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllMatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HasItemsFields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list[3].result[0].tid=876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -217,19 +201,7 @@
     <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"有","HID_light":"有","aircon_mode":"自动有","alloy_wheel":"有","auto_head_light":"有","cruise":"有","ele_rearview_adj":"有","ele_rearview_fold":"有","ele_seats_adj":"主有/副有","ele_sunroof":"有","front_tire_spec":"235/55 R19","head_light_clean_sys":"有","keyless_boot":"有","large_color_LCD":"有","leather_seat":"有","multi_steering_wheel_adj":"有","pano_sunroof":"有","parking_radar":"前有/后有","rear_tire_spec":"235/55 R19","reversing_video":"有","seat_heating":"前有/后可选装","t_id":"3104"}]}</t>
   </si>
   <si>
-    <t>result.c_oem_brand=奥迪&amp;result.tid=3104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc=查询成功！,size=1,result.tid=3104,result.c_oem_brand=奥迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"size":4,"detailInfo":null,"list":[{"result":[{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"大众","price":752.49,"car_brand":"大众","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽大众","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽奥迪","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽大众","price":752.49,"car_brand":"一汽大众","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"奥迪","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"兰博基尼","price":752.49,"car_brand":"兰博基尼","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"宾利","price":752.49,"car_brand":"宾利","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"}],"type":"1","desc":"基本信息"},{"result":[],"type":"2","desc":"原厂替换信息"},{"result":[],"type":"3","desc":"品牌替换信息"},{"result":[{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":876,"t_HL_version":"中国限量版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"311800","c_timer_model_id":"TM305","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI EGO Plus DCT 中国限量版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2013款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":875,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"224800","c_timer_model_id":"TM303","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI Urban DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":881,"t_HL_version":"舒适版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"249800","c_timer_model_id":"TM309","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 舒适版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":880,"t_HL_version":"时尚版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"199800","c_timer_model_id":"TM308","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 时尚版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":888,"t_HL_version":"舒适版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"259800","c_timer_model_id":"TM300","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 舒适版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":874,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"249800","c_timer_model_id":"TM301","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":885,"t_HL_version":"豪华版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"299800","c_timer_model_id":"TM297","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 豪华版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":886,"t_HL_version":"技术版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"234800","c_timer_model_id":"TM298","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 技术版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":887,"t_HL_version":"时尚版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"209800","c_timer_model_id":"TM299","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 时尚版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":882,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"299800","c_timer_model_id":"TM295","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego Plus DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":883,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"259800","c_timer_model_id":"TM294","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":873,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"289800","c_timer_model_id":"TM302","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":879,"t_HL_version":"技术版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"224800","c_timer_model_id":"TM307","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 技术版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":878,"t_HL_version":"豪华版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"289800","c_timer_model_id":"TM306","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 豪华版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":877,"t_HL_version":"中国限量版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"271800","c_timer_model_id":"TM304","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI Ego DCT 中国限量版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2013款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":884,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"234800","c_timer_model_id":"TM296","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Urban DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"}],"type":"4","desc":"车款适配信息"}],"map":null,"statusCode":1,"desc":"查询成功！"}</t>
-  </si>
-  <si>
-    <t>list[3].result.tid=876,875&amp;list[3].result.c_oem_brand=奥迪&amp;list[3].result.c_model_year=2012,2013,2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FAILED</t>
@@ -241,34 +213,105 @@
 </t>
   </si>
   <si>
+    <t>result.t_letter=H,R,K,B&amp;result.c_oem_brand=福特,三菱,东风,斯柯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.timer_assembly=变速箱，车身地板&amp;timer_assembly_id=1,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size=1,result[0].GPS=有,result[0].HID_light=有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPartInfoForOriginal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>size=192,result[100].t_letter=H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>result.t_letter=H,R,K,B&amp;result.c_oem_brand=福特,三菱,东风,斯柯达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size=258</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.timer_assembly=变速箱，车身地板&amp;timer_assembly_id=1,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size=1,result[0].GPS=有,result[0].HID_light=有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>result.c_oem_brand=奥迪&amp;result.tid=3104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc=查询成功！,size=1,result.tid=3104,result.c_oem_brand=奥迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>list[3].result[0].tid=876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list[3].result.tid=876,875&amp;list[3].result.c_oem_brand=奥迪&amp;list[3].result.c_model_year=2012,2013,2010&amp;list[0].result.findAll{it.price&gt;700}.car_brand=奥迪,大众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>java.lang.IllegalStateException: Cannot determine which path implementation to use because the content-type text/plain;charset=UTF-8 doesn't map to a path implementation.</t>
+  </si>
+  <si>
+    <t>/catalogue/getTimerAccemblyLis?grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;head&gt;&lt;title&gt;404 Not Found&lt;/title&gt;&lt;/head&gt;&lt;body bgcolor='white'&gt;&lt;center&gt;&lt;h1&gt;404 Not Found&lt;/h1&gt;&lt;/center&gt;&lt;hr&gt;&lt;center&gt;&lt;a href='http://www.jfinal.com?f=ev-2.2' target='_blank'&gt;&lt;b&gt;Powered by JFinal 2.2&lt;/b&gt;&lt;/a&gt;&lt;/center&gt;&lt;/body&gt;&lt;/html&gt;</t>
   </si>
   <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id</t>
+  </si>
+  <si>
+    <t>application/json; charset=UTF-8</t>
+  </si>
+  <si>
+    <t>java.lang.AssertionError: JSON path list[3].result.c_model_year doesn't match.
+Expected: (a collection containing "2010")
+  Actual: [2013, 2012, 2014, 2014, 2014, 2012, 2014, 2014, 2014, 2013, 2013, 2012, 2014, 2014, 2013, 2013]
+application/json; charset=UTF-8</t>
+  </si>
+  <si>
+    <t>404text/html;charset=UTF-8</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向助力泵及组件","timer_sub_assembly_id":"251","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"电动助力转向系统","timer_sub_assembly_id":"252","timer_type":"底盘"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"左前座椅","timer_sub_assembly_id":"253","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"右前座椅","timer_sub_assembly_id":"254","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"后座椅","timer_sub_assembly_id":"255","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"第二排座椅","timer_sub_assembly_id":"256","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"第三排座椅","timer_sub_assembly_id":"257","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"第四排座椅","timer_sub_assembly_id":"258","timer_type":"车身内部结构"}]}</t>
+  </si>
+  <si>
+    <t>java.lang.IllegalStateException: Cannot determine which path implementation to use because the content-type text/plain;charset=UTF-8 doesn't map to a path implementation.text/plain;charset=UTF-8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,8 +349,68 @@
       <color indexed="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +419,11 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <bgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -337,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +456,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -650,21 +770,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.75" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="76.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="17.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="76.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.25" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -704,16 +824,16 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -724,19 +844,19 @@
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -747,19 +867,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -770,19 +890,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -793,30 +913,140 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D7" s="1" t="s">
-        <v>46</v>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -825,31 +1055,37 @@
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D11" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="183.375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,83 +1093,147 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
+      <c r="D11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -945,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -964,59 +1264,114 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1055,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1077,60 +1432,144 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s" s="6">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s" s="8">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C5" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C10" t="s" s="14">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
+      <c r="C11" t="s" s="15">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/api-test.xlsx
+++ b/src/test/resources/api-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="76">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,34 +177,103 @@
     <t>getCarModelByTid</t>
   </si>
   <si>
+    <t>getPartInfoForOriginal</t>
+  </si>
+  <si>
+    <t>getAllSeries</t>
+  </si>
+  <si>
+    <t>getCarModelConfigByTid</t>
+  </si>
+  <si>
+    <t>getTimerAccemblyList</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":192, "result":[{"c_oem_brand":"荣威","c_oem_name":"上海汽车","c_oem_name_show":"上海汽车","t_letter":"R"},{"c_oem_brand":"传祺","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"C"},{"c_oem_brand":"黄海","c_oem_name":"曙光","c_oem_name_show":"曙光","t_letter":"H"},{"c_oem_brand":"萨博","c_oem_name":"萨博","c_oem_name_show":"萨博(进口)","t_letter":"S"},{"c_oem_brand":"克莱斯勒","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"K"},{"c_oem_brand":"日产","c_oem_name":"东风日产","c_oem_name_show":"东风日产","t_letter":"R"},{"c_oem_brand":"雪佛兰","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"X"},{"c_oem_brand":"福特","c_oem_name":"福特","c_oem_name_show":"福特(进口)","t_letter":"F"},{"c_oem_brand":"宝马","c_oem_name":"宝马","c_oem_name_show":"宝马(进口)","t_letter":"B"},{"c_oem_brand":"长城","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"C"},{"c_oem_brand":"雪铁龙","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"X"},{"c_oem_brand":"铃木","c_oem_name":"铃木","c_oem_name_show":"铃木(进口)","t_letter":"L"},{"c_oem_brand":"双环","c_oem_name":"双环汽车","c_oem_name_show":"双环汽车","t_letter":"S"},{"c_oem_brand":"MINI","c_oem_name":"宝马","c_oem_name_show":"宝马(进口)","t_letter":"M"},{"c_oem_brand":"华颂","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"H"},{"c_oem_brand":"阿斯顿马丁","c_oem_name":"阿斯顿马丁","c_oem_name_show":"阿斯顿马丁(进口)","t_letter":"A"},{"c_oem_brand":"林肯","c_oem_name":"林肯","c_oem_name_show":"林肯(进口)","t_letter":"L"},{"c_oem_brand":"迈凯伦","c_oem_name":"迈凯伦","c_oem_name_show":"迈凯伦(进口)","t_letter":"M"},{"c_oem_brand":"理念","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","t_letter":"L"},{"c_oem_brand":"现代","c_oem_name":"现代","c_oem_name_show":"现代(进口)","t_letter":"X"},{"c_oem_brand":"沃尔沃","c_oem_name":"沃尔沃","c_oem_name_show":"沃尔沃(进口)","t_letter":"W"},{"c_oem_brand":"金杯","c_oem_name":"华晨鑫源金杯","c_oem_name_show":"华晨鑫源金杯","t_letter":"J"},{"c_oem_brand":"海马","c_oem_name":"郑州海马","c_oem_name_show":"郑州海马","t_letter":"H"},{"c_oem_brand":"启辰","c_oem_name":"东风日产","c_oem_name_show":"东风日产","t_letter":"Q"},{"c_oem_brand":"沃尔沃","c_oem_name":"沃尔沃亚太","c_oem_name_show":"沃尔沃亚太","t_letter":"W"},{"c_oem_brand":"华泰","c_oem_name":"华泰","c_oem_name_show":"华泰","t_letter":"H"},{"c_oem_brand":"大众","c_oem_name":"一汽大众","c_oem_name_show":"一汽大众","t_letter":"D"},{"c_oem_brand":"悍马","c_oem_name":"悍马","c_oem_name_show":"悍马(进口)","t_letter":"H"},{"c_oem_brand":"马自达","c_oem_name":"马自达","c_oem_name_show":"马自达(进口)","t_letter":"M"},{"c_oem_brand":"福迪","c_oem_name":"福迪","c_oem_name_show":"福迪","t_letter":"F"},{"c_oem_brand":"本田","c_oem_name":"本田","c_oem_name_show":"本田(进口)","t_letter":"B"},{"c_oem_brand":"风行","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"兰博基尼","c_oem_name":"兰博基尼","c_oem_name_show":"兰博基尼(进口)","t_letter":"L"},{"c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","t_letter":"A"},{"c_oem_brand":"铃木","c_oem_name":"昌河铃木","c_oem_name_show":"昌河铃木","t_letter":"L"},{"c_oem_brand":"一汽","c_oem_name":"一汽吉林","c_oem_name_show":"一汽吉林","t_letter":"Y"},{"c_oem_brand":"标致","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"B"},{"c_oem_brand":"哈飞","c_oem_name":"哈飞","c_oem_name_show":"哈飞","t_letter":"H"},{"c_oem_brand":"现代","c_oem_name":"北京现代","c_oem_name_show":"北京现代","t_letter":"X"},{"c_oem_brand":"路特斯","c_oem_name":"路特斯","c_oem_name_show":"路特斯(进口)","t_letter":"L"},{"c_oem_brand":"上汽大通","c_oem_name":"上汽商用车","c_oem_name_show":"上汽商用车","t_letter":"S"},{"c_oem_brand":"吉利","c_oem_name":"吉利","c_oem_name_show":"吉利","t_letter":"J"},{"c_oem_brand":"东南","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"D"},{"c_oem_brand":"天马","c_oem_name":"天马","c_oem_name_show":"天马","t_letter":"T"},{"c_oem_brand":"凯迪拉克","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"K"},{"c_oem_brand":"吉姆西","c_oem_name":"吉姆西","c_oem_name_show":"吉姆西(进口)","t_letter":"J"},{"c_oem_brand":"宾利","c_oem_name":"宾利","c_oem_name_show":"宾利(进口)","t_letter":"B"},{"c_oem_brand":"威麟","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"W"},{"c_oem_brand":"罗伦士","c_oem_name":"罗伦士","c_oem_name_show":"罗伦士(进口)","t_letter":"L"},{"c_oem_brand":"康迪","c_oem_name":"康迪","c_oem_name_show":"康迪","t_letter":"K"},{"c_oem_brand":"莲花","c_oem_name":"青年乘用车","c_oem_name_show":"青年乘用车(进口)","t_letter":"L"},{"c_oem_brand":"道奇","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"D"},{"c_oem_brand":"大众","c_oem_name":"上海大众","c_oem_name_show":"上海大众","t_letter":"D"},{"c_oem_brand":"陆风","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"L"},{"c_oem_brand":"欧朗","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"O"},{"c_oem_brand":"法拉利","c_oem_name":"法拉利","c_oem_name_show":"法拉利(进口)","t_letter":"F"},{"c_oem_brand":"雷诺","c_oem_name":"东风雷诺","c_oem_name_show":"东风雷诺","t_letter":"L"},{"c_oem_brand":"吉普","c_oem_name":"北京吉普","c_oem_name_show":"北京吉普","t_letter":"J"},{"c_oem_brand":"一汽","c_oem_name":"天津一汽","c_oem_name_show":"天津一汽","t_letter":"Y"},{"c_oem_brand":"本田","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","t_letter":"B"},{"c_oem_brand":"三菱","c_oem_name":"三菱","c_oem_name_show":"三菱(进口)","t_letter":"S"},{"c_oem_brand":"斯巴鲁","c_oem_name":"富士","c_oem_name_show":"富士(进口)","t_letter":"S"},{"c_oem_brand":"丰田","c_oem_name":"一汽丰田","c_oem_name_show":"一汽丰田","t_letter":"F"},{"c_oem_brand":"雷克萨斯","c_oem_name":"丰田","c_oem_name_show":"丰田(进口)","t_letter":"L"},{"c_oem_brand":"雪铁龙","c_oem_name":"神龙汽车","c_oem_name_show":"神龙汽车","t_letter":"X"},{"c_oem_brand":"奥迪","c_oem_name":"一汽大众","c_oem_name_show":"一汽大众","t_letter":"A"},{"c_oem_brand":"奔驰","c_oem_name":"奔驰","c_oem_name_show":"奔驰(进口)","t_letter":"B"},{"c_oem_brand":"布加迪","c_oem_name":"布加迪","c_oem_name_show":"布加迪(进口)","t_letter":"B"},{"c_oem_brand":"菲亚特","c_oem_name":"广汽菲克","c_oem_name_show":"广汽菲克","t_letter":"F"},{"c_oem_brand":"红旗","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"H"},{"c_oem_brand":"本田","c_oem_name":"东风本田","c_oem_name_show":"东风本田","t_letter":"B"},{"c_oem_brand":"北汽","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"B"},{"c_oem_brand":"风神","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"双龙","c_oem_name":"双龙","c_oem_name_show":"双龙","t_letter":"S"},{"c_oem_brand":"英菲尼迪","c_oem_name":"东风英菲尼迪","c_oem_name_show":"东风英菲尼迪","t_letter":"Y"},{"c_oem_brand":"英致","c_oem_name":"潍柴汽车","c_oem_name_show":"潍柴汽车","t_letter":"Y"},{"c_oem_brand":"吉普","c_oem_name":"广汽菲克","c_oem_name_show":"广汽菲克","t_letter":"J"},{"c_oem_brand":"丰田","c_oem_name":"丰田","c_oem_name_show":"丰田(进口)","t_letter":"F"},{"c_oem_brand":"陆地方舟","c_oem_name":"陆地方舟","c_oem_name_show":"陆地方舟","t_letter":"L"},{"c_oem_brand":"奇瑞","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"Q"},{"c_oem_brand":"MG","c_oem_name":"上海汽车","c_oem_name_show":"上海汽车","t_letter":"M"},{"c_oem_brand":"路虎","c_oem_name":"奇瑞捷豹路虎","c_oem_name_show":"奇瑞捷豹路虎","t_letter":"L"},{"c_oem_brand":"东风小康","c_oem_name":"东风小康","c_oem_name_show":"东风小康","t_letter":"D"},{"c_oem_brand":"DS","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"D"},{"c_oem_brand":"欧宝","c_oem_name":"欧宝","c_oem_name_show":"欧宝(进口)","t_letter":"O"},{"c_oem_brand":"富奇","c_oem_name":"富奇","c_oem_name_show":"富奇","t_letter":"F"},{"c_oem_brand":"斯柯达","c_oem_name":"上海大众","c_oem_name_show":"上海大众","t_letter":"S"},{"c_oem_brand":"MG","c_oem_name":"南京汽车","c_oem_name_show":"南京汽车","t_letter":"M"},{"c_oem_brand":"瑞麒","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"R"},{"c_oem_brand":"长丰","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"C"},{"c_oem_brand":"江南","c_oem_name":"江南","c_oem_name_show":"江南","t_letter":"J"},{"c_oem_brand":"宝骏","c_oem_name":"上汽通用五菱","c_oem_name_show":"上汽通用五菱","t_letter":"B"},{"c_oem_brand":"标致","c_oem_name":"神龙汽车","c_oem_name_show":"神龙汽车","t_letter":"B"},{"c_oem_brand":"雪佛兰","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"X"},{"c_oem_brand":"马自达","c_oem_name":"一汽马自达","c_oem_name_show":"一汽马自达","t_letter":"M"},{"c_oem_brand":"永源","c_oem_name":"永源汽车","c_oem_name_show":"永源汽车","t_letter":"Y"},{"c_oem_brand":"菲亚特","c_oem_name":"菲亚特","c_oem_name_show":"菲亚特(进口)","t_letter":"F"},{"c_oem_brand":"江铃新能源","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"J"},{"c_oem_brand":"西雅特","c_oem_name":"西雅特","c_oem_name_show":"西雅特(进口)","t_letter":"X"},{"c_oem_brand":"哈弗","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"H"},{"c_oem_brand":"华普","c_oem_name":"上海华普","c_oem_name_show":"上海华普","t_letter":"H"},{"c_oem_brand":"讴歌","c_oem_name":"广汽讴歌","c_oem_name_show":"广汽讴歌","t_letter":"O"},{"c_oem_brand":"莲花","c_oem_name":"青年乘用车","c_oem_name_show":"青年乘用车","t_letter":"L"},{"c_oem_brand":"三菱","c_oem_name":"北京吉普","c_oem_name_show":"北京吉普","t_letter":"S"},{"c_oem_brand":"捷豹","c_oem_name":"捷豹","c_oem_name_show":"捷豹(进口)","t_letter":"J"},{"c_oem_brand":"宝沃","c_oem_name":"宝沃汽车","c_oem_name_show":"宝沃汽车","t_letter":"B"},{"c_oem_brand":"别克","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"B"},{"c_oem_brand":"罗伦士","c_oem_name":"罗伦士","c_oem_name_show":"罗伦士","t_letter":"L"},{"c_oem_brand":"金杯","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"J"},{"c_oem_brand":"劳斯莱斯","c_oem_name":"劳斯莱斯","c_oem_name_show":"劳斯莱斯(进口)","t_letter":"L"},{"c_oem_brand":"大众","c_oem_name":"大众","c_oem_name_show":"大众(进口)","t_letter":"D"},{"c_oem_brand":"中兴","c_oem_name":"中兴","c_oem_name_show":"中兴","t_letter":"Z"},{"c_oem_brand":"特斯拉","c_oem_name":"特斯拉","c_oem_name_show":"特斯拉(进口)","t_letter":"T"},{"c_oem_brand":"Smart","c_oem_name":"奔驰","c_oem_name_show":"奔驰(进口)","t_letter":"S"},{"c_oem_brand":"九龙","c_oem_name":"九龙汽车","c_oem_name_show":"九龙汽车","t_letter":"J"},{"c_oem_brand":"知豆","c_oem_name":"知豆电动汽车","c_oem_name_show":"知豆电动汽车","t_letter":"Z"},{"c_oem_brand":"迈巴赫","c_oem_name":"迈巴赫","c_oem_name_show":"迈巴赫(进口)","t_letter":"M"},{"c_oem_brand":"风度","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"新凯","c_oem_name":"新凯汽车","c_oem_name_show":"新凯汽车","t_letter":"X"},{"c_oem_brand":"沃尔沃","c_oem_name":"长安沃尔沃","c_oem_name_show":"长安沃尔沃","t_letter":"W"},{"c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_oem_name_show":"绵阳金杯","t_letter":"J"},{"c_oem_brand":"世爵","c_oem_name":"世爵","c_oem_name_show":"世爵(进口)","t_letter":"S"},{"c_oem_brand":"众泰","c_oem_name":"众泰","c_oem_name_show":"众泰","t_letter":"Z"},{"c_oem_brand":"力帆","c_oem_name":"力帆","c_oem_name_show":"力帆","t_letter":"L"},{"c_oem_brand":"保时捷","c_oem_name":"保时捷","c_oem_name_show":"保时捷(进口)","t_letter":"B"},{"c_oem_brand":"长安","c_oem_name":"长安汽车","c_oem_name_show":"长安汽车","t_letter":"C"},{"c_oem_brand":"福特","c_oem_name":"长安福特","c_oem_name_show":"长安福特","t_letter":"F"},{"c_oem_brand":"昌河","c_oem_name":"昌河汽车","c_oem_name_show":"昌河汽车","t_letter":"C"},{"c_oem_brand":"东风","c_oem_name":"东风汽车","c_oem_name_show":"东风汽车","t_letter":"D"},{"c_oem_brand":"比亚迪","c_oem_name":"比亚迪","c_oem_name_show":"比亚迪","t_letter":"B"},{"c_oem_brand":"福特","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"F"},{"c_oem_brand":"斯威","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"S"},{"c_oem_brand":"凯翼","c_oem_name":"凯翼汽车","c_oem_name_show":"凯翼汽车","t_letter":"K"},{"c_oem_brand":"巴博斯","c_oem_name":"巴博斯","c_oem_name_show":"巴博斯(进口)","t_letter":"B"},{"c_oem_brand":"讴歌","c_oem_name":"本田","c_oem_name_show":"本田(进口)","t_letter":"O"},{"c_oem_brand":"威旺","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"W"},{"c_oem_brand":"北汽新能源","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"B"},{"c_oem_brand":"日产","c_oem_name":"郑州日产","c_oem_name_show":"郑州日产","t_letter":"R"},{"c_oem_brand":"腾势","c_oem_name":"比亚迪戴姆勒","c_oem_name_show":"比亚迪戴姆勒","t_letter":"T"},{"c_oem_brand":"卡威","c_oem_name":"卡威","c_oem_name_show":"卡威","t_letter":"K"},{"c_oem_brand":"道奇","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"D"},{"c_oem_brand":"幻速","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"H"},{"c_oem_brand":"奔驰","c_oem_name":"福建奔驰","c_oem_name_show":"福建奔驰","t_letter":"B"},{"c_oem_brand":"LOCAL MOTORS","c_oem_name":"LOCAL MOTORS","c_oem_name_show":"LOCAL MOTORS(进口)","t_letter":"L"},{"c_oem_brand":"英菲尼迪","c_oem_name":"日产","c_oem_name_show":"日产(进口)","t_letter":"Y"},{"c_oem_brand":"捷豹","c_oem_name":"奇瑞捷豹路虎","c_oem_name_show":"奇瑞捷豹路虎","t_letter":"J"},{"c_oem_brand":"福田","c_oem_name":"北汽福田","c_oem_name_show":"北汽福田","t_letter":"F"},{"c_oem_brand":"比速","c_oem_name":"比速","c_oem_name_show":"比速","t_letter":"B"},{"c_oem_brand":"纳智捷","c_oem_name":"东风裕隆","c_oem_name_show":"东风裕隆","t_letter":"N"},{"c_oem_brand":"凯迪拉克","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"K"},{"c_oem_brand":"五菱","c_oem_name":"上汽通用五菱","c_oem_name_show":"上汽通用五菱","t_letter":"W"},{"c_oem_brand":"雷丁","c_oem_name":"雷丁","c_oem_name_show":"雷丁","t_letter":"L"},{"c_oem_brand":"起亚","c_oem_name":"东风悦达起亚","c_oem_name_show":"东风悦达起亚","t_letter":"Q"},{"c_oem_brand":"丰田","c_oem_name":"广汽丰田","c_oem_name_show":"广汽丰田","t_letter":"F"},{"c_oem_brand":"宝马","c_oem_name":"华晨宝马","c_oem_name_show":"华晨宝马","t_letter":"B"},{"c_oem_brand":"大迪","c_oem_name":"大迪","c_oem_name_show":"大迪","t_letter":"D"},{"c_oem_brand":"奔驰","c_oem_name":"北京奔驰","c_oem_name_show":"北京奔驰","t_letter":"B"},{"c_oem_brand":"马自达","c_oem_name":"长安马自达","c_oem_name_show":"长安马自达","t_letter":"M"},{"c_oem_brand":"中华","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"Z"},{"c_oem_brand":"阿尔法·罗密欧","c_oem_name":"阿尔法·罗密欧","c_oem_name_show":"阿尔法·罗密欧(进口)","t_letter":"A"},{"c_oem_brand":"克莱斯勒","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"K"},{"c_oem_brand":"汉腾","c_oem_name":"汉腾汽车","c_oem_name_show":"汉腾汽车","t_letter":"H"},{"c_oem_brand":"五十铃","c_oem_name":"江西五十铃","c_oem_name_show":"江西五十铃","t_letter":"W"},{"c_oem_brand":"观致","c_oem_name":"观致汽车","c_oem_name_show":"观致汽车","t_letter":"G"},{"c_oem_brand":"江铃","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"J"},{"c_oem_brand":"福汽启腾","c_oem_name":"福汽新龙马","c_oem_name_show":"福汽新龙马","t_letter":"F"},{"c_oem_brand":"ALPINA","c_oem_name":"ALPINA","c_oem_name_show":"ALPINA(进口)","t_letter":"A"},{"c_oem_brand":"海马","c_oem_name":"一汽海马","c_oem_name_show":"一汽海马","t_letter":"H"},{"c_oem_brand":"日产","c_oem_name":"日产","c_oem_name_show":"日产(进口)","t_letter":"R"},{"c_oem_brand":"斯柯达","c_oem_name":"大众","c_oem_name_show":"大众(进口)","t_letter":"S"},{"c_oem_brand":"威兹曼","c_oem_name":"威兹曼","c_oem_name_show":"威兹曼(进口)","t_letter":"W"},{"c_oem_brand":"玛莎拉蒂","c_oem_name":"玛莎拉蒂","c_oem_name_show":"玛莎拉蒂(进口)","t_letter":"M"},{"c_oem_brand":"别克","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"B"},{"c_oem_brand":"三菱","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"S"},{"c_oem_brand":"光冈","c_oem_name":"光冈","c_oem_name_show":"光冈(进口)","t_letter":"G"},{"c_oem_brand":"奔腾","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"B"},{"c_oem_brand":"路虎","c_oem_name":"路虎","c_oem_name_show":"路虎(进口)","t_letter":"L"},{"c_oem_brand":"DS","c_oem_name":"长安标致雪铁龙","c_oem_name_show":"长安标致雪铁龙","t_letter":"D"},{"c_oem_brand":"菲亚特","c_oem_name":"南京菲亚特","c_oem_name_show":"南京菲亚特","t_letter":"F"},{"c_oem_brand":"雷诺","c_oem_name":"雷诺","c_oem_name_show":"雷诺(进口)","t_letter":"L"},{"c_oem_brand":"江淮","c_oem_name":"江淮","c_oem_name_show":"江淮","t_letter":"J"},{"c_oem_brand":"起亚","c_oem_name":"起亚","c_oem_name_show":"起亚(进口)","t_letter":"Q"},{"c_oem_brand":"克莱斯勒","c_oem_name":"北京奔驰戴姆勒克莱斯勒","c_oem_name_show":"北京奔驰戴姆勒克莱斯勒","t_letter":"K"},{"c_oem_brand":"三菱","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"S"},{"c_oem_brand":"北汽制造","c_oem_name":"北汽制造","c_oem_name_show":"北汽制造","t_letter":"B"},{"c_oem_brand":"吉奥","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"J"},{"c_oem_brand":"WEY","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"W"},{"c_oem_brand":"双龙","c_oem_name":"双龙","c_oem_name_show":"双龙(进口)","t_letter":"S"},{"c_oem_brand":"铃木","c_oem_name":"长安铃木","c_oem_name_show":"长安铃木","t_letter":"L"},{"c_oem_brand":"开瑞","c_oem_name":"开瑞汽车","c_oem_name_show":"开瑞汽车","t_letter":"K"},{"c_oem_brand":"野马","c_oem_name":"四川野马","c_oem_name_show":"四川野马","t_letter":"Y"},{"c_oem_brand":"吉普","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"J"}]}</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"有","HID_light":"有","aircon_mode":"自动有","alloy_wheel":"有","auto_head_light":"有","cruise":"有","ele_rearview_adj":"有","ele_rearview_fold":"有","ele_seats_adj":"主有/副有","ele_sunroof":"有","front_tire_spec":"235/55 R19","head_light_clean_sys":"有","keyless_boot":"有","large_color_LCD":"有","leather_seat":"有","multi_steering_wheel_adj":"有","pano_sunroof":"有","parking_radar":"前有/后有","rear_tire_spec":"235/55 R19","reversing_video":"有","seat_heating":"前有/后可选装","t_id":"3104"}]}</t>
+  </si>
+  <si>
+    <t>{"size":4,"detailInfo":null,"list":[{"result":[{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"大众","price":752.49,"car_brand":"大众","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽大众","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽奥迪","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽大众","price":752.49,"car_brand":"一汽大众","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"奥迪","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"兰博基尼","price":752.49,"car_brand":"兰博基尼","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"宾利","price":752.49,"car_brand":"宾利","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"}],"type":"1","desc":"基本信息"},{"result":[],"type":"2","desc":"原厂替换信息"},{"result":[],"type":"3","desc":"品牌替换信息"},{"result":[{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":876,"t_HL_version":"中国限量版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"311800","c_timer_model_id":"TM305","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI EGO Plus DCT 中国限量版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2013款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":875,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"224800","c_timer_model_id":"TM303","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI Urban DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":881,"t_HL_version":"舒适版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"249800","c_timer_model_id":"TM309","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 舒适版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":880,"t_HL_version":"时尚版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"199800","c_timer_model_id":"TM308","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 时尚版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":888,"t_HL_version":"舒适版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"259800","c_timer_model_id":"TM300","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 舒适版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":874,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"249800","c_timer_model_id":"TM301","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":885,"t_HL_version":"豪华版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"299800","c_timer_model_id":"TM297","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 豪华版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":886,"t_HL_version":"技术版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"234800","c_timer_model_id":"TM298","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 技术版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":887,"t_HL_version":"时尚版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"209800","c_timer_model_id":"TM299","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 时尚版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":882,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"299800","c_timer_model_id":"TM295","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego Plus DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":883,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"259800","c_timer_model_id":"TM294","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":873,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"289800","c_timer_model_id":"TM302","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":879,"t_HL_version":"技术版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"224800","c_timer_model_id":"TM307","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 技术版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":878,"t_HL_version":"豪华版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"289800","c_timer_model_id":"TM306","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 豪华版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":877,"t_HL_version":"中国限量版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"271800","c_timer_model_id":"TM304","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI Ego DCT 中国限量版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2013款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":884,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"234800","c_timer_model_id":"TM296","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Urban DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"}],"type":"4","desc":"车款适配信息"}],"map":null,"statusCode":1,"desc":"查询成功！"}</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>result.t_letter=H,R,K,B&amp;result.c_oem_brand=福特,三菱,东风,斯柯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size=1,result[0].GPS=有,result[0].HID_light=有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPartInfoForOriginal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size=192,result[100].t_letter=H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.c_oem_brand=奥迪&amp;result.tid=3104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc=查询成功！,size=1,result.tid=3104,result.c_oem_brand=奥迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>list[3].result[0].tid=876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"120000"},{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getKilometer</t>
+  </si>
+  <si>
+    <t>getKilometer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/maintain/getKilometer?tid=13378&amp;grant_code=test&amp;oem_brand=奥迪&amp;oem_name=一汽大众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"120000"},{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>getPartInfoForOriginal</t>
-  </si>
-  <si>
-    <t>getAllSeries</t>
-  </si>
-  <si>
-    <t>getCarModelConfigByTid</t>
-  </si>
-  <si>
-    <t>getTimerAccemblyList</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":192, "result":[{"c_oem_brand":"荣威","c_oem_name":"上海汽车","c_oem_name_show":"上海汽车","t_letter":"R"},{"c_oem_brand":"传祺","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"C"},{"c_oem_brand":"黄海","c_oem_name":"曙光","c_oem_name_show":"曙光","t_letter":"H"},{"c_oem_brand":"萨博","c_oem_name":"萨博","c_oem_name_show":"萨博(进口)","t_letter":"S"},{"c_oem_brand":"克莱斯勒","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"K"},{"c_oem_brand":"日产","c_oem_name":"东风日产","c_oem_name_show":"东风日产","t_letter":"R"},{"c_oem_brand":"雪佛兰","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"X"},{"c_oem_brand":"福特","c_oem_name":"福特","c_oem_name_show":"福特(进口)","t_letter":"F"},{"c_oem_brand":"宝马","c_oem_name":"宝马","c_oem_name_show":"宝马(进口)","t_letter":"B"},{"c_oem_brand":"长城","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"C"},{"c_oem_brand":"雪铁龙","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"X"},{"c_oem_brand":"铃木","c_oem_name":"铃木","c_oem_name_show":"铃木(进口)","t_letter":"L"},{"c_oem_brand":"双环","c_oem_name":"双环汽车","c_oem_name_show":"双环汽车","t_letter":"S"},{"c_oem_brand":"MINI","c_oem_name":"宝马","c_oem_name_show":"宝马(进口)","t_letter":"M"},{"c_oem_brand":"华颂","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"H"},{"c_oem_brand":"阿斯顿马丁","c_oem_name":"阿斯顿马丁","c_oem_name_show":"阿斯顿马丁(进口)","t_letter":"A"},{"c_oem_brand":"林肯","c_oem_name":"林肯","c_oem_name_show":"林肯(进口)","t_letter":"L"},{"c_oem_brand":"迈凯伦","c_oem_name":"迈凯伦","c_oem_name_show":"迈凯伦(进口)","t_letter":"M"},{"c_oem_brand":"理念","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","t_letter":"L"},{"c_oem_brand":"现代","c_oem_name":"现代","c_oem_name_show":"现代(进口)","t_letter":"X"},{"c_oem_brand":"沃尔沃","c_oem_name":"沃尔沃","c_oem_name_show":"沃尔沃(进口)","t_letter":"W"},{"c_oem_brand":"金杯","c_oem_name":"华晨鑫源金杯","c_oem_name_show":"华晨鑫源金杯","t_letter":"J"},{"c_oem_brand":"海马","c_oem_name":"郑州海马","c_oem_name_show":"郑州海马","t_letter":"H"},{"c_oem_brand":"启辰","c_oem_name":"东风日产","c_oem_name_show":"东风日产","t_letter":"Q"},{"c_oem_brand":"沃尔沃","c_oem_name":"沃尔沃亚太","c_oem_name_show":"沃尔沃亚太","t_letter":"W"},{"c_oem_brand":"华泰","c_oem_name":"华泰","c_oem_name_show":"华泰","t_letter":"H"},{"c_oem_brand":"大众","c_oem_name":"一汽大众","c_oem_name_show":"一汽大众","t_letter":"D"},{"c_oem_brand":"悍马","c_oem_name":"悍马","c_oem_name_show":"悍马(进口)","t_letter":"H"},{"c_oem_brand":"马自达","c_oem_name":"马自达","c_oem_name_show":"马自达(进口)","t_letter":"M"},{"c_oem_brand":"福迪","c_oem_name":"福迪","c_oem_name_show":"福迪","t_letter":"F"},{"c_oem_brand":"本田","c_oem_name":"本田","c_oem_name_show":"本田(进口)","t_letter":"B"},{"c_oem_brand":"风行","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"兰博基尼","c_oem_name":"兰博基尼","c_oem_name_show":"兰博基尼(进口)","t_letter":"L"},{"c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","t_letter":"A"},{"c_oem_brand":"铃木","c_oem_name":"昌河铃木","c_oem_name_show":"昌河铃木","t_letter":"L"},{"c_oem_brand":"一汽","c_oem_name":"一汽吉林","c_oem_name_show":"一汽吉林","t_letter":"Y"},{"c_oem_brand":"标致","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"B"},{"c_oem_brand":"哈飞","c_oem_name":"哈飞","c_oem_name_show":"哈飞","t_letter":"H"},{"c_oem_brand":"现代","c_oem_name":"北京现代","c_oem_name_show":"北京现代","t_letter":"X"},{"c_oem_brand":"路特斯","c_oem_name":"路特斯","c_oem_name_show":"路特斯(进口)","t_letter":"L"},{"c_oem_brand":"上汽大通","c_oem_name":"上汽商用车","c_oem_name_show":"上汽商用车","t_letter":"S"},{"c_oem_brand":"吉利","c_oem_name":"吉利","c_oem_name_show":"吉利","t_letter":"J"},{"c_oem_brand":"东南","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"D"},{"c_oem_brand":"天马","c_oem_name":"天马","c_oem_name_show":"天马","t_letter":"T"},{"c_oem_brand":"凯迪拉克","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"K"},{"c_oem_brand":"吉姆西","c_oem_name":"吉姆西","c_oem_name_show":"吉姆西(进口)","t_letter":"J"},{"c_oem_brand":"宾利","c_oem_name":"宾利","c_oem_name_show":"宾利(进口)","t_letter":"B"},{"c_oem_brand":"威麟","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"W"},{"c_oem_brand":"罗伦士","c_oem_name":"罗伦士","c_oem_name_show":"罗伦士(进口)","t_letter":"L"},{"c_oem_brand":"康迪","c_oem_name":"康迪","c_oem_name_show":"康迪","t_letter":"K"},{"c_oem_brand":"莲花","c_oem_name":"青年乘用车","c_oem_name_show":"青年乘用车(进口)","t_letter":"L"},{"c_oem_brand":"道奇","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"D"},{"c_oem_brand":"大众","c_oem_name":"上海大众","c_oem_name_show":"上海大众","t_letter":"D"},{"c_oem_brand":"陆风","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"L"},{"c_oem_brand":"欧朗","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"O"},{"c_oem_brand":"法拉利","c_oem_name":"法拉利","c_oem_name_show":"法拉利(进口)","t_letter":"F"},{"c_oem_brand":"雷诺","c_oem_name":"东风雷诺","c_oem_name_show":"东风雷诺","t_letter":"L"},{"c_oem_brand":"吉普","c_oem_name":"北京吉普","c_oem_name_show":"北京吉普","t_letter":"J"},{"c_oem_brand":"一汽","c_oem_name":"天津一汽","c_oem_name_show":"天津一汽","t_letter":"Y"},{"c_oem_brand":"本田","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","t_letter":"B"},{"c_oem_brand":"三菱","c_oem_name":"三菱","c_oem_name_show":"三菱(进口)","t_letter":"S"},{"c_oem_brand":"斯巴鲁","c_oem_name":"富士","c_oem_name_show":"富士(进口)","t_letter":"S"},{"c_oem_brand":"丰田","c_oem_name":"一汽丰田","c_oem_name_show":"一汽丰田","t_letter":"F"},{"c_oem_brand":"雷克萨斯","c_oem_name":"丰田","c_oem_name_show":"丰田(进口)","t_letter":"L"},{"c_oem_brand":"雪铁龙","c_oem_name":"神龙汽车","c_oem_name_show":"神龙汽车","t_letter":"X"},{"c_oem_brand":"奥迪","c_oem_name":"一汽大众","c_oem_name_show":"一汽大众","t_letter":"A"},{"c_oem_brand":"奔驰","c_oem_name":"奔驰","c_oem_name_show":"奔驰(进口)","t_letter":"B"},{"c_oem_brand":"布加迪","c_oem_name":"布加迪","c_oem_name_show":"布加迪(进口)","t_letter":"B"},{"c_oem_brand":"菲亚特","c_oem_name":"广汽菲克","c_oem_name_show":"广汽菲克","t_letter":"F"},{"c_oem_brand":"红旗","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"H"},{"c_oem_brand":"本田","c_oem_name":"东风本田","c_oem_name_show":"东风本田","t_letter":"B"},{"c_oem_brand":"北汽","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"B"},{"c_oem_brand":"风神","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"双龙","c_oem_name":"双龙","c_oem_name_show":"双龙","t_letter":"S"},{"c_oem_brand":"英菲尼迪","c_oem_name":"东风英菲尼迪","c_oem_name_show":"东风英菲尼迪","t_letter":"Y"},{"c_oem_brand":"英致","c_oem_name":"潍柴汽车","c_oem_name_show":"潍柴汽车","t_letter":"Y"},{"c_oem_brand":"吉普","c_oem_name":"广汽菲克","c_oem_name_show":"广汽菲克","t_letter":"J"},{"c_oem_brand":"丰田","c_oem_name":"丰田","c_oem_name_show":"丰田(进口)","t_letter":"F"},{"c_oem_brand":"陆地方舟","c_oem_name":"陆地方舟","c_oem_name_show":"陆地方舟","t_letter":"L"},{"c_oem_brand":"奇瑞","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"Q"},{"c_oem_brand":"MG","c_oem_name":"上海汽车","c_oem_name_show":"上海汽车","t_letter":"M"},{"c_oem_brand":"路虎","c_oem_name":"奇瑞捷豹路虎","c_oem_name_show":"奇瑞捷豹路虎","t_letter":"L"},{"c_oem_brand":"东风小康","c_oem_name":"东风小康","c_oem_name_show":"东风小康","t_letter":"D"},{"c_oem_brand":"DS","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"D"},{"c_oem_brand":"欧宝","c_oem_name":"欧宝","c_oem_name_show":"欧宝(进口)","t_letter":"O"},{"c_oem_brand":"富奇","c_oem_name":"富奇","c_oem_name_show":"富奇","t_letter":"F"},{"c_oem_brand":"斯柯达","c_oem_name":"上海大众","c_oem_name_show":"上海大众","t_letter":"S"},{"c_oem_brand":"MG","c_oem_name":"南京汽车","c_oem_name_show":"南京汽车","t_letter":"M"},{"c_oem_brand":"瑞麒","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"R"},{"c_oem_brand":"长丰","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"C"},{"c_oem_brand":"江南","c_oem_name":"江南","c_oem_name_show":"江南","t_letter":"J"},{"c_oem_brand":"宝骏","c_oem_name":"上汽通用五菱","c_oem_name_show":"上汽通用五菱","t_letter":"B"},{"c_oem_brand":"标致","c_oem_name":"神龙汽车","c_oem_name_show":"神龙汽车","t_letter":"B"},{"c_oem_brand":"雪佛兰","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"X"},{"c_oem_brand":"马自达","c_oem_name":"一汽马自达","c_oem_name_show":"一汽马自达","t_letter":"M"},{"c_oem_brand":"永源","c_oem_name":"永源汽车","c_oem_name_show":"永源汽车","t_letter":"Y"},{"c_oem_brand":"菲亚特","c_oem_name":"菲亚特","c_oem_name_show":"菲亚特(进口)","t_letter":"F"},{"c_oem_brand":"江铃新能源","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"J"},{"c_oem_brand":"西雅特","c_oem_name":"西雅特","c_oem_name_show":"西雅特(进口)","t_letter":"X"},{"c_oem_brand":"哈弗","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"H"},{"c_oem_brand":"华普","c_oem_name":"上海华普","c_oem_name_show":"上海华普","t_letter":"H"},{"c_oem_brand":"讴歌","c_oem_name":"广汽讴歌","c_oem_name_show":"广汽讴歌","t_letter":"O"},{"c_oem_brand":"莲花","c_oem_name":"青年乘用车","c_oem_name_show":"青年乘用车","t_letter":"L"},{"c_oem_brand":"三菱","c_oem_name":"北京吉普","c_oem_name_show":"北京吉普","t_letter":"S"},{"c_oem_brand":"捷豹","c_oem_name":"捷豹","c_oem_name_show":"捷豹(进口)","t_letter":"J"},{"c_oem_brand":"宝沃","c_oem_name":"宝沃汽车","c_oem_name_show":"宝沃汽车","t_letter":"B"},{"c_oem_brand":"别克","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"B"},{"c_oem_brand":"罗伦士","c_oem_name":"罗伦士","c_oem_name_show":"罗伦士","t_letter":"L"},{"c_oem_brand":"金杯","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"J"},{"c_oem_brand":"劳斯莱斯","c_oem_name":"劳斯莱斯","c_oem_name_show":"劳斯莱斯(进口)","t_letter":"L"},{"c_oem_brand":"大众","c_oem_name":"大众","c_oem_name_show":"大众(进口)","t_letter":"D"},{"c_oem_brand":"中兴","c_oem_name":"中兴","c_oem_name_show":"中兴","t_letter":"Z"},{"c_oem_brand":"特斯拉","c_oem_name":"特斯拉","c_oem_name_show":"特斯拉(进口)","t_letter":"T"},{"c_oem_brand":"Smart","c_oem_name":"奔驰","c_oem_name_show":"奔驰(进口)","t_letter":"S"},{"c_oem_brand":"九龙","c_oem_name":"九龙汽车","c_oem_name_show":"九龙汽车","t_letter":"J"},{"c_oem_brand":"知豆","c_oem_name":"知豆电动汽车","c_oem_name_show":"知豆电动汽车","t_letter":"Z"},{"c_oem_brand":"迈巴赫","c_oem_name":"迈巴赫","c_oem_name_show":"迈巴赫(进口)","t_letter":"M"},{"c_oem_brand":"风度","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"新凯","c_oem_name":"新凯汽车","c_oem_name_show":"新凯汽车","t_letter":"X"},{"c_oem_brand":"沃尔沃","c_oem_name":"长安沃尔沃","c_oem_name_show":"长安沃尔沃","t_letter":"W"},{"c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_oem_name_show":"绵阳金杯","t_letter":"J"},{"c_oem_brand":"世爵","c_oem_name":"世爵","c_oem_name_show":"世爵(进口)","t_letter":"S"},{"c_oem_brand":"众泰","c_oem_name":"众泰","c_oem_name_show":"众泰","t_letter":"Z"},{"c_oem_brand":"力帆","c_oem_name":"力帆","c_oem_name_show":"力帆","t_letter":"L"},{"c_oem_brand":"保时捷","c_oem_name":"保时捷","c_oem_name_show":"保时捷(进口)","t_letter":"B"},{"c_oem_brand":"长安","c_oem_name":"长安汽车","c_oem_name_show":"长安汽车","t_letter":"C"},{"c_oem_brand":"福特","c_oem_name":"长安福特","c_oem_name_show":"长安福特","t_letter":"F"},{"c_oem_brand":"昌河","c_oem_name":"昌河汽车","c_oem_name_show":"昌河汽车","t_letter":"C"},{"c_oem_brand":"东风","c_oem_name":"东风汽车","c_oem_name_show":"东风汽车","t_letter":"D"},{"c_oem_brand":"比亚迪","c_oem_name":"比亚迪","c_oem_name_show":"比亚迪","t_letter":"B"},{"c_oem_brand":"福特","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"F"},{"c_oem_brand":"斯威","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"S"},{"c_oem_brand":"凯翼","c_oem_name":"凯翼汽车","c_oem_name_show":"凯翼汽车","t_letter":"K"},{"c_oem_brand":"巴博斯","c_oem_name":"巴博斯","c_oem_name_show":"巴博斯(进口)","t_letter":"B"},{"c_oem_brand":"讴歌","c_oem_name":"本田","c_oem_name_show":"本田(进口)","t_letter":"O"},{"c_oem_brand":"威旺","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"W"},{"c_oem_brand":"北汽新能源","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"B"},{"c_oem_brand":"日产","c_oem_name":"郑州日产","c_oem_name_show":"郑州日产","t_letter":"R"},{"c_oem_brand":"腾势","c_oem_name":"比亚迪戴姆勒","c_oem_name_show":"比亚迪戴姆勒","t_letter":"T"},{"c_oem_brand":"卡威","c_oem_name":"卡威","c_oem_name_show":"卡威","t_letter":"K"},{"c_oem_brand":"道奇","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"D"},{"c_oem_brand":"幻速","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"H"},{"c_oem_brand":"奔驰","c_oem_name":"福建奔驰","c_oem_name_show":"福建奔驰","t_letter":"B"},{"c_oem_brand":"LOCAL MOTORS","c_oem_name":"LOCAL MOTORS","c_oem_name_show":"LOCAL MOTORS(进口)","t_letter":"L"},{"c_oem_brand":"英菲尼迪","c_oem_name":"日产","c_oem_name_show":"日产(进口)","t_letter":"Y"},{"c_oem_brand":"捷豹","c_oem_name":"奇瑞捷豹路虎","c_oem_name_show":"奇瑞捷豹路虎","t_letter":"J"},{"c_oem_brand":"福田","c_oem_name":"北汽福田","c_oem_name_show":"北汽福田","t_letter":"F"},{"c_oem_brand":"比速","c_oem_name":"比速","c_oem_name_show":"比速","t_letter":"B"},{"c_oem_brand":"纳智捷","c_oem_name":"东风裕隆","c_oem_name_show":"东风裕隆","t_letter":"N"},{"c_oem_brand":"凯迪拉克","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"K"},{"c_oem_brand":"五菱","c_oem_name":"上汽通用五菱","c_oem_name_show":"上汽通用五菱","t_letter":"W"},{"c_oem_brand":"雷丁","c_oem_name":"雷丁","c_oem_name_show":"雷丁","t_letter":"L"},{"c_oem_brand":"起亚","c_oem_name":"东风悦达起亚","c_oem_name_show":"东风悦达起亚","t_letter":"Q"},{"c_oem_brand":"丰田","c_oem_name":"广汽丰田","c_oem_name_show":"广汽丰田","t_letter":"F"},{"c_oem_brand":"宝马","c_oem_name":"华晨宝马","c_oem_name_show":"华晨宝马","t_letter":"B"},{"c_oem_brand":"大迪","c_oem_name":"大迪","c_oem_name_show":"大迪","t_letter":"D"},{"c_oem_brand":"奔驰","c_oem_name":"北京奔驰","c_oem_name_show":"北京奔驰","t_letter":"B"},{"c_oem_brand":"马自达","c_oem_name":"长安马自达","c_oem_name_show":"长安马自达","t_letter":"M"},{"c_oem_brand":"中华","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"Z"},{"c_oem_brand":"阿尔法·罗密欧","c_oem_name":"阿尔法·罗密欧","c_oem_name_show":"阿尔法·罗密欧(进口)","t_letter":"A"},{"c_oem_brand":"克莱斯勒","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"K"},{"c_oem_brand":"汉腾","c_oem_name":"汉腾汽车","c_oem_name_show":"汉腾汽车","t_letter":"H"},{"c_oem_brand":"五十铃","c_oem_name":"江西五十铃","c_oem_name_show":"江西五十铃","t_letter":"W"},{"c_oem_brand":"观致","c_oem_name":"观致汽车","c_oem_name_show":"观致汽车","t_letter":"G"},{"c_oem_brand":"江铃","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"J"},{"c_oem_brand":"福汽启腾","c_oem_name":"福汽新龙马","c_oem_name_show":"福汽新龙马","t_letter":"F"},{"c_oem_brand":"ALPINA","c_oem_name":"ALPINA","c_oem_name_show":"ALPINA(进口)","t_letter":"A"},{"c_oem_brand":"海马","c_oem_name":"一汽海马","c_oem_name_show":"一汽海马","t_letter":"H"},{"c_oem_brand":"日产","c_oem_name":"日产","c_oem_name_show":"日产(进口)","t_letter":"R"},{"c_oem_brand":"斯柯达","c_oem_name":"大众","c_oem_name_show":"大众(进口)","t_letter":"S"},{"c_oem_brand":"威兹曼","c_oem_name":"威兹曼","c_oem_name_show":"威兹曼(进口)","t_letter":"W"},{"c_oem_brand":"玛莎拉蒂","c_oem_name":"玛莎拉蒂","c_oem_name_show":"玛莎拉蒂(进口)","t_letter":"M"},{"c_oem_brand":"别克","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"B"},{"c_oem_brand":"三菱","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"S"},{"c_oem_brand":"光冈","c_oem_name":"光冈","c_oem_name_show":"光冈(进口)","t_letter":"G"},{"c_oem_brand":"奔腾","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"B"},{"c_oem_brand":"路虎","c_oem_name":"路虎","c_oem_name_show":"路虎(进口)","t_letter":"L"},{"c_oem_brand":"DS","c_oem_name":"长安标致雪铁龙","c_oem_name_show":"长安标致雪铁龙","t_letter":"D"},{"c_oem_brand":"菲亚特","c_oem_name":"南京菲亚特","c_oem_name_show":"南京菲亚特","t_letter":"F"},{"c_oem_brand":"雷诺","c_oem_name":"雷诺","c_oem_name_show":"雷诺(进口)","t_letter":"L"},{"c_oem_brand":"江淮","c_oem_name":"江淮","c_oem_name_show":"江淮","t_letter":"J"},{"c_oem_brand":"起亚","c_oem_name":"起亚","c_oem_name_show":"起亚(进口)","t_letter":"Q"},{"c_oem_brand":"克莱斯勒","c_oem_name":"北京奔驰戴姆勒克莱斯勒","c_oem_name_show":"北京奔驰戴姆勒克莱斯勒","t_letter":"K"},{"c_oem_brand":"三菱","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"S"},{"c_oem_brand":"北汽制造","c_oem_name":"北汽制造","c_oem_name_show":"北汽制造","t_letter":"B"},{"c_oem_brand":"吉奥","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"J"},{"c_oem_brand":"WEY","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"W"},{"c_oem_brand":"双龙","c_oem_name":"双龙","c_oem_name_show":"双龙(进口)","t_letter":"S"},{"c_oem_brand":"铃木","c_oem_name":"长安铃木","c_oem_name_show":"长安铃木","t_letter":"L"},{"c_oem_brand":"开瑞","c_oem_name":"开瑞汽车","c_oem_name_show":"开瑞汽车","t_letter":"K"},{"c_oem_brand":"野马","c_oem_name":"四川野马","c_oem_name_show":"四川野马","t_letter":"Y"},{"c_oem_brand":"吉普","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"J"}]}</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"有","HID_light":"有","aircon_mode":"自动有","alloy_wheel":"有","auto_head_light":"有","cruise":"有","ele_rearview_adj":"有","ele_rearview_fold":"有","ele_seats_adj":"主有/副有","ele_sunroof":"有","front_tire_spec":"235/55 R19","head_light_clean_sys":"有","keyless_boot":"有","large_color_LCD":"有","leather_seat":"有","multi_steering_wheel_adj":"有","pano_sunroof":"有","parking_radar":"前有/后有","rear_tire_spec":"235/55 R19","reversing_video":"有","seat_heating":"前有/后可选装","t_id":"3104"}]}</t>
-  </si>
-  <si>
-    <t>{"size":4,"detailInfo":null,"list":[{"result":[{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"大众","price":752.49,"car_brand":"大众","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽大众","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽奥迪","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽大众","price":752.49,"car_brand":"一汽大众","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"奥迪","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"兰博基尼","price":752.49,"car_brand":"兰博基尼","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"宾利","price":752.49,"car_brand":"宾利","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"}],"type":"1","desc":"基本信息"},{"result":[],"type":"2","desc":"原厂替换信息"},{"result":[],"type":"3","desc":"品牌替换信息"},{"result":[{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":876,"t_HL_version":"中国限量版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"311800","c_timer_model_id":"TM305","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI EGO Plus DCT 中国限量版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2013款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":875,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"224800","c_timer_model_id":"TM303","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI Urban DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":881,"t_HL_version":"舒适版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"249800","c_timer_model_id":"TM309","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 舒适版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":880,"t_HL_version":"时尚版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"199800","c_timer_model_id":"TM308","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 时尚版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":888,"t_HL_version":"舒适版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"259800","c_timer_model_id":"TM300","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 舒适版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":874,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"249800","c_timer_model_id":"TM301","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":885,"t_HL_version":"豪华版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"299800","c_timer_model_id":"TM297","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 豪华版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":886,"t_HL_version":"技术版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"234800","c_timer_model_id":"TM298","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 技术版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":887,"t_HL_version":"时尚版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"209800","c_timer_model_id":"TM299","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 时尚版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":882,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"299800","c_timer_model_id":"TM295","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego Plus DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":883,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"259800","c_timer_model_id":"TM294","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":873,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"289800","c_timer_model_id":"TM302","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":879,"t_HL_version":"技术版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"224800","c_timer_model_id":"TM307","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 技术版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":878,"t_HL_version":"豪华版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"289800","c_timer_model_id":"TM306","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 豪华版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":877,"t_HL_version":"中国限量版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"271800","c_timer_model_id":"TM304","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI Ego DCT 中国限量版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2013款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":884,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"234800","c_timer_model_id":"TM296","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Urban DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"}],"type":"4","desc":"车款适配信息"}],"map":null,"statusCode":1,"desc":"查询成功！"}</t>
-  </si>
-  <si>
-    <t>FAILED</t>
   </si>
   <si>
     <t xml:space="preserve">java.lang.AssertionError: JSON path list[3].result.c_model_year doesn't match.
@@ -213,97 +282,22 @@
 </t>
   </si>
   <si>
-    <t>result.t_letter=H,R,K,B&amp;result.c_oem_brand=福特,三菱,东风,斯柯达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.timer_assembly=变速箱，车身地板&amp;timer_assembly_id=1,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size=1,result[0].GPS=有,result[0].HID_light=有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpectedResponse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPartInfoForOriginal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size=192,result[100].t_letter=H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.c_oem_brand=奥迪&amp;result.tid=3104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc=查询成功！,size=1,result.tid=3104,result.c_oem_brand=奥迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>list[3].result[0].tid=876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list[3].result.tid=876,875&amp;list[3].result.c_oem_brand=奥迪&amp;list[3].result.c_model_year=2012,2013,2010&amp;list[0].result.findAll{it.price&gt;700}.car_brand=奥迪,大众</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>java.lang.IllegalStateException: Cannot determine which path implementation to use because the content-type text/plain;charset=UTF-8 doesn't map to a path implementation.</t>
-  </si>
-  <si>
-    <t>/catalogue/getTimerAccemblyLis?grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;html&gt;&lt;head&gt;&lt;title&gt;404 Not Found&lt;/title&gt;&lt;/head&gt;&lt;body bgcolor='white'&gt;&lt;center&gt;&lt;h1&gt;404 Not Found&lt;/h1&gt;&lt;/center&gt;&lt;hr&gt;&lt;center&gt;&lt;a href='http://www.jfinal.com?f=ev-2.2' target='_blank'&gt;&lt;b&gt;Powered by JFinal 2.2&lt;/b&gt;&lt;/a&gt;&lt;/center&gt;&lt;/body&gt;&lt;/html&gt;</t>
+    <t>text/plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.timer_assembly=变速箱,车身地板&amp;result.timer_assembly_id=1,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id</t>
   </si>
   <si>
-    <t>application/json; charset=UTF-8</t>
-  </si>
-  <si>
-    <t>java.lang.AssertionError: JSON path list[3].result.c_model_year doesn't match.
-Expected: (a collection containing "2010")
-  Actual: [2013, 2012, 2014, 2014, 2014, 2012, 2014, 2014, 2014, 2013, 2013, 2012, 2014, 2014, 2013, 2013]
-application/json; charset=UTF-8</t>
-  </si>
-  <si>
-    <t>404text/html;charset=UTF-8</t>
+    <t>list[3].result.tid=876,875&amp;list[3].result.c_oem_brand=奥迪&amp;list[3].result.c_model_year=2012,2013,2010&amp;list[0].result.findAll{it.price&gt;700}.car_brand=奥迪,大众&amp;list[3].result.findAll{it.c_model_year = 2012}.car_brand=斯柯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向助力泵及组件","timer_sub_assembly_id":"251","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"电动助力转向系统","timer_sub_assembly_id":"252","timer_type":"底盘"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"左前座椅","timer_sub_assembly_id":"253","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"右前座椅","timer_sub_assembly_id":"254","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"后座椅","timer_sub_assembly_id":"255","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"第二排座椅","timer_sub_assembly_id":"256","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"第三排座椅","timer_sub_assembly_id":"257","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"第四排座椅","timer_sub_assembly_id":"258","timer_type":"车身内部结构"}]}</t>
-  </si>
-  <si>
-    <t>java.lang.IllegalStateException: Cannot determine which path implementation to use because the content-type text/plain;charset=UTF-8 doesn't map to a path implementation.text/plain;charset=UTF-8</t>
   </si>
 </sst>
 </file>
@@ -311,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,16 +337,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -445,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,9 +439,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -466,8 +453,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -773,7 +758,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -936,7 +921,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -959,7 +944,7 @@
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -982,7 +967,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -1005,10 +990,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1017,18 +1002,18 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1043,10 +1028,10 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1072,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,10 +1078,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1107,7 +1092,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1118,10 +1103,10 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1135,7 +1120,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1149,7 +1134,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1163,7 +1148,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -1171,7 +1156,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1185,13 +1170,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1199,13 +1184,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -1213,24 +1198,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -1248,7 +1236,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1280,10 +1268,10 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -1291,10 +1279,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -1302,10 +1290,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1321,7 +1309,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
@@ -1332,46 +1320,46 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1374,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1412,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1439,11 +1427,11 @@
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s" s="6">
-        <v>50</v>
+      <c r="C2" t="s">
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1451,13 +1439,13 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s" s="7">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -1465,13 +1453,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s" s="8">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1467,13 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1495,81 +1483,81 @@
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s" s="10">
-        <v>50</v>
+      <c r="C6" t="s">
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s" s="11">
-        <v>50</v>
+      <c r="C7" t="s">
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s" s="12">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s" s="13">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s" s="14">
-        <v>50</v>
+      <c r="C10" t="s">
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s" s="15">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/api-test.xlsx
+++ b/src/test/resources/api-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,22 +290,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>list[3].result.tid=876,875&amp;list[3].result.c_oem_brand=奥迪&amp;list[3].result.c_model_year=2012,2013,2010&amp;list[0].result.findAll{it.price&gt;700}.car_brand=奥迪,大众&amp;list[3].result.findAll{it.c_model_year = 2012}.car_brand=斯柯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id</t>
-  </si>
-  <si>
-    <t>list[3].result.tid=876,875&amp;list[3].result.c_oem_brand=奥迪&amp;list[3].result.c_model_year=2012,2013,2010&amp;list[0].result.findAll{it.price&gt;700}.car_brand=奥迪,大众&amp;list[3].result.findAll{it.c_model_year = 2012}.car_brand=斯柯达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向助力泵及组件","timer_sub_assembly_id":"251","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"电动助力转向系统","timer_sub_assembly_id":"252","timer_type":"底盘"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"左前座椅","timer_sub_assembly_id":"253","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"右前座椅","timer_sub_assembly_id":"254","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"后座椅","timer_sub_assembly_id":"255","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"第二排座椅","timer_sub_assembly_id":"256","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"第三排座椅","timer_sub_assembly_id":"257","timer_type":"车身内部结构"},{"timer_assembly":"座椅及调节机构","timer_assembly_id":"68","timer_sub_assembly":"第四排座椅","timer_sub_assembly_id":"258","timer_type":"车身内部结构"}]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,58 +339,8 @@
       <color indexed="10"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,11 +349,6 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
         <bgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -429,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,16 +384,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -763,13 +694,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.75" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="76.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.25" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.625" collapsed="true"/>
+    <col min="2" max="2" width="17.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="76.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -1057,17 +988,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="183.375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.625" collapsed="true"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="183.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1176,7 +1107,7 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1252,7 +1183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1263,7 +1194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1274,7 +1205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1285,7 +1216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1296,7 +1227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1307,7 +1238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1318,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1329,7 +1260,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1340,7 +1271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1351,7 +1282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1359,7 +1290,7 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1420,7 +1351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1434,7 +1365,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1448,7 +1379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1462,7 +1393,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1476,7 +1407,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1490,7 +1421,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1504,21 +1435,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s" s="11">
+      <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1532,7 +1463,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1546,7 +1477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>61</v>
       </c>

--- a/src/test/resources/api-test.xlsx
+++ b/src/test/resources/api-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="134">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,28 +270,229 @@
     <t>{"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"120000"},{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">java.lang.AssertionError: JSON path list[3].result.c_model_year doesn't match.
+    <t>text/plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.timer_assembly=变速箱,车身地板&amp;result.timer_assembly_id=1,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list[3].result.tid=876,875&amp;list[3].result.c_oem_brand=奥迪&amp;list[3].result.c_model_year=2012,2013,2010&amp;list[0].result.findAll{it.price&gt;700}.car_brand=奥迪,大众&amp;list[3].result.findAll{it.c_model_year = 2012}.car_brand=斯柯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vtm/getTid?vin=WVGAV67L59D034378&amp;is_original=1&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vtm/getPostCode1?post_code=CC6450UM09&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vtm/getOnlyTid?vin=LVSFCFAE48F260881&amp;grant_code=JOY8T5RS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/catalogue/getAllCarModel?offset=0&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adaptation/getAssemblyCatalogue?tid=3106&amp;type=0&amp;grant_code=test&amp;vin=LFV3B28R7D3048159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>/vtm/getTid?vin=LVSFCFAE48F260881&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/carModel/getCarModelByVin?oem_name=奥迪&amp;oem_brand=奥迪&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCarModelByVin</t>
+  </si>
+  <si>
+    <t>getCarModelInfoByTid</t>
+  </si>
+  <si>
+    <t>getPostCode1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vtm/getPostCode?post_code=CC6450UM09&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPostCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOnlyTid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllCarModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/catalogue/getTimerStandardParts?grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTimerStandardParts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAssemblyCatalogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adaptation/getPicInfo?grant_code=test&amp;tid=1635&amp;type=0&amp;assembly=发动机&amp;sub_assembly=进气管盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPicInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adaptation/getPartsInfo?grant_code=test&amp;tid=1&amp;pic_num=900A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPartsInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>getTid</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":200, "size":1, "result":[{"tid":"5280"}]}</t>
+  </si>
+  <si>
+    <t>application/json; charset=UTF-8</t>
+  </si>
+  <si>
+    <t>getPartsInfo</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":30, "result":[{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1661381","kps_code":"79714MV100","kps_name":"垫片","per_use_num":"6","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"79714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2092190","kps_code":"90100MV100","kps_name":"尾门","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90100","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:R;备注:无ED件","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1714","timer_name":"举升门","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127929","kps_code":"90830MP100","kps_name":"防水条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90210","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1716","timer_name":"举升门密封条","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2104822","kps_code":"90300MV100","kps_name":"玻璃","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90313","remark_brief":"","remark_detail":"适用车型:AAABAC;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"2546","timer_name":"举升门玻璃","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109061","kps_code":"90392MV100","kps_name":"玻璃护板","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90335","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127630","kps_code":"90810MV400","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810M","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1731","timer_name":"举升门装饰条","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127652","kps_code":"90812MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127656","kps_code":"90813MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90811","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1336650","kps_code":"60895MP100","kps_name":"缓冲橡皮","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90815","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1405068","kps_code":"64899MV100","kps_name":"保护板","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90816","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109253","kps_code":"90400MV100","kps_name":"铰链","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90410M","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1713","timer_name":"举升门铰链","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781547","kps_code":"MLA08Z1698","kps_name":"螺丝","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2813004","kps_code":"NM12Z9081A","kps_name":"螺母","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111850","kps_code":"90454MP100","kps_name":"支架","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1594642","kps_code":"72714MP100","kps_name":"垫片","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"72714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109144","kps_code":"90395MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90395","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109177","kps_code":"90396MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90396","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111963","kps_code":"90457MP110","kps_name":"球形接头","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90457","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111553","kps_code":"90450MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424Q","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1717","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111661","kps_code":"90451MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90425Q","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1719","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2121302","kps_code":"90606MP100","kps_name":"开关","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90606N","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781569","kps_code":"MMU05Z1623","kps_name":"螺丝","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"6402","kps_code":"01225N0002","kps_name":"螺母","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2812986","kps_code":"NM01Z40537","kps_name":"螺母","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2107325","kps_code":"90359MV100","kps_name":"夹子","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90834E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533817","kps_code":"26557MP100","kps_name":"塞扣","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533818","kps_code":"26557MP200","kps_name":"塞扣","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116633","kps_code":"90526MP100","kps_name":"阻尼器","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90526","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116704","kps_code":"90528MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90528","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116740","kps_code":"90529MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90529","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"}]}</t>
+  </si>
+  <si>
+    <t>text/plain;charset=UTF-8</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":100, "size":1, "result":[{"c_oem_brand":"大众","c_oem_name":"大众","c_timer_model_name":"大众 大众 TOUA BHK","epc_code":"616","vin":"WVGAV67L59D034378"}]}</t>
+  </si>
+  <si>
+    <t>getPostCode1</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":200, "size":4, "result":[{"tid":"null,null,null,null"}]}</t>
+  </si>
+  <si>
+    <t>getPostCode</t>
+  </si>
+  <si>
+    <t>DataFunc([{"TID":"19005","retCode":"2504"},{"TID":"19006","retCode":"2504"},{"TID":"19007","retCode":"2504"},{"TID":"19008","retCode":"2504"}])</t>
+  </si>
+  <si>
+    <t>getOnlyTid</t>
+  </si>
+  <si>
+    <t>getAllCarModel</t>
+  </si>
+  <si>
+    <t>getTimerStandardParts</t>
+  </si>
+  <si>
+    <t>java.lang.AssertionError: JSON path list[3].result.c_model_year doesn't match.
 Expected: (a collection containing "2010")
   Actual: [2013, 2012, 2014, 2014, 2014, 2012, 2014, 2014, 2014, 2013, 2013, 2012, 2014, 2014, 2013, 2013]
-</t>
-  </si>
-  <si>
-    <t>text/plain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.timer_assembly=变速箱,车身地板&amp;result.timer_assembly_id=1,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list[3].result.tid=876,875&amp;list[3].result.c_oem_brand=奥迪&amp;list[3].result.c_model_year=2012,2013,2010&amp;list[0].result.findAll{it.price&gt;700}.car_brand=奥迪,大众&amp;list[3].result.findAll{it.c_model_year = 2012}.car_brand=斯柯达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+application/json; charset=UTF-8</t>
+  </si>
+  <si>
+    <t>getAssemblyCatalogue</t>
+  </si>
+  <si>
+    <t>getPicInfo</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":84, "result":[{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"}]}</t>
+  </si>
+  <si>
+    <t>/carModel/getCarModelInfoByTid?grant_code=test&amp;tid=9417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/carModel/getCarModelByTid?&amp;tid=3104&amp;grant_code=test&amp;isCN=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":433, "result":[{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2013款 3.0T 45TFSI Quattro 四驱 A/MT 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3109"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A4 Allroad（2016-","c_timer_model_name":"进口奥迪A4 Allroad 2017款 2.0T 45TFSI Quattro 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"21267"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.8T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"901"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2011款 3.0TFSI 200KW 四驱 A/MT 进取版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3137"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1（2011-","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"873"},{"c_capacity_in_litre_L":"2.5L","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 2.5L 30FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1216"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2014款 3.0T 50TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12984"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2014款 2.0T 45TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1086"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2015-","c_timer_model_name":"奥迪TT Coupe 2017款 2.0T 45TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22198"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.4T DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"900"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2016款 3.0T 50TFSI Quattro 四驱 DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16735"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1108"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2016款 1.4T 30TFSI Design DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17600"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TTS Coupe（2016-","c_timer_model_name":"奥迪TTS Coupe 2017款 2.0TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22201"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"885"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2015-","c_timer_model_name":"奥迪Q7 2016款 2.0T 40TFSI S-Line 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17406"},{"c_capacity_in_litre_L":"6.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 6.0TDI Quattro 四驱 A/MT 柴油 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3152"},{"c_capacity_in_litre_L":"3.2T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 3.2FSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22969"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2016款 3.0T 50TFSI Quattro 四驱 DCT 动感版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16734"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TFSI 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3167"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2014款 4.2FSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3291"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 3.0T 45TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17782"},{"c_capacity_in_litre_L":"4.2T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 4.2TDI Quattro 四驱 A/MT 柴油","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22967"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16661"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L Hybrid（2011-","c_timer_model_name":"奥迪A8L Hybrid 2013款 2.0T 40Hybrid A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1261"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 40TFSI 四驱 A/MT 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3169"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2017-","c_timer_model_name":"奥迪S5 Sportback 2017款 3.0T 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"23007"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2017-","c_timer_model_name":"奥迪A5 Coupe 2017款 2.0T 45TFSI Quattro 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22915"},{"c_capacity_in_litre_L":"2.8L","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 2.8L 35FSI Quattro 四驱 DCT 进取版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1217"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.0TDI Quattro 四驱 A/MT 柴油 领先版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3123"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI DCT 白色经典版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3831"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2008款 3.2L Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3823"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3125"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A4 Allroad（2012-2016）","c_timer_model_name":"进口奥迪A4 Allroad 2014款 2.0T 40TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1029"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Cabriolet（2008-2017）","c_timer_model_name":"奥迪S5 Cabriolet 2014款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13656"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2007款 4.2L 四驱 A/MT 至尊版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13624"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 改款 45TFSI CVT 舒适版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17872"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3127"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2016款 2.0T 45TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"16663"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 越野典藏技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3129"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 35TDI Quattro 四驱 A/MT 柴油 领先版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3153"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A6 Avant（2017-","c_timer_model_name":"奥迪A6 Avant 2017款 2.0T Sport 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22909"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego Plus DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"882"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2016款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16662"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 技术版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"886"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2015-","c_timer_model_name":"奥迪TT Roadster 2017款 2.0T 45TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22199"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2009款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1098"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2009款 3.6FSI 四驱 A/MT 风尚舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3120"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S6（2013-","c_timer_model_name":"奥迪S6 2013款 4.0TFSI 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3485"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 3.2FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"13628"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1272"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2017-","c_timer_model_name":"奥迪A5 Cabriolet 2017款 2.0T 40TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"23009"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"888"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 4.2FSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1245"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2010款 5.2FSI Quattro 四驱 AMT","c_transmission_type":"半自动变速器","t_letter":"A","tid":"3288"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 3.0T 50TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1110"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2014款 3.0T 45TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12981"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI DCT 彩色梦幻版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3832"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2012款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1114"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2010-2017）","c_timer_model_name":"奥迪S5 Sportback 2010款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3449"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2017款 3.0T 50TFSI Quattro 四驱 DCT 动感版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20629"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI Quattro 四驱 DCT 黑色旋风版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3829"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 45TFSI CVT 舒适版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16654"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1273"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TTS Roadster（2016-","c_timer_model_name":"奥迪TTS Roadster 2016款 2.0T 45TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"19039"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2010款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1100"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2017款 1.8T 35TFSI DCT 时尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20633"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2013款 1.8T 35TFSI DCT 尊贵版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"898"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A6 Allroad（2015-","c_timer_model_name":"奥迪A6 Allroad 2015款 3.0T Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16652"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2008-2015）","c_timer_model_name":"奥迪TT Roadster 2013款 2.0T 45TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3841"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI Quattro 四驱 DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1105"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2013款 1.4T 30TFSI DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"12041"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 3.0TFSI 245KW Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1253"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2013款 2.0T 40TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1128"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2014款 2.0T 45TFSI Quattro 四驱 DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1088"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Coupe（2008-2017）","c_timer_model_name":"奥迪S5 Coupe 2012款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3448"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 6.0L Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1228"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2011款 2.0TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3825"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2010-2017）","c_timer_model_name":"奥迪S5 Sportback 2012款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3450"},{"c_capacity_in_litre_L":"4.2T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 4.2TDI Quattro 四驱 A/MT 柴油版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13623"},{"c_capacity_in_litre_L":"2.8L","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2012款 2.8FSI Quattro 四驱 DCT 进取版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1213"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 3.0T 50TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17781"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S6（2013-","c_timer_model_name":"奥迪S6 2017款 4.0TFSI 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20555"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 6.3FSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1254"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 改款 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17870"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TDI 四驱 A/MT 柴油 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3162"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1271"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2007款 6.0L Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13625"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 3.0TFSI 245KW 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3151"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2015-","c_timer_model_name":"奥迪TT Coupe 2015款 2.0T 45TFSI Quattro 四驱 DCT 复仇者联盟决胜版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17183"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 40TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3160"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.4T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"899"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8 Spyder（2011-","c_timer_model_name":"奥迪R8 Spyder 2011款 5.2FSI Quattro 四驱 AMT","c_transmission_type":"半自动变速器","t_letter":"A","tid":"3295"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 3.0T 50TFSI Quattro 四驱 DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1219"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2013款 3.0T 45TFSI Quattro 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3110"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S3 Limousine（2014-","c_timer_model_name":"奥迪S3 2017款 2.0T Limousine 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"19890"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Coupe（2008-2017）","c_timer_model_name":"奥迪S5 Coupe 2014款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13657"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5 Hybrid（2009-","c_timer_model_name":"进口奥迪Q5 Hybrid 2013款 2.0T 40TFSI 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3103"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2009款 3.6FSI 四驱 A/MT 越野技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3121"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2012款 6.3FSI Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1260"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2008款 6.0L 四驱 A/MT 至尊旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1239"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2014款 2.0T 45TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1091"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S3 Limousine（2014-","c_timer_model_name":"奥迪S3 Limousine 2017款 2.0T 改款 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22358"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2017款 3.0T 50TFSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"21521"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪SQ5（2013-","c_timer_model_name":"奥迪SQ5 2017款 3.0TFSI quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"20554"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2012款 1.8T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"906"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Cabriolet（2008-2017）","c_timer_model_name":"奥迪S5 Cabriolet 2016款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16656"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪RS6（2016-","c_timer_model_name":"奥迪RS6 2016款 4.0T Avant 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"19651"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8 Spyder（2011-","c_timer_model_name":"奥迪R8 Spyder 2014款 4.2FSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3293"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2012款 1.4T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"903"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2013款 2.0T 40TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1127"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2008-2015）","c_timer_model_name":"奥迪TT Roadster 2008款 2.0TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3835"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1107"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2014款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1085"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16655"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16659"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2007款 4.2FSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3117"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2008款 2.0TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3822"},{"c_capacity_in_litre_L":"6.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"无","HID_light":"无","aircon_mode":"手动有","alloy_wheel":"无","auto_head_light":"无","brand_id_timing":"21","c_MSRP_newest":"93800","c_capacity_in_litre_L":"1.3L","c_drive_form":"前轮驱动","c_engine_model":"L13A3","c_fuel_type":"汽油","c_model_interior_code":"GD6","c_model_name":"思迪 2007款 1.3L","c_model_year":"2007","c_oem_abbrebiation":"广汽本田","c_oem_brand":"本田","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","c_series_BBG":"思迪（2006-2008）","c_series_name":"思迪","c_structure":"三厢车","c_timer_model_id":"TM1754","c_timer_model_name":"思迪 2007款 1.3L MT 标准版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT686","c_timer_type_name":"思迪 L13A3 前轮驱动 5MT（2006-2008）","c_transmission_type":"手动变速器","cruise":"无","ele_rearview_adj":"有","ele_rearview_fold":"无","ele_seats_adj":"无","ele_sunroof":"无","epc_no":"11","front_tire_spec":"175/65 R14","head_light_clean_sys":"无","keyless_boot":"无","large_color_LCD":"无","leather_seat":"无","make_id_timing":"51","multi_steering_wheel_adj":"无","pano_sunroof":"无","parking_radar":"无","pic_path":"/carmodel/思迪（2006-2008）.jpg","rear_tire_spec":"175/65 R14","reversing_video":"无","seat_heating":"无","series_id_timing":"749","t_HL_version":"标准版","t_id":"9417","t_letter":"B","timer_type":"L13A3前轮驱动5档手动变速器"}]}</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":1000, "result":[{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"YZ4DC2-30","c_fuel_type":"柴油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18569","c_timer_model_name":"金典 2007款 2.1T MT 长厢长轴 柴油 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6242","c_timer_type_name":"金典 YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"1","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18608","update_time":"1900-01-01 00:00:00.0","xid":"6242"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"61800","c_MSRP_newest":"61800","c_capacity_in_litre_CC":"2156","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"SD4W55A/YZ4D21TC","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"-","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18570","c_timer_model_name":"金典 2007款 2.2L MT 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6241","c_timer_type_name":"金典 SD4W55A/YZ4D21TC 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"2","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18609","update_time":"1900-01-01 00:00:00.0","xid":"6241"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18571","c_timer_model_name":"金典 2007款 2.5T MT 标准厢 标准版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"3","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18610","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18572","c_timer_model_name":"金典 2007款 2.5T MT 标准厢 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"4","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18611","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18574","c_timer_model_name":"金典 2007款 2.5T MT 加长厢 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"5","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18613","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18575","c_timer_model_name":"金典 2009款 2.1T MT 短轴短厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"6","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18614","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18576","c_timer_model_name":"金典 2009款 2.1T MT 短轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"7","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18615","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18577","c_timer_model_name":"金典 2009款 2.1T MT 短厢长轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"8","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18616","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18578","c_timer_model_name":"金典 2009款 2.1T MT 长轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"9","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18617","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18580","c_timer_model_name":"金典 2009款 2.2L MT 短厢短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"10","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18619","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18581","c_timer_model_name":"金典 2009款 2.2L MT 短厢长轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"11","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18620","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18582","c_timer_model_name":"金典 2009款 2.2L MT 短厢长轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"12","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18621","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18583","c_timer_model_name":"金典 2009款 2.2L MT 长厢短轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"13","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18622","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18584","c_timer_model_name":"金典 2009款 2.2L MT 长厢短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"14","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18623","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18585","c_timer_model_name":"金典 2009款 2.2L MT 长厢长轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"15","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18624","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18587","c_timer_model_name":"金典 2009款 2.5T MT 短厢短轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"16","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18626","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18588","c_timer_model_name":"金典 2009款 2.5T MT 短轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"17","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18627","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18589","c_timer_model_name":"金典 2009款 2.5T MT 短厢长轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"18","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18628","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18590","c_timer_model_name":"金典 2009款 2.5T MT 长轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"19","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18629","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"65800","c_MSRP_newest":"65800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18591","c_timer_model_name":"金典009 2014款 2.2L MT 短轴 CNG 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"20","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18630","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"58800","c_MSRP_newest":"58800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18592","c_timer_model_name":"金典009 2014款 2.2L MT 短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"21","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18631","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"67800","c_MSRP_newest":"67800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18593","c_timer_model_name":"金典009 2014款 2.2L MT 长轴 CNG 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"22","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18632","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"68800","c_MSRP_newest":"68800","c_capacity_in_litre_CC":"2184","c_capacity_in_litre_L":"2.2T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"D22A","c_fuel_type":"柴油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_o</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":5375, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"1","timer_name":"变速箱冷却器","timer_stand_name":"变速箱冷却器","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"2","timer_name":"变速箱油冷却器出油管","timer_stand_name":"变速箱油冷却器出油管","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"3","timer_name":"变速箱油冷却器进油管","timer_stand_name":"变速箱油冷却器进油管","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"5","timer_name":"手动变速箱后盖","timer_stand_name":"手动变速箱后盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"6","timer_name":"手动变速箱前盖","timer_stand_name":"手动变速箱前盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"7","timer_name":"手动变器箱盖密封垫","timer_stand_name":"手动变器箱盖密封垫","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"8","timer_name":"倒档拨叉","timer_stand_name":"倒档拨叉","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"9","timer_name":"手动变速箱壳体","timer_stand_name":"手动变速箱壳体","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"10","timer_name":"飞轮壳","timer_stand_name":"飞轮壳","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"11","timer_name":"手动变速箱总成","timer_stand_name":"手动变速箱总成","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"12","timer_name":"手动变速箱上盖","timer_stand_name":"手动变速箱上盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"13","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"14","timer_name":"手动变速箱输出轴","timer_stand_name":"手动变速箱输出轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"15","timer_name":"手动变速箱输入轴","timer_stand_name":"手动变速箱输入轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"16","timer_name":"手动变速箱中间轴","timer_stand_name":"手动变速箱中间轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"17","timer_name":"手动变速箱修理包","timer_stand_name":"手动变速箱修理包","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"18","timer_name":"手动变速箱输出轴油封","timer_stand_name":"手动变速箱油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"19","timer_name":"手动变速箱输入轴油封","timer_stand_name":"手动变速箱油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"20","timer_name":"手动变速箱差速器","timer_stand_name":"手动变速箱差速器","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"21","timer_name":"手动变速箱差速器油封","timer_stand_name":"手动变速箱差速器油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"22","timer_name":"手动变速箱倒档开关","timer_stand_name":"倒档开关","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"24","timer_name":"双离合变速箱前壳体油封","timer_stand_name":"双离合变速箱前壳体油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"25","timer_name":"双离合变速箱油泵","timer_stand_name":"双离合变速箱油泵","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"26","timer_name":"双离合变速箱油泵齿轮","timer_stand_name":"双离合变速箱油泵齿轮","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"27","timer_name":"双离合变速箱油泵盖","timer_stand_name":"双离合变速箱油泵盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"28","timer_name":"双离合变速箱输出轴","timer_stand_name":"双离合变速箱输出轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"29","timer_name":"双离合变速箱输入轴","timer_stand_name":"双离合变速箱输入轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"31","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"32","timer_name":"双离合变速箱电磁阀","timer_stand_name":"双离合变速箱电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"33","timer_name":"双离合变速箱油标尺","timer_stand_name":"双离合变速箱油标尺","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"34","timer_name":"双离合变速箱油标尺管","timer_stand_name":"双离合变速箱油标尺管","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"35","timer_name":"双离合变速箱壳体","timer_stand_name":"双离合变速箱壳体","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"36","timer_name":"双离合变速箱修理包","timer_stand_name":"双离合变速箱修理包","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"37","timer_name":"双离合变速箱油底壳","timer_stand_name":"双离合变速箱油底壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"38","timer_name":"双离合变速箱总成","timer_stand_name":"双离合变速箱总成","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"39","timer_name":"双离合变速箱后盖","timer_stand_name":"双离合变速箱后盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"40","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"41","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"42","timer_name":"双离合变速箱过滤网","timer_stand_name":"双离合变速箱过滤网","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"43","timer_name":"双离合变速箱单电磁阀","timer_stand_name":"双离合变速箱单电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"44","timer_name":"双离合变速箱壳体密封垫","timer_stand_name":"双离合变速箱壳体密封垫","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"45","timer_name":"双离合变速箱前盖","timer_stand_name":"双离合变速箱前盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"46","timer_name":"双离合变速箱双电磁阀","timer_stand_name":"双离合变速箱双电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"47","timer_name":"双离合变速箱油滤清器","timer_stand_name":"双离合变速箱油滤清器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"48","timer_name":"双离合变速箱中壳","timer_stand_name":"双离合变速箱中壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"51","timer_name":"双离合变器箱盖密封垫","timer_stand_name":"双离合变器箱盖密封垫","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"54","timer_name":"双离合变速箱上盖","timer_stand_name":"双离合变速箱上盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"55","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"58","timer_name":"双离合变速箱中间轴","timer_stand_name":"双离合变速箱中间轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"60","timer_name":"双离合变速箱输出轴油封","timer_stand_name":"双离合变速箱油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"61","timer_name":"双离合变速箱输入轴油封","timer_stand_name":"双离合变速箱油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"62","timer_name":"双离合变速箱差速器","timer_stand_name":"双离合变速箱差速器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"63","timer_name":"双离合变速箱差速器油封","timer_stand_name":"双离合变速箱差速器油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"64","timer_name":"双离合变速箱多电磁阀","timer_stand_name":"双离合变速箱多电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"67","timer_name":"干式双离合器","timer_stand_name":"干式双离合器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"68","timer_name":"湿式双离合器","timer_stand_name":"湿式双离合器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"69","timer_name":"双离合变速箱通气软管","timer_stand_name":"双离合变速箱通气软管","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"70","timer_name":"双离合变速箱油底壳排油螺栓","timer_stand_name":"双离合变速箱油底壳排油螺栓","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"71","timer_name":"液力变矩器壳","timer_stand_name":"液力变矩器壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"72","timer_name":"CVT变速箱前壳体油封","timer_stand_name":"CVT变速箱前壳体油封","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"73","timer_name":"CVT变速箱油泵","timer_stand_name":"CVT变速箱油泵","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"74","timer_name":"液力变矩器","timer_stand_name":"液力变矩器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"75","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"76","timer_name":"CVT变速箱电磁阀","timer_stand_name":"CVT变速箱电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"77","timer_name":"CVT变速箱油标尺","timer_stand_name":"CVT变速箱油标尺","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"78","timer_name":"CVT变速箱油标尺管","timer_stand_name":"CVT变速箱油标尺管","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"79","timer_name":"CVT变速箱壳体","timer_stand_name":"CVT变速箱壳体","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"80","timer_name":"CVT变速箱修理包","timer_stand_name":"CVT变速箱修理包","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"81","timer_name":"CVT变速箱油底壳","timer_stand_name":"CVT变速箱油底壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"82","timer_name":"CVT变速箱总成","timer_stand_name":"CVT变速箱总成","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"83","timer_name":"CVT变速箱后盖","timer_stand_name":"CVT变速箱后盖","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"84","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"85","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"86","timer_name":"CVT变速箱过滤网","timer_stand_name":"CVT变速箱过滤网","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"87","timer_name":"CVT变速箱单电磁阀","timer_stand_name":"CVT变速箱单电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"88","timer_name":"CVT变速箱壳体密封垫","timer_stand_name":"CVT变速箱壳体密封垫","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"89","timer_name":"CVT变速箱前盖","timer_stand_name":"CVT变速箱前盖","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"90","timer_name":"CVT变速箱双电磁阀","timer_stand_name":"CVT变速箱双电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"91","timer_name":"CVT变速箱油滤清器","timer_stand_name":"CVT变速箱油滤清器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"92","timer_name":"CVT变速箱中壳","timer_stand_name":"CVT变速箱中壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"93","timer_name":"CVT变速箱差速器","timer_stand_name":"CVT变速箱差速器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"94","timer_name":"CVT变速箱差速器油封","timer_stand_name":"CVT变速箱差速器油封","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"95","timer_name":"CVT变速箱多电磁阀","timer_stand_name":"CVT变速箱多电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"96","timer_name":"CVT变速箱链条","timer_stand_name":"CVT变速箱链条","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"97","timer_name":"CVT变速箱主动波轮","timer_stand_name":"CVT变速箱主动波轮","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"98","timer_name":"CVT变速箱从动波轮","timer_stand_name":"CVT变速箱从动波轮","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"99","timer_name":"CVT变速箱通气软管","timer_stand_name":"CVT变速箱通气软管","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"100","timer_name":"CVT变速箱油底壳排油螺栓","timer_stand_name":"CVT变速箱油底壳排油螺栓","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"101","timer_name":"液力变矩器壳","timer_stand_name":"液力变矩器壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"102","timer_name":"自动变速箱前壳体油封","timer_stand_name":"自动变速箱前壳体油封","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"103","timer_name":"自动变速箱油泵","timer_stand_name":"自动变速箱油泵","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"104","timer_name":"自动变速箱油泵齿轮","timer_stand_name":"自动变速箱油泵齿轮","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"105","timer_name":"自动变速箱油泵盖","timer_stand_name":"自动变速箱油泵盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"106","timer_name":"自动变速箱输出轴","timer_stand_name":"自动变速箱输出轴","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"107","timer_name":"自动变速箱输入轴","timer_stand_name":"自动变速箱输入轴","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"108","timer_name":"液力变矩器","timer_stand_name":"液力变矩器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"109","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"110","timer_name":"自动变速箱电磁阀","timer_stand_name":"自动变速箱电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"111","timer_name":"自动变速箱油标尺","timer_stand_name":"自动变速箱油标尺","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"112","timer_name":"自动变速箱油标尺管","timer_stand_name":"自动变速箱油标尺管","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"113","timer_name":"自动变速箱壳体","timer_stand_name":"自动变速箱壳体","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"114","timer_name":"自动变速箱修理包","timer_stand_name":"自动变速箱修理包","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"115","timer_name":"自动变速箱油底壳","timer_stand_name":"自动变速箱油底壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"116","timer_name":"自动变速箱总成","timer_stand_name":"自动变速箱总成","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"117","timer_name":"自动变速箱后盖","timer_stand_name":"自动变速箱后盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"118","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"119","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"120","timer_name":"自动变速箱过滤网","timer_stand_name":"自动变速箱过滤网","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"121","timer_name":"自动变速箱单电磁阀","timer_stand_name":"自动变速箱单电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"122","timer_name":"自动变速箱壳体密封垫","timer_stand_name":"自动变速箱壳体密封垫","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"123","timer_name":"自动变速箱前盖","timer_stand_name":"自动变速箱前盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"124","timer_name":"自动变速箱双电磁阀","timer_stand_name":"自动变速箱双电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"125","timer_name":"自动变速箱油滤清器","timer_stand_name":"自动变速箱油滤清器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"126","timer_name":"自动变速箱中壳","timer_stand_name":"自动变速箱中壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"127","timer_name":"自动变速箱通气软管","timer_stand_name":"自动变速箱通气软管","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"128","timer_name":"自动变速箱油底壳排油螺栓","timer_stand_name":"自动变速箱油底壳排油螺栓","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"129","timer_name":"自动变速箱差速器","timer_stand_name":"自动变速箱差速器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"130","timer_name":"自动变速箱差速器油封","timer_stand_name":"自动变速箱差速器油封","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"131","timer_name":"自动变速箱多电磁阀","timer_stand_name":"自动变速箱多电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"132","timer_name":"AMT变速箱后盖","timer_stand_name":"AMT变速箱后盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"133","timer_name":"AMT变速箱前盖","timer_stand_name":"AMT变速箱前盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"134","timer_name":"AMT变器箱盖密封垫","timer_stand_name":"AMT变器箱盖密封垫","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"135","timer_name":"AMT变速箱壳体","timer_stand_name":"AMT变速箱壳体","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"136","timer_name":"AMT变速箱总成","timer_stand_name":"AMT变速箱总成","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"137","timer_name":"AMT变速箱上盖","timer_stand_name":"AMT变速箱上盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"138","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"139","timer_name":"AMT变速箱输出轴","timer_stand_name":"AMT变速箱输出轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"140","timer_name":"AMT变速箱输入轴","timer_stand_name":"AMT变速箱输入轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"141","timer_name":"AMT变速箱中间轴","timer_stand_name":"AMT变速箱中间轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"142","timer_name":"AMT变速箱修理包","timer_stand_name":"AMT变速箱修理包","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"143","timer_name":"AMT变速箱输出轴油封","timer_stand_name":"AMT变速箱油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"144","timer_name":"AMT变速箱输入轴油封","timer_stand_name":"AMT变速箱油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"145","timer_name":"AMT变速箱差速器","timer_stand_name":"AMT变速箱差速器","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"146","timer_name":"AMT变速箱差速器油封","timer_stand_name":"AMT变速箱差速器油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"147","timer_name":"AMT变速箱换档执行器","timer_stand_name":"AMT变速箱换档执行器","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"148","timer_name":"AMT变速箱换档执行器储油罐","timer_stand_name":"AMT变速箱换档执行器储油罐","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"149","timer_name":"AMT变速箱换档执行器储油罐盖","timer_stand_name":"AMT变速箱换档执行器储油罐盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"150","timer_name":"AMT变速箱通气软管","timer_stand_name":"AMT变速箱通气软管","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"151","timer_name":"AMT变速箱油底壳排油螺栓","timer_stand_name":"AMT变速箱油底壳排油螺栓","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"152","timer_name":"安全气囊警示标签","timer_stand_name":"安全气囊警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"153","timer_name":"乘客安全气囊警示标签","timer_stand_name":"乘客安全气囊警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"154","timer_name":"儿童保护装置警示标签","timer_stand_name":"儿童保护装置警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"155","timer_name":"防盗标签","timer_stand_name":"防盗标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"156","timer_name":"防冻液指示标签","timer_stand_name":"防冻液指示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"157","timer_name":"空调检修警示标签","timer_stand_name":"空调检修警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"158","timer_name":"空气滤清器提示标签","timer_stand_name":"空气滤清器提示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"159","timer_name":"冷却风扇警示标签","timer_stand_name":"冷却风扇警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"160","timer_name":"轮胎气压标签","timer_stand_name":"轮胎气压标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"161","timer_name":"燃油提示标签","timer_stand_name":"燃油提示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"162","timer_name":"散热器检修警示标签","timer_stand_name":"散热器检修警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"163","timer_name":"中央扶手箱点烟器芯","timer_stand_name":"点烟器芯","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"164","timer_name":"中央扶手箱点烟器座","timer_stand_name":"点烟器座","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"165","timer_name":"中央操纵台","timer_stand_name":"中央操纵台","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"166","timer_name":"中央扶手箱总成","timer_stand_name":"中央扶手箱总成","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"167","timer_name":"中央扶手箱支架","timer_stand_name":"中央扶手箱支架","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"168","timer_name":"中央扶手箱后盖板","timer_stand_name":"中央扶手箱后盖板","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"169","timer_name":"中央扶手箱杯托","timer_stand_name":"中央扶手箱杯托","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"170","timer_name":"中央扶手箱烟灰缸","timer_stand_name":"中央扶手箱烟灰缸","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"171","timer_name":"中央扶手箱扶手","timer_stand_name":"中央扶手箱扶手","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"172","timer_name":"中央扶手箱下部总成","timer_stand_name":"中央扶手箱下部总成","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"173","timer_name":"中央扶手箱盖板","timer_stand_name":"中央扶手箱盖板","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"174","timer_name":"中央扶手箱前点烟器座","timer_stand_name":"点烟器座","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"175","timer_name":"中央扶手箱下壳体","timer_stand_name":"中央扶手箱下壳体","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"176","timer_name":"中央操纵台扶手","timer_stand_name":"中央操纵台扶手","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"177","timer_name":"中央扶手</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":285, "result":[{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴减速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"冷却剂软管 用于带附加加热器 的车","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D - MJ 2011&gt;&gt; ==============================","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠骨架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门锁 车内操纵机构","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"起动机及零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"制动和离合器 踏板机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素大灯","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱 油底壳","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"进气装置 真空设备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于仪表板 照明","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"机油泵 机油滤清器 机油尺 油冷却器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"用于声音系统的 电子零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"散热器风扇 散热器风扇 控制单元 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"储物网 行李网","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"玻璃滑动天窗/外翻式天窗","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"电话 的电子部件 麦克风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"端板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机油泵 传感器模块 单个部件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雨刮器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车辆室内照明 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后座 用于后座椅及 靠背分开的车","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"轮罩内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"废气涡轮增压器 排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"凸轮轴,阀门","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"保险杠线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门 车门密封条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"交流发电机的连接和紧固件 . 多楔皮带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 滑轨","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"弹性装置 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 扰流板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴壳体 法兰轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"接口，用于外部 音频源 CD换碟机 显示和操作单元 用于带收音机的车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向柱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"传动轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"转向柱组合开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"主减速器 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带饰板 的换挡杆头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"可调节靠背和腰部支撑的 线束 线束，用于 多媒体装备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D &gt;&gt; - MJ 2012","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱毡垫 锁架盖板 行李箱饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"子午线轮胎","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地毯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机和变速器上的 开关和传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"活塞","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"6档手动变速箱，带 分动箱和 中间差速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖 汽缸盖罩盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素前雾灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"电子控制空调器 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"散热器 补偿罐","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"油门踏板，带电子装置 模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"遮阳卷帘","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"单个部件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车身前部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"真空泵","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"安全气囊单元 (副驾驶员位置)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 7档复式离合器变速器 *防盗驶离装置的电气部件 *只有根据车底盘号码在签 *约工厂即时内装才可订货 . . .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"驾驶员舱和货舱 之间的网状隔板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 弯道灯 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门电线束 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"横摆臂 车轮轴承壳体","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"导轨 盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车窗升降器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车载电网电源模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"离合器 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车外后视镜","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"铝合金轮辋 车轮装饰罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防抱死系统(ABS) 电子稳定程序 -ESP-","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火起动开关 电子转向柱锁 控制单元 进入及起动许可 控制单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口 脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门内饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"变速箱壳体 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门盖板里的开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板隔热装置 连接支撑件，用于 底板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"油箱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 配气机构盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车顶线束 线束，用于驻车 暖风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D &gt;&gt; - MJ 2010","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于电控 机械式转向助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"增压空气冷却器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 接口，用于外部 音频源 电线束 单个部件 适配接头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"显示和操作单元 用于多媒体接口'MMI'","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"弹性装置 稳定杆 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"带折叠轮胎（应急车轮）的 铝合金轮辋","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"清洗刮水装置用于 后尾窗玻璃","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"串联式制动主缸 补偿罐 制动液","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁 A柱内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"燃油输送单元和 燃油存量显示 传感器 燃油泵 控制单元 引流泵 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"主动式转向系 控制单元 特种汽车控制单元 用于配备 特殊内装和/或改装件的车辆","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雷达传感器 用于带速度调节装置 及自动间隔调整器的 车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"马达线束 喷油阀 线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"三角皮带一览表","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 安全带报警系统","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围板裁切件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"内室线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束 喷油阀 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧面安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"驱动轴 齿轮与轴 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"数据总线 诊断接口（网关）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"油底壳","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背垫 靠背面罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"组合仪表 无线电时钟接收器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"头部安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于自动变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"座椅底架（可电动 调节）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板横梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 踏板","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"随车工具","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"油罐及连接件, 软管 . D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯清洗装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"支撑臂 车轮轴承壳体 稳定杆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"副车架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座 ----","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"导航系统用的电气零件 . 光缆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向器 用于带电动/机械转向 系统的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油箱及 安装件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背调节装置 的电子部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元壳体 发动机控制单元 发动机转速传感器 爆震传感器 氧传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门玻璃,侧围玻璃, 风挡玻璃,后风挡玻璃, 翼子板,车门和侧围件 用饰条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱盖板 封盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 变矩器 油底壳 ----8HP55A----","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带可电动调节装置 的空调 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"冷却液循环 驻车暖风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 油底壳 用于七档复式离合器变速器 . ---DL-501-7Q-","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 座椅通风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油管路 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"烟灰缸","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管 用于装有起动-停车-运行设备的 车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"通风格栅","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火线圈 火花塞 脉冲传感器 凸轮轴","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"方向盘安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"中间扶手","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯 D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"尾灯 制动信号灯 牌照灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"变压器 ==============================","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"牌照支架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"锁芯 钥匙","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"差速器 动力总成 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池正极线束 线束，用于起动机和 三相交流发电机， 带接地线 跨接起动接口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器 水连接套管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"中部消音器及 后消音器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座 用于带可折迭靠背的车型 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"防抱死系统(ABS)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防盗报警装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"摆动半轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件 占用识别 用于座椅","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶行李架基架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动管 制动软管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点烟器 插座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"手机预装备电气零件 . 用于带CAN-BUS的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"Climatronic自动空 调操作与显示 单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门把手，外部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板 仪表盘装配件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带 ***** 注意危险品 ****** 注意修理手册","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"自安装用线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"带连接件的 空气滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"仪表板线束","sub_assemb</t>
   </si>
   <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id</t>
@@ -301,7 +502,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +540,106 @@
       <color indexed="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -370,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,6 +685,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -686,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -749,7 +1070,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -913,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -936,10 +1257,10 @@
         <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -959,10 +1280,214 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="I11" t="s">
-        <v>71</v>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -978,18 +1503,30 @@
     <hyperlink ref="D8" r:id="rId8"/>
     <hyperlink ref="D9" r:id="rId9"/>
     <hyperlink ref="D10" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D22" r:id="rId12"/>
+    <hyperlink ref="D13" r:id="rId13"/>
+    <hyperlink ref="D23" r:id="rId14"/>
+    <hyperlink ref="D14" r:id="rId15"/>
+    <hyperlink ref="D15" r:id="rId16"/>
+    <hyperlink ref="D21" r:id="rId17"/>
+    <hyperlink ref="D16" r:id="rId18"/>
+    <hyperlink ref="D17" r:id="rId19"/>
+    <hyperlink ref="D18" r:id="rId20"/>
+    <hyperlink ref="D19" r:id="rId21"/>
+    <hyperlink ref="D20" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1107,7 +1644,7 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1149,10 +1686,142 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -1185,112 +1854,233 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>74</v>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1329,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1351,144 +2141,298 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
+        <v>111</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
+        <v>108</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
+        <v>92</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
+        <v>115</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C17" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
+      <c r="C21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/api-test.xlsx
+++ b/src/test/resources/api-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="138">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,9 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"120000"},{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}</t>
-  </si>
-  <si>
     <t>text/plain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,104 +402,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>/carModel/getCarModelInfoByTid?grant_code=test&amp;tid=9417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPostCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/carModel/getCarModelByTid?tid=3104&amp;grant_code=test&amp;isCN=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTid</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":200, "size":1, "result":[{"tid":"5280"}]}</t>
+  </si>
+  <si>
+    <t>getPartsInfo</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":30, "result":[{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1661381","kps_code":"79714MV100","kps_name":"垫片","per_use_num":"6","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"79714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2092190","kps_code":"90100MV100","kps_name":"尾门","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90100","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:R;备注:无ED件","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1714","timer_name":"举升门","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127929","kps_code":"90830MP100","kps_name":"防水条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90210","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1716","timer_name":"举升门密封条","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2104822","kps_code":"90300MV100","kps_name":"玻璃","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90313","remark_brief":"","remark_detail":"适用车型:AAABAC;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"2546","timer_name":"举升门玻璃","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109061","kps_code":"90392MV100","kps_name":"玻璃护板","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90335","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127630","kps_code":"90810MV400","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810M","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1731","timer_name":"举升门装饰条","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127652","kps_code":"90812MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127656","kps_code":"90813MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90811","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1336650","kps_code":"60895MP100","kps_name":"缓冲橡皮","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90815","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1405068","kps_code":"64899MV100","kps_name":"保护板","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90816","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109253","kps_code":"90400MV100","kps_name":"铰链","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90410M","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1713","timer_name":"举升门铰链","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781547","kps_code":"MLA08Z1698","kps_name":"螺丝","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2813004","kps_code":"NM12Z9081A","kps_name":"螺母","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111850","kps_code":"90454MP100","kps_name":"支架","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1594642","kps_code":"72714MP100","kps_name":"垫片","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"72714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109144","kps_code":"90395MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90395","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109177","kps_code":"90396MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90396","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111963","kps_code":"90457MP110","kps_name":"球形接头","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90457","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111553","kps_code":"90450MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424Q","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1717","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111661","kps_code":"90451MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90425Q","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1719","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2121302","kps_code":"90606MP100","kps_name":"开关","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90606N","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781569","kps_code":"MMU05Z1623","kps_name":"螺丝","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"6402","kps_code":"01225N0002","kps_name":"螺母","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2812986","kps_code":"NM01Z40537","kps_name":"螺母","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2107325","kps_code":"90359MV100","kps_name":"夹子","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90834E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533817","kps_code":"26557MP100","kps_name":"塞扣","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533818","kps_code":"26557MP200","kps_name":"塞扣","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116633","kps_code":"90526MP100","kps_name":"阻尼器","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90526","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116704","kps_code":"90528MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90528","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116740","kps_code":"90529MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90529","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"}]}</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":100, "size":1, "result":[{"c_oem_brand":"大众","c_oem_name":"大众","c_timer_model_name":"大众 大众 TOUA BHK","epc_code":"616","vin":"WVGAV67L59D034378"}]}</t>
+  </si>
+  <si>
+    <t>getPostCode1</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":200, "size":4, "result":[{"tid":"null,null,null,null"}]}</t>
+  </si>
+  <si>
+    <t>getPostCode</t>
+  </si>
+  <si>
+    <t>DataFunc([{"TID":"19005","retCode":"2504"},{"TID":"19006","retCode":"2504"},{"TID":"19007","retCode":"2504"},{"TID":"19008","retCode":"2504"}])</t>
+  </si>
+  <si>
+    <t>getOnlyTid</t>
+  </si>
+  <si>
+    <t>getAllCarModel</t>
+  </si>
+  <si>
+    <t>getTimerStandardParts</t>
+  </si>
+  <si>
+    <t>getAssemblyCatalogue</t>
+  </si>
+  <si>
+    <t>getPicInfo</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":84, "result":[{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"}]}</t>
+  </si>
+  <si>
+    <t>text/plain</t>
+  </si>
+  <si>
+    <t>text/plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>application/json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>getTid</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":200, "size":1, "result":[{"tid":"5280"}]}</t>
-  </si>
-  <si>
-    <t>application/json; charset=UTF-8</t>
-  </si>
-  <si>
-    <t>getPartsInfo</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":30, "result":[{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1661381","kps_code":"79714MV100","kps_name":"垫片","per_use_num":"6","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"79714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2092190","kps_code":"90100MV100","kps_name":"尾门","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90100","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:R;备注:无ED件","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1714","timer_name":"举升门","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127929","kps_code":"90830MP100","kps_name":"防水条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90210","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1716","timer_name":"举升门密封条","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2104822","kps_code":"90300MV100","kps_name":"玻璃","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90313","remark_brief":"","remark_detail":"适用车型:AAABAC;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"2546","timer_name":"举升门玻璃","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109061","kps_code":"90392MV100","kps_name":"玻璃护板","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90335","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127630","kps_code":"90810MV400","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810M","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1731","timer_name":"举升门装饰条","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127652","kps_code":"90812MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127656","kps_code":"90813MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90811","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1336650","kps_code":"60895MP100","kps_name":"缓冲橡皮","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90815","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1405068","kps_code":"64899MV100","kps_name":"保护板","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90816","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109253","kps_code":"90400MV100","kps_name":"铰链","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90410M","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1713","timer_name":"举升门铰链","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781547","kps_code":"MLA08Z1698","kps_name":"螺丝","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2813004","kps_code":"NM12Z9081A","kps_name":"螺母","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111850","kps_code":"90454MP100","kps_name":"支架","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1594642","kps_code":"72714MP100","kps_name":"垫片","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"72714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109144","kps_code":"90395MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90395","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109177","kps_code":"90396MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90396","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111963","kps_code":"90457MP110","kps_name":"球形接头","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90457","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111553","kps_code":"90450MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424Q","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1717","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111661","kps_code":"90451MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90425Q","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1719","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2121302","kps_code":"90606MP100","kps_name":"开关","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90606N","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781569","kps_code":"MMU05Z1623","kps_name":"螺丝","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"6402","kps_code":"01225N0002","kps_name":"螺母","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2812986","kps_code":"NM01Z40537","kps_name":"螺母","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2107325","kps_code":"90359MV100","kps_name":"夹子","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90834E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533817","kps_code":"26557MP100","kps_name":"塞扣","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533818","kps_code":"26557MP200","kps_name":"塞扣","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116633","kps_code":"90526MP100","kps_name":"阻尼器","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90526","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116704","kps_code":"90528MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90528","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116740","kps_code":"90529MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90529","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"}]}</t>
-  </si>
-  <si>
-    <t>text/plain;charset=UTF-8</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":100, "size":1, "result":[{"c_oem_brand":"大众","c_oem_name":"大众","c_timer_model_name":"大众 大众 TOUA BHK","epc_code":"616","vin":"WVGAV67L59D034378"}]}</t>
-  </si>
-  <si>
-    <t>getPostCode1</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":200, "size":4, "result":[{"tid":"null,null,null,null"}]}</t>
-  </si>
-  <si>
-    <t>getPostCode</t>
-  </si>
-  <si>
-    <t>DataFunc([{"TID":"19005","retCode":"2504"},{"TID":"19006","retCode":"2504"},{"TID":"19007","retCode":"2504"},{"TID":"19008","retCode":"2504"}])</t>
-  </si>
-  <si>
-    <t>getOnlyTid</t>
-  </si>
-  <si>
-    <t>getAllCarModel</t>
-  </si>
-  <si>
-    <t>getTimerStandardParts</t>
-  </si>
-  <si>
-    <t>java.lang.AssertionError: JSON path list[3].result.c_model_year doesn't match.
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">java.lang.AssertionError: JSON path list[3].result.c_model_year doesn't match.
 Expected: (a collection containing "2010")
   Actual: [2013, 2012, 2014, 2014, 2014, 2012, 2014, 2014, 2014, 2013, 2013, 2012, 2014, 2014, 2013, 2013]
-application/json; charset=UTF-8</t>
-  </si>
-  <si>
-    <t>getAssemblyCatalogue</t>
-  </si>
-  <si>
-    <t>getPicInfo</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":84, "result":[{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"}]}</t>
-  </si>
-  <si>
-    <t>/carModel/getCarModelInfoByTid?grant_code=test&amp;tid=9417</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/carModel/getCarModelByTid?&amp;tid=3104&amp;grant_code=test&amp;isCN=0</t>
+</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"120000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.lang.AssertionError: Response body doesn't match expectation.
+Expected: "{\"desc\":\"查询成功！\", \"statusCode\":1, \"size\":20, \"result\":[{\"M_KILOMETER\":\"120000\"},{\"M_KILOMETER\":\"80000\"},{\"M_KILOMETER\":\"100000\"},{\"M_KILOMETER\":\"20000\"},{\"M_KILOMETER\":\"40000\"},{\"M_KILOMETER\":\"60000\"},{\"M_KILOMETER\":\"200000\"},{\"M_KILOMETER\":\"140000\"},{\"M_KILOMETER\":\"160000\"},{\"M_KILOMETER\":\"180000\"},{\"M_KILOMETER\":\"70000\"},{\"M_KILOMETER\":\"90000\"},{\"M_KILOMETER\":\"110000\"},{\"M_KILOMETER\":\"130000\"},{\"M_KILOMETER\":\"10000\"},{\"M_KILOMETER\":\"30000\"},{\"M_KILOMETER\":\"50000\"},{\"M_KILOMETER\":\"150000\"},{\"M_KILOMETER\":\"170000\"},{\"M_KILOMETER\":\"190000\"}]}"
+  Actual: {"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"120000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}
+</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":1000, "result":[{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"YZ4DC2-30","c_fuel_type":"柴油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18569","c_timer_model_name":"金典 2007款 2.1T MT 长厢长轴 柴油 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6242","c_timer_type_name":"金典 YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"1","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18608","update_time":"1900-01-01 00:00:00.0","xid":"6242"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"61800","c_MSRP_newest":"61800","c_capacity_in_litre_CC":"2156","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"SD4W55A/YZ4D21TC","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"-","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18570","c_timer_model_name":"金典 2007款 2.2L MT 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6241","c_timer_type_name":"金典 SD4W55A/YZ4D21TC 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"2","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18609","update_time":"1900-01-01 00:00:00.0","xid":"6241"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18571","c_timer_model_name":"金典 2007款 2.5T MT 标准厢 标准版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"3","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18610","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18572","c_timer_model_name":"金典 2007款 2.5T MT 标准厢 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"4","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18611","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18574","c_timer_model_name":"金典 2007款 2.5T MT 加长厢 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"5","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18613","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18575","c_timer_model_name":"金典 2009款 2.1T MT 短轴短厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"6","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18614","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18576","c_timer_model_name":"金典 2009款 2.1T MT 短轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"7","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18615","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18577","c_timer_model_name":"金典 2009款 2.1T MT 短厢长轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"8","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18616","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18578","c_timer_model_name":"金典 2009款 2.1T MT 长轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"9","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18617","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18580","c_timer_model_name":"金典 2009款 2.2L MT 短厢短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"10","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18619","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18581","c_timer_model_name":"金典 2009款 2.2L MT 短厢长轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"11","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18620","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18582","c_timer_model_name":"金典 2009款 2.2L MT 短厢长轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"12","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18621","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18583","c_timer_model_name":"金典 2009款 2.2L MT 长厢短轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"13","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18622","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18584","c_timer_model_name":"金典 2009款 2.2L MT 长厢短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"14","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18623","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18585","c_timer_model_name":"金典 2009款 2.2L MT 长厢长轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"15","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18624","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18587","c_timer_model_name":"金典 2009款 2.5T MT 短厢短轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"16","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18626","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18588","c_timer_model_name":"金典 2009款 2.5T MT 短轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"17","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18627","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18589","c_timer_model_name":"金典 2009款 2.5T MT 短厢长轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"18","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18628","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18590","c_timer_model_name":"金典 2009款 2.5T MT 长轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"19","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18629","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"65800","c_MSRP_newest":"65800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18591","c_timer_model_name":"金典009 2014款 2.2L MT 短轴 CNG 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"20","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18630","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"58800","c_MSRP_newest":"58800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18592","c_timer_model_name":"金典009 2014款 2.2L MT 短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"21","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18631","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"67800","c_MSRP_newest":"67800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18593","c_timer_model_name":"金典009 2014款 2.2L MT 长轴 CNG 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"22","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18632","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"68800","c_MSRP_newest":"68800","c_capacity_in_litre_CC":"2184","c_capacity_in_litre_L":"2.2T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"D22A","c_fuel_type":"柴油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_o</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":5375, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"1","timer_name":"变速箱冷却器","timer_stand_name":"变速箱冷却器","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"2","timer_name":"变速箱油冷却器出油管","timer_stand_name":"变速箱油冷却器出油管","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"3","timer_name":"变速箱油冷却器进油管","timer_stand_name":"变速箱油冷却器进油管","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"5","timer_name":"手动变速箱后盖","timer_stand_name":"手动变速箱后盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"6","timer_name":"手动变速箱前盖","timer_stand_name":"手动变速箱前盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"7","timer_name":"手动变器箱盖密封垫","timer_stand_name":"手动变器箱盖密封垫","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"8","timer_name":"倒档拨叉","timer_stand_name":"倒档拨叉","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"9","timer_name":"手动变速箱壳体","timer_stand_name":"手动变速箱壳体","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"10","timer_name":"飞轮壳","timer_stand_name":"飞轮壳","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"11","timer_name":"手动变速箱总成","timer_stand_name":"手动变速箱总成","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"12","timer_name":"手动变速箱上盖","timer_stand_name":"手动变速箱上盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"13","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"14","timer_name":"手动变速箱输出轴","timer_stand_name":"手动变速箱输出轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"15","timer_name":"手动变速箱输入轴","timer_stand_name":"手动变速箱输入轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"16","timer_name":"手动变速箱中间轴","timer_stand_name":"手动变速箱中间轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"17","timer_name":"手动变速箱修理包","timer_stand_name":"手动变速箱修理包","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"18","timer_name":"手动变速箱输出轴油封","timer_stand_name":"手动变速箱油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"19","timer_name":"手动变速箱输入轴油封","timer_stand_name":"手动变速箱油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"20","timer_name":"手动变速箱差速器","timer_stand_name":"手动变速箱差速器","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"21","timer_name":"手动变速箱差速器油封","timer_stand_name":"手动变速箱差速器油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"22","timer_name":"手动变速箱倒档开关","timer_stand_name":"倒档开关","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"24","timer_name":"双离合变速箱前壳体油封","timer_stand_name":"双离合变速箱前壳体油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"25","timer_name":"双离合变速箱油泵","timer_stand_name":"双离合变速箱油泵","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"26","timer_name":"双离合变速箱油泵齿轮","timer_stand_name":"双离合变速箱油泵齿轮","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"27","timer_name":"双离合变速箱油泵盖","timer_stand_name":"双离合变速箱油泵盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"28","timer_name":"双离合变速箱输出轴","timer_stand_name":"双离合变速箱输出轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"29","timer_name":"双离合变速箱输入轴","timer_stand_name":"双离合变速箱输入轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"31","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"32","timer_name":"双离合变速箱电磁阀","timer_stand_name":"双离合变速箱电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"33","timer_name":"双离合变速箱油标尺","timer_stand_name":"双离合变速箱油标尺","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"34","timer_name":"双离合变速箱油标尺管","timer_stand_name":"双离合变速箱油标尺管","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"35","timer_name":"双离合变速箱壳体","timer_stand_name":"双离合变速箱壳体","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"36","timer_name":"双离合变速箱修理包","timer_stand_name":"双离合变速箱修理包","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"37","timer_name":"双离合变速箱油底壳","timer_stand_name":"双离合变速箱油底壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"38","timer_name":"双离合变速箱总成","timer_stand_name":"双离合变速箱总成","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"39","timer_name":"双离合变速箱后盖","timer_stand_name":"双离合变速箱后盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"40","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"41","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"42","timer_name":"双离合变速箱过滤网","timer_stand_name":"双离合变速箱过滤网","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"43","timer_name":"双离合变速箱单电磁阀","timer_stand_name":"双离合变速箱单电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"44","timer_name":"双离合变速箱壳体密封垫","timer_stand_name":"双离合变速箱壳体密封垫","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"45","timer_name":"双离合变速箱前盖","timer_stand_name":"双离合变速箱前盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"46","timer_name":"双离合变速箱双电磁阀","timer_stand_name":"双离合变速箱双电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"47","timer_name":"双离合变速箱油滤清器","timer_stand_name":"双离合变速箱油滤清器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"48","timer_name":"双离合变速箱中壳","timer_stand_name":"双离合变速箱中壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"51","timer_name":"双离合变器箱盖密封垫","timer_stand_name":"双离合变器箱盖密封垫","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"54","timer_name":"双离合变速箱上盖","timer_stand_name":"双离合变速箱上盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"55","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"58","timer_name":"双离合变速箱中间轴","timer_stand_name":"双离合变速箱中间轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"60","timer_name":"双离合变速箱输出轴油封","timer_stand_name":"双离合变速箱油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"61","timer_name":"双离合变速箱输入轴油封","timer_stand_name":"双离合变速箱油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"62","timer_name":"双离合变速箱差速器","timer_stand_name":"双离合变速箱差速器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"63","timer_name":"双离合变速箱差速器油封","timer_stand_name":"双离合变速箱差速器油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"64","timer_name":"双离合变速箱多电磁阀","timer_stand_name":"双离合变速箱多电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"67","timer_name":"干式双离合器","timer_stand_name":"干式双离合器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"68","timer_name":"湿式双离合器","timer_stand_name":"湿式双离合器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"69","timer_name":"双离合变速箱通气软管","timer_stand_name":"双离合变速箱通气软管","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"70","timer_name":"双离合变速箱油底壳排油螺栓","timer_stand_name":"双离合变速箱油底壳排油螺栓","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"71","timer_name":"液力变矩器壳","timer_stand_name":"液力变矩器壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"72","timer_name":"CVT变速箱前壳体油封","timer_stand_name":"CVT变速箱前壳体油封","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"73","timer_name":"CVT变速箱油泵","timer_stand_name":"CVT变速箱油泵","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"74","timer_name":"液力变矩器","timer_stand_name":"液力变矩器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"75","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"76","timer_name":"CVT变速箱电磁阀","timer_stand_name":"CVT变速箱电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"77","timer_name":"CVT变速箱油标尺","timer_stand_name":"CVT变速箱油标尺","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"78","timer_name":"CVT变速箱油标尺管","timer_stand_name":"CVT变速箱油标尺管","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"79","timer_name":"CVT变速箱壳体","timer_stand_name":"CVT变速箱壳体","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"80","timer_name":"CVT变速箱修理包","timer_stand_name":"CVT变速箱修理包","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"81","timer_name":"CVT变速箱油底壳","timer_stand_name":"CVT变速箱油底壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"82","timer_name":"CVT变速箱总成","timer_stand_name":"CVT变速箱总成","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"83","timer_name":"CVT变速箱后盖","timer_stand_name":"CVT变速箱后盖","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"84","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"85","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"86","timer_name":"CVT变速箱过滤网","timer_stand_name":"CVT变速箱过滤网","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"87","timer_name":"CVT变速箱单电磁阀","timer_stand_name":"CVT变速箱单电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"88","timer_name":"CVT变速箱壳体密封垫","timer_stand_name":"CVT变速箱壳体密封垫","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"89","timer_name":"CVT变速箱前盖","timer_stand_name":"CVT变速箱前盖","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"90","timer_name":"CVT变速箱双电磁阀","timer_stand_name":"CVT变速箱双电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"91","timer_name":"CVT变速箱油滤清器","timer_stand_name":"CVT变速箱油滤清器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"92","timer_name":"CVT变速箱中壳","timer_stand_name":"CVT变速箱中壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"93","timer_name":"CVT变速箱差速器","timer_stand_name":"CVT变速箱差速器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"94","timer_name":"CVT变速箱差速器油封","timer_stand_name":"CVT变速箱差速器油封","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"95","timer_name":"CVT变速箱多电磁阀","timer_stand_name":"CVT变速箱多电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"96","timer_name":"CVT变速箱链条","timer_stand_name":"CVT变速箱链条","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"97","timer_name":"CVT变速箱主动波轮","timer_stand_name":"CVT变速箱主动波轮","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"98","timer_name":"CVT变速箱从动波轮","timer_stand_name":"CVT变速箱从动波轮","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"99","timer_name":"CVT变速箱通气软管","timer_stand_name":"CVT变速箱通气软管","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"100","timer_name":"CVT变速箱油底壳排油螺栓","timer_stand_name":"CVT变速箱油底壳排油螺栓","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"101","timer_name":"液力变矩器壳","timer_stand_name":"液力变矩器壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"102","timer_name":"自动变速箱前壳体油封","timer_stand_name":"自动变速箱前壳体油封","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"103","timer_name":"自动变速箱油泵","timer_stand_name":"自动变速箱油泵","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"104","timer_name":"自动变速箱油泵齿轮","timer_stand_name":"自动变速箱油泵齿轮","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"105","timer_name":"自动变速箱油泵盖","timer_stand_name":"自动变速箱油泵盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"106","timer_name":"自动变速箱输出轴","timer_stand_name":"自动变速箱输出轴","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"107","timer_name":"自动变速箱输入轴","timer_stand_name":"自动变速箱输入轴","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"108","timer_name":"液力变矩器","timer_stand_name":"液力变矩器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"109","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"110","timer_name":"自动变速箱电磁阀","timer_stand_name":"自动变速箱电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"111","timer_name":"自动变速箱油标尺","timer_stand_name":"自动变速箱油标尺","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"112","timer_name":"自动变速箱油标尺管","timer_stand_name":"自动变速箱油标尺管","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"113","timer_name":"自动变速箱壳体","timer_stand_name":"自动变速箱壳体","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"114","timer_name":"自动变速箱修理包","timer_stand_name":"自动变速箱修理包","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"115","timer_name":"自动变速箱油底壳","timer_stand_name":"自动变速箱油底壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"116","timer_name":"自动变速箱总成","timer_stand_name":"自动变速箱总成","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"117","timer_name":"自动变速箱后盖","timer_stand_name":"自动变速箱后盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"118","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"119","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"120","timer_name":"自动变速箱过滤网","timer_stand_name":"自动变速箱过滤网","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"121","timer_name":"自动变速箱单电磁阀","timer_stand_name":"自动变速箱单电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"122","timer_name":"自动变速箱壳体密封垫","timer_stand_name":"自动变速箱壳体密封垫","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"123","timer_name":"自动变速箱前盖","timer_stand_name":"自动变速箱前盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"124","timer_name":"自动变速箱双电磁阀","timer_stand_name":"自动变速箱双电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"125","timer_name":"自动变速箱油滤清器","timer_stand_name":"自动变速箱油滤清器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"126","timer_name":"自动变速箱中壳","timer_stand_name":"自动变速箱中壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"127","timer_name":"自动变速箱通气软管","timer_stand_name":"自动变速箱通气软管","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"128","timer_name":"自动变速箱油底壳排油螺栓","timer_stand_name":"自动变速箱油底壳排油螺栓","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"129","timer_name":"自动变速箱差速器","timer_stand_name":"自动变速箱差速器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"130","timer_name":"自动变速箱差速器油封","timer_stand_name":"自动变速箱差速器油封","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"131","timer_name":"自动变速箱多电磁阀","timer_stand_name":"自动变速箱多电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"132","timer_name":"AMT变速箱后盖","timer_stand_name":"AMT变速箱后盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"133","timer_name":"AMT变速箱前盖","timer_stand_name":"AMT变速箱前盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"134","timer_name":"AMT变器箱盖密封垫","timer_stand_name":"AMT变器箱盖密封垫","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"135","timer_name":"AMT变速箱壳体","timer_stand_name":"AMT变速箱壳体","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"136","timer_name":"AMT变速箱总成","timer_stand_name":"AMT变速箱总成","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"137","timer_name":"AMT变速箱上盖","timer_stand_name":"AMT变速箱上盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"138","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"139","timer_name":"AMT变速箱输出轴","timer_stand_name":"AMT变速箱输出轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"140","timer_name":"AMT变速箱输入轴","timer_stand_name":"AMT变速箱输入轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"141","timer_name":"AMT变速箱中间轴","timer_stand_name":"AMT变速箱中间轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"142","timer_name":"AMT变速箱修理包","timer_stand_name":"AMT变速箱修理包","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"143","timer_name":"AMT变速箱输出轴油封","timer_stand_name":"AMT变速箱油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"144","timer_name":"AMT变速箱输入轴油封","timer_stand_name":"AMT变速箱油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"145","timer_name":"AMT变速箱差速器","timer_stand_name":"AMT变速箱差速器","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"146","timer_name":"AMT变速箱差速器油封","timer_stand_name":"AMT变速箱差速器油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"147","timer_name":"AMT变速箱换档执行器","timer_stand_name":"AMT变速箱换档执行器","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"148","timer_name":"AMT变速箱换档执行器储油罐","timer_stand_name":"AMT变速箱换档执行器储油罐","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"149","timer_name":"AMT变速箱换档执行器储油罐盖","timer_stand_name":"AMT变速箱换档执行器储油罐盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"150","timer_name":"AMT变速箱通气软管","timer_stand_name":"AMT变速箱通气软管","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"151","timer_name":"AMT变速箱油底壳排油螺栓","timer_stand_name":"AMT变速箱油底壳排油螺栓","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"152","timer_name":"安全气囊警示标签","timer_stand_name":"安全气囊警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"153","timer_name":"乘客安全气囊警示标签","timer_stand_name":"乘客安全气囊警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"154","timer_name":"儿童保护装置警示标签","timer_stand_name":"儿童保护装置警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"155","timer_name":"防盗标签","timer_stand_name":"防盗标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"156","timer_name":"防冻液指示标签","timer_stand_name":"防冻液指示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"157","timer_name":"空调检修警示标签","timer_stand_name":"空调检修警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"158","timer_name":"空气滤清器提示标签","timer_stand_name":"空气滤清器提示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"159","timer_name":"冷却风扇警示标签","timer_stand_name":"冷却风扇警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"160","timer_name":"轮胎气压标签","timer_stand_name":"轮胎气压标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"161","timer_name":"燃油提示标签","timer_stand_name":"燃油提示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"162","timer_name":"散热器检修警示标签","timer_stand_name":"散热器检修警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"163","timer_name":"中央扶手箱点烟器芯","timer_stand_name":"点烟器芯","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"164","timer_name":"中央扶手箱点烟器座","timer_stand_name":"点烟器座","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"165","timer_name":"中央操纵台","timer_stand_name":"中央操纵台","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"166","timer_name":"中央扶手箱总成","timer_stand_name":"中央扶手箱总成","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"167","timer_name":"中央扶手箱支架","timer_stand_name":"中央扶手箱支架","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"168","timer_name":"中央扶手箱后盖板","timer_stand_name":"中央扶手箱后盖板","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"169","timer_name":"中央扶手箱杯托","timer_stand_name":"中央扶手箱杯托","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"170","timer_name":"中央扶手箱烟灰缸","timer_stand_name":"中央扶手箱烟灰缸","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"171","timer_name":"中央扶手箱扶手","timer_stand_name":"中央扶手箱扶手","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"172","timer_name":"中央扶手箱下部总成","timer_stand_name":"中央扶手箱下部总成","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"173","timer_name":"中央扶手箱盖板","timer_stand_name":"中央扶手箱盖板","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"174","timer_name":"中央扶手箱前点烟器座","timer_stand_name":"点烟器座","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"175","timer_name":"中央扶手箱下壳体","timer_stand_name":"中央扶手箱下壳体","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"176","timer_name":"中央操纵台扶手","timer_stand_name":"中央操纵台扶手","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"177","timer_name":"中央扶手</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":285, "result":[{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴减速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"冷却剂软管 用于带附加加热器 的车","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D - MJ 2011&gt;&gt; ==============================","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠骨架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门锁 车内操纵机构","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"起动机及零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"制动和离合器 踏板机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素大灯","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱 油底壳","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"进气装置 真空设备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于仪表板 照明","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"机油泵 机油滤清器 机油尺 油冷却器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"用于声音系统的 电子零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"散热器风扇 散热器风扇 控制单元 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"储物网 行李网","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"玻璃滑动天窗/外翻式天窗","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"电话 的电子部件 麦克风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"端板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机油泵 传感器模块 单个部件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雨刮器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车辆室内照明 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后座 用于后座椅及 靠背分开的车","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"轮罩内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"废气涡轮增压器 排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"凸轮轴,阀门","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"保险杠线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门 车门密封条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"交流发电机的连接和紧固件 . 多楔皮带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 滑轨","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"弹性装置 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 扰流板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴壳体 法兰轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"接口，用于外部 音频源 CD换碟机 显示和操作单元 用于带收音机的车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向柱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"传动轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"转向柱组合开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"主减速器 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带饰板 的换挡杆头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"可调节靠背和腰部支撑的 线束 线束，用于 多媒体装备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D &gt;&gt; - MJ 2012","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱毡垫 锁架盖板 行李箱饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"子午线轮胎","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地毯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机和变速器上的 开关和传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"活塞","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"6档手动变速箱，带 分动箱和 中间差速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖 汽缸盖罩盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素前雾灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"电子控制空调器 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"散热器 补偿罐","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"油门踏板，带电子装置 模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"遮阳卷帘","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"单个部件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车身前部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"真空泵","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"安全气囊单元 (副驾驶员位置)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 7档复式离合器变速器 *防盗驶离装置的电气部件 *只有根据车底盘号码在签 *约工厂即时内装才可订货 . . .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"驾驶员舱和货舱 之间的网状隔板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 弯道灯 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门电线束 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"横摆臂 车轮轴承壳体","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"导轨 盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车窗升降器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车载电网电源模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"离合器 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车外后视镜","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"铝合金轮辋 车轮装饰罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防抱死系统(ABS) 电子稳定程序 -ESP-","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火起动开关 电子转向柱锁 控制单元 进入及起动许可 控制单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口 脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门内饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"变速箱壳体 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门盖板里的开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板隔热装置 连接支撑件，用于 底板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"油箱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 配气机构盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车顶线束 线束，用于驻车 暖风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D &gt;&gt; - MJ 2010","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于电控 机械式转向助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"增压空气冷却器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 接口，用于外部 音频源 电线束 单个部件 适配接头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"显示和操作单元 用于多媒体接口'MMI'","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"弹性装置 稳定杆 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"带折叠轮胎（应急车轮）的 铝合金轮辋","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"清洗刮水装置用于 后尾窗玻璃","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"串联式制动主缸 补偿罐 制动液","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁 A柱内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"燃油输送单元和 燃油存量显示 传感器 燃油泵 控制单元 引流泵 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"主动式转向系 控制单元 特种汽车控制单元 用于配备 特殊内装和/或改装件的车辆","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雷达传感器 用于带速度调节装置 及自动间隔调整器的 车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"马达线束 喷油阀 线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"三角皮带一览表","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 安全带报警系统","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围板裁切件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"内室线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束 喷油阀 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧面安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"驱动轴 齿轮与轴 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"数据总线 诊断接口（网关）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"油底壳","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背垫 靠背面罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"组合仪表 无线电时钟接收器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"头部安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于自动变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"座椅底架（可电动 调节）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板横梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 踏板","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"随车工具","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"油罐及连接件, 软管 . D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯清洗装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"支撑臂 车轮轴承壳体 稳定杆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"副车架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座 ----","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"导航系统用的电气零件 . 光缆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向器 用于带电动/机械转向 系统的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油箱及 安装件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背调节装置 的电子部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元壳体 发动机控制单元 发动机转速传感器 爆震传感器 氧传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门玻璃,侧围玻璃, 风挡玻璃,后风挡玻璃, 翼子板,车门和侧围件 用饰条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱盖板 封盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 变矩器 油底壳 ----8HP55A----","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带可电动调节装置 的空调 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"冷却液循环 驻车暖风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 油底壳 用于七档复式离合器变速器 . ---DL-501-7Q-","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 座椅通风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油管路 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"烟灰缸","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管 用于装有起动-停车-运行设备的 车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"通风格栅","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火线圈 火花塞 脉冲传感器 凸轮轴","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"方向盘安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"中间扶手","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯 D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"尾灯 制动信号灯 牌照灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"变压器 ==============================","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"牌照支架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"锁芯 钥匙","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"差速器 动力总成 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池正极线束 线束，用于起动机和 三相交流发电机， 带接地线 跨接起动接口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器 水连接套管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"中部消音器及 后消音器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座 用于带可折迭靠背的车型 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"防抱死系统(ABS)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防盗报警装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"摆动半轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件 占用识别 用于座椅","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶行李架基架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动管 制动软管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点烟器 插座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"手机预装备电气零件 . 用于带CAN-BUS的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"Climatronic自动空 调操作与显示 单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门把手，外部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板 仪表盘装配件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带 ***** 注意危险品 ****** 注意修理手册","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"自安装用线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"带连接件的 空气滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"仪表板线束","sub_assemb</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"无","HID_light":"无","aircon_mode":"手动有","alloy_wheel":"无","auto_head_light":"无","brand_id_timing":"21","c_MSRP_newest":"93800","c_capacity_in_litre_L":"1.3L","c_drive_form":"前轮驱动","c_engine_model":"L13A3","c_fuel_type":"汽油","c_model_interior_code":"GD6","c_model_name":"思迪 2007款 1.3L","c_model_year":"2007","c_oem_abbrebiation":"广汽本田","c_oem_brand":"本田","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","c_series_BBG":"思迪（2006-2008）","c_series_name":"思迪","c_structure":"三厢车","c_timer_model_id":"TM1754","c_timer_model_name":"思迪 2007款 1.3L MT 标准版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT686","c_timer_type_name":"思迪 L13A3 前轮驱动 5MT（2006-2008）","c_transmission_type":"手动变速器","cruise":"无","ele_rearview_adj":"有","ele_rearview_fold":"无","ele_seats_adj":"无","ele_sunroof":"无","epc_no":"11","front_tire_spec":"175/65 R14","head_light_clean_sys":"无","keyless_boot":"无","large_color_LCD":"无","leather_seat":"无","make_id_timing":"51","multi_steering_wheel_adj":"无","pano_sunroof":"无","parking_radar":"无","pic_path":"/carmodel/思迪（2006-2008）.jpg","rear_tire_spec":"175/65 R14","reversing_video":"无","seat_heating":"无","series_id_timing":"749","t_HL_version":"标准版","t_id":"9417","t_letter":"B","timer_type":"L13A3前轮驱动5档手动变速器"}]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":433, "result":[{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2013款 3.0T 45TFSI Quattro 四驱 A/MT 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3109"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A4 Allroad（2016-","c_timer_model_name":"进口奥迪A4 Allroad 2017款 2.0T 45TFSI Quattro 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"21267"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.8T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"901"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2011款 3.0TFSI 200KW 四驱 A/MT 进取版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3137"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1（2011-","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"873"},{"c_capacity_in_litre_L":"2.5L","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 2.5L 30FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1216"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2014款 3.0T 50TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12984"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2014款 2.0T 45TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1086"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2015-","c_timer_model_name":"奥迪TT Coupe 2017款 2.0T 45TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22198"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.4T DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"900"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2016款 3.0T 50TFSI Quattro 四驱 DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16735"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1108"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2016款 1.4T 30TFSI Design DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17600"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TTS Coupe（2016-","c_timer_model_name":"奥迪TTS Coupe 2017款 2.0TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22201"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"885"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2015-","c_timer_model_name":"奥迪Q7 2016款 2.0T 40TFSI S-Line 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17406"},{"c_capacity_in_litre_L":"6.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 6.0TDI Quattro 四驱 A/MT 柴油 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3152"},{"c_capacity_in_litre_L":"3.2T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 3.2FSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22969"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2016款 3.0T 50TFSI Quattro 四驱 DCT 动感版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16734"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TFSI 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3167"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2014款 4.2FSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3291"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 3.0T 45TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17782"},{"c_capacity_in_litre_L":"4.2T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 4.2TDI Quattro 四驱 A/MT 柴油","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22967"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16661"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L Hybrid（2011-","c_timer_model_name":"奥迪A8L Hybrid 2013款 2.0T 40Hybrid A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1261"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 40TFSI 四驱 A/MT 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3169"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2017-","c_timer_model_name":"奥迪S5 Sportback 2017款 3.0T 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"23007"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2017-","c_timer_model_name":"奥迪A5 Coupe 2017款 2.0T 45TFSI Quattro 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22915"},{"c_capacity_in_litre_L":"2.8L","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 2.8L 35FSI Quattro 四驱 DCT 进取版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1217"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.0TDI Quattro 四驱 A/MT 柴油 领先版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3123"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI DCT 白色经典版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3831"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2008款 3.2L Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3823"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3125"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A4 Allroad（2012-2016）","c_timer_model_name":"进口奥迪A4 Allroad 2014款 2.0T 40TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1029"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Cabriolet（2008-2017）","c_timer_model_name":"奥迪S5 Cabriolet 2014款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13656"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2007款 4.2L 四驱 A/MT 至尊版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13624"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 改款 45TFSI CVT 舒适版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17872"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3127"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2016款 2.0T 45TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"16663"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 越野典藏技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3129"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 35TDI Quattro 四驱 A/MT 柴油 领先版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3153"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A6 Avant（2017-","c_timer_model_name":"奥迪A6 Avant 2017款 2.0T Sport 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22909"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego Plus DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"882"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2016款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16662"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 技术版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"886"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2015-","c_timer_model_name":"奥迪TT Roadster 2017款 2.0T 45TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22199"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2009款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1098"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2009款 3.6FSI 四驱 A/MT 风尚舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3120"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S6（2013-","c_timer_model_name":"奥迪S6 2013款 4.0TFSI 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3485"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 3.2FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"13628"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1272"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2017-","c_timer_model_name":"奥迪A5 Cabriolet 2017款 2.0T 40TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"23009"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"888"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 4.2FSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1245"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2010款 5.2FSI Quattro 四驱 AMT","c_transmission_type":"半自动变速器","t_letter":"A","tid":"3288"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 3.0T 50TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1110"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2014款 3.0T 45TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12981"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI DCT 彩色梦幻版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3832"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2012款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1114"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2010-2017）","c_timer_model_name":"奥迪S5 Sportback 2010款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3449"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2017款 3.0T 50TFSI Quattro 四驱 DCT 动感版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20629"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI Quattro 四驱 DCT 黑色旋风版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3829"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 45TFSI CVT 舒适版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16654"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1273"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TTS Roadster（2016-","c_timer_model_name":"奥迪TTS Roadster 2016款 2.0T 45TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"19039"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2010款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1100"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2017款 1.8T 35TFSI DCT 时尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20633"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2013款 1.8T 35TFSI DCT 尊贵版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"898"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A6 Allroad（2015-","c_timer_model_name":"奥迪A6 Allroad 2015款 3.0T Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16652"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2008-2015）","c_timer_model_name":"奥迪TT Roadster 2013款 2.0T 45TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3841"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI Quattro 四驱 DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1105"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2013款 1.4T 30TFSI DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"12041"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 3.0TFSI 245KW Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1253"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2013款 2.0T 40TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1128"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2014款 2.0T 45TFSI Quattro 四驱 DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1088"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Coupe（2008-2017）","c_timer_model_name":"奥迪S5 Coupe 2012款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3448"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 6.0L Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1228"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2011款 2.0TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3825"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2010-2017）","c_timer_model_name":"奥迪S5 Sportback 2012款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3450"},{"c_capacity_in_litre_L":"4.2T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 4.2TDI Quattro 四驱 A/MT 柴油版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13623"},{"c_capacity_in_litre_L":"2.8L","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2012款 2.8FSI Quattro 四驱 DCT 进取版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1213"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 3.0T 50TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17781"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S6（2013-","c_timer_model_name":"奥迪S6 2017款 4.0TFSI 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20555"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 6.3FSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1254"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 改款 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17870"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TDI 四驱 A/MT 柴油 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3162"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1271"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2007款 6.0L Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13625"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 3.0TFSI 245KW 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3151"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2015-","c_timer_model_name":"奥迪TT Coupe 2015款 2.0T 45TFSI Quattro 四驱 DCT 复仇者联盟决胜版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17183"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 40TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3160"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.4T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"899"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8 Spyder（2011-","c_timer_model_name":"奥迪R8 Spyder 2011款 5.2FSI Quattro 四驱 AMT","c_transmission_type":"半自动变速器","t_letter":"A","tid":"3295"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 3.0T 50TFSI Quattro 四驱 DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1219"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2013款 3.0T 45TFSI Quattro 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3110"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S3 Limousine（2014-","c_timer_model_name":"奥迪S3 2017款 2.0T Limousine 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"19890"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Coupe（2008-2017）","c_timer_model_name":"奥迪S5 Coupe 2014款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13657"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5 Hybrid（2009-","c_timer_model_name":"进口奥迪Q5 Hybrid 2013款 2.0T 40TFSI 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3103"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2009款 3.6FSI 四驱 A/MT 越野技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3121"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2012款 6.3FSI Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1260"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2008款 6.0L 四驱 A/MT 至尊旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1239"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2014款 2.0T 45TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1091"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S3 Limousine（2014-","c_timer_model_name":"奥迪S3 Limousine 2017款 2.0T 改款 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22358"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2017款 3.0T 50TFSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"21521"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪SQ5（2013-","c_timer_model_name":"奥迪SQ5 2017款 3.0TFSI quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"20554"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2012款 1.8T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"906"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Cabriolet（2008-2017）","c_timer_model_name":"奥迪S5 Cabriolet 2016款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16656"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪RS6（2016-","c_timer_model_name":"奥迪RS6 2016款 4.0T Avant 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"19651"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8 Spyder（2011-","c_timer_model_name":"奥迪R8 Spyder 2014款 4.2FSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3293"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2012款 1.4T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"903"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2013款 2.0T 40TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1127"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2008-2015）","c_timer_model_name":"奥迪TT Roadster 2008款 2.0TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3835"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1107"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2014款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1085"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16655"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16659"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2007款 4.2FSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3117"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2008款 2.0TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3822"},{"c_capacity_in_litre_L":"6.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"无","HID_light":"无","aircon_mode":"手动有","alloy_wheel":"无","auto_head_light":"无","brand_id_timing":"21","c_MSRP_newest":"93800","c_capacity_in_litre_L":"1.3L","c_drive_form":"前轮驱动","c_engine_model":"L13A3","c_fuel_type":"汽油","c_model_interior_code":"GD6","c_model_name":"思迪 2007款 1.3L","c_model_year":"2007","c_oem_abbrebiation":"广汽本田","c_oem_brand":"本田","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","c_series_BBG":"思迪（2006-2008）","c_series_name":"思迪","c_structure":"三厢车","c_timer_model_id":"TM1754","c_timer_model_name":"思迪 2007款 1.3L MT 标准版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT686","c_timer_type_name":"思迪 L13A3 前轮驱动 5MT（2006-2008）","c_transmission_type":"手动变速器","cruise":"无","ele_rearview_adj":"有","ele_rearview_fold":"无","ele_seats_adj":"无","ele_sunroof":"无","epc_no":"11","front_tire_spec":"175/65 R14","head_light_clean_sys":"无","keyless_boot":"无","large_color_LCD":"无","leather_seat":"无","make_id_timing":"51","multi_steering_wheel_adj":"无","pano_sunroof":"无","parking_radar":"无","pic_path":"/carmodel/思迪（2006-2008）.jpg","rear_tire_spec":"175/65 R14","reversing_video":"无","seat_heating":"无","series_id_timing":"749","t_HL_version":"标准版","t_id":"9417","t_letter":"B","timer_type":"L13A3前轮驱动5档手动变速器"}]}</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":1000, "result":[{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"YZ4DC2-30","c_fuel_type":"柴油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18569","c_timer_model_name":"金典 2007款 2.1T MT 长厢长轴 柴油 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6242","c_timer_type_name":"金典 YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"1","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18608","update_time":"1900-01-01 00:00:00.0","xid":"6242"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"61800","c_MSRP_newest":"61800","c_capacity_in_litre_CC":"2156","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"SD4W55A/YZ4D21TC","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"-","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18570","c_timer_model_name":"金典 2007款 2.2L MT 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6241","c_timer_type_name":"金典 SD4W55A/YZ4D21TC 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"2","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18609","update_time":"1900-01-01 00:00:00.0","xid":"6241"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18571","c_timer_model_name":"金典 2007款 2.5T MT 标准厢 标准版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"3","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18610","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18572","c_timer_model_name":"金典 2007款 2.5T MT 标准厢 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"4","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18611","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18574","c_timer_model_name":"金典 2007款 2.5T MT 加长厢 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"5","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18613","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18575","c_timer_model_name":"金典 2009款 2.1T MT 短轴短厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"6","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18614","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18576","c_timer_model_name":"金典 2009款 2.1T MT 短轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"7","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18615","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18577","c_timer_model_name":"金典 2009款 2.1T MT 短厢长轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"8","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18616","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18578","c_timer_model_name":"金典 2009款 2.1T MT 长轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"9","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18617","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18580","c_timer_model_name":"金典 2009款 2.2L MT 短厢短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"10","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18619","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18581","c_timer_model_name":"金典 2009款 2.2L MT 短厢长轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"11","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18620","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18582","c_timer_model_name":"金典 2009款 2.2L MT 短厢长轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"12","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18621","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18583","c_timer_model_name":"金典 2009款 2.2L MT 长厢短轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"13","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18622","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18584","c_timer_model_name":"金典 2009款 2.2L MT 长厢短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"14","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18623","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18585","c_timer_model_name":"金典 2009款 2.2L MT 长厢长轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"15","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18624","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18587","c_timer_model_name":"金典 2009款 2.5T MT 短厢短轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"16","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18626","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18588","c_timer_model_name":"金典 2009款 2.5T MT 短轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"17","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18627","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18589","c_timer_model_name":"金典 2009款 2.5T MT 短厢长轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"18","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18628","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18590","c_timer_model_name":"金典 2009款 2.5T MT 长轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"19","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18629","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"65800","c_MSRP_newest":"65800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18591","c_timer_model_name":"金典009 2014款 2.2L MT 短轴 CNG 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"20","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18630","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"58800","c_MSRP_newest":"58800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18592","c_timer_model_name":"金典009 2014款 2.2L MT 短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"21","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18631","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"67800","c_MSRP_newest":"67800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18593","c_timer_model_name":"金典009 2014款 2.2L MT 长轴 CNG 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"22","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18632","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"68800","c_MSRP_newest":"68800","c_capacity_in_litre_CC":"2184","c_capacity_in_litre_L":"2.2T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"D22A","c_fuel_type":"柴油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_o</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":5375, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"1","timer_name":"变速箱冷却器","timer_stand_name":"变速箱冷却器","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"2","timer_name":"变速箱油冷却器出油管","timer_stand_name":"变速箱油冷却器出油管","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"3","timer_name":"变速箱油冷却器进油管","timer_stand_name":"变速箱油冷却器进油管","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"5","timer_name":"手动变速箱后盖","timer_stand_name":"手动变速箱后盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"6","timer_name":"手动变速箱前盖","timer_stand_name":"手动变速箱前盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"7","timer_name":"手动变器箱盖密封垫","timer_stand_name":"手动变器箱盖密封垫","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"8","timer_name":"倒档拨叉","timer_stand_name":"倒档拨叉","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"9","timer_name":"手动变速箱壳体","timer_stand_name":"手动变速箱壳体","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"10","timer_name":"飞轮壳","timer_stand_name":"飞轮壳","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"11","timer_name":"手动变速箱总成","timer_stand_name":"手动变速箱总成","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"12","timer_name":"手动变速箱上盖","timer_stand_name":"手动变速箱上盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"13","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"14","timer_name":"手动变速箱输出轴","timer_stand_name":"手动变速箱输出轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"15","timer_name":"手动变速箱输入轴","timer_stand_name":"手动变速箱输入轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"16","timer_name":"手动变速箱中间轴","timer_stand_name":"手动变速箱中间轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"17","timer_name":"手动变速箱修理包","timer_stand_name":"手动变速箱修理包","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"18","timer_name":"手动变速箱输出轴油封","timer_stand_name":"手动变速箱油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"19","timer_name":"手动变速箱输入轴油封","timer_stand_name":"手动变速箱油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"20","timer_name":"手动变速箱差速器","timer_stand_name":"手动变速箱差速器","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"21","timer_name":"手动变速箱差速器油封","timer_stand_name":"手动变速箱差速器油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"22","timer_name":"手动变速箱倒档开关","timer_stand_name":"倒档开关","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"24","timer_name":"双离合变速箱前壳体油封","timer_stand_name":"双离合变速箱前壳体油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"25","timer_name":"双离合变速箱油泵","timer_stand_name":"双离合变速箱油泵","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"26","timer_name":"双离合变速箱油泵齿轮","timer_stand_name":"双离合变速箱油泵齿轮","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"27","timer_name":"双离合变速箱油泵盖","timer_stand_name":"双离合变速箱油泵盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"28","timer_name":"双离合变速箱输出轴","timer_stand_name":"双离合变速箱输出轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"29","timer_name":"双离合变速箱输入轴","timer_stand_name":"双离合变速箱输入轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"31","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"32","timer_name":"双离合变速箱电磁阀","timer_stand_name":"双离合变速箱电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"33","timer_name":"双离合变速箱油标尺","timer_stand_name":"双离合变速箱油标尺","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"34","timer_name":"双离合变速箱油标尺管","timer_stand_name":"双离合变速箱油标尺管","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"35","timer_name":"双离合变速箱壳体","timer_stand_name":"双离合变速箱壳体","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"36","timer_name":"双离合变速箱修理包","timer_stand_name":"双离合变速箱修理包","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"37","timer_name":"双离合变速箱油底壳","timer_stand_name":"双离合变速箱油底壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"38","timer_name":"双离合变速箱总成","timer_stand_name":"双离合变速箱总成","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"39","timer_name":"双离合变速箱后盖","timer_stand_name":"双离合变速箱后盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"40","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"41","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"42","timer_name":"双离合变速箱过滤网","timer_stand_name":"双离合变速箱过滤网","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"43","timer_name":"双离合变速箱单电磁阀","timer_stand_name":"双离合变速箱单电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"44","timer_name":"双离合变速箱壳体密封垫","timer_stand_name":"双离合变速箱壳体密封垫","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"45","timer_name":"双离合变速箱前盖","timer_stand_name":"双离合变速箱前盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"46","timer_name":"双离合变速箱双电磁阀","timer_stand_name":"双离合变速箱双电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"47","timer_name":"双离合变速箱油滤清器","timer_stand_name":"双离合变速箱油滤清器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"48","timer_name":"双离合变速箱中壳","timer_stand_name":"双离合变速箱中壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"51","timer_name":"双离合变器箱盖密封垫","timer_stand_name":"双离合变器箱盖密封垫","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"54","timer_name":"双离合变速箱上盖","timer_stand_name":"双离合变速箱上盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"55","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"58","timer_name":"双离合变速箱中间轴","timer_stand_name":"双离合变速箱中间轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"60","timer_name":"双离合变速箱输出轴油封","timer_stand_name":"双离合变速箱油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"61","timer_name":"双离合变速箱输入轴油封","timer_stand_name":"双离合变速箱油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"62","timer_name":"双离合变速箱差速器","timer_stand_name":"双离合变速箱差速器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"63","timer_name":"双离合变速箱差速器油封","timer_stand_name":"双离合变速箱差速器油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"64","timer_name":"双离合变速箱多电磁阀","timer_stand_name":"双离合变速箱多电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"67","timer_name":"干式双离合器","timer_stand_name":"干式双离合器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"68","timer_name":"湿式双离合器","timer_stand_name":"湿式双离合器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"69","timer_name":"双离合变速箱通气软管","timer_stand_name":"双离合变速箱通气软管","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"70","timer_name":"双离合变速箱油底壳排油螺栓","timer_stand_name":"双离合变速箱油底壳排油螺栓","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"71","timer_name":"液力变矩器壳","timer_stand_name":"液力变矩器壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"72","timer_name":"CVT变速箱前壳体油封","timer_stand_name":"CVT变速箱前壳体油封","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"73","timer_name":"CVT变速箱油泵","timer_stand_name":"CVT变速箱油泵","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"74","timer_name":"液力变矩器","timer_stand_name":"液力变矩器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"75","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"76","timer_name":"CVT变速箱电磁阀","timer_stand_name":"CVT变速箱电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"77","timer_name":"CVT变速箱油标尺","timer_stand_name":"CVT变速箱油标尺","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"78","timer_name":"CVT变速箱油标尺管","timer_stand_name":"CVT变速箱油标尺管","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"79","timer_name":"CVT变速箱壳体","timer_stand_name":"CVT变速箱壳体","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"80","timer_name":"CVT变速箱修理包","timer_stand_name":"CVT变速箱修理包","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"81","timer_name":"CVT变速箱油底壳","timer_stand_name":"CVT变速箱油底壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"82","timer_name":"CVT变速箱总成","timer_stand_name":"CVT变速箱总成","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"83","timer_name":"CVT变速箱后盖","timer_stand_name":"CVT变速箱后盖","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"84","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"85","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"86","timer_name":"CVT变速箱过滤网","timer_stand_name":"CVT变速箱过滤网","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"87","timer_name":"CVT变速箱单电磁阀","timer_stand_name":"CVT变速箱单电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"88","timer_name":"CVT变速箱壳体密封垫","timer_stand_name":"CVT变速箱壳体密封垫","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"89","timer_name":"CVT变速箱前盖","timer_stand_name":"CVT变速箱前盖","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"90","timer_name":"CVT变速箱双电磁阀","timer_stand_name":"CVT变速箱双电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"91","timer_name":"CVT变速箱油滤清器","timer_stand_name":"CVT变速箱油滤清器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"92","timer_name":"CVT变速箱中壳","timer_stand_name":"CVT变速箱中壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"93","timer_name":"CVT变速箱差速器","timer_stand_name":"CVT变速箱差速器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"94","timer_name":"CVT变速箱差速器油封","timer_stand_name":"CVT变速箱差速器油封","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"95","timer_name":"CVT变速箱多电磁阀","timer_stand_name":"CVT变速箱多电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"96","timer_name":"CVT变速箱链条","timer_stand_name":"CVT变速箱链条","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"97","timer_name":"CVT变速箱主动波轮","timer_stand_name":"CVT变速箱主动波轮","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"98","timer_name":"CVT变速箱从动波轮","timer_stand_name":"CVT变速箱从动波轮","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"99","timer_name":"CVT变速箱通气软管","timer_stand_name":"CVT变速箱通气软管","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"100","timer_name":"CVT变速箱油底壳排油螺栓","timer_stand_name":"CVT变速箱油底壳排油螺栓","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"101","timer_name":"液力变矩器壳","timer_stand_name":"液力变矩器壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"102","timer_name":"自动变速箱前壳体油封","timer_stand_name":"自动变速箱前壳体油封","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"103","timer_name":"自动变速箱油泵","timer_stand_name":"自动变速箱油泵","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"104","timer_name":"自动变速箱油泵齿轮","timer_stand_name":"自动变速箱油泵齿轮","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"105","timer_name":"自动变速箱油泵盖","timer_stand_name":"自动变速箱油泵盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"106","timer_name":"自动变速箱输出轴","timer_stand_name":"自动变速箱输出轴","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"107","timer_name":"自动变速箱输入轴","timer_stand_name":"自动变速箱输入轴","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"108","timer_name":"液力变矩器","timer_stand_name":"液力变矩器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"109","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"110","timer_name":"自动变速箱电磁阀","timer_stand_name":"自动变速箱电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"111","timer_name":"自动变速箱油标尺","timer_stand_name":"自动变速箱油标尺","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"112","timer_name":"自动变速箱油标尺管","timer_stand_name":"自动变速箱油标尺管","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"113","timer_name":"自动变速箱壳体","timer_stand_name":"自动变速箱壳体","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"114","timer_name":"自动变速箱修理包","timer_stand_name":"自动变速箱修理包","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"115","timer_name":"自动变速箱油底壳","timer_stand_name":"自动变速箱油底壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"116","timer_name":"自动变速箱总成","timer_stand_name":"自动变速箱总成","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"117","timer_name":"自动变速箱后盖","timer_stand_name":"自动变速箱后盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"118","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"119","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"120","timer_name":"自动变速箱过滤网","timer_stand_name":"自动变速箱过滤网","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"121","timer_name":"自动变速箱单电磁阀","timer_stand_name":"自动变速箱单电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"122","timer_name":"自动变速箱壳体密封垫","timer_stand_name":"自动变速箱壳体密封垫","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"123","timer_name":"自动变速箱前盖","timer_stand_name":"自动变速箱前盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"124","timer_name":"自动变速箱双电磁阀","timer_stand_name":"自动变速箱双电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"125","timer_name":"自动变速箱油滤清器","timer_stand_name":"自动变速箱油滤清器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"126","timer_name":"自动变速箱中壳","timer_stand_name":"自动变速箱中壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"127","timer_name":"自动变速箱通气软管","timer_stand_name":"自动变速箱通气软管","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"128","timer_name":"自动变速箱油底壳排油螺栓","timer_stand_name":"自动变速箱油底壳排油螺栓","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"129","timer_name":"自动变速箱差速器","timer_stand_name":"自动变速箱差速器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"130","timer_name":"自动变速箱差速器油封","timer_stand_name":"自动变速箱差速器油封","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"131","timer_name":"自动变速箱多电磁阀","timer_stand_name":"自动变速箱多电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"132","timer_name":"AMT变速箱后盖","timer_stand_name":"AMT变速箱后盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"133","timer_name":"AMT变速箱前盖","timer_stand_name":"AMT变速箱前盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"134","timer_name":"AMT变器箱盖密封垫","timer_stand_name":"AMT变器箱盖密封垫","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"135","timer_name":"AMT变速箱壳体","timer_stand_name":"AMT变速箱壳体","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"136","timer_name":"AMT变速箱总成","timer_stand_name":"AMT变速箱总成","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"137","timer_name":"AMT变速箱上盖","timer_stand_name":"AMT变速箱上盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"138","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"139","timer_name":"AMT变速箱输出轴","timer_stand_name":"AMT变速箱输出轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"140","timer_name":"AMT变速箱输入轴","timer_stand_name":"AMT变速箱输入轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"141","timer_name":"AMT变速箱中间轴","timer_stand_name":"AMT变速箱中间轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"142","timer_name":"AMT变速箱修理包","timer_stand_name":"AMT变速箱修理包","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"143","timer_name":"AMT变速箱输出轴油封","timer_stand_name":"AMT变速箱油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"144","timer_name":"AMT变速箱输入轴油封","timer_stand_name":"AMT变速箱油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"145","timer_name":"AMT变速箱差速器","timer_stand_name":"AMT变速箱差速器","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"146","timer_name":"AMT变速箱差速器油封","timer_stand_name":"AMT变速箱差速器油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"147","timer_name":"AMT变速箱换档执行器","timer_stand_name":"AMT变速箱换档执行器","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"148","timer_name":"AMT变速箱换档执行器储油罐","timer_stand_name":"AMT变速箱换档执行器储油罐","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"149","timer_name":"AMT变速箱换档执行器储油罐盖","timer_stand_name":"AMT变速箱换档执行器储油罐盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"150","timer_name":"AMT变速箱通气软管","timer_stand_name":"AMT变速箱通气软管","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"151","timer_name":"AMT变速箱油底壳排油螺栓","timer_stand_name":"AMT变速箱油底壳排油螺栓","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"152","timer_name":"安全气囊警示标签","timer_stand_name":"安全气囊警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"153","timer_name":"乘客安全气囊警示标签","timer_stand_name":"乘客安全气囊警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"154","timer_name":"儿童保护装置警示标签","timer_stand_name":"儿童保护装置警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"155","timer_name":"防盗标签","timer_stand_name":"防盗标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"156","timer_name":"防冻液指示标签","timer_stand_name":"防冻液指示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"157","timer_name":"空调检修警示标签","timer_stand_name":"空调检修警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"158","timer_name":"空气滤清器提示标签","timer_stand_name":"空气滤清器提示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"159","timer_name":"冷却风扇警示标签","timer_stand_name":"冷却风扇警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"160","timer_name":"轮胎气压标签","timer_stand_name":"轮胎气压标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"161","timer_name":"燃油提示标签","timer_stand_name":"燃油提示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"162","timer_name":"散热器检修警示标签","timer_stand_name":"散热器检修警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"163","timer_name":"中央扶手箱点烟器芯","timer_stand_name":"点烟器芯","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"164","timer_name":"中央扶手箱点烟器座","timer_stand_name":"点烟器座","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"165","timer_name":"中央操纵台","timer_stand_name":"中央操纵台","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"166","timer_name":"中央扶手箱总成","timer_stand_name":"中央扶手箱总成","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"167","timer_name":"中央扶手箱支架","timer_stand_name":"中央扶手箱支架","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"168","timer_name":"中央扶手箱后盖板","timer_stand_name":"中央扶手箱后盖板","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"169","timer_name":"中央扶手箱杯托","timer_stand_name":"中央扶手箱杯托","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"170","timer_name":"中央扶手箱烟灰缸","timer_stand_name":"中央扶手箱烟灰缸","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"171","timer_name":"中央扶手箱扶手","timer_stand_name":"中央扶手箱扶手","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"172","timer_name":"中央扶手箱下部总成","timer_stand_name":"中央扶手箱下部总成","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"173","timer_name":"中央扶手箱盖板","timer_stand_name":"中央扶手箱盖板","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"174","timer_name":"中央扶手箱前点烟器座","timer_stand_name":"点烟器座","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"175","timer_name":"中央扶手箱下壳体","timer_stand_name":"中央扶手箱下壳体","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"176","timer_name":"中央操纵台扶手","timer_stand_name":"中央操纵台扶手","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"177","timer_name":"中央扶手</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":285, "result":[{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴减速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"冷却剂软管 用于带附加加热器 的车","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D - MJ 2011&gt;&gt; ==============================","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠骨架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门锁 车内操纵机构","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"起动机及零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"制动和离合器 踏板机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素大灯","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱 油底壳","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"进气装置 真空设备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于仪表板 照明","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"机油泵 机油滤清器 机油尺 油冷却器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"用于声音系统的 电子零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"散热器风扇 散热器风扇 控制单元 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"储物网 行李网","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"玻璃滑动天窗/外翻式天窗","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"电话 的电子部件 麦克风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"端板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机油泵 传感器模块 单个部件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雨刮器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车辆室内照明 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后座 用于后座椅及 靠背分开的车","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"轮罩内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"废气涡轮增压器 排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"凸轮轴,阀门","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"保险杠线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门 车门密封条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"交流发电机的连接和紧固件 . 多楔皮带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 滑轨","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"弹性装置 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 扰流板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴壳体 法兰轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"接口，用于外部 音频源 CD换碟机 显示和操作单元 用于带收音机的车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向柱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"传动轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"转向柱组合开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"主减速器 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带饰板 的换挡杆头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"可调节靠背和腰部支撑的 线束 线束，用于 多媒体装备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D &gt;&gt; - MJ 2012","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱毡垫 锁架盖板 行李箱饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"子午线轮胎","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地毯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机和变速器上的 开关和传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"活塞","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"6档手动变速箱，带 分动箱和 中间差速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖 汽缸盖罩盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素前雾灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"电子控制空调器 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"散热器 补偿罐","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"油门踏板，带电子装置 模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"遮阳卷帘","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"单个部件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车身前部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"真空泵","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"安全气囊单元 (副驾驶员位置)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 7档复式离合器变速器 *防盗驶离装置的电气部件 *只有根据车底盘号码在签 *约工厂即时内装才可订货 . . .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"驾驶员舱和货舱 之间的网状隔板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 弯道灯 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门电线束 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"横摆臂 车轮轴承壳体","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"导轨 盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车窗升降器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车载电网电源模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"离合器 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车外后视镜","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"铝合金轮辋 车轮装饰罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防抱死系统(ABS) 电子稳定程序 -ESP-","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火起动开关 电子转向柱锁 控制单元 进入及起动许可 控制单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口 脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门内饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"变速箱壳体 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门盖板里的开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板隔热装置 连接支撑件，用于 底板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"油箱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 配气机构盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车顶线束 线束，用于驻车 暖风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D &gt;&gt; - MJ 2010","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于电控 机械式转向助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"增压空气冷却器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 接口，用于外部 音频源 电线束 单个部件 适配接头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"显示和操作单元 用于多媒体接口'MMI'","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"弹性装置 稳定杆 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"带折叠轮胎（应急车轮）的 铝合金轮辋","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"清洗刮水装置用于 后尾窗玻璃","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"串联式制动主缸 补偿罐 制动液","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁 A柱内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"燃油输送单元和 燃油存量显示 传感器 燃油泵 控制单元 引流泵 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"主动式转向系 控制单元 特种汽车控制单元 用于配备 特殊内装和/或改装件的车辆","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雷达传感器 用于带速度调节装置 及自动间隔调整器的 车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"马达线束 喷油阀 线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"三角皮带一览表","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 安全带报警系统","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围板裁切件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"内室线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束 喷油阀 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧面安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"驱动轴 齿轮与轴 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"数据总线 诊断接口（网关）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"油底壳","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背垫 靠背面罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"组合仪表 无线电时钟接收器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"头部安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于自动变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"座椅底架（可电动 调节）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板横梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 踏板","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"随车工具","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"油罐及连接件, 软管 . D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯清洗装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"支撑臂 车轮轴承壳体 稳定杆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"副车架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座 ----","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"导航系统用的电气零件 . 光缆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向器 用于带电动/机械转向 系统的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油箱及 安装件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背调节装置 的电子部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元壳体 发动机控制单元 发动机转速传感器 爆震传感器 氧传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门玻璃,侧围玻璃, 风挡玻璃,后风挡玻璃, 翼子板,车门和侧围件 用饰条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱盖板 封盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 变矩器 油底壳 ----8HP55A----","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带可电动调节装置 的空调 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"冷却液循环 驻车暖风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 油底壳 用于七档复式离合器变速器 . ---DL-501-7Q-","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 座椅通风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油管路 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"烟灰缸","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管 用于装有起动-停车-运行设备的 车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"通风格栅","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火线圈 火花塞 脉冲传感器 凸轮轴","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"方向盘安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"中间扶手","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯 D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"尾灯 制动信号灯 牌照灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"变压器 ==============================","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"牌照支架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"锁芯 钥匙","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"差速器 动力总成 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池正极线束 线束，用于起动机和 三相交流发电机， 带接地线 跨接起动接口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器 水连接套管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"中部消音器及 后消音器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座 用于带可折迭靠背的车型 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"防抱死系统(ABS)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防盗报警装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"摆动半轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件 占用识别 用于座椅","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶行李架基架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动管 制动软管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点烟器 插座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"手机预装备电气零件 . 用于带CAN-BUS的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"Climatronic自动空 调操作与显示 单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门把手，外部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板 仪表盘装配件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带 ***** 注意危险品 ****** 注意修理手册","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"自安装用线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"带连接件的 空气滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"仪表板线束","sub_assemb</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,101 +564,6 @@
       <color indexed="10"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -671,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,25 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,7 +915,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1070,7 +975,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -1234,7 +1139,7 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -1257,10 +1162,10 @@
         <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -1280,18 +1185,18 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1300,15 +1205,21 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1317,15 +1228,21 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1334,15 +1251,21 @@
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1351,15 +1274,21 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -1368,15 +1297,21 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1385,15 +1320,21 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -1402,15 +1343,21 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -1419,15 +1366,21 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1436,15 +1389,21 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1453,15 +1412,21 @@
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1470,15 +1435,21 @@
         <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="H22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1487,7 +1458,13 @@
         <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="H23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1525,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1644,7 +1621,7 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1686,7 +1663,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -1694,134 +1671,134 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1833,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1854,98 +1831,98 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>130</v>
@@ -1953,134 +1930,145 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2095,7 +2083,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2119,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2141,298 +2129,312 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>83</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B20" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>48</v>
+      <c r="C22" t="s">
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/api-test.xlsx
+++ b/src/test/resources/api-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="137">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,297 +189,279 @@
     <t>getTimerAccemblyList</t>
   </si>
   <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>result.t_letter=H,R,K,B&amp;result.c_oem_brand=福特,三菱,东风,斯柯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size=1,result[0].GPS=有,result[0].HID_light=有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPartInfoForOriginal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size=192,result[100].t_letter=H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.c_oem_brand=奥迪&amp;result.tid=3104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc=查询成功！,size=1,result.tid=3104,result.c_oem_brand=奥迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>list[3].result[0].tid=876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getKilometer</t>
+  </si>
+  <si>
+    <t>getKilometer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/maintain/getKilometer?tid=13378&amp;grant_code=test&amp;oem_brand=奥迪&amp;oem_name=一汽大众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.timer_assembly=变速箱,车身地板&amp;result.timer_assembly_id=1,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list[3].result.tid=876,875&amp;list[3].result.c_oem_brand=奥迪&amp;list[3].result.c_model_year=2012,2013,2010&amp;list[0].result.findAll{it.price&gt;700}.car_brand=奥迪,大众&amp;list[3].result.findAll{it.c_model_year = 2012}.car_brand=斯柯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vtm/getTid?vin=WVGAV67L59D034378&amp;is_original=1&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vtm/getPostCode1?post_code=CC6450UM09&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vtm/getOnlyTid?vin=LVSFCFAE48F260881&amp;grant_code=JOY8T5RS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/catalogue/getAllCarModel?offset=0&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adaptation/getAssemblyCatalogue?tid=3106&amp;type=0&amp;grant_code=test&amp;vin=LFV3B28R7D3048159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>/vtm/getTid?vin=LVSFCFAE48F260881&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/carModel/getCarModelByVin?oem_name=奥迪&amp;oem_brand=奥迪&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCarModelByVin</t>
+  </si>
+  <si>
+    <t>getCarModelInfoByTid</t>
+  </si>
+  <si>
+    <t>getPostCode1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vtm/getPostCode?post_code=CC6450UM09&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPostCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOnlyTid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllCarModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/catalogue/getTimerStandardParts?grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTimerStandardParts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAssemblyCatalogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adaptation/getPicInfo?grant_code=test&amp;tid=1635&amp;type=0&amp;assembly=发动机&amp;sub_assembly=进气管盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPicInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adaptation/getPartsInfo?grant_code=test&amp;tid=1&amp;pic_num=900A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPartsInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>/carModel/getCarModelInfoByTid?grant_code=test&amp;tid=9417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPostCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/carModel/getCarModelByTid?tid=3104&amp;grant_code=test&amp;isCN=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTid</t>
+  </si>
+  <si>
+    <t>getPartsInfo</t>
+  </si>
+  <si>
+    <t>getPostCode1</t>
+  </si>
+  <si>
+    <t>getPostCode</t>
+  </si>
+  <si>
+    <t>getOnlyTid</t>
+  </si>
+  <si>
+    <t>getAllCarModel</t>
+  </si>
+  <si>
+    <t>getTimerStandardParts</t>
+  </si>
+  <si>
+    <t>getAssemblyCatalogue</t>
+  </si>
+  <si>
+    <t>getPicInfo</t>
+  </si>
+  <si>
+    <t>text/plain</t>
+  </si>
+  <si>
+    <t>text/plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{"size":4,"detailInfo":null,"list":[{"result":[{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"大众","price":752.49,"car_brand":"大众","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽大众","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽奥迪","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽大众","price":752.49,"car_brand":"一汽大众","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"奥迪","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"兰博基尼","price":752.49,"car_brand":"兰博基尼","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"宾利","price":752.49,"car_brand":"宾利","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"}],"type":"1","desc":"基本信息"},{"result":[],"type":"2","desc":"原厂替换信息"},{"result":[],"type":"3","desc":"品牌替换信息"},{"result":[{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":876,"t_HL_version":"中国限量版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"311800","c_timer_model_id":"TM305","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI EGO Plus DCT 中国限量版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2013款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":875,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"224800","c_timer_model_id":"TM303","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI Urban DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":881,"t_HL_version":"舒适版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"249800","c_timer_model_id":"TM309","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 舒适版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":880,"t_HL_version":"时尚版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"199800","c_timer_model_id":"TM308","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 时尚版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":888,"t_HL_version":"舒适版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"259800","c_timer_model_id":"TM300","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 舒适版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":874,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"249800","c_timer_model_id":"TM301","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":885,"t_HL_version":"豪华版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"299800","c_timer_model_id":"TM297","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 豪华版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":886,"t_HL_version":"技术版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"234800","c_timer_model_id":"TM298","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 技术版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":887,"t_HL_version":"时尚版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"209800","c_timer_model_id":"TM299","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 时尚版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":882,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"299800","c_timer_model_id":"TM295","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego Plus DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":883,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"259800","c_timer_model_id":"TM294","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":873,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"289800","c_timer_model_id":"TM302","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":879,"t_HL_version":"技术版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"224800","c_timer_model_id":"TM307","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 技术版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":878,"t_HL_version":"豪华版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"289800","c_timer_model_id":"TM306","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 豪华版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":877,"t_HL_version":"中国限量版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"271800","c_timer_model_id":"TM304","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI Ego DCT 中国限量版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2013款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":884,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"234800","c_timer_model_id":"TM296","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Urban DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"}],"type":"4","desc":"车款适配信息"}],"map":null,"statusCode":1,"desc":"查询成功！"}</t>
+  </si>
+  <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":192, "result":[{"c_oem_brand":"荣威","c_oem_name":"上海汽车","c_oem_name_show":"上海汽车","t_letter":"R"},{"c_oem_brand":"传祺","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"C"},{"c_oem_brand":"黄海","c_oem_name":"曙光","c_oem_name_show":"曙光","t_letter":"H"},{"c_oem_brand":"萨博","c_oem_name":"萨博","c_oem_name_show":"萨博(进口)","t_letter":"S"},{"c_oem_brand":"克莱斯勒","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"K"},{"c_oem_brand":"日产","c_oem_name":"东风日产","c_oem_name_show":"东风日产","t_letter":"R"},{"c_oem_brand":"雪佛兰","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"X"},{"c_oem_brand":"福特","c_oem_name":"福特","c_oem_name_show":"福特(进口)","t_letter":"F"},{"c_oem_brand":"宝马","c_oem_name":"宝马","c_oem_name_show":"宝马(进口)","t_letter":"B"},{"c_oem_brand":"长城","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"C"},{"c_oem_brand":"雪铁龙","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"X"},{"c_oem_brand":"铃木","c_oem_name":"铃木","c_oem_name_show":"铃木(进口)","t_letter":"L"},{"c_oem_brand":"双环","c_oem_name":"双环汽车","c_oem_name_show":"双环汽车","t_letter":"S"},{"c_oem_brand":"MINI","c_oem_name":"宝马","c_oem_name_show":"宝马(进口)","t_letter":"M"},{"c_oem_brand":"华颂","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"H"},{"c_oem_brand":"阿斯顿马丁","c_oem_name":"阿斯顿马丁","c_oem_name_show":"阿斯顿马丁(进口)","t_letter":"A"},{"c_oem_brand":"林肯","c_oem_name":"林肯","c_oem_name_show":"林肯(进口)","t_letter":"L"},{"c_oem_brand":"迈凯伦","c_oem_name":"迈凯伦","c_oem_name_show":"迈凯伦(进口)","t_letter":"M"},{"c_oem_brand":"理念","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","t_letter":"L"},{"c_oem_brand":"现代","c_oem_name":"现代","c_oem_name_show":"现代(进口)","t_letter":"X"},{"c_oem_brand":"沃尔沃","c_oem_name":"沃尔沃","c_oem_name_show":"沃尔沃(进口)","t_letter":"W"},{"c_oem_brand":"金杯","c_oem_name":"华晨鑫源金杯","c_oem_name_show":"华晨鑫源金杯","t_letter":"J"},{"c_oem_brand":"海马","c_oem_name":"郑州海马","c_oem_name_show":"郑州海马","t_letter":"H"},{"c_oem_brand":"启辰","c_oem_name":"东风日产","c_oem_name_show":"东风日产","t_letter":"Q"},{"c_oem_brand":"沃尔沃","c_oem_name":"沃尔沃亚太","c_oem_name_show":"沃尔沃亚太","t_letter":"W"},{"c_oem_brand":"华泰","c_oem_name":"华泰","c_oem_name_show":"华泰","t_letter":"H"},{"c_oem_brand":"大众","c_oem_name":"一汽大众","c_oem_name_show":"一汽大众","t_letter":"D"},{"c_oem_brand":"悍马","c_oem_name":"悍马","c_oem_name_show":"悍马(进口)","t_letter":"H"},{"c_oem_brand":"马自达","c_oem_name":"马自达","c_oem_name_show":"马自达(进口)","t_letter":"M"},{"c_oem_brand":"福迪","c_oem_name":"福迪","c_oem_name_show":"福迪","t_letter":"F"},{"c_oem_brand":"本田","c_oem_name":"本田","c_oem_name_show":"本田(进口)","t_letter":"B"},{"c_oem_brand":"风行","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"兰博基尼","c_oem_name":"兰博基尼","c_oem_name_show":"兰博基尼(进口)","t_letter":"L"},{"c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","t_letter":"A"},{"c_oem_brand":"铃木","c_oem_name":"昌河铃木","c_oem_name_show":"昌河铃木","t_letter":"L"},{"c_oem_brand":"一汽","c_oem_name":"一汽吉林","c_oem_name_show":"一汽吉林","t_letter":"Y"},{"c_oem_brand":"标致","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"B"},{"c_oem_brand":"哈飞","c_oem_name":"哈飞","c_oem_name_show":"哈飞","t_letter":"H"},{"c_oem_brand":"现代","c_oem_name":"北京现代","c_oem_name_show":"北京现代","t_letter":"X"},{"c_oem_brand":"路特斯","c_oem_name":"路特斯","c_oem_name_show":"路特斯(进口)","t_letter":"L"},{"c_oem_brand":"上汽大通","c_oem_name":"上汽商用车","c_oem_name_show":"上汽商用车","t_letter":"S"},{"c_oem_brand":"吉利","c_oem_name":"吉利","c_oem_name_show":"吉利","t_letter":"J"},{"c_oem_brand":"东南","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"D"},{"c_oem_brand":"天马","c_oem_name":"天马","c_oem_name_show":"天马","t_letter":"T"},{"c_oem_brand":"凯迪拉克","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"K"},{"c_oem_brand":"吉姆西","c_oem_name":"吉姆西","c_oem_name_show":"吉姆西(进口)","t_letter":"J"},{"c_oem_brand":"宾利","c_oem_name":"宾利","c_oem_name_show":"宾利(进口)","t_letter":"B"},{"c_oem_brand":"威麟","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"W"},{"c_oem_brand":"罗伦士","c_oem_name":"罗伦士","c_oem_name_show":"罗伦士(进口)","t_letter":"L"},{"c_oem_brand":"康迪","c_oem_name":"康迪","c_oem_name_show":"康迪","t_letter":"K"},{"c_oem_brand":"莲花","c_oem_name":"青年乘用车","c_oem_name_show":"青年乘用车(进口)","t_letter":"L"},{"c_oem_brand":"道奇","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"D"},{"c_oem_brand":"大众","c_oem_name":"上海大众","c_oem_name_show":"上海大众","t_letter":"D"},{"c_oem_brand":"陆风","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"L"},{"c_oem_brand":"欧朗","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"O"},{"c_oem_brand":"法拉利","c_oem_name":"法拉利","c_oem_name_show":"法拉利(进口)","t_letter":"F"},{"c_oem_brand":"雷诺","c_oem_name":"东风雷诺","c_oem_name_show":"东风雷诺","t_letter":"L"},{"c_oem_brand":"吉普","c_oem_name":"北京吉普","c_oem_name_show":"北京吉普","t_letter":"J"},{"c_oem_brand":"一汽","c_oem_name":"天津一汽","c_oem_name_show":"天津一汽","t_letter":"Y"},{"c_oem_brand":"本田","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","t_letter":"B"},{"c_oem_brand":"三菱","c_oem_name":"三菱","c_oem_name_show":"三菱(进口)","t_letter":"S"},{"c_oem_brand":"斯巴鲁","c_oem_name":"富士","c_oem_name_show":"富士(进口)","t_letter":"S"},{"c_oem_brand":"丰田","c_oem_name":"一汽丰田","c_oem_name_show":"一汽丰田","t_letter":"F"},{"c_oem_brand":"雷克萨斯","c_oem_name":"丰田","c_oem_name_show":"丰田(进口)","t_letter":"L"},{"c_oem_brand":"雪铁龙","c_oem_name":"神龙汽车","c_oem_name_show":"神龙汽车","t_letter":"X"},{"c_oem_brand":"奥迪","c_oem_name":"一汽大众","c_oem_name_show":"一汽大众","t_letter":"A"},{"c_oem_brand":"奔驰","c_oem_name":"奔驰","c_oem_name_show":"奔驰(进口)","t_letter":"B"},{"c_oem_brand":"布加迪","c_oem_name":"布加迪","c_oem_name_show":"布加迪(进口)","t_letter":"B"},{"c_oem_brand":"菲亚特","c_oem_name":"广汽菲克","c_oem_name_show":"广汽菲克","t_letter":"F"},{"c_oem_brand":"红旗","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"H"},{"c_oem_brand":"本田","c_oem_name":"东风本田","c_oem_name_show":"东风本田","t_letter":"B"},{"c_oem_brand":"北汽","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"B"},{"c_oem_brand":"风神","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"双龙","c_oem_name":"双龙","c_oem_name_show":"双龙","t_letter":"S"},{"c_oem_brand":"英菲尼迪","c_oem_name":"东风英菲尼迪","c_oem_name_show":"东风英菲尼迪","t_letter":"Y"},{"c_oem_brand":"英致","c_oem_name":"潍柴汽车","c_oem_name_show":"潍柴汽车","t_letter":"Y"},{"c_oem_brand":"吉普","c_oem_name":"广汽菲克","c_oem_name_show":"广汽菲克","t_letter":"J"},{"c_oem_brand":"丰田","c_oem_name":"丰田","c_oem_name_show":"丰田(进口)","t_letter":"F"},{"c_oem_brand":"陆地方舟","c_oem_name":"陆地方舟","c_oem_name_show":"陆地方舟","t_letter":"L"},{"c_oem_brand":"奇瑞","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"Q"},{"c_oem_brand":"MG","c_oem_name":"上海汽车","c_oem_name_show":"上海汽车","t_letter":"M"},{"c_oem_brand":"路虎","c_oem_name":"奇瑞捷豹路虎","c_oem_name_show":"奇瑞捷豹路虎","t_letter":"L"},{"c_oem_brand":"东风小康","c_oem_name":"东风小康","c_oem_name_show":"东风小康","t_letter":"D"},{"c_oem_brand":"DS","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"D"},{"c_oem_brand":"欧宝","c_oem_name":"欧宝","c_oem_name_show":"欧宝(进口)","t_letter":"O"},{"c_oem_brand":"富奇","c_oem_name":"富奇","c_oem_name_show":"富奇","t_letter":"F"},{"c_oem_brand":"斯柯达","c_oem_name":"上海大众","c_oem_name_show":"上海大众","t_letter":"S"},{"c_oem_brand":"MG","c_oem_name":"南京汽车","c_oem_name_show":"南京汽车","t_letter":"M"},{"c_oem_brand":"瑞麒","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"R"},{"c_oem_brand":"长丰","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"C"},{"c_oem_brand":"江南","c_oem_name":"江南","c_oem_name_show":"江南","t_letter":"J"},{"c_oem_brand":"宝骏","c_oem_name":"上汽通用五菱","c_oem_name_show":"上汽通用五菱","t_letter":"B"},{"c_oem_brand":"标致","c_oem_name":"神龙汽车","c_oem_name_show":"神龙汽车","t_letter":"B"},{"c_oem_brand":"雪佛兰","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"X"},{"c_oem_brand":"马自达","c_oem_name":"一汽马自达","c_oem_name_show":"一汽马自达","t_letter":"M"},{"c_oem_brand":"永源","c_oem_name":"永源汽车","c_oem_name_show":"永源汽车","t_letter":"Y"},{"c_oem_brand":"菲亚特","c_oem_name":"菲亚特","c_oem_name_show":"菲亚特(进口)","t_letter":"F"},{"c_oem_brand":"江铃新能源","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"J"},{"c_oem_brand":"西雅特","c_oem_name":"西雅特","c_oem_name_show":"西雅特(进口)","t_letter":"X"},{"c_oem_brand":"哈弗","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"H"},{"c_oem_brand":"华普","c_oem_name":"上海华普","c_oem_name_show":"上海华普","t_letter":"H"},{"c_oem_brand":"讴歌","c_oem_name":"广汽讴歌","c_oem_name_show":"广汽讴歌","t_letter":"O"},{"c_oem_brand":"莲花","c_oem_name":"青年乘用车","c_oem_name_show":"青年乘用车","t_letter":"L"},{"c_oem_brand":"三菱","c_oem_name":"北京吉普","c_oem_name_show":"北京吉普","t_letter":"S"},{"c_oem_brand":"捷豹","c_oem_name":"捷豹","c_oem_name_show":"捷豹(进口)","t_letter":"J"},{"c_oem_brand":"宝沃","c_oem_name":"宝沃汽车","c_oem_name_show":"宝沃汽车","t_letter":"B"},{"c_oem_brand":"别克","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"B"},{"c_oem_brand":"罗伦士","c_oem_name":"罗伦士","c_oem_name_show":"罗伦士","t_letter":"L"},{"c_oem_brand":"金杯","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"J"},{"c_oem_brand":"劳斯莱斯","c_oem_name":"劳斯莱斯","c_oem_name_show":"劳斯莱斯(进口)","t_letter":"L"},{"c_oem_brand":"大众","c_oem_name":"大众","c_oem_name_show":"大众(进口)","t_letter":"D"},{"c_oem_brand":"中兴","c_oem_name":"中兴","c_oem_name_show":"中兴","t_letter":"Z"},{"c_oem_brand":"特斯拉","c_oem_name":"特斯拉","c_oem_name_show":"特斯拉(进口)","t_letter":"T"},{"c_oem_brand":"Smart","c_oem_name":"奔驰","c_oem_name_show":"奔驰(进口)","t_letter":"S"},{"c_oem_brand":"九龙","c_oem_name":"九龙汽车","c_oem_name_show":"九龙汽车","t_letter":"J"},{"c_oem_brand":"知豆","c_oem_name":"知豆电动汽车","c_oem_name_show":"知豆电动汽车","t_letter":"Z"},{"c_oem_brand":"迈巴赫","c_oem_name":"迈巴赫","c_oem_name_show":"迈巴赫(进口)","t_letter":"M"},{"c_oem_brand":"风度","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"新凯","c_oem_name":"新凯汽车","c_oem_name_show":"新凯汽车","t_letter":"X"},{"c_oem_brand":"沃尔沃","c_oem_name":"长安沃尔沃","c_oem_name_show":"长安沃尔沃","t_letter":"W"},{"c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_oem_name_show":"绵阳金杯","t_letter":"J"},{"c_oem_brand":"世爵","c_oem_name":"世爵","c_oem_name_show":"世爵(进口)","t_letter":"S"},{"c_oem_brand":"众泰","c_oem_name":"众泰","c_oem_name_show":"众泰","t_letter":"Z"},{"c_oem_brand":"力帆","c_oem_name":"力帆","c_oem_name_show":"力帆","t_letter":"L"},{"c_oem_brand":"保时捷","c_oem_name":"保时捷","c_oem_name_show":"保时捷(进口)","t_letter":"B"},{"c_oem_brand":"长安","c_oem_name":"长安汽车","c_oem_name_show":"长安汽车","t_letter":"C"},{"c_oem_brand":"福特","c_oem_name":"长安福特","c_oem_name_show":"长安福特","t_letter":"F"},{"c_oem_brand":"昌河","c_oem_name":"昌河汽车","c_oem_name_show":"昌河汽车","t_letter":"C"},{"c_oem_brand":"东风","c_oem_name":"东风汽车","c_oem_name_show":"东风汽车","t_letter":"D"},{"c_oem_brand":"比亚迪","c_oem_name":"比亚迪","c_oem_name_show":"比亚迪","t_letter":"B"},{"c_oem_brand":"福特","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"F"},{"c_oem_brand":"斯威","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"S"},{"c_oem_brand":"凯翼","c_oem_name":"凯翼汽车","c_oem_name_show":"凯翼汽车","t_letter":"K"},{"c_oem_brand":"巴博斯","c_oem_name":"巴博斯","c_oem_name_show":"巴博斯(进口)","t_letter":"B"},{"c_oem_brand":"讴歌","c_oem_name":"本田","c_oem_name_show":"本田(进口)","t_letter":"O"},{"c_oem_brand":"威旺","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"W"},{"c_oem_brand":"北汽新能源","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"B"},{"c_oem_brand":"日产","c_oem_name":"郑州日产","c_oem_name_show":"郑州日产","t_letter":"R"},{"c_oem_brand":"腾势","c_oem_name":"比亚迪戴姆勒","c_oem_name_show":"比亚迪戴姆勒","t_letter":"T"},{"c_oem_brand":"卡威","c_oem_name":"卡威","c_oem_name_show":"卡威","t_letter":"K"},{"c_oem_brand":"道奇","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"D"},{"c_oem_brand":"幻速","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"H"},{"c_oem_brand":"奔驰","c_oem_name":"福建奔驰","c_oem_name_show":"福建奔驰","t_letter":"B"},{"c_oem_brand":"LOCAL MOTORS","c_oem_name":"LOCAL MOTORS","c_oem_name_show":"LOCAL MOTORS(进口)","t_letter":"L"},{"c_oem_brand":"英菲尼迪","c_oem_name":"日产","c_oem_name_show":"日产(进口)","t_letter":"Y"},{"c_oem_brand":"捷豹","c_oem_name":"奇瑞捷豹路虎","c_oem_name_show":"奇瑞捷豹路虎","t_letter":"J"},{"c_oem_brand":"福田","c_oem_name":"北汽福田","c_oem_name_show":"北汽福田","t_letter":"F"},{"c_oem_brand":"比速","c_oem_name":"比速","c_oem_name_show":"比速","t_letter":"B"},{"c_oem_brand":"纳智捷","c_oem_name":"东风裕隆","c_oem_name_show":"东风裕隆","t_letter":"N"},{"c_oem_brand":"凯迪拉克","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"K"},{"c_oem_brand":"五菱","c_oem_name":"上汽通用五菱","c_oem_name_show":"上汽通用五菱","t_letter":"W"},{"c_oem_brand":"雷丁","c_oem_name":"雷丁","c_oem_name_show":"雷丁","t_letter":"L"},{"c_oem_brand":"起亚","c_oem_name":"东风悦达起亚","c_oem_name_show":"东风悦达起亚","t_letter":"Q"},{"c_oem_brand":"丰田","c_oem_name":"广汽丰田","c_oem_name_show":"广汽丰田","t_letter":"F"},{"c_oem_brand":"宝马","c_oem_name":"华晨宝马","c_oem_name_show":"华晨宝马","t_letter":"B"},{"c_oem_brand":"大迪","c_oem_name":"大迪","c_oem_name_show":"大迪","t_letter":"D"},{"c_oem_brand":"奔驰","c_oem_name":"北京奔驰","c_oem_name_show":"北京奔驰","t_letter":"B"},{"c_oem_brand":"马自达","c_oem_name":"长安马自达","c_oem_name_show":"长安马自达","t_letter":"M"},{"c_oem_brand":"中华","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"Z"},{"c_oem_brand":"阿尔法·罗密欧","c_oem_name":"阿尔法·罗密欧","c_oem_name_show":"阿尔法·罗密欧(进口)","t_letter":"A"},{"c_oem_brand":"克莱斯勒","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"K"},{"c_oem_brand":"汉腾","c_oem_name":"汉腾汽车","c_oem_name_show":"汉腾汽车","t_letter":"H"},{"c_oem_brand":"五十铃","c_oem_name":"江西五十铃","c_oem_name_show":"江西五十铃","t_letter":"W"},{"c_oem_brand":"观致","c_oem_name":"观致汽车","c_oem_name_show":"观致汽车","t_letter":"G"},{"c_oem_brand":"江铃","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"J"},{"c_oem_brand":"福汽启腾","c_oem_name":"福汽新龙马","c_oem_name_show":"福汽新龙马","t_letter":"F"},{"c_oem_brand":"ALPINA","c_oem_name":"ALPINA","c_oem_name_show":"ALPINA(进口)","t_letter":"A"},{"c_oem_brand":"海马","c_oem_name":"一汽海马","c_oem_name_show":"一汽海马","t_letter":"H"},{"c_oem_brand":"日产","c_oem_name":"日产","c_oem_name_show":"日产(进口)","t_letter":"R"},{"c_oem_brand":"斯柯达","c_oem_name":"大众","c_oem_name_show":"大众(进口)","t_letter":"S"},{"c_oem_brand":"威兹曼","c_oem_name":"威兹曼","c_oem_name_show":"威兹曼(进口)","t_letter":"W"},{"c_oem_brand":"玛莎拉蒂","c_oem_name":"玛莎拉蒂","c_oem_name_show":"玛莎拉蒂(进口)","t_letter":"M"},{"c_oem_brand":"别克","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"B"},{"c_oem_brand":"三菱","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"S"},{"c_oem_brand":"光冈","c_oem_name":"光冈","c_oem_name_show":"光冈(进口)","t_letter":"G"},{"c_oem_brand":"奔腾","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"B"},{"c_oem_brand":"路虎","c_oem_name":"路虎","c_oem_name_show":"路虎(进口)","t_letter":"L"},{"c_oem_brand":"DS","c_oem_name":"长安标致雪铁龙","c_oem_name_show":"长安标致雪铁龙","t_letter":"D"},{"c_oem_brand":"菲亚特","c_oem_name":"南京菲亚特","c_oem_name_show":"南京菲亚特","t_letter":"F"},{"c_oem_brand":"雷诺","c_oem_name":"雷诺","c_oem_name_show":"雷诺(进口)","t_letter":"L"},{"c_oem_brand":"江淮","c_oem_name":"江淮","c_oem_name_show":"江淮","t_letter":"J"},{"c_oem_brand":"起亚","c_oem_name":"起亚","c_oem_name_show":"起亚(进口)","t_letter":"Q"},{"c_oem_brand":"克莱斯勒","c_oem_name":"北京奔驰戴姆勒克莱斯勒","c_oem_name_show":"北京奔驰戴姆勒克莱斯勒","t_letter":"K"},{"c_oem_brand":"三菱","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"S"},{"c_oem_brand":"北汽制造","c_oem_name":"北汽制造","c_oem_name_show":"北汽制造","t_letter":"B"},{"c_oem_brand":"吉奥","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"J"},{"c_oem_brand":"WEY","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"W"},{"c_oem_brand":"双龙","c_oem_name":"双龙","c_oem_name_show":"双龙(进口)","t_letter":"S"},{"c_oem_brand":"铃木","c_oem_name":"长安铃木","c_oem_name_show":"长安铃木","t_letter":"L"},{"c_oem_brand":"开瑞","c_oem_name":"开瑞汽车","c_oem_name_show":"开瑞汽车","t_letter":"K"},{"c_oem_brand":"野马","c_oem_name":"四川野马","c_oem_name_show":"四川野马","t_letter":"Y"},{"c_oem_brand":"吉普","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"J"}]}</t>
   </si>
   <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"有","HID_light":"有","aircon_mode":"自动有","alloy_wheel":"有","auto_head_light":"有","cruise":"有","ele_rearview_adj":"有","ele_rearview_fold":"有","ele_seats_adj":"主有/副有","ele_sunroof":"有","front_tire_spec":"235/55 R19","head_light_clean_sys":"有","keyless_boot":"有","large_color_LCD":"有","leather_seat":"有","multi_steering_wheel_adj":"有","pano_sunroof":"有","parking_radar":"前有/后有","rear_tire_spec":"235/55 R19","reversing_video":"有","seat_heating":"前有/后可选装","t_id":"3104"}]}</t>
-  </si>
-  <si>
-    <t>{"size":4,"detailInfo":null,"list":[{"result":[{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"大众","price":752.49,"car_brand":"大众","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽大众","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽奥迪","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽大众","price":752.49,"car_brand":"一汽大众","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"奥迪","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"兰博基尼","price":752.49,"car_brand":"兰博基尼","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"宾利","price":752.49,"car_brand":"宾利","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"}],"type":"1","desc":"基本信息"},{"result":[],"type":"2","desc":"原厂替换信息"},{"result":[],"type":"3","desc":"品牌替换信息"},{"result":[{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":876,"t_HL_version":"中国限量版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"311800","c_timer_model_id":"TM305","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI EGO Plus DCT 中国限量版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2013款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":875,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"224800","c_timer_model_id":"TM303","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI Urban DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":881,"t_HL_version":"舒适版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"249800","c_timer_model_id":"TM309","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 舒适版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":880,"t_HL_version":"时尚版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"199800","c_timer_model_id":"TM308","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 时尚版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":888,"t_HL_version":"舒适版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"259800","c_timer_model_id":"TM300","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 舒适版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":874,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"249800","c_timer_model_id":"TM301","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":885,"t_HL_version":"豪华版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"299800","c_timer_model_id":"TM297","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 豪华版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":886,"t_HL_version":"技术版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"234800","c_timer_model_id":"TM298","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 技术版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":887,"t_HL_version":"时尚版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"209800","c_timer_model_id":"TM299","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 时尚版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":882,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"299800","c_timer_model_id":"TM295","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego Plus DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":883,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"259800","c_timer_model_id":"TM294","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":873,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"289800","c_timer_model_id":"TM302","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":879,"t_HL_version":"技术版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"224800","c_timer_model_id":"TM307","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 技术版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":878,"t_HL_version":"豪华版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"289800","c_timer_model_id":"TM306","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 豪华版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":877,"t_HL_version":"中国限量版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"271800","c_timer_model_id":"TM304","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI Ego DCT 中国限量版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2013款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":884,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"234800","c_timer_model_id":"TM296","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Urban DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"}],"type":"4","desc":"车款适配信息"}],"map":null,"statusCode":1,"desc":"查询成功！"}</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>result.t_letter=H,R,K,B&amp;result.c_oem_brand=福特,三菱,东风,斯柯达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size=1,result[0].GPS=有,result[0].HID_light=有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpectedResponse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPartInfoForOriginal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size=192,result[100].t_letter=H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.c_oem_brand=奥迪&amp;result.tid=3104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc=查询成功！,size=1,result.tid=3104,result.c_oem_brand=奥迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>list[3].result[0].tid=876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"120000"},{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getKilometer</t>
-  </si>
-  <si>
-    <t>getKilometer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/maintain/getKilometer?tid=13378&amp;grant_code=test&amp;oem_brand=奥迪&amp;oem_name=一汽大众</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text/plain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.timer_assembly=变速箱,车身地板&amp;result.timer_assembly_id=1,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list[3].result.tid=876,875&amp;list[3].result.c_oem_brand=奥迪&amp;list[3].result.c_model_year=2012,2013,2010&amp;list[0].result.findAll{it.price&gt;700}.car_brand=奥迪,大众&amp;list[3].result.findAll{it.c_model_year = 2012}.car_brand=斯柯达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vtm/getTid?vin=WVGAV67L59D034378&amp;is_original=1&amp;grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vtm/getPostCode1?post_code=CC6450UM09&amp;grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vtm/getOnlyTid?vin=LVSFCFAE48F260881&amp;grant_code=JOY8T5RS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/catalogue/getAllCarModel?offset=0&amp;grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/adaptation/getAssemblyCatalogue?tid=3106&amp;type=0&amp;grant_code=test&amp;vin=LFV3B28R7D3048159</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>/vtm/getTid?vin=LVSFCFAE48F260881&amp;grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/carModel/getCarModelByVin?oem_name=奥迪&amp;oem_brand=奥迪&amp;grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCarModelByVin</t>
-  </si>
-  <si>
-    <t>getCarModelInfoByTid</t>
-  </si>
-  <si>
-    <t>getPostCode1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vtm/getPostCode?post_code=CC6450UM09&amp;grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPostCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOnlyTid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAllCarModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/catalogue/getTimerStandardParts?grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTimerStandardParts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAssemblyCatalogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/adaptation/getPicInfo?grant_code=test&amp;tid=1635&amp;type=0&amp;assembly=发动机&amp;sub_assembly=进气管盖板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPicInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/adaptation/getPartsInfo?grant_code=test&amp;tid=1&amp;pic_num=900A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPartsInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>/carModel/getCarModelInfoByTid?grant_code=test&amp;tid=9417</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPostCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/carModel/getCarModelByTid?tid=3104&amp;grant_code=test&amp;isCN=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTid</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":200, "size":1, "result":[{"tid":"5280"}]}</t>
-  </si>
-  <si>
-    <t>getPartsInfo</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":30, "result":[{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1661381","kps_code":"79714MV100","kps_name":"垫片","per_use_num":"6","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"79714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2092190","kps_code":"90100MV100","kps_name":"尾门","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90100","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:R;备注:无ED件","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1714","timer_name":"举升门","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127929","kps_code":"90830MP100","kps_name":"防水条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90210","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1716","timer_name":"举升门密封条","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2104822","kps_code":"90300MV100","kps_name":"玻璃","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90313","remark_brief":"","remark_detail":"适用车型:AAABAC;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"2546","timer_name":"举升门玻璃","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109061","kps_code":"90392MV100","kps_name":"玻璃护板","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90335","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127630","kps_code":"90810MV400","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810M","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1731","timer_name":"举升门装饰条","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127652","kps_code":"90812MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127656","kps_code":"90813MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90811","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1336650","kps_code":"60895MP100","kps_name":"缓冲橡皮","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90815","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1405068","kps_code":"64899MV100","kps_name":"保护板","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90816","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109253","kps_code":"90400MV100","kps_name":"铰链","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90410M","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1713","timer_name":"举升门铰链","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781547","kps_code":"MLA08Z1698","kps_name":"螺丝","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2813004","kps_code":"NM12Z9081A","kps_name":"螺母","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111850","kps_code":"90454MP100","kps_name":"支架","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1594642","kps_code":"72714MP100","kps_name":"垫片","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"72714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109144","kps_code":"90395MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90395","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109177","kps_code":"90396MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90396","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111963","kps_code":"90457MP110","kps_name":"球形接头","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90457","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111553","kps_code":"90450MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424Q","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1717","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111661","kps_code":"90451MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90425Q","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1719","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2121302","kps_code":"90606MP100","kps_name":"开关","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90606N","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781569","kps_code":"MMU05Z1623","kps_name":"螺丝","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"6402","kps_code":"01225N0002","kps_name":"螺母","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2812986","kps_code":"NM01Z40537","kps_name":"螺母","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2107325","kps_code":"90359MV100","kps_name":"夹子","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90834E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533817","kps_code":"26557MP100","kps_name":"塞扣","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533818","kps_code":"26557MP200","kps_name":"塞扣","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116633","kps_code":"90526MP100","kps_name":"阻尼器","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90526","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116704","kps_code":"90528MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90528","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116740","kps_code":"90529MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90529","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"}]}</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":100, "size":1, "result":[{"c_oem_brand":"大众","c_oem_name":"大众","c_timer_model_name":"大众 大众 TOUA BHK","epc_code":"616","vin":"WVGAV67L59D034378"}]}</t>
-  </si>
-  <si>
-    <t>getPostCode1</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":200, "size":4, "result":[{"tid":"null,null,null,null"}]}</t>
-  </si>
-  <si>
-    <t>getPostCode</t>
-  </si>
-  <si>
-    <t>DataFunc([{"TID":"19005","retCode":"2504"},{"TID":"19006","retCode":"2504"},{"TID":"19007","retCode":"2504"},{"TID":"19008","retCode":"2504"}])</t>
-  </si>
-  <si>
-    <t>getOnlyTid</t>
-  </si>
-  <si>
-    <t>getAllCarModel</t>
-  </si>
-  <si>
-    <t>getTimerStandardParts</t>
-  </si>
-  <si>
-    <t>getAssemblyCatalogue</t>
-  </si>
-  <si>
-    <t>getPicInfo</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":84, "result":[{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"}]}</t>
-  </si>
-  <si>
-    <t>text/plain</t>
-  </si>
-  <si>
-    <t>text/plain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve">java.lang.AssertionError: JSON path list[3].result.c_model_year doesn't match.
@@ -491,15 +473,33 @@
     <t>{"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"120000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}</t>
   </si>
   <si>
-    <t xml:space="preserve">java.lang.AssertionError: Response body doesn't match expectation.
-Expected: "{\"desc\":\"查询成功！\", \"statusCode\":1, \"size\":20, \"result\":[{\"M_KILOMETER\":\"120000\"},{\"M_KILOMETER\":\"80000\"},{\"M_KILOMETER\":\"100000\"},{\"M_KILOMETER\":\"20000\"},{\"M_KILOMETER\":\"40000\"},{\"M_KILOMETER\":\"60000\"},{\"M_KILOMETER\":\"200000\"},{\"M_KILOMETER\":\"140000\"},{\"M_KILOMETER\":\"160000\"},{\"M_KILOMETER\":\"180000\"},{\"M_KILOMETER\":\"70000\"},{\"M_KILOMETER\":\"90000\"},{\"M_KILOMETER\":\"110000\"},{\"M_KILOMETER\":\"130000\"},{\"M_KILOMETER\":\"10000\"},{\"M_KILOMETER\":\"30000\"},{\"M_KILOMETER\":\"50000\"},{\"M_KILOMETER\":\"150000\"},{\"M_KILOMETER\":\"170000\"},{\"M_KILOMETER\":\"190000\"}]}"
-  Actual: {"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"120000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}
-</t>
+    <t>{"desc":"查询成功！", "statusCode":200, "size":1, "result":[{"tid":"5280"}]}</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":100, "size":1, "result":[{"c_oem_brand":"大众","c_oem_name":"大众","c_timer_model_name":"大众 大众 TOUA BHK","epc_code":"616","vin":"WVGAV67L59D034378"}]}</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"无","HID_light":"无","aircon_mode":"手动有","alloy_wheel":"无","auto_head_light":"无","brand_id_timing":"21","c_MSRP_newest":"93800","c_capacity_in_litre_L":"1.3L","c_drive_form":"前轮驱动","c_engine_model":"L13A3","c_fuel_type":"汽油","c_model_interior_code":"GD6","c_model_name":"思迪 2007款 1.3L","c_model_year":"2007","c_oem_abbrebiation":"广汽本田","c_oem_brand":"本田","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","c_series_BBG":"思迪（2006-2008）","c_series_name":"思迪","c_structure":"三厢车","c_timer_model_id":"TM1754","c_timer_model_name":"思迪 2007款 1.3L MT 标准版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT686","c_timer_type_name":"思迪 L13A3 前轮驱动 5MT（2006-2008）","c_transmission_type":"手动变速器","cruise":"无","ele_rearview_adj":"有","ele_rearview_fold":"无","ele_seats_adj":"无","ele_sunroof":"无","epc_no":"11","front_tire_spec":"175/65 R14","head_light_clean_sys":"无","keyless_boot":"无","large_color_LCD":"无","leather_seat":"无","make_id_timing":"51","multi_steering_wheel_adj":"无","pano_sunroof":"无","parking_radar":"无","pic_path":"/carmodel/思迪（2006-2008）.jpg","rear_tire_spec":"175/65 R14","reversing_video":"无","seat_heating":"无","series_id_timing":"749","t_HL_version":"标准版","t_id":"9417","t_letter":"B","timer_type":"L13A3前轮驱动5档手动变速器"}]}</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":200, "size":4, "result":[{"tid":"null,null,null,null"}]}</t>
+  </si>
+  <si>
+    <t>DataFunc([{"TID":"19005","retCode":"2504"},{"TID":"19006","retCode":"2504"},{"TID":"19007","retCode":"2504"},{"TID":"19008","retCode":"2504"}])</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":84, "result":[{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"}]}</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":30, "result":[{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1661381","kps_code":"79714MV100","kps_name":"垫片","per_use_num":"6","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"79714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2092190","kps_code":"90100MV100","kps_name":"尾门","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90100","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:R;备注:无ED件","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1714","timer_name":"举升门","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127929","kps_code":"90830MP100","kps_name":"防水条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90210","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1716","timer_name":"举升门密封条","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2104822","kps_code":"90300MV100","kps_name":"玻璃","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90313","remark_brief":"","remark_detail":"适用车型:AAABAC;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"2546","timer_name":"举升门玻璃","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109061","kps_code":"90392MV100","kps_name":"玻璃护板","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90335","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127630","kps_code":"90810MV400","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810M","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1731","timer_name":"举升门装饰条","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127652","kps_code":"90812MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127656","kps_code":"90813MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90811","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1336650","kps_code":"60895MP100","kps_name":"缓冲橡皮","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90815","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1405068","kps_code":"64899MV100","kps_name":"保护板","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90816","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109253","kps_code":"90400MV100","kps_name":"铰链","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90410M","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1713","timer_name":"举升门铰链","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781547","kps_code":"MLA08Z1698","kps_name":"螺丝","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2813004","kps_code":"NM12Z9081A","kps_name":"螺母","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111850","kps_code":"90454MP100","kps_name":"支架","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1594642","kps_code":"72714MP100","kps_name":"垫片","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"72714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109144","kps_code":"90395MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90395","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109177","kps_code":"90396MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90396","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111963","kps_code":"90457MP110","kps_name":"球形接头","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90457","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111553","kps_code":"90450MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424Q","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1717","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111661","kps_code":"90451MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90425Q","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1719","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2121302","kps_code":"90606MP100","kps_name":"开关","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90606N","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781569","kps_code":"MMU05Z1623","kps_name":"螺丝","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"6402","kps_code":"01225N0002","kps_name":"螺母","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2812986","kps_code":"NM01Z40537","kps_name":"螺母","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2107325","kps_code":"90359MV100","kps_name":"夹子","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90834E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533817","kps_code":"26557MP100","kps_name":"塞扣","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533818","kps_code":"26557MP200","kps_name":"塞扣","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116633","kps_code":"90526MP100","kps_name":"阻尼器","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90526","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116704","kps_code":"90528MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90528","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116740","kps_code":"90529MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90529","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"}]}</t>
   </si>
   <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id</t>
   </si>
   <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":433, "result":[{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2013款 3.0T 45TFSI Quattro 四驱 A/MT 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3109"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A4 Allroad（2016-","c_timer_model_name":"进口奥迪A4 Allroad 2017款 2.0T 45TFSI Quattro 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"21267"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.8T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"901"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2011款 3.0TFSI 200KW 四驱 A/MT 进取版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3137"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1（2011-","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"873"},{"c_capacity_in_litre_L":"2.5L","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 2.5L 30FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1216"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2014款 3.0T 50TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12984"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2014款 2.0T 45TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1086"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2015-","c_timer_model_name":"奥迪TT Coupe 2017款 2.0T 45TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22198"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.4T DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"900"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2016款 3.0T 50TFSI Quattro 四驱 DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16735"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1108"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2016款 1.4T 30TFSI Design DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17600"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TTS Coupe（2016-","c_timer_model_name":"奥迪TTS Coupe 2017款 2.0TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22201"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"885"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2015-","c_timer_model_name":"奥迪Q7 2016款 2.0T 40TFSI S-Line 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17406"},{"c_capacity_in_litre_L":"6.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 6.0TDI Quattro 四驱 A/MT 柴油 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3152"},{"c_capacity_in_litre_L":"3.2T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 3.2FSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22969"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2016款 3.0T 50TFSI Quattro 四驱 DCT 动感版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16734"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TFSI 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3167"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2014款 4.2FSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3291"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 3.0T 45TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17782"},{"c_capacity_in_litre_L":"4.2T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 4.2TDI Quattro 四驱 A/MT 柴油","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22967"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16661"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L Hybrid（2011-","c_timer_model_name":"奥迪A8L Hybrid 2013款 2.0T 40Hybrid A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1261"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 40TFSI 四驱 A/MT 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3169"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2017-","c_timer_model_name":"奥迪S5 Sportback 2017款 3.0T 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"23007"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2017-","c_timer_model_name":"奥迪A5 Coupe 2017款 2.0T 45TFSI Quattro 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22915"},{"c_capacity_in_litre_L":"2.8L","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 2.8L 35FSI Quattro 四驱 DCT 进取版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1217"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.0TDI Quattro 四驱 A/MT 柴油 领先版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3123"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI DCT 白色经典版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3831"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2008款 3.2L Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3823"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3125"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A4 Allroad（2012-2016）","c_timer_model_name":"进口奥迪A4 Allroad 2014款 2.0T 40TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1029"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Cabriolet（2008-2017）","c_timer_model_name":"奥迪S5 Cabriolet 2014款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13656"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2007款 4.2L 四驱 A/MT 至尊版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13624"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 改款 45TFSI CVT 舒适版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17872"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3127"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2016款 2.0T 45TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"16663"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 越野典藏技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3129"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 35TDI Quattro 四驱 A/MT 柴油 领先版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3153"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A6 Avant（2017-","c_timer_model_name":"奥迪A6 Avant 2017款 2.0T Sport 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22909"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego Plus DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"882"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2016款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16662"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 技术版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"886"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2015-","c_timer_model_name":"奥迪TT Roadster 2017款 2.0T 45TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22199"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2009款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1098"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2009款 3.6FSI 四驱 A/MT 风尚舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3120"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S6（2013-","c_timer_model_name":"奥迪S6 2013款 4.0TFSI 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3485"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 3.2FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"13628"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1272"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2017-","c_timer_model_name":"奥迪A5 Cabriolet 2017款 2.0T 40TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"23009"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"888"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 4.2FSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1245"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2010款 5.2FSI Quattro 四驱 AMT","c_transmission_type":"半自动变速器","t_letter":"A","tid":"3288"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 3.0T 50TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1110"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2014款 3.0T 45TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12981"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI DCT 彩色梦幻版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3832"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2012款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1114"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2010-2017）","c_timer_model_name":"奥迪S5 Sportback 2010款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3449"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2017款 3.0T 50TFSI Quattro 四驱 DCT 动感版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20629"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI Quattro 四驱 DCT 黑色旋风版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3829"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 45TFSI CVT 舒适版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16654"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1273"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TTS Roadster（2016-","c_timer_model_name":"奥迪TTS Roadster 2016款 2.0T 45TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"19039"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2010款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1100"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2017款 1.8T 35TFSI DCT 时尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20633"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2013款 1.8T 35TFSI DCT 尊贵版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"898"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A6 Allroad（2015-","c_timer_model_name":"奥迪A6 Allroad 2015款 3.0T Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16652"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2008-2015）","c_timer_model_name":"奥迪TT Roadster 2013款 2.0T 45TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3841"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI Quattro 四驱 DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1105"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2013款 1.4T 30TFSI DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"12041"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 3.0TFSI 245KW Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1253"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2013款 2.0T 40TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1128"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2014款 2.0T 45TFSI Quattro 四驱 DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1088"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Coupe（2008-2017）","c_timer_model_name":"奥迪S5 Coupe 2012款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3448"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 6.0L Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1228"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2011款 2.0TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3825"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2010-2017）","c_timer_model_name":"奥迪S5 Sportback 2012款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3450"},{"c_capacity_in_litre_L":"4.2T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 4.2TDI Quattro 四驱 A/MT 柴油版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13623"},{"c_capacity_in_litre_L":"2.8L","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2012款 2.8FSI Quattro 四驱 DCT 进取版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1213"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 3.0T 50TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17781"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S6（2013-","c_timer_model_name":"奥迪S6 2017款 4.0TFSI 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20555"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 6.3FSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1254"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 改款 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17870"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TDI 四驱 A/MT 柴油 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3162"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1271"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2007款 6.0L Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13625"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 3.0TFSI 245KW 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3151"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2015-","c_timer_model_name":"奥迪TT Coupe 2015款 2.0T 45TFSI Quattro 四驱 DCT 复仇者联盟决胜版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17183"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 40TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3160"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.4T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"899"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8 Spyder（2011-","c_timer_model_name":"奥迪R8 Spyder 2011款 5.2FSI Quattro 四驱 AMT","c_transmission_type":"半自动变速器","t_letter":"A","tid":"3295"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 3.0T 50TFSI Quattro 四驱 DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1219"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2013款 3.0T 45TFSI Quattro 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3110"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S3 Limousine（2014-","c_timer_model_name":"奥迪S3 2017款 2.0T Limousine 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"19890"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Coupe（2008-2017）","c_timer_model_name":"奥迪S5 Coupe 2014款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13657"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5 Hybrid（2009-","c_timer_model_name":"进口奥迪Q5 Hybrid 2013款 2.0T 40TFSI 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3103"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2009款 3.6FSI 四驱 A/MT 越野技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3121"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2012款 6.3FSI Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1260"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2008款 6.0L 四驱 A/MT 至尊旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1239"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2014款 2.0T 45TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1091"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S3 Limousine（2014-","c_timer_model_name":"奥迪S3 Limousine 2017款 2.0T 改款 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22358"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2017款 3.0T 50TFSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"21521"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪SQ5（2013-","c_timer_model_name":"奥迪SQ5 2017款 3.0TFSI quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"20554"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2012款 1.8T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"906"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Cabriolet（2008-2017）","c_timer_model_name":"奥迪S5 Cabriolet 2016款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16656"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪RS6（2016-","c_timer_model_name":"奥迪RS6 2016款 4.0T Avant 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"19651"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8 Spyder（2011-","c_timer_model_name":"奥迪R8 Spyder 2014款 4.2FSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3293"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2012款 1.4T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"903"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2013款 2.0T 40TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1127"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2008-2015）","c_timer_model_name":"奥迪TT Roadster 2008款 2.0TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3835"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1107"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2014款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1085"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16655"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16659"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2007款 4.2FSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3117"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2008款 2.0TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3822"},{"c_capacity_in_litre_L":"6.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006</t>
+  </si>
+  <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":1000, "result":[{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"YZ4DC2-30","c_fuel_type":"柴油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18569","c_timer_model_name":"金典 2007款 2.1T MT 长厢长轴 柴油 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6242","c_timer_type_name":"金典 YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"1","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18608","update_time":"1900-01-01 00:00:00.0","xid":"6242"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"61800","c_MSRP_newest":"61800","c_capacity_in_litre_CC":"2156","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"SD4W55A/YZ4D21TC","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"-","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18570","c_timer_model_name":"金典 2007款 2.2L MT 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6241","c_timer_type_name":"金典 SD4W55A/YZ4D21TC 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"2","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18609","update_time":"1900-01-01 00:00:00.0","xid":"6241"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18571","c_timer_model_name":"金典 2007款 2.5T MT 标准厢 标准版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"3","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18610","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18572","c_timer_model_name":"金典 2007款 2.5T MT 标准厢 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"4","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18611","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18574","c_timer_model_name":"金典 2007款 2.5T MT 加长厢 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"5","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18613","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18575","c_timer_model_name":"金典 2009款 2.1T MT 短轴短厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"6","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18614","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18576","c_timer_model_name":"金典 2009款 2.1T MT 短轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"7","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18615","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18577","c_timer_model_name":"金典 2009款 2.1T MT 短厢长轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"8","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18616","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18578","c_timer_model_name":"金典 2009款 2.1T MT 长轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"9","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18617","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18580","c_timer_model_name":"金典 2009款 2.2L MT 短厢短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"10","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18619","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18581","c_timer_model_name":"金典 2009款 2.2L MT 短厢长轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"11","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18620","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18582","c_timer_model_name":"金典 2009款 2.2L MT 短厢长轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"12","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18621","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18583","c_timer_model_name":"金典 2009款 2.2L MT 长厢短轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"13","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18622","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18584","c_timer_model_name":"金典 2009款 2.2L MT 长厢短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"14","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18623","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18585","c_timer_model_name":"金典 2009款 2.2L MT 长厢长轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"15","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18624","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18587","c_timer_model_name":"金典 2009款 2.5T MT 短厢短轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"16","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18626","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18588","c_timer_model_name":"金典 2009款 2.5T MT 短轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"17","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18627","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18589","c_timer_model_name":"金典 2009款 2.5T MT 短厢长轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"18","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18628","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18590","c_timer_model_name":"金典 2009款 2.5T MT 长轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"19","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18629","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"65800","c_MSRP_newest":"65800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18591","c_timer_model_name":"金典009 2014款 2.2L MT 短轴 CNG 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"20","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18630","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"58800","c_MSRP_newest":"58800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18592","c_timer_model_name":"金典009 2014款 2.2L MT 短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"21","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18631","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"67800","c_MSRP_newest":"67800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18593","c_timer_model_name":"金典009 2014款 2.2L MT 长轴 CNG 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"22","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18632","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"68800","c_MSRP_newest":"68800","c_capacity_in_litre_CC":"2184","c_capacity_in_litre_L":"2.2T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"D22A","c_fuel_type":"柴油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_o</t>
   </si>
   <si>
@@ -507,21 +507,13 @@
   </si>
   <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":285, "result":[{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴减速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"冷却剂软管 用于带附加加热器 的车","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D - MJ 2011&gt;&gt; ==============================","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠骨架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门锁 车内操纵机构","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"起动机及零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"制动和离合器 踏板机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素大灯","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱 油底壳","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"进气装置 真空设备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于仪表板 照明","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"机油泵 机油滤清器 机油尺 油冷却器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"用于声音系统的 电子零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"散热器风扇 散热器风扇 控制单元 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"储物网 行李网","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"玻璃滑动天窗/外翻式天窗","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"电话 的电子部件 麦克风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"端板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机油泵 传感器模块 单个部件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雨刮器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车辆室内照明 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后座 用于后座椅及 靠背分开的车","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"轮罩内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"废气涡轮增压器 排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"凸轮轴,阀门","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"保险杠线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门 车门密封条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"交流发电机的连接和紧固件 . 多楔皮带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 滑轨","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"弹性装置 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 扰流板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴壳体 法兰轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"接口，用于外部 音频源 CD换碟机 显示和操作单元 用于带收音机的车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向柱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"传动轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"转向柱组合开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"主减速器 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带饰板 的换挡杆头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"可调节靠背和腰部支撑的 线束 线束，用于 多媒体装备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D &gt;&gt; - MJ 2012","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱毡垫 锁架盖板 行李箱饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"子午线轮胎","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地毯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机和变速器上的 开关和传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"活塞","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"6档手动变速箱，带 分动箱和 中间差速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖 汽缸盖罩盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素前雾灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"电子控制空调器 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"散热器 补偿罐","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"油门踏板，带电子装置 模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"遮阳卷帘","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"单个部件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车身前部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"真空泵","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"安全气囊单元 (副驾驶员位置)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 7档复式离合器变速器 *防盗驶离装置的电气部件 *只有根据车底盘号码在签 *约工厂即时内装才可订货 . . .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"驾驶员舱和货舱 之间的网状隔板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 弯道灯 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门电线束 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"横摆臂 车轮轴承壳体","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"导轨 盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车窗升降器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车载电网电源模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"离合器 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车外后视镜","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"铝合金轮辋 车轮装饰罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防抱死系统(ABS) 电子稳定程序 -ESP-","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火起动开关 电子转向柱锁 控制单元 进入及起动许可 控制单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口 脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门内饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"变速箱壳体 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门盖板里的开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板隔热装置 连接支撑件，用于 底板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"油箱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 配气机构盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车顶线束 线束，用于驻车 暖风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D &gt;&gt; - MJ 2010","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于电控 机械式转向助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"增压空气冷却器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 接口，用于外部 音频源 电线束 单个部件 适配接头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"显示和操作单元 用于多媒体接口'MMI'","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"弹性装置 稳定杆 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"带折叠轮胎（应急车轮）的 铝合金轮辋","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"清洗刮水装置用于 后尾窗玻璃","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"串联式制动主缸 补偿罐 制动液","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁 A柱内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"燃油输送单元和 燃油存量显示 传感器 燃油泵 控制单元 引流泵 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"主动式转向系 控制单元 特种汽车控制单元 用于配备 特殊内装和/或改装件的车辆","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雷达传感器 用于带速度调节装置 及自动间隔调整器的 车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"马达线束 喷油阀 线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"三角皮带一览表","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 安全带报警系统","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围板裁切件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"内室线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束 喷油阀 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧面安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"驱动轴 齿轮与轴 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"数据总线 诊断接口（网关）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"油底壳","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背垫 靠背面罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"组合仪表 无线电时钟接收器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"头部安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于自动变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"座椅底架（可电动 调节）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板横梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 踏板","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"随车工具","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"油罐及连接件, 软管 . D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯清洗装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"支撑臂 车轮轴承壳体 稳定杆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"副车架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座 ----","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"导航系统用的电气零件 . 光缆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向器 用于带电动/机械转向 系统的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油箱及 安装件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背调节装置 的电子部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元壳体 发动机控制单元 发动机转速传感器 爆震传感器 氧传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门玻璃,侧围玻璃, 风挡玻璃,后风挡玻璃, 翼子板,车门和侧围件 用饰条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱盖板 封盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 变矩器 油底壳 ----8HP55A----","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带可电动调节装置 的空调 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"冷却液循环 驻车暖风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 油底壳 用于七档复式离合器变速器 . ---DL-501-7Q-","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 座椅通风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油管路 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"烟灰缸","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管 用于装有起动-停车-运行设备的 车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"通风格栅","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火线圈 火花塞 脉冲传感器 凸轮轴","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"方向盘安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"中间扶手","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯 D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"尾灯 制动信号灯 牌照灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"变压器 ==============================","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"牌照支架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"锁芯 钥匙","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"差速器 动力总成 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池正极线束 线束，用于起动机和 三相交流发电机， 带接地线 跨接起动接口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器 水连接套管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"中部消音器及 后消音器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座 用于带可折迭靠背的车型 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"防抱死系统(ABS)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防盗报警装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"摆动半轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件 占用识别 用于座椅","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶行李架基架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动管 制动软管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点烟器 插座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"手机预装备电气零件 . 用于带CAN-BUS的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"Climatronic自动空 调操作与显示 单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门把手，外部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板 仪表盘装配件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带 ***** 注意危险品 ****** 注意修理手册","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"自安装用线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"带连接件的 空气滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"仪表板线束","sub_assemb</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"无","HID_light":"无","aircon_mode":"手动有","alloy_wheel":"无","auto_head_light":"无","brand_id_timing":"21","c_MSRP_newest":"93800","c_capacity_in_litre_L":"1.3L","c_drive_form":"前轮驱动","c_engine_model":"L13A3","c_fuel_type":"汽油","c_model_interior_code":"GD6","c_model_name":"思迪 2007款 1.3L","c_model_year":"2007","c_oem_abbrebiation":"广汽本田","c_oem_brand":"本田","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","c_series_BBG":"思迪（2006-2008）","c_series_name":"思迪","c_structure":"三厢车","c_timer_model_id":"TM1754","c_timer_model_name":"思迪 2007款 1.3L MT 标准版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT686","c_timer_type_name":"思迪 L13A3 前轮驱动 5MT（2006-2008）","c_transmission_type":"手动变速器","cruise":"无","ele_rearview_adj":"有","ele_rearview_fold":"无","ele_seats_adj":"无","ele_sunroof":"无","epc_no":"11","front_tire_spec":"175/65 R14","head_light_clean_sys":"无","keyless_boot":"无","large_color_LCD":"无","leather_seat":"无","make_id_timing":"51","multi_steering_wheel_adj":"无","pano_sunroof":"无","parking_radar":"无","pic_path":"/carmodel/思迪（2006-2008）.jpg","rear_tire_spec":"175/65 R14","reversing_video":"无","seat_heating":"无","series_id_timing":"749","t_HL_version":"标准版","t_id":"9417","t_letter":"B","timer_type":"L13A3前轮驱动5档手动变速器"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":433, "result":[{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2013款 3.0T 45TFSI Quattro 四驱 A/MT 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3109"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A4 Allroad（2016-","c_timer_model_name":"进口奥迪A4 Allroad 2017款 2.0T 45TFSI Quattro 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"21267"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.8T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"901"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2011款 3.0TFSI 200KW 四驱 A/MT 进取版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3137"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1（2011-","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"873"},{"c_capacity_in_litre_L":"2.5L","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 2.5L 30FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1216"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2014款 3.0T 50TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12984"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2014款 2.0T 45TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1086"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2015-","c_timer_model_name":"奥迪TT Coupe 2017款 2.0T 45TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22198"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.4T DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"900"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2016款 3.0T 50TFSI Quattro 四驱 DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16735"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1108"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2016款 1.4T 30TFSI Design DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17600"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TTS Coupe（2016-","c_timer_model_name":"奥迪TTS Coupe 2017款 2.0TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22201"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"885"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2015-","c_timer_model_name":"奥迪Q7 2016款 2.0T 40TFSI S-Line 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17406"},{"c_capacity_in_litre_L":"6.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 6.0TDI Quattro 四驱 A/MT 柴油 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3152"},{"c_capacity_in_litre_L":"3.2T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 3.2FSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22969"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2016款 3.0T 50TFSI Quattro 四驱 DCT 动感版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16734"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TFSI 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3167"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2014款 4.2FSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3291"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 3.0T 45TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17782"},{"c_capacity_in_litre_L":"4.2T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 4.2TDI Quattro 四驱 A/MT 柴油","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22967"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16661"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L Hybrid（2011-","c_timer_model_name":"奥迪A8L Hybrid 2013款 2.0T 40Hybrid A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1261"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 40TFSI 四驱 A/MT 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3169"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2017-","c_timer_model_name":"奥迪S5 Sportback 2017款 3.0T 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"23007"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2017-","c_timer_model_name":"奥迪A5 Coupe 2017款 2.0T 45TFSI Quattro 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22915"},{"c_capacity_in_litre_L":"2.8L","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 2.8L 35FSI Quattro 四驱 DCT 进取版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1217"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.0TDI Quattro 四驱 A/MT 柴油 领先版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3123"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI DCT 白色经典版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3831"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2008款 3.2L Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3823"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3125"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A4 Allroad（2012-2016）","c_timer_model_name":"进口奥迪A4 Allroad 2014款 2.0T 40TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1029"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Cabriolet（2008-2017）","c_timer_model_name":"奥迪S5 Cabriolet 2014款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13656"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2007款 4.2L 四驱 A/MT 至尊版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13624"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 改款 45TFSI CVT 舒适版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17872"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3127"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2016款 2.0T 45TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"16663"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 越野典藏技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3129"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 35TDI Quattro 四驱 A/MT 柴油 领先版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3153"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A6 Avant（2017-","c_timer_model_name":"奥迪A6 Avant 2017款 2.0T Sport 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22909"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego Plus DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"882"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2016款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16662"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 技术版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"886"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2015-","c_timer_model_name":"奥迪TT Roadster 2017款 2.0T 45TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22199"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2009款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1098"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2009款 3.6FSI 四驱 A/MT 风尚舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3120"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S6（2013-","c_timer_model_name":"奥迪S6 2013款 4.0TFSI 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3485"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 3.2FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"13628"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1272"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2017-","c_timer_model_name":"奥迪A5 Cabriolet 2017款 2.0T 40TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"23009"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"888"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 4.2FSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1245"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2010款 5.2FSI Quattro 四驱 AMT","c_transmission_type":"半自动变速器","t_letter":"A","tid":"3288"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 3.0T 50TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1110"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2014款 3.0T 45TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12981"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI DCT 彩色梦幻版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3832"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2012款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1114"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2010-2017）","c_timer_model_name":"奥迪S5 Sportback 2010款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3449"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2017款 3.0T 50TFSI Quattro 四驱 DCT 动感版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20629"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI Quattro 四驱 DCT 黑色旋风版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3829"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 45TFSI CVT 舒适版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16654"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1273"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TTS Roadster（2016-","c_timer_model_name":"奥迪TTS Roadster 2016款 2.0T 45TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"19039"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2010款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1100"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2017款 1.8T 35TFSI DCT 时尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20633"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2013款 1.8T 35TFSI DCT 尊贵版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"898"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A6 Allroad（2015-","c_timer_model_name":"奥迪A6 Allroad 2015款 3.0T Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16652"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2008-2015）","c_timer_model_name":"奥迪TT Roadster 2013款 2.0T 45TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3841"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI Quattro 四驱 DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1105"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2013款 1.4T 30TFSI DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"12041"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 3.0TFSI 245KW Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1253"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2013款 2.0T 40TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1128"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2014款 2.0T 45TFSI Quattro 四驱 DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1088"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Coupe（2008-2017）","c_timer_model_name":"奥迪S5 Coupe 2012款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3448"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 6.0L Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1228"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2011款 2.0TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3825"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2010-2017）","c_timer_model_name":"奥迪S5 Sportback 2012款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3450"},{"c_capacity_in_litre_L":"4.2T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 4.2TDI Quattro 四驱 A/MT 柴油版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13623"},{"c_capacity_in_litre_L":"2.8L","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2012款 2.8FSI Quattro 四驱 DCT 进取版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1213"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 3.0T 50TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17781"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S6（2013-","c_timer_model_name":"奥迪S6 2017款 4.0TFSI 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20555"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 6.3FSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1254"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 改款 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17870"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TDI 四驱 A/MT 柴油 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3162"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1271"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2007款 6.0L Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13625"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 3.0TFSI 245KW 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3151"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2015-","c_timer_model_name":"奥迪TT Coupe 2015款 2.0T 45TFSI Quattro 四驱 DCT 复仇者联盟决胜版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17183"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 40TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3160"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.4T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"899"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8 Spyder（2011-","c_timer_model_name":"奥迪R8 Spyder 2011款 5.2FSI Quattro 四驱 AMT","c_transmission_type":"半自动变速器","t_letter":"A","tid":"3295"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 3.0T 50TFSI Quattro 四驱 DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1219"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2013款 3.0T 45TFSI Quattro 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3110"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S3 Limousine（2014-","c_timer_model_name":"奥迪S3 2017款 2.0T Limousine 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"19890"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Coupe（2008-2017）","c_timer_model_name":"奥迪S5 Coupe 2014款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13657"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5 Hybrid（2009-","c_timer_model_name":"进口奥迪Q5 Hybrid 2013款 2.0T 40TFSI 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3103"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2009款 3.6FSI 四驱 A/MT 越野技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3121"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2012款 6.3FSI Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1260"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2008款 6.0L 四驱 A/MT 至尊旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1239"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2014款 2.0T 45TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1091"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S3 Limousine（2014-","c_timer_model_name":"奥迪S3 Limousine 2017款 2.0T 改款 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22358"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2017款 3.0T 50TFSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"21521"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪SQ5（2013-","c_timer_model_name":"奥迪SQ5 2017款 3.0TFSI quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"20554"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2012款 1.8T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"906"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Cabriolet（2008-2017）","c_timer_model_name":"奥迪S5 Cabriolet 2016款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16656"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪RS6（2016-","c_timer_model_name":"奥迪RS6 2016款 4.0T Avant 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"19651"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8 Spyder（2011-","c_timer_model_name":"奥迪R8 Spyder 2014款 4.2FSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3293"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2012款 1.4T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"903"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2013款 2.0T 40TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1127"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2008-2015）","c_timer_model_name":"奥迪TT Roadster 2008款 2.0TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3835"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1107"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2014款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1085"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16655"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16659"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2007款 4.2FSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3117"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2008款 2.0TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3822"},{"c_capacity_in_litre_L":"6.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,11 +551,6 @@
       <color indexed="10"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -595,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,7 +596,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -914,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -975,7 +961,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -1078,7 +1064,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1101,7 +1087,7 @@
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -1124,13 +1110,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>37</v>
@@ -1139,7 +1125,7 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -1147,10 +1133,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1159,18 +1145,18 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1185,18 +1171,18 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1205,7 +1191,7 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
@@ -1216,10 +1202,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1228,7 +1214,7 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
@@ -1239,10 +1225,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1251,7 +1237,7 @@
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
@@ -1262,10 +1248,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1274,21 +1260,21 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -1297,7 +1283,7 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
@@ -1308,10 +1294,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1320,7 +1306,7 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
@@ -1331,10 +1317,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -1343,7 +1329,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
@@ -1354,10 +1340,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -1366,21 +1352,21 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1389,21 +1375,21 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1412,21 +1398,21 @@
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1435,21 +1421,21 @@
         <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1458,13 +1444,13 @@
         <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1503,7 +1489,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1523,10 +1509,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1537,7 +1523,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1548,10 +1534,10 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1565,7 +1551,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1579,7 +1565,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1593,7 +1579,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -1601,7 +1587,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1615,13 +1601,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1629,13 +1615,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -1643,13 +1629,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1657,13 +1643,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -1671,134 +1657,134 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
         <v>101</v>
-      </c>
-      <c r="D22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
@@ -1848,7 +1834,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1859,7 +1845,7 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1870,7 +1856,7 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1886,7 +1872,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
@@ -1897,40 +1883,40 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
@@ -1941,134 +1927,134 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2096,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2137,10 +2123,10 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2151,10 +2137,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2165,10 +2151,10 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2179,10 +2165,10 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -2193,248 +2179,248 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>48</v>
+      <c r="C10" t="s">
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
         <v>118</v>
       </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
         <v>119</v>
-      </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/api-test.xlsx
+++ b/src/test/resources/api-test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="145">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,10 +442,6 @@
   </si>
   <si>
     <t>application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,12 +484,33 @@
     <t>DataFunc([{"TID":"19005","retCode":"2504"},{"TID":"19006","retCode":"2504"},{"TID":"19007","retCode":"2504"},{"TID":"19008","retCode":"2504"}])</t>
   </si>
   <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":84, "result":[{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"}]}</t>
-  </si>
-  <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":30, "result":[{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1661381","kps_code":"79714MV100","kps_name":"垫片","per_use_num":"6","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"79714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2092190","kps_code":"90100MV100","kps_name":"尾门","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90100","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:R;备注:无ED件","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1714","timer_name":"举升门","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127929","kps_code":"90830MP100","kps_name":"防水条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90210","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1716","timer_name":"举升门密封条","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2104822","kps_code":"90300MV100","kps_name":"玻璃","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90313","remark_brief":"","remark_detail":"适用车型:AAABAC;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"2546","timer_name":"举升门玻璃","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109061","kps_code":"90392MV100","kps_name":"玻璃护板","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90335","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127630","kps_code":"90810MV400","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810M","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1731","timer_name":"举升门装饰条","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127652","kps_code":"90812MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127656","kps_code":"90813MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90811","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1336650","kps_code":"60895MP100","kps_name":"缓冲橡皮","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90815","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1405068","kps_code":"64899MV100","kps_name":"保护板","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90816","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109253","kps_code":"90400MV100","kps_name":"铰链","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90410M","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1713","timer_name":"举升门铰链","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781547","kps_code":"MLA08Z1698","kps_name":"螺丝","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2813004","kps_code":"NM12Z9081A","kps_name":"螺母","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111850","kps_code":"90454MP100","kps_name":"支架","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1594642","kps_code":"72714MP100","kps_name":"垫片","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"72714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109144","kps_code":"90395MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90395","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109177","kps_code":"90396MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90396","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111963","kps_code":"90457MP110","kps_name":"球形接头","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90457","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111553","kps_code":"90450MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424Q","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1717","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111661","kps_code":"90451MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90425Q","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1719","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2121302","kps_code":"90606MP100","kps_name":"开关","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90606N","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781569","kps_code":"MMU05Z1623","kps_name":"螺丝","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"6402","kps_code":"01225N0002","kps_name":"螺母","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2812986","kps_code":"NM01Z40537","kps_name":"螺母","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2107325","kps_code":"90359MV100","kps_name":"夹子","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90834E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533817","kps_code":"26557MP100","kps_name":"塞扣","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533818","kps_code":"26557MP200","kps_name":"塞扣","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116633","kps_code":"90526MP100","kps_name":"阻尼器","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90526","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116704","kps_code":"90528MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90528","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116740","kps_code":"90529MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90529","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"}]}</t>
   </si>
   <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"120000"},{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.lang.AssertionError: Response body doesn't match expectation.
+Expected: "{\"desc\":\"查询成功！\", \"statusCode\":1, \"size\":20, \"result\":[{\"M_KILOMETER\":\"80000\"},{\"M_KILOMETER\":\"100000\"},{\"M_KILOMETER\":\"120000\"},{\"M_KILOMETER\":\"20000\"},{\"M_KILOMETER\":\"40000\"},{\"M_KILOMETER\":\"60000\"},{\"M_KILOMETER\":\"200000\"},{\"M_KILOMETER\":\"140000\"},{\"M_KILOMETER\":\"160000\"},{\"M_KILOMETER\":\"180000\"},{\"M_KILOMETER\":\"70000\"},{\"M_KILOMETER\":\"90000\"},{\"M_KILOMETER\":\"110000\"},{\"M_KILOMETER\":\"130000\"},{\"M_KILOMETER\":\"10000\"},{\"M_KILOMETER\":\"30000\"},{\"M_KILOMETER\":\"50000\"},{\"M_KILOMETER\":\"150000\"},{\"M_KILOMETER\":\"170000\"},{\"M_KILOMETER\":\"190000\"}]}"
+  Actual: {"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"120000"},{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}
+</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":6, "result":[{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"}]}</t>
+  </si>
+  <si>
+    <t>TotalCaseNum</t>
+  </si>
+  <si>
+    <t>FailedCaseNum</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id</t>
   </si>
   <si>
@@ -507,13 +524,23 @@
   </si>
   <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":285, "result":[{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴减速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"冷却剂软管 用于带附加加热器 的车","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D - MJ 2011&gt;&gt; ==============================","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠骨架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门锁 车内操纵机构","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"起动机及零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"制动和离合器 踏板机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素大灯","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱 油底壳","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"进气装置 真空设备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于仪表板 照明","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"机油泵 机油滤清器 机油尺 油冷却器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"用于声音系统的 电子零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"散热器风扇 散热器风扇 控制单元 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"储物网 行李网","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"玻璃滑动天窗/外翻式天窗","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"电话 的电子部件 麦克风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"端板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机油泵 传感器模块 单个部件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雨刮器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车辆室内照明 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后座 用于后座椅及 靠背分开的车","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"轮罩内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"废气涡轮增压器 排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"凸轮轴,阀门","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"保险杠线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门 车门密封条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"交流发电机的连接和紧固件 . 多楔皮带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 滑轨","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"弹性装置 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 扰流板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴壳体 法兰轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"接口，用于外部 音频源 CD换碟机 显示和操作单元 用于带收音机的车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向柱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"传动轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"转向柱组合开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"主减速器 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带饰板 的换挡杆头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"可调节靠背和腰部支撑的 线束 线束，用于 多媒体装备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D &gt;&gt; - MJ 2012","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱毡垫 锁架盖板 行李箱饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"子午线轮胎","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地毯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机和变速器上的 开关和传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"活塞","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"6档手动变速箱，带 分动箱和 中间差速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖 汽缸盖罩盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素前雾灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"电子控制空调器 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"散热器 补偿罐","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"油门踏板，带电子装置 模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"遮阳卷帘","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"单个部件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车身前部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"真空泵","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"安全气囊单元 (副驾驶员位置)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 7档复式离合器变速器 *防盗驶离装置的电气部件 *只有根据车底盘号码在签 *约工厂即时内装才可订货 . . .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"驾驶员舱和货舱 之间的网状隔板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 弯道灯 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门电线束 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"横摆臂 车轮轴承壳体","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"导轨 盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车窗升降器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车载电网电源模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"离合器 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车外后视镜","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"铝合金轮辋 车轮装饰罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防抱死系统(ABS) 电子稳定程序 -ESP-","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火起动开关 电子转向柱锁 控制单元 进入及起动许可 控制单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口 脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门内饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"变速箱壳体 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门盖板里的开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板隔热装置 连接支撑件，用于 底板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"油箱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 配气机构盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车顶线束 线束，用于驻车 暖风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D &gt;&gt; - MJ 2010","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于电控 机械式转向助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"增压空气冷却器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 接口，用于外部 音频源 电线束 单个部件 适配接头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"显示和操作单元 用于多媒体接口'MMI'","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"弹性装置 稳定杆 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"带折叠轮胎（应急车轮）的 铝合金轮辋","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"清洗刮水装置用于 后尾窗玻璃","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"串联式制动主缸 补偿罐 制动液","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁 A柱内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"燃油输送单元和 燃油存量显示 传感器 燃油泵 控制单元 引流泵 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"主动式转向系 控制单元 特种汽车控制单元 用于配备 特殊内装和/或改装件的车辆","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雷达传感器 用于带速度调节装置 及自动间隔调整器的 车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"马达线束 喷油阀 线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"三角皮带一览表","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 安全带报警系统","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围板裁切件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"内室线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束 喷油阀 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧面安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"驱动轴 齿轮与轴 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"数据总线 诊断接口（网关）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"油底壳","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背垫 靠背面罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"组合仪表 无线电时钟接收器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"头部安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于自动变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"座椅底架（可电动 调节）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板横梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 踏板","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"随车工具","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"油罐及连接件, 软管 . D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯清洗装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"支撑臂 车轮轴承壳体 稳定杆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"副车架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座 ----","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"导航系统用的电气零件 . 光缆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向器 用于带电动/机械转向 系统的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油箱及 安装件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背调节装置 的电子部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元壳体 发动机控制单元 发动机转速传感器 爆震传感器 氧传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门玻璃,侧围玻璃, 风挡玻璃,后风挡玻璃, 翼子板,车门和侧围件 用饰条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱盖板 封盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 变矩器 油底壳 ----8HP55A----","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带可电动调节装置 的空调 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"冷却液循环 驻车暖风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 油底壳 用于七档复式离合器变速器 . ---DL-501-7Q-","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 座椅通风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油管路 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"烟灰缸","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管 用于装有起动-停车-运行设备的 车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"通风格栅","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火线圈 火花塞 脉冲传感器 凸轮轴","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"方向盘安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"中间扶手","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯 D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"尾灯 制动信号灯 牌照灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"变压器 ==============================","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"牌照支架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"锁芯 钥匙","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"差速器 动力总成 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池正极线束 线束，用于起动机和 三相交流发电机， 带接地线 跨接起动接口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器 水连接套管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"中部消音器及 后消音器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座 用于带可折迭靠背的车型 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"防抱死系统(ABS)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防盗报警装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"摆动半轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件 占用识别 用于座椅","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶行李架基架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动管 制动软管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点烟器 插座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"手机预装备电气零件 . 用于带CAN-BUS的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"Climatronic自动空 调操作与显示 单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门把手，外部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板 仪表盘装配件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带 ***** 注意危险品 ****** 注意修理手册","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"自安装用线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"带连接件的 空气滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"仪表板线束","sub_assemb</t>
+  </si>
+  <si>
+    <t>2017-09-13 18:17:30</t>
+  </si>
+  <si>
+    <t>2017-09-13 18:17:44</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +578,11 @@
       <color indexed="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -582,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,6 +628,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -901,7 +934,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1116,7 +1149,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>37</v>
@@ -1635,7 +1668,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1799,7 +1832,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1834,7 +1867,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1845,7 +1878,7 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1856,7 +1889,7 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1889,7 +1922,7 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1900,7 +1933,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1911,7 +1944,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1922,7 +1955,7 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1933,7 +1966,7 @@
         <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1944,7 +1977,7 @@
         <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -1955,7 +1988,7 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -1966,7 +1999,7 @@
         <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -1977,7 +2010,7 @@
         <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1988,7 +2021,7 @@
         <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -1999,7 +2032,7 @@
         <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -2010,7 +2043,7 @@
         <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -2021,7 +2054,7 @@
         <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -2032,7 +2065,7 @@
         <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -2043,7 +2076,7 @@
         <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -2054,7 +2087,7 @@
         <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2093,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2123,10 +2156,10 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
         <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2137,10 +2170,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
         <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2151,10 +2184,10 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
         <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2165,10 +2198,10 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
         <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -2179,10 +2212,10 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
         <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -2193,10 +2226,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
         <v>118</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2210,7 +2243,7 @@
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2221,24 +2254,24 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
         <v>118</v>
       </c>
-      <c r="D9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
-        <v>118</v>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -2249,10 +2282,10 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
         <v>118</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -2263,10 +2296,7 @@
         <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -2277,10 +2307,7 @@
         <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -2291,10 +2318,7 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -2305,10 +2329,7 @@
         <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -2319,13 +2340,10 @@
         <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2333,13 +2351,10 @@
         <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2347,13 +2362,10 @@
         <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2361,13 +2373,10 @@
         <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -2375,13 +2384,10 @@
         <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2389,13 +2395,10 @@
         <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2403,13 +2406,10 @@
         <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -2417,10 +2417,39 @@
         <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/api-test.xlsx
+++ b/src/test/resources/api-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="147">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,6 +511,10 @@
     <t>End Time</t>
   </si>
   <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id</t>
   </si>
   <si>
@@ -526,20 +530,23 @@
     <t>{"desc":"查询成功！", "statusCode":1, "size":285, "result":[{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴减速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"冷却剂软管 用于带附加加热器 的车","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D - MJ 2011&gt;&gt; ==============================","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠骨架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门锁 车内操纵机构","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"起动机及零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"制动和离合器 踏板机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素大灯","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱 油底壳","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"进气装置 真空设备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于仪表板 照明","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"机油泵 机油滤清器 机油尺 油冷却器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"用于声音系统的 电子零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"散热器风扇 散热器风扇 控制单元 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"储物网 行李网","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"玻璃滑动天窗/外翻式天窗","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"电话 的电子部件 麦克风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"端板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机油泵 传感器模块 单个部件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雨刮器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车辆室内照明 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后座 用于后座椅及 靠背分开的车","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"轮罩内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"废气涡轮增压器 排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"凸轮轴,阀门","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"保险杠线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门 车门密封条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"交流发电机的连接和紧固件 . 多楔皮带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 滑轨","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"弹性装置 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 扰流板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴壳体 法兰轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"接口，用于外部 音频源 CD换碟机 显示和操作单元 用于带收音机的车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向柱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"传动轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"转向柱组合开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"主减速器 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带饰板 的换挡杆头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"可调节靠背和腰部支撑的 线束 线束，用于 多媒体装备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D &gt;&gt; - MJ 2012","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱毡垫 锁架盖板 行李箱饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"子午线轮胎","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地毯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机和变速器上的 开关和传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"活塞","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"6档手动变速箱，带 分动箱和 中间差速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖 汽缸盖罩盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素前雾灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"电子控制空调器 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"散热器 补偿罐","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"油门踏板，带电子装置 模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"遮阳卷帘","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"单个部件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车身前部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"真空泵","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"安全气囊单元 (副驾驶员位置)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 7档复式离合器变速器 *防盗驶离装置的电气部件 *只有根据车底盘号码在签 *约工厂即时内装才可订货 . . .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"驾驶员舱和货舱 之间的网状隔板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 弯道灯 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门电线束 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"横摆臂 车轮轴承壳体","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"导轨 盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车窗升降器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车载电网电源模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"离合器 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车外后视镜","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"铝合金轮辋 车轮装饰罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防抱死系统(ABS) 电子稳定程序 -ESP-","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火起动开关 电子转向柱锁 控制单元 进入及起动许可 控制单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口 脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门内饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"变速箱壳体 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门盖板里的开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板隔热装置 连接支撑件，用于 底板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"油箱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 配气机构盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车顶线束 线束，用于驻车 暖风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D &gt;&gt; - MJ 2010","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于电控 机械式转向助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"增压空气冷却器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 接口，用于外部 音频源 电线束 单个部件 适配接头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"显示和操作单元 用于多媒体接口'MMI'","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"弹性装置 稳定杆 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"带折叠轮胎（应急车轮）的 铝合金轮辋","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"清洗刮水装置用于 后尾窗玻璃","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"串联式制动主缸 补偿罐 制动液","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁 A柱内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"燃油输送单元和 燃油存量显示 传感器 燃油泵 控制单元 引流泵 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"主动式转向系 控制单元 特种汽车控制单元 用于配备 特殊内装和/或改装件的车辆","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雷达传感器 用于带速度调节装置 及自动间隔调整器的 车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"马达线束 喷油阀 线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"三角皮带一览表","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 安全带报警系统","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围板裁切件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"内室线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束 喷油阀 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧面安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"驱动轴 齿轮与轴 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"数据总线 诊断接口（网关）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"油底壳","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背垫 靠背面罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"组合仪表 无线电时钟接收器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"头部安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于自动变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"座椅底架（可电动 调节）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板横梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 踏板","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"随车工具","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"油罐及连接件, 软管 . D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯清洗装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"支撑臂 车轮轴承壳体 稳定杆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"副车架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座 ----","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"导航系统用的电气零件 . 光缆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向器 用于带电动/机械转向 系统的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油箱及 安装件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背调节装置 的电子部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元壳体 发动机控制单元 发动机转速传感器 爆震传感器 氧传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门玻璃,侧围玻璃, 风挡玻璃,后风挡玻璃, 翼子板,车门和侧围件 用饰条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱盖板 封盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 变矩器 油底壳 ----8HP55A----","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带可电动调节装置 的空调 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"冷却液循环 驻车暖风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 油底壳 用于七档复式离合器变速器 . ---DL-501-7Q-","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 座椅通风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油管路 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"烟灰缸","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管 用于装有起动-停车-运行设备的 车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"通风格栅","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火线圈 火花塞 脉冲传感器 凸轮轴","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"方向盘安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"中间扶手","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯 D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"尾灯 制动信号灯 牌照灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"变压器 ==============================","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"牌照支架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"锁芯 钥匙","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"差速器 动力总成 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池正极线束 线束，用于起动机和 三相交流发电机， 带接地线 跨接起动接口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器 水连接套管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"中部消音器及 后消音器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座 用于带可折迭靠背的车型 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"防抱死系统(ABS)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防盗报警装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"摆动半轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件 占用识别 用于座椅","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶行李架基架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动管 制动软管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点烟器 插座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"手机预装备电气零件 . 用于带CAN-BUS的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"Climatronic自动空 调操作与显示 单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门把手，外部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板 仪表盘装配件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带 ***** 注意危险品 ****** 注意修理手册","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"自安装用线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"带连接件的 空气滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"仪表板线束","sub_assemb</t>
   </si>
   <si>
-    <t>2017-09-13 18:17:30</t>
-  </si>
-  <si>
-    <t>2017-09-13 18:17:44</t>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2017-09-14 14:11:10</t>
+  </si>
+  <si>
+    <t>2017-09-14 14:12:00</t>
+  </si>
+  <si>
+    <t>2017-09-14 14:16:49</t>
+  </si>
+  <si>
+    <t>2017-09-14 14:16:50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -933,19 +940,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.75" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="76.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="17.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="76.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.25" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -1149,7 +1156,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>37</v>
@@ -1522,16 +1529,16 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="183.375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="183.375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1848,248 +1855,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>129</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2128,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2148,308 +1913,36 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
+    <row r="2">
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C2" t="n">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/api-test.xlsx
+++ b/src/test/resources/api-test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="144">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,391 +163,380 @@
     <t>5</t>
   </si>
   <si>
-    <t>http://localhost:80</t>
-  </si>
-  <si>
-    <t>http://localhost:80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:80</t>
+    <t>result.t_letter=H,R,K,B&amp;result.c_oem_brand=福特,三菱,东风,斯柯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size=1,result[0].GPS=有,result[0].HID_light=有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPartInfoForOriginal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size=192,result[100].t_letter=H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.c_oem_brand=奥迪&amp;result.tid=3104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc=查询成功！,size=1,result.tid=3104,result.c_oem_brand=奥迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>list[3].result[0].tid=876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getKilometer</t>
+  </si>
+  <si>
+    <t>getKilometer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/maintain/getKilometer?tid=13378&amp;grant_code=test&amp;oem_brand=奥迪&amp;oem_name=一汽大众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.timer_assembly=变速箱,车身地板&amp;result.timer_assembly_id=1,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list[3].result.tid=876,875&amp;list[3].result.c_oem_brand=奥迪&amp;list[3].result.c_model_year=2012,2013,2010&amp;list[0].result.findAll{it.price&gt;700}.car_brand=奥迪,大众&amp;list[3].result.findAll{it.c_model_year = 2012}.car_brand=斯柯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vtm/getTid?vin=WVGAV67L59D034378&amp;is_original=1&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vtm/getPostCode1?post_code=CC6450UM09&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vtm/getOnlyTid?vin=LVSFCFAE48F260881&amp;grant_code=JOY8T5RS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/catalogue/getAllCarModel?offset=0&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adaptation/getAssemblyCatalogue?tid=3106&amp;type=0&amp;grant_code=test&amp;vin=LFV3B28R7D3048159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>/vtm/getTid?vin=LVSFCFAE48F260881&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/carModel/getCarModelByVin?oem_name=奥迪&amp;oem_brand=奥迪&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCarModelByVin</t>
+  </si>
+  <si>
+    <t>getCarModelInfoByTid</t>
+  </si>
+  <si>
+    <t>getPostCode1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vtm/getPostCode?post_code=CC6450UM09&amp;grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPostCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOnlyTid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllCarModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/catalogue/getTimerStandardParts?grant_code=test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTimerStandardParts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAssemblyCatalogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adaptation/getPicInfo?grant_code=test&amp;tid=1635&amp;type=0&amp;assembly=发动机&amp;sub_assembly=进气管盖板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPicInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adaptation/getPartsInfo?grant_code=test&amp;tid=1&amp;pic_num=900A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPartsInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>/carModel/getCarModelInfoByTid?grant_code=test&amp;tid=9417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPostCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/carModel/getCarModelByTid?tid=3104&amp;grant_code=test&amp;isCN=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/plain</t>
+  </si>
+  <si>
+    <t>text/plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"120000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}</t>
+  </si>
+  <si>
+    <t>TotalCaseNum</t>
+  </si>
+  <si>
+    <t>FailedCaseNum</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.superepc.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>getCarModelByTid</t>
   </si>
   <si>
+    <t>getCarModelConfigByTid</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"有","HID_light":"有","aircon_mode":"自动有","alloy_wheel":"有","auto_head_light":"有","cruise":"有","ele_rearview_adj":"有","ele_rearview_fold":"有","ele_seats_adj":"主有/副有","ele_sunroof":"有","front_tire_spec":"235/55 R19","head_light_clean_sys":"有","keyless_boot":"有","large_color_LCD":"有","leather_seat":"有","multi_steering_wheel_adj":"有","pano_sunroof":"有","parking_radar":"前有/后有","rear_tire_spec":"235/55 R19","reversing_video":"有","seat_heating":"前有/后可选装","t_id":"3104"}]}</t>
+  </si>
+  <si>
+    <t>getAllSeries</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":192, "result":[{"c_oem_brand":"知豆","c_oem_name":"知豆电动汽车","c_oem_name_show":"知豆电动汽车","t_letter":"Z"},{"c_oem_brand":"红旗","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"H"},{"c_oem_brand":"众泰","c_oem_name":"众泰","c_oem_name_show":"众泰","t_letter":"Z"},{"c_oem_brand":"丰田","c_oem_name":"丰田","c_oem_name_show":"丰田(进口)","t_letter":"F"},{"c_oem_brand":"菲亚特","c_oem_name":"南京菲亚特","c_oem_name_show":"南京菲亚特","t_letter":"F"},{"c_oem_brand":"大众","c_oem_name":"上海大众","c_oem_name_show":"上海大众","t_letter":"D"},{"c_oem_brand":"大迪","c_oem_name":"大迪","c_oem_name_show":"大迪","t_letter":"D"},{"c_oem_brand":"宾利","c_oem_name":"宾利","c_oem_name_show":"宾利(进口)","t_letter":"B"},{"c_oem_brand":"吉利","c_oem_name":"吉利","c_oem_name_show":"吉利","t_letter":"J"},{"c_oem_brand":"上汽大通","c_oem_name":"上汽商用车","c_oem_name_show":"上汽商用车","t_letter":"S"},{"c_oem_brand":"奥迪","c_oem_name":"一汽大众","c_oem_name_show":"一汽大众","t_letter":"A"},{"c_oem_brand":"金杯","c_oem_name":"华晨鑫源金杯","c_oem_name_show":"华晨鑫源金杯","t_letter":"J"},{"c_oem_brand":"雪铁龙","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"X"},{"c_oem_brand":"日产","c_oem_name":"郑州日产","c_oem_name_show":"郑州日产","t_letter":"R"},{"c_oem_brand":"凯翼","c_oem_name":"凯翼汽车","c_oem_name_show":"凯翼汽车","t_letter":"K"},{"c_oem_brand":"宝马","c_oem_name":"华晨宝马","c_oem_name_show":"华晨宝马","t_letter":"B"},{"c_oem_brand":"幻速","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"H"},{"c_oem_brand":"迈凯伦","c_oem_name":"迈凯伦","c_oem_name_show":"迈凯伦(进口)","t_letter":"M"},{"c_oem_brand":"纳智捷","c_oem_name":"东风裕隆","c_oem_name_show":"东风裕隆","t_letter":"N"},{"c_oem_brand":"五菱","c_oem_name":"上汽通用五菱","c_oem_name_show":"上汽通用五菱","t_letter":"W"},{"c_oem_brand":"现代","c_oem_name":"现代","c_oem_name_show":"现代(进口)","t_letter":"X"},{"c_oem_brand":"长城","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"C"},{"c_oem_brand":"一汽","c_oem_name":"一汽吉林","c_oem_name_show":"一汽吉林","t_letter":"Y"},{"c_oem_brand":"福田","c_oem_name":"北汽福田","c_oem_name_show":"北汽福田","t_letter":"F"},{"c_oem_brand":"卡威","c_oem_name":"卡威","c_oem_name_show":"卡威","t_letter":"K"},{"c_oem_brand":"奔驰","c_oem_name":"北京奔驰","c_oem_name_show":"北京奔驰","t_letter":"B"},{"c_oem_brand":"北汽","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"B"},{"c_oem_brand":"路虎","c_oem_name":"路虎","c_oem_name_show":"路虎(进口)","t_letter":"L"},{"c_oem_brand":"英菲尼迪","c_oem_name":"日产","c_oem_name_show":"日产(进口)","t_letter":"Y"},{"c_oem_brand":"马自达","c_oem_name":"长安马自达","c_oem_name_show":"长安马自达","t_letter":"M"},{"c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_oem_name_show":"绵阳金杯","t_letter":"J"},{"c_oem_brand":"保时捷","c_oem_name":"保时捷","c_oem_name_show":"保时捷(进口)","t_letter":"B"},{"c_oem_brand":"雷丁","c_oem_name":"雷丁","c_oem_name_show":"雷丁","t_letter":"L"},{"c_oem_brand":"斯巴鲁","c_oem_name":"富士","c_oem_name_show":"富士(进口)","t_letter":"S"},{"c_oem_brand":"威兹曼","c_oem_name":"威兹曼","c_oem_name_show":"威兹曼(进口)","t_letter":"W"},{"c_oem_brand":"英致","c_oem_name":"潍柴汽车","c_oem_name_show":"潍柴汽车","t_letter":"Y"},{"c_oem_brand":"WEY","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"W"},{"c_oem_brand":"陆风","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"L"},{"c_oem_brand":"本田","c_oem_name":"本田","c_oem_name_show":"本田(进口)","t_letter":"B"},{"c_oem_brand":"奔驰","c_oem_name":"奔驰","c_oem_name_show":"奔驰(进口)","t_letter":"B"},{"c_oem_brand":"兰博基尼","c_oem_name":"兰博基尼","c_oem_name_show":"兰博基尼(进口)","t_letter":"L"},{"c_oem_brand":"东南","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"D"},{"c_oem_brand":"阿尔法·罗密欧","c_oem_name":"阿尔法·罗密欧","c_oem_name_show":"阿尔法·罗密欧(进口)","t_letter":"A"},{"c_oem_brand":"克莱斯勒","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"K"},{"c_oem_brand":"Smart","c_oem_name":"奔驰","c_oem_name_show":"奔驰(进口)","t_letter":"S"},{"c_oem_brand":"宝马","c_oem_name":"宝马","c_oem_name_show":"宝马(进口)","t_letter":"B"},{"c_oem_brand":"捷豹","c_oem_name":"奇瑞捷豹路虎","c_oem_name_show":"奇瑞捷豹路虎","t_letter":"J"},{"c_oem_brand":"讴歌","c_oem_name":"本田","c_oem_name_show":"本田(进口)","t_letter":"O"},{"c_oem_brand":"东风","c_oem_name":"东风汽车","c_oem_name_show":"东风汽车","t_letter":"D"},{"c_oem_brand":"中华","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"Z"},{"c_oem_brand":"长丰","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"C"},{"c_oem_brand":"凯迪拉克","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"K"},{"c_oem_brand":"道奇","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"D"},{"c_oem_brand":"风行","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"福汽启腾","c_oem_name":"福汽新龙马","c_oem_name_show":"福汽新龙马","t_letter":"F"},{"c_oem_brand":"吉普","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"J"},{"c_oem_brand":"北汽新能源","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"B"},{"c_oem_brand":"欧宝","c_oem_name":"欧宝","c_oem_name_show":"欧宝(进口)","t_letter":"O"},{"c_oem_brand":"开瑞","c_oem_name":"开瑞汽车","c_oem_name_show":"开瑞汽车","t_letter":"K"},{"c_oem_brand":"悍马","c_oem_name":"悍马","c_oem_name_show":"悍马(进口)","t_letter":"H"},{"c_oem_brand":"江铃","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"J"},{"c_oem_brand":"华泰","c_oem_name":"华泰","c_oem_name_show":"华泰","t_letter":"H"},{"c_oem_brand":"DS","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"D"},{"c_oem_brand":"英菲尼迪","c_oem_name":"东风英菲尼迪","c_oem_name_show":"东风英菲尼迪","t_letter":"Y"},{"c_oem_brand":"克莱斯勒","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"K"},{"c_oem_brand":"华普","c_oem_name":"上海华普","c_oem_name_show":"上海华普","t_letter":"H"},{"c_oem_brand":"大众","c_oem_name":"大众","c_oem_name_show":"大众(进口)","t_letter":"D"},{"c_oem_brand":"标致","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"B"},{"c_oem_brand":"海马","c_oem_name":"郑州海马","c_oem_name_show":"郑州海马","t_letter":"H"},{"c_oem_brand":"腾势","c_oem_name":"比亚迪戴姆勒","c_oem_name_show":"比亚迪戴姆勒","t_letter":"T"},{"c_oem_brand":"巴博斯","c_oem_name":"巴博斯","c_oem_name_show":"巴博斯(进口)","t_letter":"B"},{"c_oem_brand":"雷诺","c_oem_name":"东风雷诺","c_oem_name_show":"东风雷诺","t_letter":"L"},{"c_oem_brand":"本田","c_oem_name":"东风本田","c_oem_name_show":"东风本田","t_letter":"B"},{"c_oem_brand":"观致","c_oem_name":"观致汽车","c_oem_name_show":"观致汽车","t_letter":"G"},{"c_oem_brand":"康迪","c_oem_name":"康迪","c_oem_name_show":"康迪","t_letter":"K"},{"c_oem_brand":"MG","c_oem_name":"上海汽车","c_oem_name_show":"上海汽车","t_letter":"M"},{"c_oem_brand":"力帆","c_oem_name":"力帆","c_oem_name_show":"力帆","t_letter":"L"},{"c_oem_brand":"威麟","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"W"},{"c_oem_brand":"北汽制造","c_oem_name":"北汽制造","c_oem_name_show":"北汽制造","t_letter":"B"},{"c_oem_brand":"马自达","c_oem_name":"马自达","c_oem_name_show":"马自达(进口)","t_letter":"M"},{"c_oem_brand":"荣威","c_oem_name":"上海汽车","c_oem_name_show":"上海汽车","t_letter":"R"},{"c_oem_brand":"雷克萨斯","c_oem_name":"丰田","c_oem_name_show":"丰田(进口)","t_letter":"L"},{"c_oem_brand":"新凯","c_oem_name":"新凯汽车","c_oem_name_show":"新凯汽车","t_letter":"X"},{"c_oem_brand":"光冈","c_oem_name":"光冈","c_oem_name_show":"光冈(进口)","t_letter":"G"},{"c_oem_brand":"路特斯","c_oem_name":"路特斯","c_oem_name_show":"路特斯(进口)","t_letter":"L"},{"c_oem_brand":"双环","c_oem_name":"双环汽车","c_oem_name_show":"双环汽车","t_letter":"S"},{"c_oem_brand":"双龙","c_oem_name":"双龙","c_oem_name_show":"双龙","t_letter":"S"},{"c_oem_brand":"本田","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","t_letter":"B"},{"c_oem_brand":"理念","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","t_letter":"L"},{"c_oem_brand":"莲花","c_oem_name":"青年乘用车","c_oem_name_show":"青年乘用车(进口)","t_letter":"L"},{"c_oem_brand":"阿斯顿马丁","c_oem_name":"阿斯顿马丁","c_oem_name_show":"阿斯顿马丁(进口)","t_letter":"A"},{"c_oem_brand":"哈弗","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"H"},{"c_oem_brand":"起亚","c_oem_name":"起亚","c_oem_name_show":"起亚(进口)","t_letter":"Q"},{"c_oem_brand":"铃木","c_oem_name":"铃木","c_oem_name_show":"铃木(进口)","t_letter":"L"},{"c_oem_brand":"沃尔沃","c_oem_name":"沃尔沃亚太","c_oem_name_show":"沃尔沃亚太","t_letter":"W"},{"c_oem_brand":"铃木","c_oem_name":"长安铃木","c_oem_name_show":"长安铃木","t_letter":"L"},{"c_oem_brand":"福特","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"F"},{"c_oem_brand":"布加迪","c_oem_name":"布加迪","c_oem_name_show":"布加迪(进口)","t_letter":"B"},{"c_oem_brand":"金杯","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"J"},{"c_oem_brand":"雪铁龙","c_oem_name":"神龙汽车","c_oem_name_show":"神龙汽车","t_letter":"X"},{"c_oem_brand":"莲花","c_oem_name":"青年乘用车","c_oem_name_show":"青年乘用车","t_letter":"L"},{"c_oem_brand":"捷豹","c_oem_name":"捷豹","c_oem_name_show":"捷豹(进口)","t_letter":"J"},{"c_oem_brand":"丰田","c_oem_name":"一汽丰田","c_oem_name_show":"一汽丰田","t_letter":"F"},{"c_oem_brand":"陆地方舟","c_oem_name":"陆地方舟","c_oem_name_show":"陆地方舟","t_letter":"L"},{"c_oem_brand":"劳斯莱斯","c_oem_name":"劳斯莱斯","c_oem_name_show":"劳斯莱斯(进口)","t_letter":"L"},{"c_oem_brand":"长安","c_oem_name":"长安汽车","c_oem_name_show":"长安汽车","t_letter":"C"},{"c_oem_brand":"江铃新能源","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"J"},{"c_oem_brand":"标致","c_oem_name":"神龙汽车","c_oem_name_show":"神龙汽车","t_letter":"B"},{"c_oem_brand":"风神","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"吉普","c_oem_name":"北京吉普","c_oem_name_show":"北京吉普","t_letter":"J"},{"c_oem_brand":"吉奥","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"J"},{"c_oem_brand":"哈飞","c_oem_name":"哈飞","c_oem_name_show":"哈飞","t_letter":"H"},{"c_oem_brand":"吉姆西","c_oem_name":"吉姆西","c_oem_name_show":"吉姆西(进口)","t_letter":"J"},{"c_oem_brand":"日产","c_oem_name":"日产","c_oem_name_show":"日产(进口)","t_letter":"R"},{"c_oem_brand":"汉腾","c_oem_name":"汉腾汽车","c_oem_name_show":"汉腾汽车","t_letter":"H"},{"c_oem_brand":"宝沃","c_oem_name":"宝沃汽车","c_oem_name_show":"宝沃汽车","t_letter":"B"},{"c_oem_brand":"一汽","c_oem_name":"天津一汽","c_oem_name_show":"天津一汽","t_letter":"Y"},{"c_oem_brand":"斯柯达","c_oem_name":"大众","c_oem_name_show":"大众(进口)","t_letter":"S"},{"c_oem_brand":"罗伦士","c_oem_name":"罗伦士","c_oem_name_show":"罗伦士","t_letter":"L"},{"c_oem_brand":"江淮","c_oem_name":"江淮","c_oem_name_show":"江淮","t_letter":"J"},{"c_oem_brand":"MG","c_oem_name":"南京汽车","c_oem_name_show":"南京汽车","t_letter":"M"},{"c_oem_brand":"福特","c_oem_name":"长安福特","c_oem_name_show":"长安福特","t_letter":"F"},{"c_oem_brand":"福特","c_oem_name":"福特","c_oem_name_show":"福特(进口)","t_letter":"F"},{"c_oem_brand":"LOCAL MOTORS","c_oem_name":"LOCAL MOTORS","c_oem_name_show":"LOCAL MOTORS(进口)","t_letter":"L"},{"c_oem_brand":"斯威","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"S"},{"c_oem_brand":"雪佛兰","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"X"},{"c_oem_brand":"铃木","c_oem_name":"昌河铃木","c_oem_name_show":"昌河铃木","t_letter":"L"},{"c_oem_brand":"欧朗","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"O"},{"c_oem_brand":"三菱","c_oem_name":"北京吉普","c_oem_name_show":"北京吉普","t_letter":"S"},{"c_oem_brand":"菲亚特","c_oem_name":"菲亚特","c_oem_name_show":"菲亚特(进口)","t_letter":"F"},{"c_oem_brand":"瑞麒","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"R"},{"c_oem_brand":"MINI","c_oem_name":"宝马","c_oem_name_show":"宝马(进口)","t_letter":"M"},{"c_oem_brand":"DS","c_oem_name":"长安标致雪铁龙","c_oem_name_show":"长安标致雪铁龙","t_letter":"D"},{"c_oem_brand":"中兴","c_oem_name":"中兴","c_oem_name_show":"中兴","t_letter":"Z"},{"c_oem_brand":"启辰","c_oem_name":"东风日产","c_oem_name_show":"东风日产","t_letter":"Q"},{"c_oem_brand":"林肯","c_oem_name":"林肯","c_oem_name_show":"林肯(进口)","t_letter":"L"},{"c_oem_brand":"江南","c_oem_name":"江南","c_oem_name_show":"江南","t_letter":"J"},{"c_oem_brand":"天马","c_oem_name":"天马","c_oem_name_show":"天马","t_letter":"T"},{"c_oem_brand":"凯迪拉克","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"K"},{"c_oem_brand":"萨博","c_oem_name":"萨博","c_oem_name_show":"萨博(进口)","t_letter":"S"},{"c_oem_brand":"双龙","c_oem_name":"双龙","c_oem_name_show":"双龙(进口)","t_letter":"S"},{"c_oem_brand":"比速","c_oem_name":"比速","c_oem_name_show":"比速","t_letter":"B"},{"c_oem_brand":"路虎","c_oem_name":"奇瑞捷豹路虎","c_oem_name_show":"奇瑞捷豹路虎","t_letter":"L"},{"c_oem_brand":"福迪","c_oem_name":"福迪","c_oem_name_show":"福迪","t_letter":"F"},{"c_oem_brand":"法拉利","c_oem_name":"法拉利","c_oem_name_show":"法拉利(进口)","t_letter":"F"},{"c_oem_brand":"日产","c_oem_name":"东风日产","c_oem_name_show":"东风日产","t_letter":"R"},{"c_oem_brand":"玛莎拉蒂","c_oem_name":"玛莎拉蒂","c_oem_name_show":"玛莎拉蒂(进口)","t_letter":"M"},{"c_oem_brand":"三菱","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"S"},{"c_oem_brand":"海马","c_oem_name":"一汽海马","c_oem_name_show":"一汽海马","t_letter":"H"},{"c_oem_brand":"雪佛兰","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"X"},{"c_oem_brand":"九龙","c_oem_name":"九龙汽车","c_oem_name_show":"九龙汽车","t_letter":"J"},{"c_oem_brand":"讴歌","c_oem_name":"广汽讴歌","c_oem_name_show":"广汽讴歌","t_letter":"O"},{"c_oem_brand":"雷诺","c_oem_name":"雷诺","c_oem_name_show":"雷诺(进口)","t_letter":"L"},{"c_oem_brand":"大众","c_oem_name":"一汽大众","c_oem_name_show":"一汽大众","t_letter":"D"},{"c_oem_brand":"东风小康","c_oem_name":"东风小康","c_oem_name_show":"东风小康","t_letter":"D"},{"c_oem_brand":"威旺","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"W"},{"c_oem_brand":"奔腾","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"B"},{"c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","t_letter":"A"},{"c_oem_brand":"别克","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"B"},{"c_oem_brand":"斯柯达","c_oem_name":"上海大众","c_oem_name_show":"上海大众","t_letter":"S"},{"c_oem_brand":"罗伦士","c_oem_name":"罗伦士","c_oem_name_show":"罗伦士(进口)","t_letter":"L"},{"c_oem_brand":"沃尔沃","c_oem_name":"长安沃尔沃","c_oem_name_show":"长安沃尔沃","t_letter":"W"},{"c_oem_brand":"宝骏","c_oem_name":"上汽通用五菱","c_oem_name_show":"上汽通用五菱","t_letter":"B"},{"c_oem_brand":"沃尔沃","c_oem_name":"沃尔沃","c_oem_name_show":"沃尔沃(进口)","t_letter":"W"},{"c_oem_brand":"道奇","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"D"},{"c_oem_brand":"比亚迪","c_oem_name":"比亚迪","c_oem_name_show":"比亚迪","t_letter":"B"},{"c_oem_brand":"克莱斯勒","c_oem_name":"北京奔驰戴姆勒克莱斯勒","c_oem_name_show":"北京奔驰戴姆勒克莱斯勒","t_letter":"K"},{"c_oem_brand":"富奇","c_oem_name":"富奇","c_oem_name_show":"富奇","t_letter":"F"},{"c_oem_brand":"奔驰","c_oem_name":"福建奔驰","c_oem_name_show":"福建奔驰","t_letter":"B"},{"c_oem_brand":"三菱","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"S"},{"c_oem_brand":"丰田","c_oem_name":"广汽丰田","c_oem_name_show":"广汽丰田","t_letter":"F"},{"c_oem_brand":"现代","c_oem_name":"北京现代","c_oem_name_show":"北京现代","t_letter":"X"},{"c_oem_brand":"昌河","c_oem_name":"昌河汽车","c_oem_name_show":"昌河汽车","t_letter":"C"},{"c_oem_brand":"华颂","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"H"},{"c_oem_brand":"迈巴赫","c_oem_name":"迈巴赫","c_oem_name_show":"迈巴赫(进口)","t_letter":"M"},{"c_oem_brand":"传祺","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"C"},{"c_oem_brand":"别克","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"B"},{"c_oem_brand":"野马","c_oem_name":"四川野马","c_oem_name_show":"四川野马","t_letter":"Y"},{"c_oem_brand":"吉普","c_oem_name":"广汽菲克","c_oem_name_show":"广汽菲克","t_letter":"J"},{"c_oem_brand":"五十铃","c_oem_name":"江西五十铃","c_oem_name_show":"江西五十铃","t_letter":"W"},{"c_oem_brand":"马自达","c_oem_name":"一汽马自达","c_oem_name_show":"一汽马自达","t_letter":"M"},{"c_oem_brand":"西雅特","c_oem_name":"西雅特","c_oem_name_show":"西雅特(进口)","t_letter":"X"},{"c_oem_brand":"ALPINA","c_oem_name":"ALPINA","c_oem_name_show":"ALPINA(进口)","t_letter":"A"},{"c_oem_brand":"菲亚特","c_oem_name":"广汽菲克","c_oem_name_show":"广汽菲克","t_letter":"F"},{"c_oem_brand":"世爵","c_oem_name":"世爵","c_oem_name_show":"世爵(进口)","t_letter":"S"},{"c_oem_brand":"起亚","c_oem_name":"东风悦达起亚","c_oem_name_show":"东风悦达起亚","t_letter":"Q"},{"c_oem_brand":"永源","c_oem_name":"永源汽车","c_oem_name_show":"永源汽车","t_letter":"Y"},{"c_oem_brand":"三菱","c_oem_name":"三菱","c_oem_name_show":"三菱(进口)","t_letter":"S"},{"c_oem_brand":"风度","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"特斯拉","c_oem_name":"特斯拉","c_oem_name_show":"特斯拉(进口)","t_letter":"T"},{"c_oem_brand":"黄海","c_oem_name":"曙光","c_oem_name_show":"曙光","t_letter":"H"},{"c_oem_brand":"奇瑞","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"Q"}]}</t>
+  </si>
+  <si>
     <t>getPartInfoForOriginal</t>
   </si>
   <si>
-    <t>getAllSeries</t>
-  </si>
-  <si>
-    <t>getCarModelConfigByTid</t>
-  </si>
-  <si>
-    <t>getTimerAccemblyList</t>
+    <t>{"statusCode":1,"desc":"查询成功！","map":null,"detailInfo":null,"list":[{"result":[{"epc_no":5,"kps_code_tmp":"8X1061270A","car_brand":"奥迪","type":"原厂","kps_name":"1套脚垫 全套陈设/光学镜组:","gp_id":2079637,"price":752.49,"kps_code":"8X1 061 270 A","remark_detail":null,"timer_name":null,"tid":0,"car_oem":"一汽大众","remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","timer_id":"0"},{"epc_no":5,"kps_code_tmp":"8X1061270A","car_brand":"兰博基尼","type":"原厂","kps_name":"1套脚垫 全套陈设/光学镜组:","gp_id":2079637,"price":752.49,"kps_code":"8X1 061 270 A","remark_detail":null,"timer_name":null,"tid":0,"car_oem":"兰博基尼","remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","timer_id":"0"},{"epc_no":5,"kps_code_tmp":"8X1061270A","car_brand":"奥迪","type":"原厂","kps_name":"1套脚垫 全套陈设/光学镜组:","gp_id":2079637,"price":752.49,"kps_code":"8X1 061 270 A","remark_detail":null,"timer_name":null,"tid":0,"car_oem":"一汽奥迪","remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","timer_id":"0"},{"epc_no":5,"kps_code_tmp":"8X1061270A","car_brand":"一汽大众","type":"原厂","kps_name":"1套脚垫 全套陈设/光学镜组:","gp_id":2079637,"price":752.49,"kps_code":"8X1 061 270 A","remark_detail":null,"timer_name":null,"tid":0,"car_oem":"一汽大众","remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","timer_id":"0"},{"epc_no":5,"kps_code_tmp":"8X1061270A","car_brand":"奥迪","type":"原厂","kps_name":"1套脚垫 全套陈设/光学镜组:","gp_id":2079637,"price":752.49,"kps_code":"8X1 061 270 A","remark_detail":null,"timer_name":null,"tid":0,"car_oem":"奥迪","remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","timer_id":"0"},{"epc_no":5,"kps_code_tmp":"8X1061270A","car_brand":"大众","type":"原厂","kps_name":"1套脚垫 全套陈设/光学镜组:","gp_id":2079637,"price":752.49,"kps_code":"8X1 061 270 A","remark_detail":null,"timer_name":null,"tid":0,"car_oem":"大众","remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","timer_id":"0"},{"epc_no":5,"kps_code_tmp":"8X1061270A","car_brand":"宾利","type":"原厂","kps_name":"1套脚垫 全套陈设/光学镜组:","gp_id":2079637,"price":752.49,"kps_code":"8X1 061 270 A","remark_detail":null,"timer_name":null,"tid":0,"car_oem":"宾利","remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","timer_id":"0"}],"desc":"基本信息","type":"1"},{"result":[],"desc":"原厂替换信息","type":"2"},{"result":[],"desc":"品牌替换信息","type":"3"},{"result":[{"epc_no":5,"c_model_year":"2013","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_fuel_type":"汽油","series_id_timing":26,"t_letter":"A","c_series_BBG":"奥迪A1（2011-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":876,"c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI EGO Plus DCT 中国限量版","t_HL_version":"中国限量版","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT89","c_model_name":"奥迪A1 2013款 1.4T","c_timer_model_id":"TM305","c_structure":"两厢车","c_MSRP_newest":"311800","c_series_name":"奥迪A1","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2013","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_fuel_type":"汽油","series_id_timing":27,"t_letter":"A","c_series_BBG":"奥迪A1 Sportback（2012-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":883,"c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego DCT","t_HL_version":"","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT88","c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_model_id":"TM294","c_structure":"两厢车","c_MSRP_newest":"259800","c_series_name":"奥迪A1 Sportback","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2014","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_fuel_type":"汽油","series_id_timing":27,"t_letter":"A","c_series_BBG":"奥迪A1 Sportback（2012-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":885,"c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 豪华版","t_HL_version":"豪华版","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT88","c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_model_id":"TM297","c_structure":"两厢车","c_MSRP_newest":"299800","c_series_name":"奥迪A1 Sportback","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2012","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_fuel_type":"汽油","series_id_timing":26,"t_letter":"A","c_series_BBG":"奥迪A1（2011-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":873,"c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","t_HL_version":"","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT89","c_model_name":"奥迪A1 2012款 1.4T","c_timer_model_id":"TM302","c_structure":"两厢车","c_MSRP_newest":"289800","c_series_name":"奥迪A1","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2013","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_fuel_type":"汽油","series_id_timing":26,"t_letter":"A","c_series_BBG":"奥迪A1（2011-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":877,"c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI Ego DCT 中国限量版","t_HL_version":"中国限量版","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT89","c_model_name":"奥迪A1 2013款 1.4T","c_timer_model_id":"TM304","c_structure":"两厢车","c_MSRP_newest":"271800","c_series_name":"奥迪A1","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2013","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_fuel_type":"汽油","series_id_timing":27,"t_letter":"A","c_series_BBG":"奥迪A1 Sportback（2012-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":884,"c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Urban DCT","t_HL_version":"","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT88","c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_model_id":"TM296","c_structure":"两厢车","c_MSRP_newest":"234800","c_series_name":"奥迪A1 Sportback","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2014","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_fuel_type":"汽油","series_id_timing":27,"t_letter":"A","c_series_BBG":"奥迪A1 Sportback（2012-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":886,"c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 技术版","t_HL_version":"技术版","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT88","c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_model_id":"TM298","c_structure":"两厢车","c_MSRP_newest":"234800","c_series_name":"奥迪A1 Sportback","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2014","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_fuel_type":"汽油","series_id_timing":27,"t_letter":"A","c_series_BBG":"奥迪A1 Sportback（2012-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":888,"c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 舒适版","t_HL_version":"舒适版","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT88","c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_model_id":"TM300","c_structure":"两厢车","c_MSRP_newest":"259800","c_series_name":"奥迪A1 Sportback","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2012","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_fuel_type":"汽油","series_id_timing":26,"t_letter":"A","c_series_BBG":"奥迪A1（2011-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":874,"c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO DCT","t_HL_version":"","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT89","c_model_name":"奥迪A1 2012款 1.4T","c_timer_model_id":"TM301","c_structure":"两厢车","c_MSRP_newest":"249800","c_series_name":"奥迪A1","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2012","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_fuel_type":"汽油","series_id_timing":26,"t_letter":"A","c_series_BBG":"奥迪A1（2011-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":875,"c_timer_model_name":"奥迪A1 2012款 1.4TFSI Urban DCT","t_HL_version":"","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT89","c_model_name":"奥迪A1 2012款 1.4T","c_timer_model_id":"TM303","c_structure":"两厢车","c_MSRP_newest":"224800","c_series_name":"奥迪A1","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2014","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_fuel_type":"汽油","series_id_timing":26,"t_letter":"A","c_series_BBG":"奥迪A1（2011-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":878,"c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 豪华版","t_HL_version":"豪华版","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT89","c_model_name":"奥迪A1 2014款 1.4T","c_timer_model_id":"TM306","c_structure":"两厢车","c_MSRP_newest":"289800","c_series_name":"奥迪A1","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2014","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_fuel_type":"汽油","series_id_timing":26,"t_letter":"A","c_series_BBG":"奥迪A1（2011-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":880,"c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 时尚版","t_HL_version":"时尚版","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT89","c_model_name":"奥迪A1 2014款 1.4T","c_timer_model_id":"TM308","c_structure":"两厢车","c_MSRP_newest":"199800","c_series_name":"奥迪A1","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2013","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_fuel_type":"汽油","series_id_timing":27,"t_letter":"A","c_series_BBG":"奥迪A1 Sportback（2012-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":882,"c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego Plus DCT","t_HL_version":"","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT88","c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_model_id":"TM295","c_structure":"两厢车","c_MSRP_newest":"299800","c_series_name":"奥迪A1 Sportback","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2014","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_fuel_type":"汽油","series_id_timing":26,"t_letter":"A","c_series_BBG":"奥迪A1（2011-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":879,"c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 技术版","t_HL_version":"技术版","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT89","c_model_name":"奥迪A1 2014款 1.4T","c_timer_model_id":"TM307","c_structure":"两厢车","c_MSRP_newest":"224800","c_series_name":"奥迪A1","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2014","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_fuel_type":"汽油","series_id_timing":26,"t_letter":"A","c_series_BBG":"奥迪A1（2011-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":881,"c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 舒适版","t_HL_version":"舒适版","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT89","c_model_name":"奥迪A1 2014款 1.4T","c_timer_model_id":"TM309","c_structure":"两厢车","c_MSRP_newest":"249800","c_series_name":"奥迪A1","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5},{"epc_no":5,"c_model_year":"2014","c_oem_abbrebiation":"奥迪","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","c_capacity_in_litre_L":"1.4T","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_fuel_type":"汽油","series_id_timing":27,"t_letter":"A","c_series_BBG":"奥迪A1 Sportback（2012-","c_engine_model":"CNV","c_model_interior_code":"8X","c_timer_remark_transmission_type":"7档双离合变速器","brand_id_timing":10,"c_drive_form":"前轮驱动","tid":887,"c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 时尚版","t_HL_version":"时尚版","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_transmission_type":"双离合变速器","c_timer_type_id":"TT88","c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_model_id":"TM299","c_structure":"两厢车","c_MSRP_newest":"209800","c_series_name":"奥迪A1 Sportback","c_oem_brand":"奥迪","timer_type":"CNV前轮驱动7档双离合变速器","make_id_timing":5}],"desc":"车款适配信息","type":"4"}],"size":4}</t>
   </si>
   <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>result.t_letter=H,R,K,B&amp;result.c_oem_brand=福特,三菱,东风,斯柯达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size=1,result[0].GPS=有,result[0].HID_light=有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpectedResponse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPartInfoForOriginal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size=192,result[100].t_letter=H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.c_oem_brand=奥迪&amp;result.tid=3104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc=查询成功！,size=1,result.tid=3104,result.c_oem_brand=奥迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>list[3].result[0].tid=876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getKilometer</t>
-  </si>
-  <si>
-    <t>getKilometer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/maintain/getKilometer?tid=13378&amp;grant_code=test&amp;oem_brand=奥迪&amp;oem_name=一汽大众</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text/plain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.timer_assembly=变速箱,车身地板&amp;result.timer_assembly_id=1,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list[3].result.tid=876,875&amp;list[3].result.c_oem_brand=奥迪&amp;list[3].result.c_model_year=2012,2013,2010&amp;list[0].result.findAll{it.price&gt;700}.car_brand=奥迪,大众&amp;list[3].result.findAll{it.c_model_year = 2012}.car_brand=斯柯达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vtm/getTid?vin=WVGAV67L59D034378&amp;is_original=1&amp;grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vtm/getPostCode1?post_code=CC6450UM09&amp;grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vtm/getOnlyTid?vin=LVSFCFAE48F260881&amp;grant_code=JOY8T5RS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/catalogue/getAllCarModel?offset=0&amp;grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/adaptation/getAssemblyCatalogue?tid=3106&amp;type=0&amp;grant_code=test&amp;vin=LFV3B28R7D3048159</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>/vtm/getTid?vin=LVSFCFAE48F260881&amp;grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/carModel/getCarModelByVin?oem_name=奥迪&amp;oem_brand=奥迪&amp;grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCarModelByVin</t>
-  </si>
-  <si>
-    <t>getCarModelInfoByTid</t>
-  </si>
-  <si>
-    <t>getPostCode1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vtm/getPostCode?post_code=CC6450UM09&amp;grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPostCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOnlyTid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAllCarModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/catalogue/getTimerStandardParts?grant_code=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTimerStandardParts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAssemblyCatalogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/adaptation/getPicInfo?grant_code=test&amp;tid=1635&amp;type=0&amp;assembly=发动机&amp;sub_assembly=进气管盖板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPicInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/adaptation/getPartsInfo?grant_code=test&amp;tid=1&amp;pic_num=900A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPartsInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>/carModel/getCarModelInfoByTid?grant_code=test&amp;tid=9417</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPostCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/carModel/getCarModelByTid?tid=3104&amp;grant_code=test&amp;isCN=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTid</t>
-  </si>
-  <si>
-    <t>getPartsInfo</t>
-  </si>
-  <si>
-    <t>getPostCode1</t>
-  </si>
-  <si>
-    <t>getPostCode</t>
-  </si>
-  <si>
-    <t>getOnlyTid</t>
-  </si>
-  <si>
-    <t>getAllCarModel</t>
-  </si>
-  <si>
-    <t>getTimerStandardParts</t>
-  </si>
-  <si>
-    <t>getAssemblyCatalogue</t>
-  </si>
-  <si>
-    <t>getPicInfo</t>
-  </si>
-  <si>
-    <t>text/plain</t>
-  </si>
-  <si>
-    <t>text/plain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>{"size":4,"detailInfo":null,"list":[{"result":[{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"大众","price":752.49,"car_brand":"大众","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽大众","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽奥迪","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"一汽大众","price":752.49,"car_brand":"一汽大众","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"奥迪","price":752.49,"car_brand":"奥迪","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"兰博基尼","price":752.49,"car_brand":"兰博基尼","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"},{"kps_code":"8X1 061 270 A","timer_name":null,"remark_detail":null,"kps_code_tmp":"8X1061270A","type":"原厂","tid":0,"gp_id":2079637,"timer_id":"0","car_oem":"宾利","price":752.49,"car_brand":"宾利","epc_no":5,"remark_brief":"备注:织物;前与后 左置方向盘 'LEGENDS'","kps_name":"1套脚垫 全套陈设/光学镜组:"}],"type":"1","desc":"基本信息"},{"result":[],"type":"2","desc":"原厂替换信息"},{"result":[],"type":"3","desc":"品牌替换信息"},{"result":[{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":876,"t_HL_version":"中国限量版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"311800","c_timer_model_id":"TM305","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI EGO Plus DCT 中国限量版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2013款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":875,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"224800","c_timer_model_id":"TM303","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI Urban DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":881,"t_HL_version":"舒适版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"249800","c_timer_model_id":"TM309","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 舒适版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":880,"t_HL_version":"时尚版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"199800","c_timer_model_id":"TM308","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 时尚版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":888,"t_HL_version":"舒适版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"259800","c_timer_model_id":"TM300","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 舒适版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":874,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"249800","c_timer_model_id":"TM301","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":885,"t_HL_version":"豪华版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"299800","c_timer_model_id":"TM297","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 豪华版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":886,"t_HL_version":"技术版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"234800","c_timer_model_id":"TM298","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 技术版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":887,"t_HL_version":"时尚版","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"209800","c_timer_model_id":"TM299","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 时尚版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2014款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":882,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"299800","c_timer_model_id":"TM295","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego Plus DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":883,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"259800","c_timer_model_id":"TM294","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":873,"t_HL_version":"","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2012","c_MSRP_newest":"289800","c_timer_model_id":"TM302","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2012款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":879,"t_HL_version":"技术版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"224800","c_timer_model_id":"TM307","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 技术版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":878,"t_HL_version":"豪华版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2014","c_MSRP_newest":"289800","c_timer_model_id":"TM306","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2014款 1.4T 30TFSI DCT 豪华版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2014款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1（2011-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT89","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":877,"t_HL_version":"中国限量版","c_series_name":"奥迪A1","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"271800","c_timer_model_id":"TM304","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1（2011-.jpg","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI Ego DCT 中国限量版","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":26,"epc_no":5,"c_model_name":"奥迪A1 2013款 1.4T","c_timer_type_name":"奥迪A1 CNV 前轮驱动 7DCT（2011-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"},{"brand_id_timing":10,"c_oem_abbrebiation":"奥迪","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_remark_transmission_type":"7档双离合变速器","c_timer_type_id":"TT88","c_engine_model":"CNV","c_drive_form":"前轮驱动","tid":884,"t_HL_version":"","c_series_name":"奥迪A1 Sportback","c_oem_name_show":"奥迪(进口)","t_letter":"A","c_transmission_type":"双离合变速器","c_structure":"两厢车","c_model_year":"2013","c_MSRP_newest":"234800","c_timer_model_id":"TM296","c_model_interior_code":"8X","pic_path":"/carmodel/奥迪A1 Sportback（2012-.jpg","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Urban DCT","make_id_timing":5,"c_oem_brand":"奥迪","c_fuel_type":"汽油","series_id_timing":27,"epc_no":5,"c_model_name":"奥迪A1 Sportback 2013款 1.4T","c_timer_type_name":"奥迪A1 Sportback CNV 前轮驱动 7DCT（2012-","timer_type":"CNV前轮驱动7档双离合变速器","c_oem_name":"奥迪","c_capacity_in_litre_L":"1.4T"}],"type":"4","desc":"车款适配信息"}],"map":null,"statusCode":1,"desc":"查询成功！"}</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":192, "result":[{"c_oem_brand":"荣威","c_oem_name":"上海汽车","c_oem_name_show":"上海汽车","t_letter":"R"},{"c_oem_brand":"传祺","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"C"},{"c_oem_brand":"黄海","c_oem_name":"曙光","c_oem_name_show":"曙光","t_letter":"H"},{"c_oem_brand":"萨博","c_oem_name":"萨博","c_oem_name_show":"萨博(进口)","t_letter":"S"},{"c_oem_brand":"克莱斯勒","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"K"},{"c_oem_brand":"日产","c_oem_name":"东风日产","c_oem_name_show":"东风日产","t_letter":"R"},{"c_oem_brand":"雪佛兰","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"X"},{"c_oem_brand":"福特","c_oem_name":"福特","c_oem_name_show":"福特(进口)","t_letter":"F"},{"c_oem_brand":"宝马","c_oem_name":"宝马","c_oem_name_show":"宝马(进口)","t_letter":"B"},{"c_oem_brand":"长城","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"C"},{"c_oem_brand":"雪铁龙","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"X"},{"c_oem_brand":"铃木","c_oem_name":"铃木","c_oem_name_show":"铃木(进口)","t_letter":"L"},{"c_oem_brand":"双环","c_oem_name":"双环汽车","c_oem_name_show":"双环汽车","t_letter":"S"},{"c_oem_brand":"MINI","c_oem_name":"宝马","c_oem_name_show":"宝马(进口)","t_letter":"M"},{"c_oem_brand":"华颂","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"H"},{"c_oem_brand":"阿斯顿马丁","c_oem_name":"阿斯顿马丁","c_oem_name_show":"阿斯顿马丁(进口)","t_letter":"A"},{"c_oem_brand":"林肯","c_oem_name":"林肯","c_oem_name_show":"林肯(进口)","t_letter":"L"},{"c_oem_brand":"迈凯伦","c_oem_name":"迈凯伦","c_oem_name_show":"迈凯伦(进口)","t_letter":"M"},{"c_oem_brand":"理念","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","t_letter":"L"},{"c_oem_brand":"现代","c_oem_name":"现代","c_oem_name_show":"现代(进口)","t_letter":"X"},{"c_oem_brand":"沃尔沃","c_oem_name":"沃尔沃","c_oem_name_show":"沃尔沃(进口)","t_letter":"W"},{"c_oem_brand":"金杯","c_oem_name":"华晨鑫源金杯","c_oem_name_show":"华晨鑫源金杯","t_letter":"J"},{"c_oem_brand":"海马","c_oem_name":"郑州海马","c_oem_name_show":"郑州海马","t_letter":"H"},{"c_oem_brand":"启辰","c_oem_name":"东风日产","c_oem_name_show":"东风日产","t_letter":"Q"},{"c_oem_brand":"沃尔沃","c_oem_name":"沃尔沃亚太","c_oem_name_show":"沃尔沃亚太","t_letter":"W"},{"c_oem_brand":"华泰","c_oem_name":"华泰","c_oem_name_show":"华泰","t_letter":"H"},{"c_oem_brand":"大众","c_oem_name":"一汽大众","c_oem_name_show":"一汽大众","t_letter":"D"},{"c_oem_brand":"悍马","c_oem_name":"悍马","c_oem_name_show":"悍马(进口)","t_letter":"H"},{"c_oem_brand":"马自达","c_oem_name":"马自达","c_oem_name_show":"马自达(进口)","t_letter":"M"},{"c_oem_brand":"福迪","c_oem_name":"福迪","c_oem_name_show":"福迪","t_letter":"F"},{"c_oem_brand":"本田","c_oem_name":"本田","c_oem_name_show":"本田(进口)","t_letter":"B"},{"c_oem_brand":"风行","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"兰博基尼","c_oem_name":"兰博基尼","c_oem_name_show":"兰博基尼(进口)","t_letter":"L"},{"c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","t_letter":"A"},{"c_oem_brand":"铃木","c_oem_name":"昌河铃木","c_oem_name_show":"昌河铃木","t_letter":"L"},{"c_oem_brand":"一汽","c_oem_name":"一汽吉林","c_oem_name_show":"一汽吉林","t_letter":"Y"},{"c_oem_brand":"标致","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"B"},{"c_oem_brand":"哈飞","c_oem_name":"哈飞","c_oem_name_show":"哈飞","t_letter":"H"},{"c_oem_brand":"现代","c_oem_name":"北京现代","c_oem_name_show":"北京现代","t_letter":"X"},{"c_oem_brand":"路特斯","c_oem_name":"路特斯","c_oem_name_show":"路特斯(进口)","t_letter":"L"},{"c_oem_brand":"上汽大通","c_oem_name":"上汽商用车","c_oem_name_show":"上汽商用车","t_letter":"S"},{"c_oem_brand":"吉利","c_oem_name":"吉利","c_oem_name_show":"吉利","t_letter":"J"},{"c_oem_brand":"东南","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"D"},{"c_oem_brand":"天马","c_oem_name":"天马","c_oem_name_show":"天马","t_letter":"T"},{"c_oem_brand":"凯迪拉克","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"K"},{"c_oem_brand":"吉姆西","c_oem_name":"吉姆西","c_oem_name_show":"吉姆西(进口)","t_letter":"J"},{"c_oem_brand":"宾利","c_oem_name":"宾利","c_oem_name_show":"宾利(进口)","t_letter":"B"},{"c_oem_brand":"威麟","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"W"},{"c_oem_brand":"罗伦士","c_oem_name":"罗伦士","c_oem_name_show":"罗伦士(进口)","t_letter":"L"},{"c_oem_brand":"康迪","c_oem_name":"康迪","c_oem_name_show":"康迪","t_letter":"K"},{"c_oem_brand":"莲花","c_oem_name":"青年乘用车","c_oem_name_show":"青年乘用车(进口)","t_letter":"L"},{"c_oem_brand":"道奇","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"D"},{"c_oem_brand":"大众","c_oem_name":"上海大众","c_oem_name_show":"上海大众","t_letter":"D"},{"c_oem_brand":"陆风","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"L"},{"c_oem_brand":"欧朗","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"O"},{"c_oem_brand":"法拉利","c_oem_name":"法拉利","c_oem_name_show":"法拉利(进口)","t_letter":"F"},{"c_oem_brand":"雷诺","c_oem_name":"东风雷诺","c_oem_name_show":"东风雷诺","t_letter":"L"},{"c_oem_brand":"吉普","c_oem_name":"北京吉普","c_oem_name_show":"北京吉普","t_letter":"J"},{"c_oem_brand":"一汽","c_oem_name":"天津一汽","c_oem_name_show":"天津一汽","t_letter":"Y"},{"c_oem_brand":"本田","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","t_letter":"B"},{"c_oem_brand":"三菱","c_oem_name":"三菱","c_oem_name_show":"三菱(进口)","t_letter":"S"},{"c_oem_brand":"斯巴鲁","c_oem_name":"富士","c_oem_name_show":"富士(进口)","t_letter":"S"},{"c_oem_brand":"丰田","c_oem_name":"一汽丰田","c_oem_name_show":"一汽丰田","t_letter":"F"},{"c_oem_brand":"雷克萨斯","c_oem_name":"丰田","c_oem_name_show":"丰田(进口)","t_letter":"L"},{"c_oem_brand":"雪铁龙","c_oem_name":"神龙汽车","c_oem_name_show":"神龙汽车","t_letter":"X"},{"c_oem_brand":"奥迪","c_oem_name":"一汽大众","c_oem_name_show":"一汽大众","t_letter":"A"},{"c_oem_brand":"奔驰","c_oem_name":"奔驰","c_oem_name_show":"奔驰(进口)","t_letter":"B"},{"c_oem_brand":"布加迪","c_oem_name":"布加迪","c_oem_name_show":"布加迪(进口)","t_letter":"B"},{"c_oem_brand":"菲亚特","c_oem_name":"广汽菲克","c_oem_name_show":"广汽菲克","t_letter":"F"},{"c_oem_brand":"红旗","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"H"},{"c_oem_brand":"本田","c_oem_name":"东风本田","c_oem_name_show":"东风本田","t_letter":"B"},{"c_oem_brand":"北汽","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"B"},{"c_oem_brand":"风神","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"双龙","c_oem_name":"双龙","c_oem_name_show":"双龙","t_letter":"S"},{"c_oem_brand":"英菲尼迪","c_oem_name":"东风英菲尼迪","c_oem_name_show":"东风英菲尼迪","t_letter":"Y"},{"c_oem_brand":"英致","c_oem_name":"潍柴汽车","c_oem_name_show":"潍柴汽车","t_letter":"Y"},{"c_oem_brand":"吉普","c_oem_name":"广汽菲克","c_oem_name_show":"广汽菲克","t_letter":"J"},{"c_oem_brand":"丰田","c_oem_name":"丰田","c_oem_name_show":"丰田(进口)","t_letter":"F"},{"c_oem_brand":"陆地方舟","c_oem_name":"陆地方舟","c_oem_name_show":"陆地方舟","t_letter":"L"},{"c_oem_brand":"奇瑞","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"Q"},{"c_oem_brand":"MG","c_oem_name":"上海汽车","c_oem_name_show":"上海汽车","t_letter":"M"},{"c_oem_brand":"路虎","c_oem_name":"奇瑞捷豹路虎","c_oem_name_show":"奇瑞捷豹路虎","t_letter":"L"},{"c_oem_brand":"东风小康","c_oem_name":"东风小康","c_oem_name_show":"东风小康","t_letter":"D"},{"c_oem_brand":"DS","c_oem_name":"标致雪铁龙","c_oem_name_show":"标致雪铁龙(进口)","t_letter":"D"},{"c_oem_brand":"欧宝","c_oem_name":"欧宝","c_oem_name_show":"欧宝(进口)","t_letter":"O"},{"c_oem_brand":"富奇","c_oem_name":"富奇","c_oem_name_show":"富奇","t_letter":"F"},{"c_oem_brand":"斯柯达","c_oem_name":"上海大众","c_oem_name_show":"上海大众","t_letter":"S"},{"c_oem_brand":"MG","c_oem_name":"南京汽车","c_oem_name_show":"南京汽车","t_letter":"M"},{"c_oem_brand":"瑞麒","c_oem_name":"奇瑞","c_oem_name_show":"奇瑞","t_letter":"R"},{"c_oem_brand":"长丰","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"C"},{"c_oem_brand":"江南","c_oem_name":"江南","c_oem_name_show":"江南","t_letter":"J"},{"c_oem_brand":"宝骏","c_oem_name":"上汽通用五菱","c_oem_name_show":"上汽通用五菱","t_letter":"B"},{"c_oem_brand":"标致","c_oem_name":"神龙汽车","c_oem_name_show":"神龙汽车","t_letter":"B"},{"c_oem_brand":"雪佛兰","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"X"},{"c_oem_brand":"马自达","c_oem_name":"一汽马自达","c_oem_name_show":"一汽马自达","t_letter":"M"},{"c_oem_brand":"永源","c_oem_name":"永源汽车","c_oem_name_show":"永源汽车","t_letter":"Y"},{"c_oem_brand":"菲亚特","c_oem_name":"菲亚特","c_oem_name_show":"菲亚特(进口)","t_letter":"F"},{"c_oem_brand":"江铃新能源","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"J"},{"c_oem_brand":"西雅特","c_oem_name":"西雅特","c_oem_name_show":"西雅特(进口)","t_letter":"X"},{"c_oem_brand":"哈弗","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"H"},{"c_oem_brand":"华普","c_oem_name":"上海华普","c_oem_name_show":"上海华普","t_letter":"H"},{"c_oem_brand":"讴歌","c_oem_name":"广汽讴歌","c_oem_name_show":"广汽讴歌","t_letter":"O"},{"c_oem_brand":"莲花","c_oem_name":"青年乘用车","c_oem_name_show":"青年乘用车","t_letter":"L"},{"c_oem_brand":"三菱","c_oem_name":"北京吉普","c_oem_name_show":"北京吉普","t_letter":"S"},{"c_oem_brand":"捷豹","c_oem_name":"捷豹","c_oem_name_show":"捷豹(进口)","t_letter":"J"},{"c_oem_brand":"宝沃","c_oem_name":"宝沃汽车","c_oem_name_show":"宝沃汽车","t_letter":"B"},{"c_oem_brand":"别克","c_oem_name":"上海通用","c_oem_name_show":"上海通用","t_letter":"B"},{"c_oem_brand":"罗伦士","c_oem_name":"罗伦士","c_oem_name_show":"罗伦士","t_letter":"L"},{"c_oem_brand":"金杯","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"J"},{"c_oem_brand":"劳斯莱斯","c_oem_name":"劳斯莱斯","c_oem_name_show":"劳斯莱斯(进口)","t_letter":"L"},{"c_oem_brand":"大众","c_oem_name":"大众","c_oem_name_show":"大众(进口)","t_letter":"D"},{"c_oem_brand":"中兴","c_oem_name":"中兴","c_oem_name_show":"中兴","t_letter":"Z"},{"c_oem_brand":"特斯拉","c_oem_name":"特斯拉","c_oem_name_show":"特斯拉(进口)","t_letter":"T"},{"c_oem_brand":"Smart","c_oem_name":"奔驰","c_oem_name_show":"奔驰(进口)","t_letter":"S"},{"c_oem_brand":"九龙","c_oem_name":"九龙汽车","c_oem_name_show":"九龙汽车","t_letter":"J"},{"c_oem_brand":"知豆","c_oem_name":"知豆电动汽车","c_oem_name_show":"知豆电动汽车","t_letter":"Z"},{"c_oem_brand":"迈巴赫","c_oem_name":"迈巴赫","c_oem_name_show":"迈巴赫(进口)","t_letter":"M"},{"c_oem_brand":"风度","c_oem_name":"东风","c_oem_name_show":"东风","t_letter":"F"},{"c_oem_brand":"新凯","c_oem_name":"新凯汽车","c_oem_name_show":"新凯汽车","t_letter":"X"},{"c_oem_brand":"沃尔沃","c_oem_name":"长安沃尔沃","c_oem_name_show":"长安沃尔沃","t_letter":"W"},{"c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_oem_name_show":"绵阳金杯","t_letter":"J"},{"c_oem_brand":"世爵","c_oem_name":"世爵","c_oem_name_show":"世爵(进口)","t_letter":"S"},{"c_oem_brand":"众泰","c_oem_name":"众泰","c_oem_name_show":"众泰","t_letter":"Z"},{"c_oem_brand":"力帆","c_oem_name":"力帆","c_oem_name_show":"力帆","t_letter":"L"},{"c_oem_brand":"保时捷","c_oem_name":"保时捷","c_oem_name_show":"保时捷(进口)","t_letter":"B"},{"c_oem_brand":"长安","c_oem_name":"长安汽车","c_oem_name_show":"长安汽车","t_letter":"C"},{"c_oem_brand":"福特","c_oem_name":"长安福特","c_oem_name_show":"长安福特","t_letter":"F"},{"c_oem_brand":"昌河","c_oem_name":"昌河汽车","c_oem_name_show":"昌河汽车","t_letter":"C"},{"c_oem_brand":"东风","c_oem_name":"东风汽车","c_oem_name_show":"东风汽车","t_letter":"D"},{"c_oem_brand":"比亚迪","c_oem_name":"比亚迪","c_oem_name_show":"比亚迪","t_letter":"B"},{"c_oem_brand":"福特","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"F"},{"c_oem_brand":"斯威","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"S"},{"c_oem_brand":"凯翼","c_oem_name":"凯翼汽车","c_oem_name_show":"凯翼汽车","t_letter":"K"},{"c_oem_brand":"巴博斯","c_oem_name":"巴博斯","c_oem_name_show":"巴博斯(进口)","t_letter":"B"},{"c_oem_brand":"讴歌","c_oem_name":"本田","c_oem_name_show":"本田(进口)","t_letter":"O"},{"c_oem_brand":"威旺","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"W"},{"c_oem_brand":"北汽新能源","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"B"},{"c_oem_brand":"日产","c_oem_name":"郑州日产","c_oem_name_show":"郑州日产","t_letter":"R"},{"c_oem_brand":"腾势","c_oem_name":"比亚迪戴姆勒","c_oem_name_show":"比亚迪戴姆勒","t_letter":"T"},{"c_oem_brand":"卡威","c_oem_name":"卡威","c_oem_name_show":"卡威","t_letter":"K"},{"c_oem_brand":"道奇","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"D"},{"c_oem_brand":"幻速","c_oem_name":"北京汽车","c_oem_name_show":"北京汽车","t_letter":"H"},{"c_oem_brand":"奔驰","c_oem_name":"福建奔驰","c_oem_name_show":"福建奔驰","t_letter":"B"},{"c_oem_brand":"LOCAL MOTORS","c_oem_name":"LOCAL MOTORS","c_oem_name_show":"LOCAL MOTORS(进口)","t_letter":"L"},{"c_oem_brand":"英菲尼迪","c_oem_name":"日产","c_oem_name_show":"日产(进口)","t_letter":"Y"},{"c_oem_brand":"捷豹","c_oem_name":"奇瑞捷豹路虎","c_oem_name_show":"奇瑞捷豹路虎","t_letter":"J"},{"c_oem_brand":"福田","c_oem_name":"北汽福田","c_oem_name_show":"北汽福田","t_letter":"F"},{"c_oem_brand":"比速","c_oem_name":"比速","c_oem_name_show":"比速","t_letter":"B"},{"c_oem_brand":"纳智捷","c_oem_name":"东风裕隆","c_oem_name_show":"东风裕隆","t_letter":"N"},{"c_oem_brand":"凯迪拉克","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"K"},{"c_oem_brand":"五菱","c_oem_name":"上汽通用五菱","c_oem_name_show":"上汽通用五菱","t_letter":"W"},{"c_oem_brand":"雷丁","c_oem_name":"雷丁","c_oem_name_show":"雷丁","t_letter":"L"},{"c_oem_brand":"起亚","c_oem_name":"东风悦达起亚","c_oem_name_show":"东风悦达起亚","t_letter":"Q"},{"c_oem_brand":"丰田","c_oem_name":"广汽丰田","c_oem_name_show":"广汽丰田","t_letter":"F"},{"c_oem_brand":"宝马","c_oem_name":"华晨宝马","c_oem_name_show":"华晨宝马","t_letter":"B"},{"c_oem_brand":"大迪","c_oem_name":"大迪","c_oem_name_show":"大迪","t_letter":"D"},{"c_oem_brand":"奔驰","c_oem_name":"北京奔驰","c_oem_name_show":"北京奔驰","t_letter":"B"},{"c_oem_brand":"马自达","c_oem_name":"长安马自达","c_oem_name_show":"长安马自达","t_letter":"M"},{"c_oem_brand":"中华","c_oem_name":"华晨金杯","c_oem_name_show":"华晨金杯","t_letter":"Z"},{"c_oem_brand":"阿尔法·罗密欧","c_oem_name":"阿尔法·罗密欧","c_oem_name_show":"阿尔法·罗密欧(进口)","t_letter":"A"},{"c_oem_brand":"克莱斯勒","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"K"},{"c_oem_brand":"汉腾","c_oem_name":"汉腾汽车","c_oem_name_show":"汉腾汽车","t_letter":"H"},{"c_oem_brand":"五十铃","c_oem_name":"江西五十铃","c_oem_name_show":"江西五十铃","t_letter":"W"},{"c_oem_brand":"观致","c_oem_name":"观致汽车","c_oem_name_show":"观致汽车","t_letter":"G"},{"c_oem_brand":"江铃","c_oem_name":"江铃","c_oem_name_show":"江铃","t_letter":"J"},{"c_oem_brand":"福汽启腾","c_oem_name":"福汽新龙马","c_oem_name_show":"福汽新龙马","t_letter":"F"},{"c_oem_brand":"ALPINA","c_oem_name":"ALPINA","c_oem_name_show":"ALPINA(进口)","t_letter":"A"},{"c_oem_brand":"海马","c_oem_name":"一汽海马","c_oem_name_show":"一汽海马","t_letter":"H"},{"c_oem_brand":"日产","c_oem_name":"日产","c_oem_name_show":"日产(进口)","t_letter":"R"},{"c_oem_brand":"斯柯达","c_oem_name":"大众","c_oem_name_show":"大众(进口)","t_letter":"S"},{"c_oem_brand":"威兹曼","c_oem_name":"威兹曼","c_oem_name_show":"威兹曼(进口)","t_letter":"W"},{"c_oem_brand":"玛莎拉蒂","c_oem_name":"玛莎拉蒂","c_oem_name_show":"玛莎拉蒂(进口)","t_letter":"M"},{"c_oem_brand":"别克","c_oem_name":"通用","c_oem_name_show":"通用(进口)","t_letter":"B"},{"c_oem_brand":"三菱","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"S"},{"c_oem_brand":"光冈","c_oem_name":"光冈","c_oem_name_show":"光冈(进口)","t_letter":"G"},{"c_oem_brand":"奔腾","c_oem_name":"一汽轿车","c_oem_name_show":"一汽轿车","t_letter":"B"},{"c_oem_brand":"路虎","c_oem_name":"路虎","c_oem_name_show":"路虎(进口)","t_letter":"L"},{"c_oem_brand":"DS","c_oem_name":"长安标致雪铁龙","c_oem_name_show":"长安标致雪铁龙","t_letter":"D"},{"c_oem_brand":"菲亚特","c_oem_name":"南京菲亚特","c_oem_name_show":"南京菲亚特","t_letter":"F"},{"c_oem_brand":"雷诺","c_oem_name":"雷诺","c_oem_name_show":"雷诺(进口)","t_letter":"L"},{"c_oem_brand":"江淮","c_oem_name":"江淮","c_oem_name_show":"江淮","t_letter":"J"},{"c_oem_brand":"起亚","c_oem_name":"起亚","c_oem_name_show":"起亚(进口)","t_letter":"Q"},{"c_oem_brand":"克莱斯勒","c_oem_name":"北京奔驰戴姆勒克莱斯勒","c_oem_name_show":"北京奔驰戴姆勒克莱斯勒","t_letter":"K"},{"c_oem_brand":"三菱","c_oem_name":"东南汽车","c_oem_name_show":"东南汽车","t_letter":"S"},{"c_oem_brand":"北汽制造","c_oem_name":"北汽制造","c_oem_name_show":"北汽制造","t_letter":"B"},{"c_oem_brand":"吉奥","c_oem_name":"广汽","c_oem_name_show":"广汽","t_letter":"J"},{"c_oem_brand":"WEY","c_oem_name":"长城","c_oem_name_show":"长城","t_letter":"W"},{"c_oem_brand":"双龙","c_oem_name":"双龙","c_oem_name_show":"双龙(进口)","t_letter":"S"},{"c_oem_brand":"铃木","c_oem_name":"长安铃木","c_oem_name_show":"长安铃木","t_letter":"L"},{"c_oem_brand":"开瑞","c_oem_name":"开瑞汽车","c_oem_name_show":"开瑞汽车","t_letter":"K"},{"c_oem_brand":"野马","c_oem_name":"四川野马","c_oem_name_show":"四川野马","t_letter":"Y"},{"c_oem_brand":"吉普","c_oem_name":"克莱斯勒","c_oem_name_show":"克莱斯勒(进口)","t_letter":"J"}]}</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"有","HID_light":"有","aircon_mode":"自动有","alloy_wheel":"有","auto_head_light":"有","cruise":"有","ele_rearview_adj":"有","ele_rearview_fold":"有","ele_seats_adj":"主有/副有","ele_sunroof":"有","front_tire_spec":"235/55 R19","head_light_clean_sys":"有","keyless_boot":"有","large_color_LCD":"有","leather_seat":"有","multi_steering_wheel_adj":"有","pano_sunroof":"有","parking_radar":"前有/后有","rear_tire_spec":"235/55 R19","reversing_video":"有","seat_heating":"前有/后可选装","t_id":"3104"}]}</t>
+    <t>java.lang.AssertionError: expected [H] but found [L]</t>
   </si>
   <si>
     <t xml:space="preserve">java.lang.AssertionError: JSON path list[3].result.c_model_year doesn't match.
 Expected: (a collection containing "2010")
-  Actual: [2013, 2012, 2014, 2014, 2014, 2012, 2014, 2014, 2014, 2013, 2013, 2012, 2014, 2014, 2013, 2013]
+  Actual: [2013, 2013, 2014, 2012, 2013, 2013, 2014, 2014, 2012, 2012, 2014, 2014, 2013, 2014, 2014, 2014]
 </t>
   </si>
   <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"120000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":200, "size":1, "result":[{"tid":"5280"}]}</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":100, "size":1, "result":[{"c_oem_brand":"大众","c_oem_name":"大众","c_timer_model_name":"大众 大众 TOUA BHK","epc_code":"616","vin":"WVGAV67L59D034378"}]}</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"无","HID_light":"无","aircon_mode":"手动有","alloy_wheel":"无","auto_head_light":"无","brand_id_timing":"21","c_MSRP_newest":"93800","c_capacity_in_litre_L":"1.3L","c_drive_form":"前轮驱动","c_engine_model":"L13A3","c_fuel_type":"汽油","c_model_interior_code":"GD6","c_model_name":"思迪 2007款 1.3L","c_model_year":"2007","c_oem_abbrebiation":"广汽本田","c_oem_brand":"本田","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","c_series_BBG":"思迪（2006-2008）","c_series_name":"思迪","c_structure":"三厢车","c_timer_model_id":"TM1754","c_timer_model_name":"思迪 2007款 1.3L MT 标准版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT686","c_timer_type_name":"思迪 L13A3 前轮驱动 5MT（2006-2008）","c_transmission_type":"手动变速器","cruise":"无","ele_rearview_adj":"有","ele_rearview_fold":"无","ele_seats_adj":"无","ele_sunroof":"无","epc_no":"11","front_tire_spec":"175/65 R14","head_light_clean_sys":"无","keyless_boot":"无","large_color_LCD":"无","leather_seat":"无","make_id_timing":"51","multi_steering_wheel_adj":"无","pano_sunroof":"无","parking_radar":"无","pic_path":"/carmodel/思迪（2006-2008）.jpg","rear_tire_spec":"175/65 R14","reversing_video":"无","seat_heating":"无","series_id_timing":"749","t_HL_version":"标准版","t_id":"9417","t_letter":"B","timer_type":"L13A3前轮驱动5档手动变速器"}]}</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":200, "size":4, "result":[{"tid":"null,null,null,null"}]}</t>
-  </si>
-  <si>
-    <t>DataFunc([{"TID":"19005","retCode":"2504"},{"TID":"19006","retCode":"2504"},{"TID":"19007","retCode":"2504"},{"TID":"19008","retCode":"2504"}])</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":30, "result":[{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1661381","kps_code":"79714MV100","kps_name":"垫片","per_use_num":"6","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"79714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2092190","kps_code":"90100MV100","kps_name":"尾门","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90100","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:R;备注:无ED件","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1714","timer_name":"举升门","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127929","kps_code":"90830MP100","kps_name":"防水条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90210","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1716","timer_name":"举升门密封条","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2104822","kps_code":"90300MV100","kps_name":"玻璃","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90313","remark_brief":"","remark_detail":"适用车型:AAABAC;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"2546","timer_name":"举升门玻璃","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109061","kps_code":"90392MV100","kps_name":"玻璃护板","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90335","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127630","kps_code":"90810MV400","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810M","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1731","timer_name":"举升门装饰条","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127652","kps_code":"90812MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127656","kps_code":"90813MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90811","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1336650","kps_code":"60895MP100","kps_name":"缓冲橡皮","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90815","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1405068","kps_code":"64899MV100","kps_name":"保护板","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90816","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109253","kps_code":"90400MV100","kps_name":"铰链","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90410M","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1713","timer_name":"举升门铰链","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781547","kps_code":"MLA08Z1698","kps_name":"螺丝","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2813004","kps_code":"NM12Z9081A","kps_name":"螺母","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111850","kps_code":"90454MP100","kps_name":"支架","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1594642","kps_code":"72714MP100","kps_name":"垫片","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"72714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109144","kps_code":"90395MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90395","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109177","kps_code":"90396MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90396","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111963","kps_code":"90457MP110","kps_name":"球形接头","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90457","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111553","kps_code":"90450MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424Q","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1717","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111661","kps_code":"90451MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90425Q","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1719","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2121302","kps_code":"90606MP100","kps_name":"开关","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90606N","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781569","kps_code":"MMU05Z1623","kps_name":"螺丝","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"6402","kps_code":"01225N0002","kps_name":"螺母","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2812986","kps_code":"NM01Z40537","kps_name":"螺母","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2107325","kps_code":"90359MV100","kps_name":"夹子","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90834E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533817","kps_code":"26557MP100","kps_name":"塞扣","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533818","kps_code":"26557MP200","kps_name":"塞扣","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116633","kps_code":"90526MP100","kps_name":"阻尼器","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90526","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116704","kps_code":"90528MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90528","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116740","kps_code":"90529MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90529","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"}]}</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"120000"},{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}</t>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"200000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"120000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"190000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"80000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"90000"}]}</t>
   </si>
   <si>
     <t xml:space="preserve">java.lang.AssertionError: Response body doesn't match expectation.
 Expected: "{\"desc\":\"查询成功！\", \"statusCode\":1, \"size\":20, \"result\":[{\"M_KILOMETER\":\"80000\"},{\"M_KILOMETER\":\"100000\"},{\"M_KILOMETER\":\"120000\"},{\"M_KILOMETER\":\"20000\"},{\"M_KILOMETER\":\"40000\"},{\"M_KILOMETER\":\"60000\"},{\"M_KILOMETER\":\"200000\"},{\"M_KILOMETER\":\"140000\"},{\"M_KILOMETER\":\"160000\"},{\"M_KILOMETER\":\"180000\"},{\"M_KILOMETER\":\"70000\"},{\"M_KILOMETER\":\"90000\"},{\"M_KILOMETER\":\"110000\"},{\"M_KILOMETER\":\"130000\"},{\"M_KILOMETER\":\"10000\"},{\"M_KILOMETER\":\"30000\"},{\"M_KILOMETER\":\"50000\"},{\"M_KILOMETER\":\"150000\"},{\"M_KILOMETER\":\"170000\"},{\"M_KILOMETER\":\"190000\"}]}"
-  Actual: {"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"120000"},{"M_KILOMETER":"80000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"200000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"90000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"190000"}]}
+  Actual: {"desc":"查询成功！", "statusCode":1, "size":20, "result":[{"M_KILOMETER":"200000"},{"M_KILOMETER":"60000"},{"M_KILOMETER":"100000"},{"M_KILOMETER":"120000"},{"M_KILOMETER":"150000"},{"M_KILOMETER":"20000"},{"M_KILOMETER":"70000"},{"M_KILOMETER":"40000"},{"M_KILOMETER":"160000"},{"M_KILOMETER":"190000"},{"M_KILOMETER":"10000"},{"M_KILOMETER":"50000"},{"M_KILOMETER":"30000"},{"M_KILOMETER":"110000"},{"M_KILOMETER":"80000"},{"M_KILOMETER":"140000"},{"M_KILOMETER":"170000"},{"M_KILOMETER":"180000"},{"M_KILOMETER":"130000"},{"M_KILOMETER":"90000"}]}
 </t>
   </si>
   <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":6, "result":[{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"}]}</t>
-  </si>
-  <si>
-    <t>TotalCaseNum</t>
-  </si>
-  <si>
-    <t>FailedCaseNum</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>getTimerAccemblyList</t>
+  </si>
+  <si>
+    <t>getTid</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":200, "size":1, "result":[{"tid":"5280"}]}</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":100, "size":1, "result":[{"c_oem_brand":"大众","c_oem_name":"大众","c_timer_model_name":"大众 大众 TOUA BHK","epc_code":"616","vin":"WVGAV67L59D034378"}]}</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":1, "result":[{"GPS":"无","HID_light":"无","aircon_mode":"手动有","alloy_wheel":"无","auto_head_light":"无","brand_id_timing":"21","c_MSRP_newest":"93800","c_capacity_in_litre_L":"1.3L","c_drive_form":"前轮驱动","c_engine_model":"L13A3","c_fuel_type":"汽油","c_model_interior_code":"GD6","c_model_name":"思迪 2007款 1.3L","c_model_year":"2007","c_oem_abbrebiation":"广汽本田","c_oem_brand":"本田","c_oem_name":"广汽本田","c_oem_name_show":"广汽本田","c_series_BBG":"思迪（2006-2008）","c_series_name":"思迪","c_structure":"三厢车","c_timer_model_id":"TM1754","c_timer_model_name":"思迪 2007款 1.3L MT 标准版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT686","c_timer_type_name":"思迪 L13A3 前轮驱动 5MT（2006-2008）","c_transmission_type":"手动变速器","cruise":"无","ele_rearview_adj":"有","ele_rearview_fold":"无","ele_seats_adj":"无","ele_sunroof":"无","epc_no":"11","front_tire_spec":"175/65 R14","head_light_clean_sys":"无","keyless_boot":"无","large_color_LCD":"无","leather_seat":"无","make_id_timing":"51","multi_steering_wheel_adj":"无","pano_sunroof":"无","parking_radar":"无","pic_path":"/carmodel/思迪（2006-2008）.jpg","rear_tire_spec":"175/65 R14","reversing_video":"无","seat_heating":"无","series_id_timing":"749","t_HL_version":"标准版","t_id":"9417","t_letter":"B","timer_type":"L13A3前轮驱动5档手动变速器"}]}</t>
+  </si>
+  <si>
+    <t>getPostCode1</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":200, "size":4, "result":[{"tid":"null,null,null,null"}]}</t>
+  </si>
+  <si>
+    <t>getPostCode</t>
+  </si>
+  <si>
+    <t>DataFunc([{"TID":"19005","retCode":"2504"},{"TID":"19006","retCode":"2504"},{"TID":"19007","retCode":"2504"},{"TID":"19008","retCode":"2504"}])</t>
+  </si>
+  <si>
+    <t>getOnlyTid</t>
+  </si>
+  <si>
+    <t>getAllCarModel</t>
+  </si>
+  <si>
+    <t>getTimerStandardParts</t>
+  </si>
+  <si>
+    <t>getPicInfo</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":6, "result":[{"enable":"1","kps_name":"密封件","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"VW字符","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1006"},{"enable":"1","kps_name":"通风软管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"通风管","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"},{"enable":"1","kps_name":"进气管盖板","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"1000"},{"enable":"1","kps_name":"插接器","pic_name":"617103700","pic_num":"103-075","pic_path":"01_上海大众_大众/201706/617103700.png","timer_id":"-2"}]}</t>
+  </si>
+  <si>
+    <t>getPartsInfo</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":30, "result":[{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1661381","kps_code":"79714MV100","kps_name":"垫片","per_use_num":"6","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"79714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2092190","kps_code":"90100MV100","kps_name":"尾门","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90100","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:R;备注:无ED件","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1714","timer_name":"举升门","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127929","kps_code":"90830MP100","kps_name":"防水条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90210","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1716","timer_name":"举升门密封条","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2104822","kps_code":"90300MV100","kps_name":"玻璃","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90313","remark_brief":"","remark_detail":"适用车型:AAABAC;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"2546","timer_name":"举升门玻璃","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109061","kps_code":"90392MV100","kps_name":"玻璃护板","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90335","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127630","kps_code":"90810MV400","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810M","remark_brief":"","remark_detail":"适用车型:AAABACADAE;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1731","timer_name":"举升门装饰条","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127652","kps_code":"90812MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90810","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2127656","kps_code":"90813MV200","kps_name":"饰条","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90811","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1336650","kps_code":"60895MP100","kps_name":"缓冲橡皮","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90815","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1405068","kps_code":"64899MV100","kps_name":"保护板","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90816","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109253","kps_code":"90400MV100","kps_name":"铰链","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90410M","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1713","timer_name":"举升门铰链","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781547","kps_code":"MLA08Z1698","kps_name":"螺丝","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2813004","kps_code":"NM12Z9081A","kps_name":"螺母","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111850","kps_code":"90454MP100","kps_name":"支架","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"1594642","kps_code":"72714MP100","kps_name":"垫片","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"72714","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109144","kps_code":"90395MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90395","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2109177","kps_code":"90396MV100","kps_name":"接地端","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90396","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111963","kps_code":"90457MP110","kps_name":"球形接头","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90457","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111553","kps_code":"90450MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90424Q","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1717","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2111661","kps_code":"90451MV100","kps_name":"气压撑杆","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90425Q","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"1719","timer_name":"举升门撑杆","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2121302","kps_code":"90606MP100","kps_name":"开关","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90606N","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2781569","kps_code":"MMU05Z1623","kps_name":"螺丝","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"SCREWD","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"6402","kps_code":"01225N0002","kps_name":"螺母","per_use_num":"3","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2812986","kps_code":"NM01Z40537","kps_name":"螺母","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"NUT00B","remark_brief":"","remark_detail":"适用车型:ALL;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2107325","kps_code":"90359MV100","kps_name":"夹子","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90834E","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:W","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_id":"-2","timer_name":"","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533817","kps_code":"26557MP100","kps_name":"塞扣","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"533818","kps_code":"26557MP200","kps_name":"塞扣","per_use_num":"4","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"26557G","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:K","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"","timer_assembly_id":"0","timer_id":"-1","timer_name":"","timer_sub_assembly":"","timer_sub_assembly_id":"0"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116633","kps_code":"90526MP100","kps_name":"阻尼器","per_use_num":"2","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90526","remark_brief":"","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116704","kps_code":"90528MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90528","remark_brief":"右","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"},{"assembly":"车身(背门&amp;后车身)","enable":"1","epc_no":"46","gp_id":"2116740","kps_code":"90529MP100","kps_name":"阻尼器","per_use_num":"1","pic_name":"900A","pic_num":"900A","pic_path":"东风裕隆/大7_MPV_2013款_2d0T_自动_精英版/900A.png","pic_sequence":"90529","remark_brief":"左","remark_detail":"适用车型:AAABACADAEBABBBCBDBEBF;来源:V","sub_assembly":"背门嵌板及配件","tid":"1","timer_assembly":"举升车门","timer_assembly_id":"39","timer_id":"-2","timer_name":"","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141"}]}</t>
+  </si>
+  <si>
+    <t>getAssemblyCatalogue</t>
   </si>
   <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":258, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_sub_assembly":"电动变速箱组件","timer_sub_assembly_id":"7","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"后操纵台","timer_sub_assembly_id":"10","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶操纵台","timer_sub_assembly_id":"11","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶前操纵台","timer_sub_assembly_id":"12","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_sub_assembly":"车顶后操纵台","timer_sub_assembly_id":"13","timer_type":"车身内部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"14","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"前立柱","timer_sub_assembly_id":"15","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"后立柱","timer_sub_assembly_id":"16","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"门槛","timer_sub_assembly_id":"17","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"内饰","timer_sub_assembly_id":"18","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"踏脚板","timer_sub_assembly_id":"19","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"中立柱","timer_sub_assembly_id":"20","timer_type":"车身外部结构"},{"timer_assembly":"侧车身及地板","timer_assembly_id":"4","timer_sub_assembly":"外饰","timer_sub_assembly_id":"21","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"22","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"外饰","timer_sub_assembly_id":"23","timer_type":"车身外部结构"},{"timer_assembly":"侧滑门","timer_assembly_id":"5","timer_sub_assembly":"内饰","timer_sub_assembly_id":"24","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"25","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"外饰","timer_sub_assembly_id":"26","timer_type":"车身外部结构"},{"timer_assembly":"侧开门","timer_assembly_id":"6","timer_sub_assembly":"内饰","timer_sub_assembly_id":"27","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧围板及组件","timer_sub_assembly_id":"28","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"侧车身框架","timer_sub_assembly_id":"29","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"外饰","timer_sub_assembly_id":"30","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内部结构件","timer_sub_assembly_id":"31","timer_type":"车身外部结构"},{"timer_assembly":"侧围板","timer_assembly_id":"7","timer_sub_assembly":"内饰","timer_sub_assembly_id":"32","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"33","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"34","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"35","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"36","timer_type":"车身外部结构"},{"timer_assembly":"敞篷软顶","timer_assembly_id":"8","timer_sub_assembly":"收纳舱外饰及组件","timer_sub_assembly_id":"37","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"开合电机及组件","timer_sub_assembly_id":"38","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"车顶组件","timer_sub_assembly_id":"39","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"外饰","timer_sub_assembly_id":"40","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"骨架及组件","timer_sub_assembly_id":"41","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"内饰","timer_sub_assembly_id":"42","timer_type":"车身外部结构"},{"timer_assembly":"敞篷硬顶","timer_assembly_id":"9","timer_sub_assembly":"收纳舱及组件","timer_sub_assembly_id":"43","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"行李架","timer_sub_assembly_id":"44","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"车顶及纵梁组件","timer_sub_assembly_id":"45","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"外饰","timer_sub_assembly_id":"46","timer_type":"车身外部结构"},{"timer_assembly":"车顶","timer_assembly_id":"10","timer_sub_assembly":"内饰","timer_sub_assembly_id":"47","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"车架及组件","timer_sub_assembly_id":"48","timer_type":"车身外部结构"},{"timer_assembly":"车架","timer_assembly_id":"11","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"49","timer_type":"车身外部结构"},{"timer_assembly":"车壳","timer_assembly_id":"12","timer_sub_assembly":"车壳及车身外饰","timer_sub_assembly_id":"50","timer_type":"车身外部结构"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"车轮","timer_sub_assembly_id":"51","timer_type":"底盘"},{"timer_assembly":"车轮","timer_assembly_id":"13","timer_sub_assembly":"轮罩及饰件","timer_sub_assembly_id":"52","timer_type":"底盘"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"后地板及组件","timer_sub_assembly_id":"53","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"备胎架","timer_sub_assembly_id":"54","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板及加强件","timer_sub_assembly_id":"55","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板内饰","timer_sub_assembly_id":"56","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"前地板及组件","timer_sub_assembly_id":"57","timer_type":"车身内部结构"},{"timer_assembly":"车身地板","timer_assembly_id":"14","timer_sub_assembly":"MPV及客车地板外饰","timer_sub_assembly_id":"58","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身及组件","timer_sub_assembly_id":"59","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身外饰","timer_sub_assembly_id":"60","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后车身内饰","timer_sub_assembly_id":"61","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱隔热板","timer_sub_assembly_id":"62","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"后发动机舱内饰","timer_sub_assembly_id":"63","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板","timer_sub_assembly_id":"64","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前隔壁板上的组件","timer_sub_assembly_id":"65","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"散热器框架","timer_sub_assembly_id":"66","timer_type":"车身内部结构"},{"timer_assembly":"车身及内部结构","timer_assembly_id":"15","timer_sub_assembly":"前内部结构","timer_sub_assembly_id":"67","timer_type":"车身内部结构"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"分动器及组件","timer_sub_assembly_id":"68","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后差速器","timer_sub_assembly_id":"69","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"后驱动轴组件","timer_sub_assembly_id":"70","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前差速器","timer_sub_assembly_id":"71","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"前驱动轴组件","timer_sub_assembly_id":"72","timer_type":"底盘"},{"timer_assembly":"传动系","timer_assembly_id":"16","timer_sub_assembly":"传动轴及组件","timer_sub_assembly_id":"73","timer_type":"底盘"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"蓄电池","timer_sub_assembly_id":"74","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"发电机","timer_sub_assembly_id":"75","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"起动机","timer_sub_assembly_id":"76","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"点火系","timer_sub_assembly_id":"77","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"喇叭","timer_sub_assembly_id":"78","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"线束","timer_sub_assembly_id":"79","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"保险丝和继电器","timer_sub_assembly_id":"80","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"防盗报警系统","timer_sub_assembly_id":"81","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"悬挂控制系统","timer_sub_assembly_id":"82","timer_type":"电器"},{"timer_assembly":"电器","timer_assembly_id":"17","timer_sub_assembly":"控制模块及传感器","timer_sub_assembly_id":"83","timer_type":"电器"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"正时及传动机构","timer_sub_assembly_id":"84","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"进气增压器及组件","timer_sub_assembly_id":"85","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机和变速器悬置","timer_sub_assembly_id":"86","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"润滑系统","timer_sub_assembly_id":"87","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机本体","timer_sub_assembly_id":"88","timer_type":"动力总成及组件"},{"timer_assembly":"发动机","timer_assembly_id":"18","timer_sub_assembly":"发动机装饰罩","timer_sub_assembly_id":"89","timer_type":"动力总成及组件"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"发动机盖及组件","timer_sub_assembly_id":"90","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖","timer_assembly_id":"19","timer_sub_assembly":"外饰","timer_sub_assembly_id":"91","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"发动机盖板及组件","timer_sub_assembly_id":"92","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"外饰","timer_sub_assembly_id":"93","timer_type":"车身外部结构"},{"timer_assembly":"发动机盖板","timer_assembly_id":"20","timer_sub_assembly":"内饰","timer_sub_assembly_id":"94","timer_type":"车身外部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"防滚杆","timer_sub_assembly_id":"95","timer_type":"车身内部结构"},{"timer_assembly":"防滚杆","timer_assembly_id":"21","timer_sub_assembly":"内饰","timer_sub_assembly_id":"96","timer_type":"车身内部结构"},{"timer_assembly":"防溅板","timer_assembly_id":"22","timer_sub_assembly":"防溅板","timer_sub_assembly_id":"97","timer_type":"车身内部结构"},{"timer_assembly":"服务信息","timer_assembly_id":"23","timer_sub_assembly":"注释","timer_sub_assembly_id":"98","timer_type":"服务信息"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"专用油液","timer_sub_assembly_id":"99","timer_type":"其它"},{"timer_assembly":"辅料及油液","timer_assembly_id":"24","timer_sub_assembly":"辅料及养护品","timer_sub_assembly_id":"100","timer_type":"其它"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"安全气囊及组件","timer_sub_assembly_id":"101","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"前座椅安全带","timer_sub_assembly_id":"102","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"后座椅安全带","timer_sub_assembly_id":"103","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第二排座椅安全带","timer_sub_assembly_id":"104","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第三排座椅安全带","timer_sub_assembly_id":"105","timer_type":"电器"},{"timer_assembly":"辅助安全系统","timer_assembly_id":"25","timer_sub_assembly":"第四排座椅安全带","timer_sub_assembly_id":"106","timer_type":"电器"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"随车工具","timer_sub_assembly_id":"107","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"特殊附件及精品件","timer_sub_assembly_id":"108","timer_type":"其它"},{"timer_assembly":"工具及附件","timer_assembly_id":"26","timer_sub_assembly":"专用工具","timer_sub_assembly_id":"109","timer_type":"其它"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"制动防抱死系统（ABS）","timer_sub_assembly_id":"110","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"车身稳定控制系统（ESP）","timer_sub_assembly_id":"111","timer_type":"电器"},{"timer_assembly":"行车控制安全系统","timer_assembly_id":"27","timer_sub_assembly":"行人保护系统","timer_sub_assembly_id":"112","timer_type":"电器"},{"timer_assembly":"行李厢","timer_assembly_id":"28","timer_sub_assembly":"行李厢盖板及组件","timer_sub_assembly_id":"113","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"拖车装置","timer_sub_assembly_id":"114","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"后保险杠及组件","timer_sub_assembly_id":"115","timer_type":"车身外部结构"},{"timer_assembly":"后保险杠","timer_assembly_id":"29","timer_sub_assembly":"踏板总成","timer_sub_assembly_id":"116","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"外饰","timer_sub_assembly_id":"117","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"加强件及内部组件","timer_sub_assembly_id":"118","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"内饰","timer_sub_assembly_id":"119","timer_type":"车身外部结构"},{"timer_assembly":"后侧围板","timer_assembly_id":"30","timer_sub_assembly":"后侧围板及组件","timer_sub_assembly_id":"120","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"121","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"外饰","timer_sub_assembly_id":"122","timer_type":"车身外部结构"},{"timer_assembly":"后车门","timer_assembly_id":"31","timer_sub_assembly":"内饰","timer_sub_assembly_id":"123","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"后行李箱盖及组件","timer_sub_assembly_id":"124","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"外饰","timer_sub_assembly_id":"125","timer_type":"车身外部结构"},{"timer_assembly":"后行李箱盖","timer_assembly_id":"32","timer_sub_assembly":"内饰","timer_sub_assembly_id":"126","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜调节装置","timer_sub_assembly_id":"127","timer_type":"车身外部结构"},{"timer_assembly":"后视镜","timer_assembly_id":"33","timer_sub_assembly":"外后视镜及组件","timer_sub_assembly_id":"128","timer_type":"车身外部结构"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"129","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"130","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"131","timer_type":"底盘"},{"timer_assembly":"后悬挂","timer_assembly_id":"34","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"132","timer_type":"底盘"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"手动变速箱换档机构","timer_sub_assembly_id":"133","timer_type":"变速机构"},{"timer_assembly":"换档机构","timer_assembly_id":"35","timer_sub_assembly":"自动变速箱换档机构","timer_sub_assembly_id":"134","timer_type":"变速机构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"车顶及组件","timer_sub_assembly_id":"135","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"地板","timer_sub_assembly_id":"136","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室悬置及组件","timer_sub_assembly_id":"137","timer_type":"车身外部结构"},{"timer_assembly":"驾驶室","timer_assembly_id":"36","timer_sub_assembly":"驾驶室总成","timer_sub_assembly_id":"138","timer_type":"车身外部结构"},{"timer_assembly":"进气格栅","timer_assembly_id":"37","timer_sub_assembly":"进气格栅及组件","timer_sub_assembly_id":"139","timer_type":"车身外部结构"},{"timer_assembly":"进气系统","timer_assembly_id":"38","timer_sub_assembly":"进气歧管及过滤系统","timer_sub_assembly_id":"140","timer_type":"动力总成及组件"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"141","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"外饰","timer_sub_assembly_id":"142","timer_type":"车身外部结构"},{"timer_assembly":"举升车门","timer_assembly_id":"39","timer_sub_assembly":"内饰","timer_sub_assembly_id":"143","timer_type":"车身外部结构"},{"timer_assembly":"空气净化系统","timer_assembly_id":"40","timer_sub_assembly":"空气净化组件","timer_sub_assembly_id":"144","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"冷凝器、压缩机及空调管路","timer_sub_assembly_id":"145","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调系统及组件","timer_sub_assembly_id":"146","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调控制系统及组件","timer_sub_assembly_id":"147","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"空调通风管道","timer_sub_assembly_id":"148","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"蒸发器及暖风组件","timer_sub_assembly_id":"149","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"辅助暖风装置","timer_sub_assembly_id":"150","timer_type":"电器"},{"timer_assembly":"空调系统","timer_assembly_id":"41","timer_sub_assembly":"后空调通风管道","timer_sub_assembly_id":"151","timer_type":"电器"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"冷却风扇","timer_sub_assembly_id":"152","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"水泵及节温器","timer_sub_assembly_id":"153","timer_type":"动力总成及组件"},{"timer_assembly":"冷却系","timer_assembly_id":"42","timer_sub_assembly":"散热器及组件","timer_sub_assembly_id":"154","timer_type":"动力总成及组件"},{"timer_assembly":"离合器","timer_assembly_id":"43","timer_sub_assembly":"离合器组件","timer_sub_assembly_id":"155","timer_type":"变速机构"},{"timer_assembly":"内饰","timer_assembly_id":"44","timer_sub_assembly":"车身内饰","timer_sub_assembly_id":"156","timer_type":"车身内部结构"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"排放系统组件","timer_sub_assembly_id":"157","timer_type":"动力总成及组件"},{"timer_assembly":"排放系统","timer_assembly_id":"45","timer_sub_assembly":"EGR阀及组件","timer_sub_assembly_id":"158","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气歧管及组件","timer_sub_assembly_id":"159","timer_type":"动力总成及组件"},{"timer_assembly":"排气系统","timer_assembly_id":"46","timer_sub_assembly":"排气管及组件","timer_sub_assembly_id":"160","timer_type":"动力总成及组件"},{"timer_assembly":"其它总成","timer_assembly_id":"47","timer_sub_assembly":"其它分总成","timer_sub_assembly_id":"161","timer_type":"其它"},{"timer_assembly":"前保险杠","timer_assembly_id":"48","timer_sub_assembly":"前保险杠及组件","timer_sub_assembly_id":"162","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"163","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"外饰","timer_sub_assembly_id":"164","timer_type":"车身外部结构"},{"timer_assembly":"前车门","timer_assembly_id":"49","timer_sub_assembly":"内饰","timer_sub_assembly_id":"165","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"前行李箱盖及组件","timer_sub_assembly_id":"166","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"外饰","timer_sub_assembly_id":"167","timer_type":"车身外部结构"},{"timer_assembly":"前行李箱盖","timer_assembly_id":"50","timer_sub_assembly":"内饰","timer_sub_assembly_id":"168","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"前面板及组件","timer_sub_assembly_id":"169","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"外饰及组件","timer_sub_assembly_id":"170","timer_type":"车身外部结构"},{"timer_assembly":"前面板","timer_assembly_id":"51","timer_sub_assembly":"内饰及组件","timer_sub_assembly_id":"171","timer_type":"车身外部结构"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂系统组件","timer_sub_assembly_id":"172","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"减振器及组件","timer_sub_assembly_id":"173","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"平衡杆及组件","timer_sub_assembly_id":"174","timer_type":"底盘"},{"timer_assembly":"前悬挂","timer_assembly_id":"52","timer_sub_assembly":"悬挂安装托架","timer_sub_assembly_id":"175","timer_type":"底盘"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"前翼子板及组件","timer_sub_assembly_id":"176","timer_type":"车身外部结构"},{"timer_assembly":"前翼子板","timer_assembly_id":"53","timer_sub_assembly":"外饰","timer_sub_assembly_id":"177","timer_type":"车身外部结构"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"大灯清洗组件","timer_sub_assembly_id":"178","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"后风挡清洗系统","timer_sub_assembly_id":"179","timer_type":"电器"},{"timer_assembly":"清洗系统","timer_assembly_id":"54","timer_sub_assembly":"前风挡清洗系统","timer_sub_assembly_id":"180","timer_type":"电器"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力控制单元","timer_sub_assembly_id":"181","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电池及电机冷却组件","timer_sub_assembly_id":"182","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"动力电池组件","timer_sub_assembly_id":"183","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"驱动电动机","timer_sub_assembly_id":"184","timer_type":"动力总成及组件"},{"timer_assembly":"驱动电动机系统","timer_assembly_id":"55","timer_sub_assembly":"加速控制组件","timer_sub_assembly_id":"185","timer_type":"动力总成及组件"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"发动机盖板玻璃及组件","timer_sub_assembly_id":"186","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后侧围玻璃及组件","timer_sub_assembly_id":"187","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后车门玻璃及组件","timer_sub_assembly_id":"188","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"后挡风玻璃及组件","timer_sub_assembly_id":"189","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前车门玻璃及组件","timer_sub_assembly_id":"190","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前挡风玻璃及组件","timer_sub_assembly_id":"191","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧滑门玻璃及组件","timer_sub_assembly_id":"192","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧开门玻璃及组件","timer_sub_assembly_id":"193","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"侧围车窗玻璃","timer_sub_assembly_id":"194","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"前立柱玻璃及组件","timer_sub_assembly_id":"195","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"举升车门玻璃及组件","timer_sub_assembly_id":"196","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"尾门玻璃及组件","timer_sub_assembly_id":"197","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"软顶敞篷玻璃","timer_sub_assembly_id":"198","timer_type":"车身外部结构"},{"timer_assembly":"全车玻璃","timer_assembly_id":"56","timer_sub_assembly":"硬顶敞篷玻璃","timer_sub_assembly_id":"199","timer_type":"车身外部结构"},{"timer_assembly":"全车水管","timer_assembly_id":"57","timer_sub_assembly":"冷却液管","timer_sub_assembly_id":"200","timer_type":"动力总成及组件"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"发动机盖板锁及组件","timer_sub_assembly_id":"201","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前车门锁及组件","timer_sub_assembly_id":"202","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"前行李箱盖锁及组件","timer_sub_assembly_id":"203","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧滑门锁及组件","timer_sub_assembly_id":"204","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"侧开门锁及组件","timer_sub_assembly_id":"205","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后行李箱盖锁及组件","timer_sub_assembly_id":"206","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"尾门锁及组件","timer_sub_assembly_id":"207","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"后车门锁及组件","timer_sub_assembly_id":"208","timer_type":"车身外部结构"},{"timer_assembly":"全车锁机构","timer_assembly_id":"58","timer_sub_assembly":"举升车门锁及组件","timer_sub_assembly_id":"209","timer_type":"车身外部结构"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"气体燃料系统","timer_sub_assembly_id":"210","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"油门踏板及组件","timer_sub_assembly_id":"211","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油系组件","timer_sub_assembly_id":"212","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油箱、锁及组件","timer_sub_assembly_id":"213","timer_type":"动力总成及组件"},{"timer_assembly":"燃油系","timer_assembly_id":"59","timer_sub_assembly":"燃油管路","timer_sub_assembly_id":"214","timer_type":"动力总成及组件"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"天窗及组件","timer_sub_assembly_id":"215","timer_type":"车身外部结构"},{"timer_assembly":"天窗","timer_assembly_id":"60","timer_sub_assembly":"全景天窗及组件","timer_sub_assembly_id":"216","timer_type":"车身外部结构"},{"timer_assembly":"外饰","timer_assembly_id":"61","timer_sub_assembly":"外饰","timer_sub_assembly_id":"217","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"内饰","timer_sub_assembly_id":"218","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"车门及组件","timer_sub_assembly_id":"219","timer_type":"车身外部结构"},{"timer_assembly":"尾门","timer_assembly_id":"62","timer_sub_assembly":"外饰","timer_sub_assembly_id":"220","timer_type":"车身外部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"组合仪表、开关及组件","timer_sub_assembly_id":"221","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"仪表台及组件","timer_sub_assembly_id":"222","timer_type":"车身内部结构"},{"timer_assembly":"仪表台","timer_assembly_id":"63","timer_sub_assembly":"手套箱","timer_sub_assembly_id":"223","timer_type":"车身内部结构"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"车内照明灯","timer_sub_assembly_id":"224","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前照灯及组件","timer_sub_assembly_id":"225","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"停车及信号灯","timer_sub_assembly_id":"226","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"侧示廓灯","timer_sub_assembly_id":"227","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"前雾灯","timer_sub_assembly_id":"228","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后尾灯","timer_sub_assembly_id":"229","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后示廓灯","timer_sub_assembly_id":"230","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"后牌照灯","timer_sub_assembly_id":"231","timer_type":"电器"},{"timer_assembly":"照明系统","timer_assembly_id":"64","timer_sub_assembly":"高位制动灯","timer_sub_assembly_id":"232","timer_type":"电器"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"前轮制动器组件","timer_sub_assembly_id":"233","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"后轮制动器组件","timer_sub_assembly_id":"234","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动控制组件","timer_sub_assembly_id":"235","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"驻车制动器组件","timer_sub_assembly_id":"236","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"缓速器","timer_sub_assembly_id":"237","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动泵及组件","timer_sub_assembly_id":"238","timer_type":"底盘"},{"timer_assembly":"制动系统","timer_assembly_id":"65","timer_sub_assembly":"制动管路","timer_sub_assembly_id":"239","timer_type":"底盘"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"巡航控制系统","timer_sub_assembly_id":"240","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"导航系统","timer_sub_assembly_id":"241","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"无钥匙进入系统","timer_sub_assembly_id":"242","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"娱乐系统","timer_sub_assembly_id":"243","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"胎压监测系统","timer_sub_assembly_id":"244","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"自动泊车辅助系统","timer_sub_assembly_id":"245","timer_type":"电器"},{"timer_assembly":"智能辅助系统","timer_assembly_id":"66","timer_sub_assembly":"停车辅助系统","timer_sub_assembly_id":"246","timer_type":"电器"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"方向盘及装饰","timer_sub_assembly_id":"247","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱及组件","timer_sub_assembly_id":"248","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向柱护罩","timer_sub_assembly_id":"249","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id":"67","timer_sub_assembly":"转向机及组件","timer_sub_assembly_id":"250","timer_type":"底盘"},{"timer_assembly":"转向系统","timer_assembly_id</t>
   </si>
   <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":433, "result":[{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2013款 3.0T 45TFSI Quattro 四驱 A/MT 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3109"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A4 Allroad（2016-","c_timer_model_name":"进口奥迪A4 Allroad 2017款 2.0T 45TFSI Quattro 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"21267"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.8T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"901"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2011款 3.0TFSI 200KW 四驱 A/MT 进取版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3137"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1（2011-","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"873"},{"c_capacity_in_litre_L":"2.5L","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 2.5L 30FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1216"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2014款 3.0T 50TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12984"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2014款 2.0T 45TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1086"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2015-","c_timer_model_name":"奥迪TT Coupe 2017款 2.0T 45TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22198"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.4T DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"900"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2016款 3.0T 50TFSI Quattro 四驱 DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16735"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1108"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2016款 1.4T 30TFSI Design DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17600"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TTS Coupe（2016-","c_timer_model_name":"奥迪TTS Coupe 2017款 2.0TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22201"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"885"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2015-","c_timer_model_name":"奥迪Q7 2016款 2.0T 40TFSI S-Line 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17406"},{"c_capacity_in_litre_L":"6.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 6.0TDI Quattro 四驱 A/MT 柴油 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3152"},{"c_capacity_in_litre_L":"3.2T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 3.2FSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22969"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2016款 3.0T 50TFSI Quattro 四驱 DCT 动感版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16734"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TFSI 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3167"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2014款 4.2FSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3291"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 3.0T 45TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17782"},{"c_capacity_in_litre_L":"4.2T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 4.2TDI Quattro 四驱 A/MT 柴油","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22967"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16661"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L Hybrid（2011-","c_timer_model_name":"奥迪A8L Hybrid 2013款 2.0T 40Hybrid A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1261"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 40TFSI 四驱 A/MT 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3169"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2017-","c_timer_model_name":"奥迪S5 Sportback 2017款 3.0T 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"23007"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2017-","c_timer_model_name":"奥迪A5 Coupe 2017款 2.0T 45TFSI Quattro 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22915"},{"c_capacity_in_litre_L":"2.8L","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 2.8L 35FSI Quattro 四驱 DCT 进取版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1217"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.0TDI Quattro 四驱 A/MT 柴油 领先版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3123"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI DCT 白色经典版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3831"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2008款 3.2L Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3823"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3125"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A4 Allroad（2012-2016）","c_timer_model_name":"进口奥迪A4 Allroad 2014款 2.0T 40TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1029"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Cabriolet（2008-2017）","c_timer_model_name":"奥迪S5 Cabriolet 2014款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13656"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2007款 4.2L 四驱 A/MT 至尊版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13624"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 改款 45TFSI CVT 舒适版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17872"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3127"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2016款 2.0T 45TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"16663"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 越野典藏技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3129"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 35TDI Quattro 四驱 A/MT 柴油 领先版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3153"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A6 Avant（2017-","c_timer_model_name":"奥迪A6 Avant 2017款 2.0T Sport 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22909"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego Plus DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"882"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2016款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16662"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 技术版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"886"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2015-","c_timer_model_name":"奥迪TT Roadster 2017款 2.0T 45TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22199"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2009款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1098"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2009款 3.6FSI 四驱 A/MT 风尚舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3120"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S6（2013-","c_timer_model_name":"奥迪S6 2013款 4.0TFSI 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3485"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 3.2FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"13628"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1272"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2017-","c_timer_model_name":"奥迪A5 Cabriolet 2017款 2.0T 40TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"23009"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2014款 1.4T 30TFSI DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"888"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 4.2FSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1245"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2010款 5.2FSI Quattro 四驱 AMT","c_transmission_type":"半自动变速器","t_letter":"A","tid":"3288"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 3.0T 50TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1110"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2014款 3.0T 45TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12981"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI DCT 彩色梦幻版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3832"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2012款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1114"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2010-2017）","c_timer_model_name":"奥迪S5 Sportback 2010款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3449"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2017款 3.0T 50TFSI Quattro 四驱 DCT 动感版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20629"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI Quattro 四驱 DCT 黑色旋风版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3829"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 45TFSI CVT 舒适版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16654"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1273"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TTS Roadster（2016-","c_timer_model_name":"奥迪TTS Roadster 2016款 2.0T 45TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"19039"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2010款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1100"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2017款 1.8T 35TFSI DCT 时尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20633"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2013款 1.8T 35TFSI DCT 尊贵版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"898"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A6 Allroad（2015-","c_timer_model_name":"奥迪A6 Allroad 2015款 3.0T Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16652"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2008-2015）","c_timer_model_name":"奥迪TT Roadster 2013款 2.0T 45TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3841"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI Quattro 四驱 DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1105"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2013款 1.4T 30TFSI DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"12041"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 3.0TFSI 245KW Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1253"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2013款 2.0T 40TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1128"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2014款 2.0T 45TFSI Quattro 四驱 DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1088"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Coupe（2008-2017）","c_timer_model_name":"奥迪S5 Coupe 2012款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3448"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 6.0L Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1228"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2011款 2.0TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3825"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2010-2017）","c_timer_model_name":"奥迪S5 Sportback 2012款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3450"},{"c_capacity_in_litre_L":"4.2T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 4.2TDI Quattro 四驱 A/MT 柴油版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13623"},{"c_capacity_in_litre_L":"2.8L","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2012款 2.8FSI Quattro 四驱 DCT 进取版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1213"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 3.0T 50TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17781"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S6（2013-","c_timer_model_name":"奥迪S6 2017款 4.0TFSI 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20555"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 6.3FSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1254"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 改款 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17870"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TDI 四驱 A/MT 柴油 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3162"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 4.0T 55TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1271"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2007款 6.0L Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13625"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 3.0TFSI 245KW 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3151"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2015-","c_timer_model_name":"奥迪TT Coupe 2015款 2.0T 45TFSI Quattro 四驱 DCT 复仇者联盟决胜版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17183"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 40TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3160"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.4T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"899"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8 Spyder（2011-","c_timer_model_name":"奥迪R8 Spyder 2011款 5.2FSI Quattro 四驱 AMT","c_transmission_type":"半自动变速器","t_letter":"A","tid":"3295"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2013款 3.0T 50TFSI Quattro 四驱 DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1219"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2013款 3.0T 45TFSI Quattro 四驱 A/MT 运动版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3110"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S3 Limousine（2014-","c_timer_model_name":"奥迪S3 2017款 2.0T Limousine 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"19890"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Coupe（2008-2017）","c_timer_model_name":"奥迪S5 Coupe 2014款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13657"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5 Hybrid（2009-","c_timer_model_name":"进口奥迪Q5 Hybrid 2013款 2.0T 40TFSI 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3103"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2009款 3.6FSI 四驱 A/MT 越野技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3121"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2012款 6.3FSI Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1260"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2008款 6.0L 四驱 A/MT 至尊旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1239"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2014款 2.0T 45TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1091"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S3 Limousine（2014-","c_timer_model_name":"奥迪S3 Limousine 2017款 2.0T 改款 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22358"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2017款 3.0T 50TFSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"21521"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪SQ5（2013-","c_timer_model_name":"奥迪SQ5 2017款 3.0TFSI quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"20554"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2012款 1.8T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"906"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Cabriolet（2008-2017）","c_timer_model_name":"奥迪S5 Cabriolet 2016款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16656"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪RS6（2016-","c_timer_model_name":"奥迪RS6 2016款 4.0T Avant 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"19651"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8 Spyder（2011-","c_timer_model_name":"奥迪R8 Spyder 2014款 4.2FSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3293"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2012款 1.4T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"903"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2013款 2.0T 40TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1127"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2008-2015）","c_timer_model_name":"奥迪TT Roadster 2008款 2.0TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3835"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1107"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2014款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1085"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"16655"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16659"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2007款 4.2FSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3117"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2008款 2.0TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3822"},{"c_capacity_in_litre_L":"6.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006</t>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":433, "result":[{"c_capacity_in_litre_L":"3.0T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 3.0TDI Quattro 四驱 A/MT 加长版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13622"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2012款 3.0T 45TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1255"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2016款 2.0T 改款 45TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17870"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 4.0T 60TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17777"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2013款 2.0T 45TFSI Quattro 四驱 DCT 白色经典版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3827"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2009款 3.6FSI 四驱 A/MT 风尚舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3120"},{"c_capacity_in_litre_L":"3.0L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 3.0FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1242"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 基本版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3126"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2015-","c_timer_model_name":"奥迪TT Roadster 2017款 2.0T 45TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22199"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2017款 3.0T 50TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"21520"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2008-2015）","c_timer_model_name":"奥迪TT Roadster 2011款 2.0TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3837"},{"c_capacity_in_litre_L":"3.0L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 3.0FSI CVT 尊贵版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1244"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8 Spyder（2011-","c_timer_model_name":"奥迪R8 Spyder 2014款 4.2FSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3293"},{"c_capacity_in_litre_L":"2.5L","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 2.5L 30FSI A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1263"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2017-","c_timer_model_name":"奥迪A5 Cabriolet 2017款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"23010"},{"c_capacity_in_litre_L":"3.2T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 3.2FSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22969"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2008款 2.0TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3822"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2008款 6.0L 四驱 A/MT 至尊旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1239"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TFSI 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3168"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2014款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1092"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2014款 2.0T 45TFSI CVT 风尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1090"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 3.0TFSI 200KW 四驱 A/MT 技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3145"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2017-","c_timer_model_name":"奥迪A5 Cabriolet 2017款 2.0T 40TFSI DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"23009"},{"c_capacity_in_litre_L":"2.5L","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 2.5L 30FSI A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17786"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2013款 1.4T 30TFSI DCT 技术版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"895"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2015款 3.0T Quattro 35TDI 四驱 A/MT 柴油 卓越版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"14248"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2008款 3.2FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1236"},{"c_capacity_in_litre_L":"2.5L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2014款 2.5L 30FSI CVT 时尚版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1221"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2015-","c_timer_model_name":"奥迪TT Coupe 2015款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16002"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2017-","c_timer_model_name":"奥迪A5 Sportback 2017款 2.0T 45TFSI DCT 时尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22918"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 6.0L Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1247"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 3.0TFSI 245KW Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1252"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2015-","c_timer_model_name":"奥迪Q7 2016款 3.0T 45TFSI 四驱 A/MT 技术版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17405"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Coupe（2017-","c_timer_model_name":"奥迪S5 Coupe 2017款 3.0T 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"23006"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2014款 2.0T 45TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1087"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2015款 3.0T Quattro 40TFSI 四驱 A/MT 典藏版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"14251"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Roadster（2015-","c_timer_model_name":"奥迪TT Roadster 2015款 2.0T 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16000"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2014款 3.0T 50TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13610"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2012款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1102"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 40TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3160"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TDI 四驱 A/MT 柴油 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3164"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2016款 1.4T 30TFSI S Line DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17601"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2013款 2.0T 40TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1118"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 35TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3158"},{"c_capacity_in_litre_L":"4.2T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2011款 4.2TDI Quattro 四驱 A/MT 柴油","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22967"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2013款 2.0TFSI 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"22966"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Coupe（2008-2017）","c_timer_model_name":"奥迪S5 Coupe 2009款 4.2L 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3446"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TT Coupe（2008-2015）","c_timer_model_name":"奥迪TT Coupe 2014款 2.0T 45TFSI Quattro 四驱 DCT 悦尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"11605"},{"c_capacity_in_litre_L":"4.2T","c_model_year":"2006","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2006款 4.2TDI Quattro 四驱 A/MT 柴油版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13623"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 6.3FSI Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1274"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TTS Coupe（2016-","c_timer_model_name":"奥迪TTS Coupe 2016款 2.0T 45TFSI quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"19040"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2014款 3.0T 50TFSI Quattro 四驱 DCT 风尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13609"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2014款 6.3L 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12989"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2010款 5.2FSI Quattro 四驱 AMT","c_transmission_type":"半自动变速器","t_letter":"A","tid":"3288"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2014款 6.3FSI W12 Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12988"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2017款 3.0T 50TFSI Quattro 四驱 DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"20630"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2015","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2014-","c_timer_model_name":"进口奥迪A3 Sportback 2015款 1.4T e-tron DCT 舒适版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"16669"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2013款 3.0T 50TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1122"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 Coupe 2017款 5.2L V10 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"23078"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 3.0T 50TFSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17781"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2008款 3.2FSI CVT 豪华版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1237"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 3.0TDI Quattro 四驱 A/MT 柴油 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3144"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2010款 3.6FSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3128"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A4 Allroad（2012-2016）","c_timer_model_name":"进口奥迪A4 Allroad 2014款 2.0T 40TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1029"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2007款 3.2FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1229"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2017款 6.3FSI W12 Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"21523"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2015-","c_timer_model_name":"奥迪Q7 2016款 3.0T 45TFSI S Line 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17518"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S3 Limousine（2014-","c_timer_model_name":"奥迪S3 Limousine 2017款 2.0T 改款 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22358"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TDI 四驱 A/MT 柴油 越野版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3162"},{"c_capacity_in_litre_L":"2.8L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2008款 2.8FSI CVT 豪华版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1235"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1 Sportback（2012-","c_timer_model_name":"奥迪A1 Sportback 2013款 1.4T 30TFSI Ego DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"883"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2012款 2.0TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1116"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 4.2FSI Quattro 四驱 A/MT 尊贵版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1245"},{"c_capacity_in_litre_L":"2.5L","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2014款 2.5L 30FSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1220"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2016款 2.0T 改款 45TFSI CVT 舒适版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17875"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S8（2006-2012）","c_timer_model_name":"奥迪S8 2007款 5.2L 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3514"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2011款 3.0TFSI 245KW 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3141"},{"c_capacity_in_litre_L":"6.3L","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 6.3FSI W12 Quattro 四驱 A/MT 旗舰版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17776"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2015-","c_timer_model_name":"奥迪Q7 2016款 2.0T 40TFSI 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17407"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 3.0T 50TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1269"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2016款 5.2L V10 performance 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"19652"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2010款 3.2FSI Quattro 四驱 DCT 越野版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3089"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2009款 2.0TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1098"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪Q5（2009-","c_timer_model_name":"进口奥迪Q5 2010款 2.0TFSI Quattro 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3084"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S7（2013-","c_timer_model_name":"奥迪S7 2013款 4.0TFSI 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3513"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2011款 3.0TFSI 200KW 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3138"},{"c_capacity_in_litre_L":"5.2L","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S8（2006-2012）","c_timer_model_name":"奥迪S8 2010款 5.2FSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3520"},{"c_capacity_in_litre_L":"3.0L","c_model_year":"2005","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2005款 3.0L A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1225"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2016款 2.0T 改款 45TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17874"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A4 Allroad（2012-2016）","c_timer_model_name":"进口奥迪A4 Allroad 2013款 2.0T 40TFSI Quattro 四驱 DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1026"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L Hybrid（2011-","c_timer_model_name":"奥迪A8L Hybrid 2014款 2.0T 40Hybrid A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"12978"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1（2011-","c_timer_model_name":"奥迪A1 2013款 1.4T 30TFSI Ego DCT 中国限量版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"877"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2013款 2.0T 40TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1108"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2013款 3.0T 35TDI Quattro 四驱 A/MT 柴油 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3154"},{"c_capacity_in_litre_L":"4.2L","c_model_year":"2008","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪R8（2008-","c_timer_model_name":"奥迪R8 2008款 4.2FSI Quattro 四驱 AMT","c_transmission_type":"半自动变速器","t_letter":"A","tid":"3287"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S5 Sportback（2010-2017）","c_timer_model_name":"奥迪S5 Sportback 2014款 3.0T 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"13658"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2017-","c_timer_model_name":"奥迪A5 Sportback 2017款 2.0T 40TFSI DCT 时尚版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22917"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2012款 3.0T 50TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1258"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2008-2017）","c_timer_model_name":"奥迪A5 Coupe 2016款 1.8T 改款 35TFSI CVT 进取版","c_transmission_type":"无级变速器","t_letter":"A","tid":"17873"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2010款 1.4T DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"899"},{"c_capacity_in_litre_L":"2.8L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 2.8FSI CVT 标准版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1240"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Sportback（2010-2017）","c_timer_model_name":"奥迪A5 Sportback 2014款 2.0T 45TFSI CVT","c_transmission_type":"无级变速器","t_letter":"A","tid":"1095"},{"c_capacity_in_litre_L":"6.0L","c_model_year":"2009","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2009款 6.0L Quattro 四驱 A/MT 百年纪念版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1246"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S8（2012-","c_timer_model_name":"奥迪S8 2014款 4.0TFSI Quattro 四驱 A/MT","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"13053"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2017款 3.0T 45TFSI Quattro 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"21518"},{"c_capacity_in_litre_L":"1.8T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"进口奥迪A3 Sportback（2010-2014）","c_timer_model_name":"进口奥迪A3 Sportback 2012款 1.8T DCT 尊贵版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"907"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2014款 3.0T 50TFSI Quattro 四驱 DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1223"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2016款 3.0T 50TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"17779"},{"c_capacity_in_litre_L":"1.4T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A1（2011-","c_timer_model_name":"奥迪A1 2012款 1.4TFSI EGO Plus DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"873"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2013","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2011-","c_timer_model_name":"奥迪A8L 2013款 3.0T 45TFSI Quattro 四驱 A/MT 专享版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"1266"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2011","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪TTS Roadster（2008-2016）","c_timer_model_name":"奥迪TTS Roadster 2011款 2.0TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"3846"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2014","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2014款 3.0T 35TFSI 四驱 A/MT 进取版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3165"},{"c_capacity_in_litre_L":"3.2L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A8L（2003-2011）","c_timer_model_name":"奥迪A8L 2007款 3.2FSI CVT 尊享版","c_transmission_type":"无级变速器","t_letter":"A","tid":"1232"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2017","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Coupe（2017-","c_timer_model_name":"奥迪A5 Coupe 2017款 2.0T 45TFSI Quattro 四驱 DCT 运动版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"22915"},{"c_capacity_in_litre_L":"4.0T","c_model_year":"2016","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪S6（2013-","c_timer_model_name":"奥迪S6 2016款 4.0TFSI 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"17743"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A5 Cabriolet（2010-2017）","c_timer_model_name":"奥迪A5 Cabriolet 2012款 2.0TFSI Quattro 四驱 DCT","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1124"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2012款 3.0TFSI 245KW 四驱 A/MT 舒适版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3151"},{"c_capacity_in_litre_L":"3.0T","c_model_year":"2012","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪A7（2011-","c_timer_model_name":"奥迪A7 2012款 3.0TFSI Quattro 四驱 DCT 豪华版","c_transmission_type":"双离合变速器","t_letter":"A","tid":"1214"},{"c_capacity_in_litre_L":"3.6L","c_model_year":"2007","c_oem_brand":"奥迪","c_oem_name":"奥迪","c_oem_name_show":"奥迪(进口)","c_series_BBG":"奥迪Q7（2006-2015）","c_timer_model_name":"奥迪Q7 2007款 3.6FSI Quattro 四驱 A/MT 豪华版","c_transmission_type":"手自一体变速器","t_letter":"A","tid":"3115"},{"c_capacity_in_litre_L":"2.0T","c_model_year":"2010","c_oem_brand":"奥迪","c_oem_name":</t>
+  </si>
+  <si>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":5375, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"1","timer_name":"变速箱冷却器","timer_stand_name":"变速箱冷却器","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"2","timer_name":"变速箱油冷却器出油管","timer_stand_name":"变速箱油冷却器出油管","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"3","timer_name":"变速箱油冷却器进油管","timer_stand_name":"变速箱油冷却器进油管","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"5","timer_name":"手动变速箱后盖","timer_stand_name":"手动变速箱后盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"6","timer_name":"手动变速箱前盖","timer_stand_name":"手动变速箱前盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"7","timer_name":"手动变器箱盖密封垫","timer_stand_name":"手动变器箱盖密封垫","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"8","timer_name":"倒档拨叉","timer_stand_name":"倒档拨叉","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"9","timer_name":"手动变速箱壳体","timer_stand_name":"手动变速箱壳体","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"10","timer_name":"飞轮壳","timer_stand_name":"飞轮壳","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"11","timer_name":"手动变速箱总成","timer_stand_name":"手动变速箱总成","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"12","timer_name":"手动变速箱上盖","timer_stand_name":"手动变速箱上盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"13","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"14","timer_name":"手动变速箱输出轴","timer_stand_name":"手动变速箱输出轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"15","timer_name":"手动变速箱输入轴","timer_stand_name":"手动变速箱输入轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"16","timer_name":"手动变速箱中间轴","timer_stand_name":"手动变速箱中间轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"17","timer_name":"手动变速箱修理包","timer_stand_name":"手动变速箱修理包","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"18","timer_name":"手动变速箱输出轴油封","timer_stand_name":"手动变速箱油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"19","timer_name":"手动变速箱输入轴油封","timer_stand_name":"手动变速箱油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"20","timer_name":"手动变速箱差速器","timer_stand_name":"手动变速箱差速器","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"21","timer_name":"手动变速箱差速器油封","timer_stand_name":"手动变速箱差速器油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"22","timer_name":"手动变速箱倒档开关","timer_stand_name":"倒档开关","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"24","timer_name":"双离合变速箱前壳体油封","timer_stand_name":"双离合变速箱前壳体油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"25","timer_name":"双离合变速箱油泵","timer_stand_name":"双离合变速箱油泵","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"26","timer_name":"双离合变速箱油泵齿轮","timer_stand_name":"双离合变速箱油泵齿轮","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"27","timer_name":"双离合变速箱油泵盖","timer_stand_name":"双离合变速箱油泵盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"28","timer_name":"双离合变速箱输出轴","timer_stand_name":"双离合变速箱输出轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"29","timer_name":"双离合变速箱输入轴","timer_stand_name":"双离合变速箱输入轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"31","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"32","timer_name":"双离合变速箱电磁阀","timer_stand_name":"双离合变速箱电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"33","timer_name":"双离合变速箱油标尺","timer_stand_name":"双离合变速箱油标尺","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"34","timer_name":"双离合变速箱油标尺管","timer_stand_name":"双离合变速箱油标尺管","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"35","timer_name":"双离合变速箱壳体","timer_stand_name":"双离合变速箱壳体","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"36","timer_name":"双离合变速箱修理包","timer_stand_name":"双离合变速箱修理包","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"37","timer_name":"双离合变速箱油底壳","timer_stand_name":"双离合变速箱油底壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"38","timer_name":"双离合变速箱总成","timer_stand_name":"双离合变速箱总成","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"39","timer_name":"双离合变速箱后盖","timer_stand_name":"双离合变速箱后盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"40","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"41","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"42","timer_name":"双离合变速箱过滤网","timer_stand_name":"双离合变速箱过滤网","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"43","timer_name":"双离合变速箱单电磁阀","timer_stand_name":"双离合变速箱单电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"44","timer_name":"双离合变速箱壳体密封垫","timer_stand_name":"双离合变速箱壳体密封垫","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"45","timer_name":"双离合变速箱前盖","timer_stand_name":"双离合变速箱前盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"46","timer_name":"双离合变速箱双电磁阀","timer_stand_name":"双离合变速箱双电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"47","timer_name":"双离合变速箱油滤清器","timer_stand_name":"双离合变速箱油滤清器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"48","timer_name":"双离合变速箱中壳","timer_stand_name":"双离合变速箱中壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"51","timer_name":"双离合变器箱盖密封垫","timer_stand_name":"双离合变器箱盖密封垫","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"54","timer_name":"双离合变速箱上盖","timer_stand_name":"双离合变速箱上盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"55","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"58","timer_name":"双离合变速箱中间轴","timer_stand_name":"双离合变速箱中间轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"60","timer_name":"双离合变速箱输出轴油封","timer_stand_name":"双离合变速箱油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"61","timer_name":"双离合变速箱输入轴油封","timer_stand_name":"双离合变速箱油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"62","timer_name":"双离合变速箱差速器","timer_stand_name":"双离合变速箱差速器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"63","timer_name":"双离合变速箱差速器油封","timer_stand_name":"双离合变速箱差速器油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"64","timer_name":"双离合变速箱多电磁阀","timer_stand_name":"双离合变速箱多电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"67","timer_name":"干式双离合器","timer_stand_name":"干式双离合器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"68","timer_name":"湿式双离合器","timer_stand_name":"湿式双离合器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"69","timer_name":"双离合变速箱通气软管","timer_stand_name":"双离合变速箱通气软管","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"70","timer_name":"双离合变速箱油底壳排油螺栓","timer_stand_name":"双离合变速箱油底壳排油螺栓","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"71","timer_name":"液力变矩器壳","timer_stand_name":"液力变矩器壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"72","timer_name":"CVT变速箱前壳体油封","timer_stand_name":"CVT变速箱前壳体油封","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"73","timer_name":"CVT变速箱油泵","timer_stand_name":"CVT变速箱油泵","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"74","timer_name":"液力变矩器","timer_stand_name":"液力变矩器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"75","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"76","timer_name":"CVT变速箱电磁阀","timer_stand_name":"CVT变速箱电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"77","timer_name":"CVT变速箱油标尺","timer_stand_name":"CVT变速箱油标尺","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"78","timer_name":"CVT变速箱油标尺管","timer_stand_name":"CVT变速箱油标尺管","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"79","timer_name":"CVT变速箱壳体","timer_stand_name":"CVT变速箱壳体","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"80","timer_name":"CVT变速箱修理包","timer_stand_name":"CVT变速箱修理包","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"81","timer_name":"CVT变速箱油底壳","timer_stand_name":"CVT变速箱油底壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"82","timer_name":"CVT变速箱总成","timer_stand_name":"CVT变速箱总成","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"83","timer_name":"CVT变速箱后盖","timer_stand_name":"CVT变速箱后盖","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"84","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"85","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"86","timer_name":"CVT变速箱过滤网","timer_stand_name":"CVT变速箱过滤网","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"87","timer_name":"CVT变速箱单电磁阀","timer_stand_name":"CVT变速箱单电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"88","timer_name":"CVT变速箱壳体密封垫","timer_stand_name":"CVT变速箱壳体密封垫","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"89","timer_name":"CVT变速箱前盖","timer_stand_name":"CVT变速箱前盖","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"90","timer_name":"CVT变速箱双电磁阀","timer_stand_name":"CVT变速箱双电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"91","timer_name":"CVT变速箱油滤清器","timer_stand_name":"CVT变速箱油滤清器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"92","timer_name":"CVT变速箱中壳","timer_stand_name":"CVT变速箱中壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"93","timer_name":"CVT变速箱差速器","timer_stand_name":"CVT变速箱差速器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"94","timer_name":"CVT变速箱差速器油封","timer_stand_name":"CVT变速箱差速器油封","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"95","timer_name":"CVT变速箱多电磁阀","timer_stand_name":"CVT变速箱多电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"96","timer_name":"CVT变速箱链条","timer_stand_name":"CVT变速箱链条","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"97","timer_name":"CVT变速箱主动波轮","timer_stand_name":"CVT变速箱主动波轮","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"98","timer_name":"CVT变速箱从动波轮","timer_stand_name":"CVT变速箱从动波轮","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"99","timer_name":"CVT变速箱通气软管","timer_stand_name":"CVT变速箱通气软管","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"100","timer_name":"CVT变速箱油底壳排油螺栓","timer_stand_name":"CVT变速箱油底壳排油螺栓","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"101","timer_name":"液力变矩器壳","timer_stand_name":"液力变矩器壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"102","timer_name":"自动变速箱前壳体油封","timer_stand_name":"自动变速箱前壳体油封","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"103","timer_name":"自动变速箱油泵","timer_stand_name":"自动变速箱油泵","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"104","timer_name":"自动变速箱油泵齿轮","timer_stand_name":"自动变速箱油泵齿轮","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"105","timer_name":"自动变速箱油泵盖","timer_stand_name":"自动变速箱油泵盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"106","timer_name":"自动变速箱输出轴","timer_stand_name":"自动变速箱输出轴","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"107","timer_name":"自动变速箱输入轴","timer_stand_name":"自动变速箱输入轴","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"108","timer_name":"液力变矩器","timer_stand_name":"液力变矩器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"109","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"110","timer_name":"自动变速箱电磁阀","timer_stand_name":"自动变速箱电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"111","timer_name":"自动变速箱油标尺","timer_stand_name":"自动变速箱油标尺","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"112","timer_name":"自动变速箱油标尺管","timer_stand_name":"自动变速箱油标尺管","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"113","timer_name":"自动变速箱壳体","timer_stand_name":"自动变速箱壳体","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"114","timer_name":"自动变速箱修理包","timer_stand_name":"自动变速箱修理包","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"115","timer_name":"自动变速箱油底壳","timer_stand_name":"自动变速箱油底壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"116","timer_name":"自动变速箱总成","timer_stand_name":"自动变速箱总成","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"117","timer_name":"自动变速箱后盖","timer_stand_name":"自动变速箱后盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"118","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"119","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"120","timer_name":"自动变速箱过滤网","timer_stand_name":"自动变速箱过滤网","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"121","timer_name":"自动变速箱单电磁阀","timer_stand_name":"自动变速箱单电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"122","timer_name":"自动变速箱壳体密封垫","timer_stand_name":"自动变速箱壳体密封垫","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"123","timer_name":"自动变速箱前盖","timer_stand_name":"自动变速箱前盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"124","timer_name":"自动变速箱双电磁阀","timer_stand_name":"自动变速箱双电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"125","timer_name":"自动变速箱油滤清器","timer_stand_name":"自动变速箱油滤清器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"126","timer_name":"自动变速箱中壳","timer_stand_name":"自动变速箱中壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"127","timer_name":"自动变速箱通气软管","timer_stand_name":"自动变速箱通气软管","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"128","timer_name":"自动变速箱油底壳排油螺栓","timer_stand_name":"自动变速箱油底壳排油螺栓","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"129","timer_name":"自动变速箱差速器","timer_stand_name":"自动变速箱差速器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"130","timer_name":"自动变速箱差速器油封","timer_stand_name":"自动变速箱差速器油封","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"131","timer_name":"自动变速箱多电磁阀","timer_stand_name":"自动变速箱多电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"132","timer_name":"AMT变速箱后盖","timer_stand_name":"AMT变速箱后盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"133","timer_name":"AMT变速箱前盖","timer_stand_name":"AMT变速箱前盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"134","timer_name":"AMT变器箱盖密封垫","timer_stand_name":"AMT变器箱盖密封垫","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"135","timer_name":"AMT变速箱壳体","timer_stand_name":"AMT变速箱壳体","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"136","timer_name":"AMT变速箱总成","timer_stand_name":"AMT变速箱总成","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"137","timer_name":"AMT变速箱上盖","timer_stand_name":"AMT变速箱上盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"138","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"139","timer_name":"AMT变速箱输出轴","timer_stand_name":"AMT变速箱输出轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"140","timer_name":"AMT变速箱输入轴","timer_stand_name":"AMT变速箱输入轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"141","timer_name":"AMT变速箱中间轴","timer_stand_name":"AMT变速箱中间轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"142","timer_name":"AMT变速箱修理包","timer_stand_name":"AMT变速箱修理包","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"143","timer_name":"AMT变速箱输出轴油封","timer_stand_name":"AMT变速箱油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"144","timer_name":"AMT变速箱输入轴油封","timer_stand_name":"AMT变速箱油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"145","timer_name":"AMT变速箱差速器","timer_stand_name":"AMT变速箱差速器","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"146","timer_name":"AMT变速箱差速器油封","timer_stand_name":"AMT变速箱差速器油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"147","timer_name":"AMT变速箱换档执行器","timer_stand_name":"AMT变速箱换档执行器","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"148","timer_name":"AMT变速箱换档执行器储油罐","timer_stand_name":"AMT变速箱换档执行器储油罐","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"149","timer_name":"AMT变速箱换档执行器储油罐盖","timer_stand_name":"AMT变速箱换档执行器储油罐盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"150","timer_name":"AMT变速箱通气软管","timer_stand_name":"AMT变速箱通气软管","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"151","timer_name":"AMT变速箱油底壳排油螺栓","timer_stand_name":"AMT变速箱油底壳排油螺栓","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"152","timer_name":"安全气囊警示标签","timer_stand_name":"安全气囊警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"153","timer_name":"乘客安全气囊警示标签","timer_stand_name":"乘客安全气囊警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"154","timer_name":"儿童保护装置警示标签","timer_stand_name":"儿童保护装置警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"155","timer_name":"防盗标签","timer_stand_name":"防盗标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"156","timer_name":"防冻液指示标签","timer_stand_name":"防冻液指示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"157","timer_name":"空调检修警示标签","timer_stand_name":"空调检修警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"158","timer_name":"空气滤清器提示标签","timer_stand_name":"空气滤清器提示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"159","timer_name":"冷却风扇警示标签","timer_stand_name":"冷却风扇警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"160","timer_name":"轮胎气压标签","timer_stand_name":"轮胎气压标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"161","timer_name":"燃油提示标签","timer_stand_name":"燃油提示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"162","timer_name":"散热器检修警示标签","timer_stand_name":"散热器检修警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"163","timer_name":"中央扶手箱点烟器芯","timer_stand_name":"点烟器芯","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"164","timer_name":"中央扶手箱点烟器座","timer_stand_name":"点烟器座","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"165","timer_name":"中央操纵台","timer_stand_name":"中央操纵台","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"166","timer_name":"中央扶手箱总成","timer_stand_name":"中央扶手箱总成","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"167","timer_name":"中央扶手箱支架","timer_stand_name":"中央扶手箱支架","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"168","timer_name":"中央扶手箱后盖板","timer_stand_name":"中央扶手箱后盖板","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"169","timer_name":"中央扶手箱杯托","timer_stand_name":"中央扶手箱杯托","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"170","timer_name":"中央扶手箱烟灰缸","timer_stand_name":"中央扶手箱烟灰缸","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"171","timer_name":"中央扶手箱扶手","timer_stand_name":"中央扶手箱扶手","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"172","timer_name":"中央扶手箱下部总成","timer_stand_name":"中央扶手箱下部总成","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"173","timer_name":"中央扶手箱盖板","timer_stand_name":"中央扶手箱盖板","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"174","timer_name":"中央扶手箱前点烟器座","timer_stand_name":"点烟器座","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"175","timer_name":"中央扶手箱下壳体","timer_stand_name":"中央扶手箱下壳体","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"176","timer_name":"中央操纵台扶手","timer_stand_name":"中央操纵台扶手","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"177","timer_name":"中央扶手</t>
   </si>
   <si>
     <t>{"desc":"查询成功！", "statusCode":1, "size":1000, "result":[{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"YZ4DC2-30","c_fuel_type":"柴油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18569","c_timer_model_name":"金典 2007款 2.1T MT 长厢长轴 柴油 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6242","c_timer_type_name":"金典 YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"1","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18608","update_time":"1900-01-01 00:00:00.0","xid":"6242"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"61800","c_MSRP_newest":"61800","c_capacity_in_litre_CC":"2156","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"SD4W55A/YZ4D21TC","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"-","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18570","c_timer_model_name":"金典 2007款 2.2L MT 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6241","c_timer_type_name":"金典 SD4W55A/YZ4D21TC 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"2","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18609","update_time":"1900-01-01 00:00:00.0","xid":"6241"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18571","c_timer_model_name":"金典 2007款 2.5T MT 标准厢 标准版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"3","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18610","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18572","c_timer_model_name":"金典 2007款 2.5T MT 标准厢 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"4","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18611","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.5T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2007","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18574","c_timer_model_name":"金典 2007款 2.5T MT 加长厢 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6852","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"5","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18613","update_time":"1900-01-01 00:00:00.0","xid":"6852"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18575","c_timer_model_name":"金典 2009款 2.1T MT 短轴短厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"6","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18614","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18576","c_timer_model_name":"金典 2009款 2.1T MT 短轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"7","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18615","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18577","c_timer_model_name":"金典 2009款 2.1T MT 短厢长轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"8","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18616","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2090","c_capacity_in_litre_L":"2.1T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4D25/YZ4DC2-30","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"52","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18578","c_timer_model_name":"金典 2009款 2.1T MT 长轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6851","c_timer_type_name":"金典 4D25/YZ4DC2-30 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"9","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18617","update_time":"1900-01-01 00:00:00.0","xid":"6851"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18580","c_timer_model_name":"金典 2009款 2.2L MT 短厢短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"10","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18619","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18581","c_timer_model_name":"金典 2009款 2.2L MT 短厢长轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"11","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18620","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18582","c_timer_model_name":"金典 2009款 2.2L MT 短厢长轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"12","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18621","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18583","c_timer_model_name":"金典 2009款 2.2L MT 长厢短轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"13","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18622","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18584","c_timer_model_name":"金典 2009款 2.2L MT 长厢短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"14","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18623","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18585","c_timer_model_name":"金典 2009款 2.2L MT 长厢长轴 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"15","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18624","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18587","c_timer_model_name":"金典 2009款 2.5T MT 短厢短轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"16","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18626","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18588","c_timer_model_name":"金典 2009款 2.5T MT 短轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"17","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18627","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18589","c_timer_model_name":"金典 2009款 2.5T MT 短厢长轴","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"18","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18628","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"-","c_MSRP_newest":"-","c_capacity_in_litre_CC":"2433","c_capacity_in_litre_L":"2.4T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"4G64S4M","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2009","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"65","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"Y","c_timer_grade":"","c_timer_model_id":"TM18590","c_timer_model_name":"金典 2009款 2.5T MT 长轴长厢","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6245","c_timer_type_name":"金典 4G64S4M 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"19","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18629","update_time":"1900-01-01 00:00:00.0","xid":"6245"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"65800","c_MSRP_newest":"65800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18591","c_timer_model_name":"金典009 2014款 2.2L MT 短轴 CNG 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"20","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18630","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"58800","c_MSRP_newest":"58800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18592","c_timer_model_name":"金典009 2014款 2.2L MT 短轴 舒适版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"21","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18631","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"67800","c_MSRP_newest":"67800","c_capacity_in_litre_CC":"2237","c_capacity_in_litre_L":"2.2L","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"JM491Q-ME","c_fuel_type":"汽油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_oem_name":"绵阳金杯","c_platform":"","c_power":"76","c_qty_of_chairs":"","c_qty_of_doors":"","c_series":"金典","c_series_BBG":"金典（2005-","c_series_BBG_eop_year":"","c_series_BBG_sop_year":"","c_series_name":"金典","c_structure":"","c_supercharger":"N","c_timer_grade":"","c_timer_model_id":"TM18593","c_timer_model_name":"金典009 2014款 2.2L MT 长轴 CNG 豪华版","c_timer_remark_transmission_type":"5档手动变速器","c_timer_type_id":"TT6244","c_timer_type_name":"金典 JM491Q-ME 后轮驱动 5MT（2005-","c_transmission_type":"手动变速器","c_type_of_at_transmission":"","c_variant_eop":"","c_variant_sop":"","epc_no":"","id":"22","make_id_timing":"90","series_id_timing":"1690","t_HL_version":"","t_batch":"","t_capacity_in_litrel":"","t_car_year":"","t_cylinder_num":"","t_drv_mode":"","t_e_suffix":"","t_env_standard":"","t_letter":"J","t_mode_name_without_year":"","t_paragraph":"","t_post_code":"","t_power_type":"","t_set_num":"","t_transmission":"","t_type_name":"","t_valid":"1","tid":"18632","update_time":"1900-01-01 00:00:00.0","xid":"6244"},{"brand_id_timing":"69","c_DMP_IMP":"国产","c_MSRP_new_launach":"68800","c_MSRP_newest":"68800","c_capacity_in_litre_CC":"2184","c_capacity_in_litre_L":"2.2T","c_car_body":"","c_drive_form":"后轮驱动","c_engine_model":"D22A","c_fuel_type":"柴油","c_mixture_preparation":"","c_model_eop":"","c_model_interior_code":"-","c_model_name":"","c_model_sop":"","c_model_year":"2014","c_nm_of_transmission_gear":"5","c_oem":"","c_oem_abbrebiation":"绵阳金杯","c_oem_brand":"金杯","c_o</t>
   </si>
   <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":5375, "result":[{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"1","timer_name":"变速箱冷却器","timer_stand_name":"变速箱冷却器","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"2","timer_name":"变速箱油冷却器出油管","timer_stand_name":"变速箱油冷却器出油管","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"3","timer_name":"变速箱油冷却器进油管","timer_stand_name":"变速箱油冷却器进油管","timer_sub_assembly":"变速器油冷却器及管路","timer_sub_assembly_id":"2","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"5","timer_name":"手动变速箱后盖","timer_stand_name":"手动变速箱后盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"6","timer_name":"手动变速箱前盖","timer_stand_name":"手动变速箱前盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"7","timer_name":"手动变器箱盖密封垫","timer_stand_name":"手动变器箱盖密封垫","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"8","timer_name":"倒档拨叉","timer_stand_name":"倒档拨叉","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"9","timer_name":"手动变速箱壳体","timer_stand_name":"手动变速箱壳体","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"10","timer_name":"飞轮壳","timer_stand_name":"飞轮壳","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"11","timer_name":"手动变速箱总成","timer_stand_name":"手动变速箱总成","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"12","timer_name":"手动变速箱上盖","timer_stand_name":"手动变速箱上盖","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"13","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"14","timer_name":"手动变速箱输出轴","timer_stand_name":"手动变速箱输出轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"15","timer_name":"手动变速箱输入轴","timer_stand_name":"手动变速箱输入轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"16","timer_name":"手动变速箱中间轴","timer_stand_name":"手动变速箱中间轴","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"17","timer_name":"手动变速箱修理包","timer_stand_name":"手动变速箱修理包","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"18","timer_name":"手动变速箱输出轴油封","timer_stand_name":"手动变速箱油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"19","timer_name":"手动变速箱输入轴油封","timer_stand_name":"手动变速箱油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"20","timer_name":"手动变速箱差速器","timer_stand_name":"手动变速箱差速器","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"21","timer_name":"手动变速箱差速器油封","timer_stand_name":"手动变速箱差速器油封","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"22","timer_name":"手动变速箱倒档开关","timer_stand_name":"倒档开关","timer_sub_assembly":"手动变速箱","timer_sub_assembly_id":"1","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"24","timer_name":"双离合变速箱前壳体油封","timer_stand_name":"双离合变速箱前壳体油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"25","timer_name":"双离合变速箱油泵","timer_stand_name":"双离合变速箱油泵","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"26","timer_name":"双离合变速箱油泵齿轮","timer_stand_name":"双离合变速箱油泵齿轮","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"27","timer_name":"双离合变速箱油泵盖","timer_stand_name":"双离合变速箱油泵盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"28","timer_name":"双离合变速箱输出轴","timer_stand_name":"双离合变速箱输出轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"29","timer_name":"双离合变速箱输入轴","timer_stand_name":"双离合变速箱输入轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"31","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"32","timer_name":"双离合变速箱电磁阀","timer_stand_name":"双离合变速箱电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"33","timer_name":"双离合变速箱油标尺","timer_stand_name":"双离合变速箱油标尺","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"34","timer_name":"双离合变速箱油标尺管","timer_stand_name":"双离合变速箱油标尺管","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"35","timer_name":"双离合变速箱壳体","timer_stand_name":"双离合变速箱壳体","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"36","timer_name":"双离合变速箱修理包","timer_stand_name":"双离合变速箱修理包","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"37","timer_name":"双离合变速箱油底壳","timer_stand_name":"双离合变速箱油底壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"38","timer_name":"双离合变速箱总成","timer_stand_name":"双离合变速箱总成","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"39","timer_name":"双离合变速箱后盖","timer_stand_name":"双离合变速箱后盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"40","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"41","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"42","timer_name":"双离合变速箱过滤网","timer_stand_name":"双离合变速箱过滤网","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"43","timer_name":"双离合变速箱单电磁阀","timer_stand_name":"双离合变速箱单电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"44","timer_name":"双离合变速箱壳体密封垫","timer_stand_name":"双离合变速箱壳体密封垫","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"45","timer_name":"双离合变速箱前盖","timer_stand_name":"双离合变速箱前盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"46","timer_name":"双离合变速箱双电磁阀","timer_stand_name":"双离合变速箱双电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"47","timer_name":"双离合变速箱油滤清器","timer_stand_name":"双离合变速箱油滤清器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"48","timer_name":"双离合变速箱中壳","timer_stand_name":"双离合变速箱中壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"51","timer_name":"双离合变器箱盖密封垫","timer_stand_name":"双离合变器箱盖密封垫","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"54","timer_name":"双离合变速箱上盖","timer_stand_name":"双离合变速箱上盖","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"55","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"58","timer_name":"双离合变速箱中间轴","timer_stand_name":"双离合变速箱中间轴","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"60","timer_name":"双离合变速箱输出轴油封","timer_stand_name":"双离合变速箱油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"61","timer_name":"双离合变速箱输入轴油封","timer_stand_name":"双离合变速箱油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"62","timer_name":"双离合变速箱差速器","timer_stand_name":"双离合变速箱差速器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"63","timer_name":"双离合变速箱差速器油封","timer_stand_name":"双离合变速箱差速器油封","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"64","timer_name":"双离合变速箱多电磁阀","timer_stand_name":"双离合变速箱多电磁阀","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"67","timer_name":"干式双离合器","timer_stand_name":"干式双离合器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"68","timer_name":"湿式双离合器","timer_stand_name":"湿式双离合器","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"69","timer_name":"双离合变速箱通气软管","timer_stand_name":"双离合变速箱通气软管","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"70","timer_name":"双离合变速箱油底壳排油螺栓","timer_stand_name":"双离合变速箱油底壳排油螺栓","timer_sub_assembly":"双离合变速箱","timer_sub_assembly_id":"3","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"71","timer_name":"液力变矩器壳","timer_stand_name":"液力变矩器壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"72","timer_name":"CVT变速箱前壳体油封","timer_stand_name":"CVT变速箱前壳体油封","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"73","timer_name":"CVT变速箱油泵","timer_stand_name":"CVT变速箱油泵","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"74","timer_name":"液力变矩器","timer_stand_name":"液力变矩器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"75","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"76","timer_name":"CVT变速箱电磁阀","timer_stand_name":"CVT变速箱电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"77","timer_name":"CVT变速箱油标尺","timer_stand_name":"CVT变速箱油标尺","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"78","timer_name":"CVT变速箱油标尺管","timer_stand_name":"CVT变速箱油标尺管","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"79","timer_name":"CVT变速箱壳体","timer_stand_name":"CVT变速箱壳体","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"80","timer_name":"CVT变速箱修理包","timer_stand_name":"CVT变速箱修理包","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"81","timer_name":"CVT变速箱油底壳","timer_stand_name":"CVT变速箱油底壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"82","timer_name":"CVT变速箱总成","timer_stand_name":"CVT变速箱总成","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"83","timer_name":"CVT变速箱后盖","timer_stand_name":"CVT变速箱后盖","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"84","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"85","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"86","timer_name":"CVT变速箱过滤网","timer_stand_name":"CVT变速箱过滤网","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"87","timer_name":"CVT变速箱单电磁阀","timer_stand_name":"CVT变速箱单电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"88","timer_name":"CVT变速箱壳体密封垫","timer_stand_name":"CVT变速箱壳体密封垫","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"89","timer_name":"CVT变速箱前盖","timer_stand_name":"CVT变速箱前盖","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"90","timer_name":"CVT变速箱双电磁阀","timer_stand_name":"CVT变速箱双电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"91","timer_name":"CVT变速箱油滤清器","timer_stand_name":"CVT变速箱油滤清器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"92","timer_name":"CVT变速箱中壳","timer_stand_name":"CVT变速箱中壳","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"93","timer_name":"CVT变速箱差速器","timer_stand_name":"CVT变速箱差速器","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"94","timer_name":"CVT变速箱差速器油封","timer_stand_name":"CVT变速箱差速器油封","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"95","timer_name":"CVT变速箱多电磁阀","timer_stand_name":"CVT变速箱多电磁阀","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"96","timer_name":"CVT变速箱链条","timer_stand_name":"CVT变速箱链条","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"97","timer_name":"CVT变速箱主动波轮","timer_stand_name":"CVT变速箱主动波轮","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"98","timer_name":"CVT变速箱从动波轮","timer_stand_name":"CVT变速箱从动波轮","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"99","timer_name":"CVT变速箱通气软管","timer_stand_name":"CVT变速箱通气软管","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"100","timer_name":"CVT变速箱油底壳排油螺栓","timer_stand_name":"CVT变速箱油底壳排油螺栓","timer_sub_assembly":"无级变速箱（CVT）","timer_sub_assembly_id":"4","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"101","timer_name":"液力变矩器壳","timer_stand_name":"液力变矩器壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"102","timer_name":"自动变速箱前壳体油封","timer_stand_name":"自动变速箱前壳体油封","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"103","timer_name":"自动变速箱油泵","timer_stand_name":"自动变速箱油泵","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"104","timer_name":"自动变速箱油泵齿轮","timer_stand_name":"自动变速箱油泵齿轮","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"105","timer_name":"自动变速箱油泵盖","timer_stand_name":"自动变速箱油泵盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"106","timer_name":"自动变速箱输出轴","timer_stand_name":"自动变速箱输出轴","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"107","timer_name":"自动变速箱输入轴","timer_stand_name":"自动变速箱输入轴","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"108","timer_name":"液力变矩器","timer_stand_name":"液力变矩器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"109","timer_name":"滑阀箱油路板","timer_stand_name":"滑阀箱油路板","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"110","timer_name":"自动变速箱电磁阀","timer_stand_name":"自动变速箱电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"111","timer_name":"自动变速箱油标尺","timer_stand_name":"自动变速箱油标尺","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"112","timer_name":"自动变速箱油标尺管","timer_stand_name":"自动变速箱油标尺管","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"113","timer_name":"自动变速箱壳体","timer_stand_name":"自动变速箱壳体","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"114","timer_name":"自动变速箱修理包","timer_stand_name":"自动变速箱修理包","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"115","timer_name":"自动变速箱油底壳","timer_stand_name":"自动变速箱油底壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"116","timer_name":"自动变速箱总成","timer_stand_name":"自动变速箱总成","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"117","timer_name":"自动变速箱后盖","timer_stand_name":"自动变速箱后盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"118","timer_name":"滑阀箱","timer_stand_name":"滑阀箱","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"119","timer_name":"滑阀箱隔板","timer_stand_name":"滑阀箱隔板","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"120","timer_name":"自动变速箱过滤网","timer_stand_name":"自动变速箱过滤网","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"121","timer_name":"自动变速箱单电磁阀","timer_stand_name":"自动变速箱单电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"122","timer_name":"自动变速箱壳体密封垫","timer_stand_name":"自动变速箱壳体密封垫","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"123","timer_name":"自动变速箱前盖","timer_stand_name":"自动变速箱前盖","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"124","timer_name":"自动变速箱双电磁阀","timer_stand_name":"自动变速箱双电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"125","timer_name":"自动变速箱油滤清器","timer_stand_name":"自动变速箱油滤清器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"126","timer_name":"自动变速箱中壳","timer_stand_name":"自动变速箱中壳","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"127","timer_name":"自动变速箱通气软管","timer_stand_name":"自动变速箱通气软管","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"128","timer_name":"自动变速箱油底壳排油螺栓","timer_stand_name":"自动变速箱油底壳排油螺栓","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"129","timer_name":"自动变速箱差速器","timer_stand_name":"自动变速箱差速器","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"130","timer_name":"自动变速箱差速器油封","timer_stand_name":"自动变速箱差速器油封","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"131","timer_name":"自动变速箱多电磁阀","timer_stand_name":"自动变速箱多电磁阀","timer_sub_assembly":"自动变速箱","timer_sub_assembly_id":"5","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"132","timer_name":"AMT变速箱后盖","timer_stand_name":"AMT变速箱后盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"133","timer_name":"AMT变速箱前盖","timer_stand_name":"AMT变速箱前盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"134","timer_name":"AMT变器箱盖密封垫","timer_stand_name":"AMT变器箱盖密封垫","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"135","timer_name":"AMT变速箱壳体","timer_stand_name":"AMT变速箱壳体","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"136","timer_name":"AMT变速箱总成","timer_stand_name":"AMT变速箱总成","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"137","timer_name":"AMT变速箱上盖","timer_stand_name":"AMT变速箱上盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"138","timer_name":"离合器壳","timer_stand_name":"离合器壳","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"139","timer_name":"AMT变速箱输出轴","timer_stand_name":"AMT变速箱输出轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"140","timer_name":"AMT变速箱输入轴","timer_stand_name":"AMT变速箱输入轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"141","timer_name":"AMT变速箱中间轴","timer_stand_name":"AMT变速箱中间轴","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"142","timer_name":"AMT变速箱修理包","timer_stand_name":"AMT变速箱修理包","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"143","timer_name":"AMT变速箱输出轴油封","timer_stand_name":"AMT变速箱油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"144","timer_name":"AMT变速箱输入轴油封","timer_stand_name":"AMT变速箱油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"145","timer_name":"AMT变速箱差速器","timer_stand_name":"AMT变速箱差速器","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"146","timer_name":"AMT变速箱差速器油封","timer_stand_name":"AMT变速箱差速器油封","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"147","timer_name":"AMT变速箱换档执行器","timer_stand_name":"AMT变速箱换档执行器","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"148","timer_name":"AMT变速箱换档执行器储油罐","timer_stand_name":"AMT变速箱换档执行器储油罐","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"149","timer_name":"AMT变速箱换档执行器储油罐盖","timer_stand_name":"AMT变速箱换档执行器储油罐盖","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"150","timer_name":"AMT变速箱通气软管","timer_stand_name":"AMT变速箱通气软管","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"变速箱","timer_assembly_id":"1","timer_id":"151","timer_name":"AMT变速箱油底壳排油螺栓","timer_stand_name":"AMT变速箱油底壳排油螺栓","timer_sub_assembly":"自动机械式变速箱（AMT）","timer_sub_assembly_id":"6","timer_type":"变速机构"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"152","timer_name":"安全气囊警示标签","timer_stand_name":"安全气囊警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"153","timer_name":"乘客安全气囊警示标签","timer_stand_name":"乘客安全气囊警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"154","timer_name":"儿童保护装置警示标签","timer_stand_name":"儿童保护装置警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"155","timer_name":"防盗标签","timer_stand_name":"防盗标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"156","timer_name":"防冻液指示标签","timer_stand_name":"防冻液指示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"157","timer_name":"空调检修警示标签","timer_stand_name":"空调检修警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"158","timer_name":"空气滤清器提示标签","timer_stand_name":"空气滤清器提示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"159","timer_name":"冷却风扇警示标签","timer_stand_name":"冷却风扇警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"160","timer_name":"轮胎气压标签","timer_stand_name":"轮胎气压标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"161","timer_name":"燃油提示标签","timer_stand_name":"燃油提示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"标签","timer_assembly_id":"2","timer_id":"162","timer_name":"散热器检修警示标签","timer_stand_name":"散热器检修警示标签","timer_sub_assembly":"标签","timer_sub_assembly_id":"8","timer_type":"其它"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"163","timer_name":"中央扶手箱点烟器芯","timer_stand_name":"点烟器芯","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"164","timer_name":"中央扶手箱点烟器座","timer_stand_name":"点烟器座","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"165","timer_name":"中央操纵台","timer_stand_name":"中央操纵台","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"166","timer_name":"中央扶手箱总成","timer_stand_name":"中央扶手箱总成","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"167","timer_name":"中央扶手箱支架","timer_stand_name":"中央扶手箱支架","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"168","timer_name":"中央扶手箱后盖板","timer_stand_name":"中央扶手箱后盖板","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"169","timer_name":"中央扶手箱杯托","timer_stand_name":"中央扶手箱杯托","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"170","timer_name":"中央扶手箱烟灰缸","timer_stand_name":"中央扶手箱烟灰缸","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"171","timer_name":"中央扶手箱扶手","timer_stand_name":"中央扶手箱扶手","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"172","timer_name":"中央扶手箱下部总成","timer_stand_name":"中央扶手箱下部总成","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"173","timer_name":"中央扶手箱盖板","timer_stand_name":"中央扶手箱盖板","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"174","timer_name":"中央扶手箱前点烟器座","timer_stand_name":"点烟器座","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"175","timer_name":"中央扶手箱下壳体","timer_stand_name":"中央扶手箱下壳体","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"176","timer_name":"中央操纵台扶手","timer_stand_name":"中央操纵台扶手","timer_sub_assembly":"中央扶手箱","timer_sub_assembly_id":"9","timer_type":"车身内部结构"},{"timer_assembly":"操纵台","timer_assembly_id":"3","timer_id":"177","timer_name":"中央扶手</t>
-  </si>
-  <si>
-    <t>{"desc":"查询成功！", "statusCode":1, "size":285, "result":[{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴减速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"冷却剂软管 用于带附加加热器 的车","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D - MJ 2011&gt;&gt; ==============================","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠骨架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门锁 车内操纵机构","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"起动机及零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"制动和离合器 踏板机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素大灯","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱 油底壳","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"进气装置 真空设备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于仪表板 照明","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"机油泵 机油滤清器 机油尺 油冷却器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"用于声音系统的 电子零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"散热器风扇 散热器风扇 控制单元 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"储物网 行李网","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"玻璃滑动天窗/外翻式天窗","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"电话 的电子部件 麦克风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"端板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机油泵 传感器模块 单个部件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雨刮器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车辆室内照明 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后座 用于后座椅及 靠背分开的车","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"轮罩内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"废气涡轮增压器 排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"凸轮轴,阀门","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"保险杠线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门 车门密封条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"交流发电机的连接和紧固件 . 多楔皮带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 滑轨","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"弹性装置 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 扰流板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴壳体 法兰轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"接口，用于外部 音频源 CD换碟机 显示和操作单元 用于带收音机的车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向柱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"传动轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"转向柱组合开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"主减速器 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带饰板 的换挡杆头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"可调节靠背和腰部支撑的 线束 线束，用于 多媒体装备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D &gt;&gt; - MJ 2012","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱毡垫 锁架盖板 行李箱饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"子午线轮胎","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地毯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机和变速器上的 开关和传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"活塞","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"6档手动变速箱，带 分动箱和 中间差速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖 汽缸盖罩盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素前雾灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"电子控制空调器 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"散热器 补偿罐","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"油门踏板，带电子装置 模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"遮阳卷帘","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"单个部件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车身前部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"真空泵","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"安全气囊单元 (副驾驶员位置)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 7档复式离合器变速器 *防盗驶离装置的电气部件 *只有根据车底盘号码在签 *约工厂即时内装才可订货 . . .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"驾驶员舱和货舱 之间的网状隔板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 弯道灯 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门电线束 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"横摆臂 车轮轴承壳体","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"导轨 盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车窗升降器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车载电网电源模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"离合器 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车外后视镜","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"铝合金轮辋 车轮装饰罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防抱死系统(ABS) 电子稳定程序 -ESP-","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火起动开关 电子转向柱锁 控制单元 进入及起动许可 控制单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口 脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门内饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"变速箱壳体 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门盖板里的开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板隔热装置 连接支撑件，用于 底板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"油箱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 配气机构盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车顶线束 线束，用于驻车 暖风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D &gt;&gt; - MJ 2010","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于电控 机械式转向助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"增压空气冷却器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 接口，用于外部 音频源 电线束 单个部件 适配接头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"显示和操作单元 用于多媒体接口'MMI'","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"弹性装置 稳定杆 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"带折叠轮胎（应急车轮）的 铝合金轮辋","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"清洗刮水装置用于 后尾窗玻璃","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"串联式制动主缸 补偿罐 制动液","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁 A柱内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"燃油输送单元和 燃油存量显示 传感器 燃油泵 控制单元 引流泵 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"主动式转向系 控制单元 特种汽车控制单元 用于配备 特殊内装和/或改装件的车辆","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雷达传感器 用于带速度调节装置 及自动间隔调整器的 车型","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"马达线束 喷油阀 线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"三角皮带一览表","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 安全带报警系统","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围板裁切件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"内室线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束 喷油阀 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧面安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"驱动轴 齿轮与轴 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"数据总线 诊断接口（网关）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"油底壳","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背垫 靠背面罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"组合仪表 无线电时钟接收器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"头部安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于自动变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"座椅底架（可电动 调节）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板横梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 踏板","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"随车工具","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"油罐及连接件, 软管 . D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯清洗装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"支撑臂 车轮轴承壳体 稳定杆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"副车架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座 ----","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"导航系统用的电气零件 . 光缆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向器 用于带电动/机械转向 系统的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油箱及 安装件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背调节装置 的电子部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元壳体 发动机控制单元 发动机转速传感器 爆震传感器 氧传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门玻璃,侧围玻璃, 风挡玻璃,后风挡玻璃, 翼子板,车门和侧围件 用饰条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱盖板 封盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 变矩器 油底壳 ----8HP55A----","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带可电动调节装置 的空调 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"冷却液循环 驻车暖风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 油底壳 用于七档复式离合器变速器 . ---DL-501-7Q-","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 座椅通风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油管路 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"烟灰缸","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管 用于装有起动-停车-运行设备的 车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"通风格栅","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火线圈 火花塞 脉冲传感器 凸轮轴","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"方向盘安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"中间扶手","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯 D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"尾灯 制动信号灯 牌照灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"变压器 ==============================","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"牌照支架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"锁芯 钥匙","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"差速器 动力总成 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池正极线束 线束，用于起动机和 三相交流发电机， 带接地线 跨接起动接口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器 水连接套管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"中部消音器及 后消音器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座 用于带可折迭靠背的车型 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"防抱死系统(ABS)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防盗报警装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"摆动半轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件 占用识别 用于座椅","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶行李架基架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动管 制动软管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点烟器 插座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"手机预装备电气零件 . 用于带CAN-BUS的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"Climatronic自动空 调操作与显示 单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门把手，外部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板 仪表盘装配件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带 ***** 注意危险品 ****** 注意修理手册","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"自安装用线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"排气歧管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"带连接件的 空气滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"仪表板线束","sub_assemb</t>
-  </si>
-  <si>
-    <t>2017-09-14 14:11:10</t>
-  </si>
-  <si>
-    <t>2017-09-14 14:12:00</t>
-  </si>
-  <si>
-    <t>2017-09-14 14:16:49</t>
-  </si>
-  <si>
-    <t>2017-09-14 14:16:50</t>
+    <t>{"desc":"查询成功！", "statusCode":1, "size":285, "result":[{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 车门饰板 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件 占用识别 用于座椅","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"燃油输送单元和 燃油存量显示 传感器 燃油泵 控制单元 引流泵 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"Climatronic自动空 调操作与显示 单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D &gt;&gt; - MJ 2012","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点烟器 插座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座 用于带可折迭靠背的车型 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"横摆臂 车轮轴承壳体","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"变压器 ==============================","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器 水连接套管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"标志牌","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火线圈 火花塞 霍尔传感器 预热塞","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"储物网 行李网","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"冷却液循环 驻车暖风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"带连接件的 空气滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带饰板 的换挡杆头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后座 用于后座椅及 靠背分开的车","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管 用于装有起动-停车-运行设备的 车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"进气装置 真空设备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板隔热装置 连接支撑件，用于 底板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"散热器 补偿罐","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"座椅底架","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖 汽缸盖罩盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"弹性装置 稳定杆 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"仪表板线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向器 用于带电动/机械转向 系统的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 汽车收音机 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"隔音件 摆动半轴盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束 喷油阀 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 扰流板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"驾驶员舱和货舱 之间的网状隔板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"脚踏板机构上开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"牌照支架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素大灯","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素前雾灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防抱死系统(ABS) 电子稳定程序 -ESP-","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火线圈 火花塞 脉冲传感器 凸轮轴","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"烟灰缸","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"副车架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"散热器格栅 标记字样","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火起动开关 电子转向柱锁 控制单元 进入及起动许可 控制单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"数据总线 诊断接口（网关）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"油底壳","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"玻璃板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于仪表板 照明","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"挡风玻璃 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"显示和操作单元 用于多媒体接口'MMI'","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车窗导轨 车窗密封条 B柱挡板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"头部安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机舱盖板 气缸体排气","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"天线 天线放大器 固定件，用于 天线放大器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"制动和离合器 踏板机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧面安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"驱动轴 齿轮与轴 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"弹性装置 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"通风格栅","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"带尾气催化净化器的排气管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门把手，外部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"防抱死系统(ABS)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背垫 靠背面罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围板裁切件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带护套的头枕 扶手","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统及 倒车摄像头系统","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶饰板 车顶加强件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"废气涡轮增压器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"串联式制动主缸 补偿罐 制动液","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"电子控制减震系统 控制单元","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"活性碳过滤装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"汽车喇叭","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 座椅通风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"机油泵 机油滤清器 机油尺 油冷却器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车辆室内照明 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门电线束 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"摆动半轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雨刮器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"手机预装备电气零件 . 用于多媒体接口'MMI'","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"转向信号灯 车外后视镜 换道辅助系统的 报警指示","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"急救包 警告三角标志","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅底架线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱盖板 封盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后窗玻璃 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"子午线轮胎","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"冷却剂软管 用于带附加加热器 的车","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门锁 车内操纵机构","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"闷盖 车身","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"座垫 靠背垫 座椅和靠背套","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板装饰条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"短发动机 部分发动机","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"安全气囊单元 (副驾驶员位置)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"铝合金轮辋 车轮装饰罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"可调节靠背和腰部支撑的 线束 线束，用于 多媒体装备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"尾灯 制动信号灯 牌照灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴壳体 法兰轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D - MJ 2011&gt;&gt; ==============================","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向柱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"交流发电机的连接和紧固件 . 多楔皮带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"轮罩内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于电控 机械式转向助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 接口，用于外部 音频源 电线束 单个部件 适配接头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"从动轴 齿轮与轴 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"继电器基座和继电器 电位分布器 排水槽 ----","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车顶线束 线束，用于驻车 暖风","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"机油滤清器 机油泵 油冷却器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 CD换碟机","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"离合器 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 油底壳 用于七档复式离合器变速器 . ---DL-501-7Q-","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"中间扶手","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"多盘离合器，用于 双离合器变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脱水器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 弯道灯 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D &gt;&gt; - MJ 2010","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门 车门密封条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠骨架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"6档手动变速箱，带 分动箱和 中间差速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"变速箱壳体 6档手动变速箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"燃油泵 燃油分配器 喷射阀","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"立柱饰护板 ----","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"主动式转向系 控制单元 特种汽车控制单元 用于配备 特殊内装和/或改装件的车辆","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯 D - MJ 2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 踏板","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 7档复式离合器变速器 *防盗驶离装置的电气部件 *只有根据车底盘号码在签 *约工厂即时内装才可订货 . . .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"中控台","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"曲轴 连杆 支座 ----","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"组合仪表 无线电时钟接收器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"发动机罩减震装置 消音手段","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"自安装用线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机和变速器上的 开关和传感器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁 A柱内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯照明距离调节装置 ==============================","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 滑轨","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"导航系统用的电气零件 . 光缆","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车身前部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"单个部件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"内室线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"玻璃滑动天窗/外翻式天窗","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"纵梁","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯清洗装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"交流发电机 及零件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地毯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"随车工具","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机油泵 传感器模块 单个部件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背调节装置 的电子部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"前舱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"气枕用电气件 注意支持向量机分类器-密码","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门-与侧围窗玻璃 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板 仪表盘装配件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"机械电子单元及软件 变矩器 油底壳 ----8HP55A----","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"进气管盖板 排气装置，用于气缸盖 罩","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"增压空气冷却器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"油罐及连接件, 软管 . D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"叶片泵 用于动力转向系统","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"差速器 动力总成 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"电磁阀 用于带附加加热器 的车","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车窗升降器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 弯道灯 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"空气导管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"保险杠线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"正时链 配气机构盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"制动踏板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"气缸体曲轴箱","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"方向盘安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"摆动半轴 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油管路 用于带附加加热器 的车","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶行李架基架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"车轮螺栓 阀门 平衡重","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"油门踏板，带电子装置 模块","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"燃油管路 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 安全带报警系统","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"导轨 盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴减速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"排气歧管","sub_assembly_enable</t>
+  </si>
+  <si>
+    <t>2017-09-15 02:19:47</t>
+  </si>
+  <si>
+    <t>2017-09-15 02:19:56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +579,11 @@
       <color indexed="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -621,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,6 +630,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -646,6 +641,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -694,7 +692,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,9 +725,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,6 +777,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -937,22 +969,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.75" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="76.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.25" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.625" collapsed="true"/>
+    <col min="2" max="2" width="17.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="76.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -998,10 +1030,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -1021,7 +1053,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -1044,7 +1076,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -1067,7 +1099,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -1090,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -1104,7 +1136,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1113,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -1127,7 +1159,7 @@
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -1136,7 +1168,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -1150,22 +1182,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -1173,30 +1205,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1205,33 +1237,33 @@
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
@@ -1242,19 +1274,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
@@ -1265,19 +1297,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
@@ -1288,42 +1320,42 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
@@ -1334,19 +1366,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
@@ -1357,19 +1389,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
@@ -1380,152 +1412,132 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" t="s">
         <v>96</v>
       </c>
-      <c r="H22" t="s">
-        <v>114</v>
-      </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
-    <hyperlink ref="D7" r:id="rId7"/>
-    <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="D9" r:id="rId9"/>
-    <hyperlink ref="D10" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D22" r:id="rId12"/>
-    <hyperlink ref="D13" r:id="rId13"/>
-    <hyperlink ref="D23" r:id="rId14"/>
-    <hyperlink ref="D14" r:id="rId15"/>
-    <hyperlink ref="D15" r:id="rId16"/>
-    <hyperlink ref="D21" r:id="rId17"/>
-    <hyperlink ref="D16" r:id="rId18"/>
-    <hyperlink ref="D17" r:id="rId19"/>
-    <hyperlink ref="D18" r:id="rId20"/>
-    <hyperlink ref="D19" r:id="rId21"/>
-    <hyperlink ref="D20" r:id="rId22"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3:D23" r:id="rId2" display="http://api.superepc.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1534,11 +1546,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="183.375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.625" collapsed="true"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="183.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1549,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1563,7 +1575,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1574,10 +1586,10 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1591,7 +1603,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1605,7 +1617,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1619,7 +1631,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -1627,7 +1639,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1641,13 +1653,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1655,13 +1667,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -1669,13 +1681,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1683,13 +1695,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -1697,134 +1709,134 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
         <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1835,8 +1847,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
@@ -1855,6 +1867,226 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1863,7 +2095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1890,11 +2122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1913,36 +2145,308 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
       <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="n">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
         <v>134</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s">
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
         <v>136</v>
       </c>
-      <c r="C5" t="s">
-        <v>146</v>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/api-test.xlsx
+++ b/src/test/resources/api-test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -526,16 +526,16 @@
     <t>{"desc":"查询成功！", "statusCode":1, "size":285, "result":[{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 车门饰板 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅和靠背 加热元件 占用识别 用于座椅","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"燃油输送单元和 燃油存量显示 传感器 燃油泵 控制单元 引流泵 燃油滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"Climatronic自动空 调操作与显示 单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"单个部件 内室线束 领域: D &gt;&gt; - MJ 2012","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点烟器 插座","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背底座 用于带可折迭靠背的车型 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"横摆臂 车轮轴承壳体","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"变压器 ==============================","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"油压管路，用于变速箱 机油冷却 用于七档复式离合器变速器 .","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却液泵 节温器 水连接套管","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"标志牌","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火线圈 火花塞 霍尔传感器 预热塞","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"储物网 行李网","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"冷却液循环 驻车暖风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"带连接件的 空气滤清器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带饰板 的换挡杆头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后座 用于后座椅及 靠背分开的车","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器 真空软管 用于装有起动-停车-运行设备的 车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车内照明灯和阅读灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却 用于机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"进气装置 真空设备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"底板隔热装置 连接支撑件，用于 底板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"散热器 补偿罐","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"座椅底架","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"汽缸盖 汽缸盖罩盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"弹性装置 稳定杆 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"仪表板线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"蓄电池","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向器 用于带电动/机械转向 系统的车型","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 汽车收音机 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"隔音件 摆动半轴盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束 喷油阀 线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠 扰流板 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"驾驶员舱和货舱 之间的网状隔板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"脚踏板机构上开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"牌照支架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"空调压缩机 压缩机的 连接紧固件 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素大灯","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"卤素前雾灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"防抱死系统(ABS) 电子稳定程序 -ESP-","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后舱盖饰板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火线圈 火花塞 脉冲传感器 凸轮轴","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"烟灰缸","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"副车架 变速箱固定件 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"副车架","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"散热器格栅 标记字样","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"点火起动开关 电子转向柱锁 控制单元 进入及起动许可 控制单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"数据总线 诊断接口（网关）","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"油底壳","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"玻璃板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于仪表板 照明","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"挡风玻璃 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"显示和操作单元 用于多媒体接口'MMI'","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车窗导轨 车窗密封条 B柱挡板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"头部安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机舱盖板 气缸体排气","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"天线 天线放大器 固定件，用于 天线放大器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"三点式安全带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"制动和离合器 踏板机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧面安全气囊单元","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"驱动轴 齿轮与轴 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"弹性装置 减震器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"通风格栅","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"带尾气催化净化器的排气管","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"控制单元，用于 换道辅助系统 控制单元，用于车道保持 辅助系统，带摄像机 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门把手，外部","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"防抱死系统(ABS)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"靠背垫 靠背面罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"侧围板裁切件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"带护套的头枕 扶手","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统及 倒车摄像头系统","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"地板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"方向盘 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车顶饰板 车顶加强件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"废气涡轮增压器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"冷却剂冷却","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"串联式制动主缸 补偿罐 制动液","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"电子控制减震系统 控制单元","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"活性碳过滤装置","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"汽车喇叭","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于 座椅通风","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"机油泵 机油滤清器 机油尺 油冷却器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车辆室内照明 .","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"车门电线束 单个部件","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"摆动半轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"雨刮器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"手机预装备电气零件 . 用于多媒体接口'MMI'","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"大灯，用于 气体放电灯泡 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"发动机固定件 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"转向信号灯 车外后视镜 换道辅助系统的 报警指示","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"急救包 警告三角标志","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"座椅底架线束","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"行李箱盖板 封盖","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"后窗玻璃 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"子午线轮胎","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"开关","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"燃油,排气,空调冷却","assembly_enable":"1","sub_assembly":"冷却剂软管 用于带附加加热器 的车","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"脚坑暖风通道, 空气软管及出风口","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"保险杠盖板 D &gt;&gt; - 04.03.2013","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"泊车辅助系统 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"车门锁 车内操纵机构","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"闷盖 车身","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"制动助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"座垫 靠背垫 座椅和靠背套","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"仪表板装饰条","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"发动机","assembly_enable":"1","sub_assembly":"短发动机 部分发动机","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"用于暖气的 冷却剂软管 D - 04.03.2013&gt;&gt;","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"安全气囊单元 (副驾驶员位置)","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"用于发动机和 变速器的固定件 用于8档自动变速器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车轮,制动器","assembly_enable":"1","sub_assembly":"铝合金轮辋 车轮装饰罩","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"可调节靠背和腰部支撑的 线束 线束，用于 多媒体装备","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"尾灯 制动信号灯 牌照灯","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"发动机机舱线束","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"后轴","assembly_enable":"1","sub_assembly":"后轴壳体 法兰轴","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"中间差速器， 自锁式 用于七档复式离合器变速器 . D - MJ 2011&gt;&gt; ==============================","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"翼子板盖板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"前轴,转向装置","assembly_enable":"1","sub_assembly":"转向柱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"交流发电机的连接和紧固件 . 多楔皮带","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"整个变速箱 8档自动变速箱","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"踏板机构","assembly_enable":"1","sub_assembly":"换档操纵机构","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"车身","assembly_enable":"1","sub_assembly":"轮罩内板","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"线束，用于电控 机械式转向助力器","sub_assembly_enable":"1","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"附件,信息娱乐","assembly_enable":"1","sub_assembly":"原附件 接口，用于外部 音频源 电线束 单个部件 适配接头","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"变速箱","assembly_enable":"1","sub_assembly":"从动轴 齿轮与轴 用于6档机械变速器","sub_assembly_enable":"0","timer_assembly_id":"","timer_sub_assembly_id":""},{"assembly":"电子设备","assembly_enable":"1","sub_assembly":"继电器基座和继电器 电位分布器 排水槽 ----",